--- a/Resultados/Resultados.xlsx
+++ b/Resultados/Resultados.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="UR0.29" sheetId="1" state="visible" r:id="rId2"/>
@@ -191,7 +191,7 @@
     <numFmt numFmtId="171" formatCode="0"/>
     <numFmt numFmtId="172" formatCode="General"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -294,15 +294,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Ubuntu"/>
@@ -310,6 +301,7 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Ubuntu"/>
@@ -334,6 +326,29 @@
       <color rgb="FF595959"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -526,7 +541,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -539,6 +554,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -559,188 +578,196 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -811,7 +838,7 @@
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFFF420E"/>
       <rgbColor rgb="FF595959"/>
       <rgbColor rgb="FFB3B3B3"/>
       <rgbColor rgb="FF004586"/>
@@ -827,7 +854,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -936,18 +963,18 @@
                   <c:v>0.999985813952964</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.791564941081361</c:v>
+                  <c:v>0.791564941081362</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="25338659"/>
-        <c:axId val="13643368"/>
+        <c:axId val="75065980"/>
+        <c:axId val="26042041"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="25338659"/>
+        <c:axId val="75065980"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.8"/>
@@ -1025,13 +1052,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13643368"/>
+        <c:crossAx val="26042041"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="13643368"/>
+        <c:axId val="26042041"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1107,7 +1134,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25338659"/>
+        <c:crossAx val="75065980"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1135,7 +1162,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1251,11 +1278,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="52891019"/>
-        <c:axId val="32171516"/>
+        <c:axId val="95674487"/>
+        <c:axId val="33056164"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="52891019"/>
+        <c:axId val="95674487"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.5"/>
@@ -1332,12 +1359,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="32171516"/>
+        <c:crossAx val="33056164"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="32171516"/>
+        <c:axId val="33056164"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1413,7 +1440,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52891019"/>
+        <c:crossAx val="95674487"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1441,7 +1468,430 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>cdplanilla</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cdplanilla</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'UR0.29'!$E$15:$E$21</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.47</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.63</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'UR0.29'!$O$15:$O$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.297202351395596</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1268</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.1184</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.1812</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.093</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.012637550314478</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0624</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>cdscript</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cdscript</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'UR0.29'!$E$15:$E$21</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.47</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.63</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'UR0.29'!$N$15:$N$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.135</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.121</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.185</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.106</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.011</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.061</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="50554546"/>
+        <c:axId val="7960435"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50554546"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>f+</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1050" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="7960435"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="7960435"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>C_D</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="50554546"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1549,11 +1999,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="93496976"/>
-        <c:axId val="99223937"/>
+        <c:axId val="98492604"/>
+        <c:axId val="1544292"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="93496976"/>
+        <c:axId val="98492604"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1585,7 +2035,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99223937"/>
+        <c:crossAx val="1544292"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1593,7 +2043,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99223937"/>
+        <c:axId val="1544292"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1635,7 +2085,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93496976"/>
+        <c:crossAx val="98492604"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1686,7 +2136,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1794,11 +2244,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="58653633"/>
-        <c:axId val="78916549"/>
+        <c:axId val="98096493"/>
+        <c:axId val="81820374"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="58653633"/>
+        <c:axId val="98096493"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1830,7 +2280,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78916549"/>
+        <c:crossAx val="81820374"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1838,7 +2288,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78916549"/>
+        <c:axId val="81820374"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1880,7 +2330,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58653633"/>
+        <c:crossAx val="98096493"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1931,7 +2381,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2019,11 +2469,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="63486431"/>
-        <c:axId val="69617079"/>
+        <c:axId val="94940091"/>
+        <c:axId val="35704456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="63486431"/>
+        <c:axId val="94940091"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2055,7 +2505,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69617079"/>
+        <c:crossAx val="35704456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2063,7 +2513,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69617079"/>
+        <c:axId val="35704456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2105,7 +2555,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63486431"/>
+        <c:crossAx val="94940091"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2156,7 +2606,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2244,11 +2694,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="37048334"/>
-        <c:axId val="10872888"/>
+        <c:axId val="84957123"/>
+        <c:axId val="45489022"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="37048334"/>
+        <c:axId val="84957123"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2280,7 +2730,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10872888"/>
+        <c:crossAx val="45489022"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2288,7 +2738,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="10872888"/>
+        <c:axId val="45489022"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2330,7 +2780,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37048334"/>
+        <c:crossAx val="84957123"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2392,9 +2842,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>390240</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>122040</xdr:rowOff>
+      <xdr:colOff>388800</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>53640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2402,8 +2852,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4645440" y="3997080"/>
-        <a:ext cx="8750160" cy="3542760"/>
+        <a:off x="4643640" y="3873240"/>
+        <a:ext cx="8744040" cy="3541320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2416,15 +2866,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>232920</xdr:colOff>
+      <xdr:colOff>233280</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>99360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>339840</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>79560</xdr:rowOff>
+      <xdr:colOff>338760</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>17280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2432,12 +2882,42 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="14881680" y="4440600"/>
-        <a:ext cx="6494760" cy="3599640"/>
+        <a:off x="14874120" y="4305600"/>
+        <a:ext cx="6489360" cy="3598200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>281880</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>101880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>94320</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>32760</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="3394440" y="7637760"/>
+        <a:ext cx="7978680" cy="4487760"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2457,18 +2937,18 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>597240</xdr:colOff>
+      <xdr:colOff>595800</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>122400</xdr:rowOff>
+      <xdr:rowOff>120960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1416600" y="1405800"/>
-        <a:ext cx="5753880" cy="3240720"/>
+        <a:off x="1415880" y="1405800"/>
+        <a:ext cx="5748120" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2487,18 +2967,18 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>329760</xdr:colOff>
+      <xdr:colOff>328320</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>122040</xdr:rowOff>
+      <xdr:rowOff>120600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="4" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7301160" y="1405440"/>
-        <a:ext cx="5752440" cy="3240720"/>
+        <a:off x="7296120" y="1405440"/>
+        <a:ext cx="5745240" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2522,18 +3002,18 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>2880</xdr:colOff>
+      <xdr:colOff>1440</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>102960</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 1"/>
+        <xdr:cNvPr id="5" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="852120" y="1386360"/>
-        <a:ext cx="6545880" cy="3240720"/>
+        <a:off x="851400" y="1386360"/>
+        <a:ext cx="6539400" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2552,18 +3032,18 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>90720</xdr:colOff>
+      <xdr:colOff>89280</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>55440</xdr:rowOff>
+      <xdr:rowOff>54000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 2"/>
+        <xdr:cNvPr id="6" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7557840" y="1338840"/>
-        <a:ext cx="6545160" cy="3240720"/>
+        <a:off x="7552080" y="1338840"/>
+        <a:ext cx="6537960" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2583,11 +3063,11 @@
   </sheetPr>
   <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C37" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q64" activeCellId="0" sqref="Q64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="2" style="0" width="10.61"/>
@@ -2599,152 +3079,415 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="16" style="0" width="10.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="14.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="20" style="0" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="10.5"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="n">
         <v>0.035</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4" t="n">
         <v>5E-005</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>5600000000</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>1623</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="5" t="n">
         <f aca="false">B2^3/12</f>
         <v>1.04166666666667E-014</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B7" s="5" t="n">
         <f aca="false">B6*B4</f>
         <v>5.83333333333333E-005</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="n">
+      <c r="B8" s="6" t="n">
         <f aca="false">(1/(2*PI()))*1.875^2*SQRT(B7/(B5*B2*B1^4))</f>
         <v>12.246182350683</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="n">
+      <c r="B9" s="6" t="n">
         <f aca="false">2*PI()*B8</f>
         <v>76.9450330148531</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="n">
+      <c r="B10" s="8" t="n">
         <f aca="false">0.035*SIN(RADIANS(10))*1000</f>
         <v>6.07768621834256</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="9" t="n">
+      <c r="B11" s="10" t="n">
         <f aca="false">B9*B1</f>
         <v>2.69307615551986</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="10" t="n">
+      <c r="B12" s="11" t="n">
         <v>1.51E-005</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="11" t="n">
+      <c r="B13" s="12" t="n">
         <f aca="false">2*(B10/1000)*B3</f>
         <v>0.00194485958986962</v>
       </c>
-      <c r="J13" s="12"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="13" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="13" t="s">
+      <c r="I14" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="13" t="s">
+      <c r="J14" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="K14" s="13" t="s">
+      <c r="K14" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="13" t="s">
+      <c r="L14" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="M14" s="14" t="s">
+      <c r="M14" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="N14" s="15" t="s">
+      <c r="N14" s="14" t="s">
         <v>23</v>
       </c>
       <c r="O14" s="16" t="s">
@@ -2756,10 +3499,10 @@
       <c r="Q14" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="R14" s="8" t="s">
+      <c r="R14" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="S14" s="8" t="s">
+      <c r="S14" s="9" t="s">
         <v>28</v>
       </c>
       <c r="T14" s="18" t="s">
@@ -2773,6 +3516,9 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
       <c r="D15" s="19" t="n">
         <v>8</v>
       </c>
@@ -2812,7 +3558,7 @@
         <v>0.117160216257206</v>
       </c>
       <c r="N15" s="28" t="n">
-        <v>0.293</v>
+        <v>0.3</v>
       </c>
       <c r="O15" s="29" t="n">
         <v>0.297202351395596</v>
@@ -2825,8 +3571,10 @@
         <f aca="false">J15</f>
         <v>1923.84105960265</v>
       </c>
-      <c r="T15" s="12"/>
-      <c r="U15" s="9" t="n">
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="10" t="n">
         <f aca="false">$T$16/D15</f>
         <v>1.41073630446452</v>
       </c>
@@ -2836,7 +3584,10 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D16" s="33" t="n">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="19" t="n">
         <v>10</v>
       </c>
       <c r="E16" s="20" t="n">
@@ -2870,9 +3621,9 @@
         <v>0.146450270321508</v>
       </c>
       <c r="N16" s="28" t="n">
-        <v>0.168</v>
-      </c>
-      <c r="O16" s="34" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="O16" s="33" t="n">
         <v>0.1268</v>
       </c>
       <c r="P16" s="30" t="n">
@@ -2883,19 +3634,19 @@
         <f aca="false">J16</f>
         <v>1923.84105960265</v>
       </c>
-      <c r="R16" s="35" t="n">
+      <c r="R16" s="34" t="n">
         <f aca="false">B3/B1</f>
         <v>4.57142857142857</v>
       </c>
-      <c r="S16" s="36" t="n">
+      <c r="S16" s="35" t="n">
         <f aca="false">(1+0.74273*$R$16+0.14862*$R$16^2)/(1+0.74273*$R$16+0.35004*$R$16^2+0.058364*$R$16^4)</f>
         <v>0.201647874132701</v>
       </c>
-      <c r="T16" s="37" t="n">
+      <c r="T16" s="36" t="n">
         <f aca="false">13.24*(1/SQRT(1+(PI()*1.205*0.16)/(4*1623*0.00005)*S16))</f>
         <v>11.2858904357161</v>
       </c>
-      <c r="U16" s="9" t="n">
+      <c r="U16" s="10" t="n">
         <f aca="false">$T$16/D16</f>
         <v>1.12858904357161</v>
       </c>
@@ -2905,6 +3656,9 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
       <c r="D17" s="28" t="n">
         <v>12</v>
       </c>
@@ -2939,9 +3693,9 @@
         <v>0.175740324385809</v>
       </c>
       <c r="N17" s="28" t="n">
-        <v>-0.09</v>
-      </c>
-      <c r="O17" s="34" t="n">
+        <v>-0.121</v>
+      </c>
+      <c r="O17" s="33" t="n">
         <v>-0.1184</v>
       </c>
       <c r="P17" s="30" t="n">
@@ -2952,10 +3706,10 @@
         <f aca="false">J17</f>
         <v>1923.84105960265</v>
       </c>
-      <c r="R17" s="35"/>
-      <c r="S17" s="36"/>
-      <c r="T17" s="37"/>
-      <c r="U17" s="9" t="n">
+      <c r="R17" s="34"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="10" t="n">
         <f aca="false">$T$16/D17</f>
         <v>0.940490869643012</v>
       </c>
@@ -2965,6 +3719,9 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
       <c r="D18" s="28" t="n">
         <v>14</v>
       </c>
@@ -2999,9 +3756,9 @@
         <v>0.20503037845011</v>
       </c>
       <c r="N18" s="28" t="n">
-        <v>-0.198</v>
-      </c>
-      <c r="O18" s="34" t="n">
+        <v>-0.185</v>
+      </c>
+      <c r="O18" s="33" t="n">
         <v>-0.1812</v>
       </c>
       <c r="P18" s="30" t="n">
@@ -3012,10 +3769,10 @@
         <f aca="false">J18</f>
         <v>1923.84105960265</v>
       </c>
-      <c r="R18" s="35"/>
-      <c r="S18" s="36"/>
-      <c r="T18" s="37"/>
-      <c r="U18" s="9" t="n">
+      <c r="R18" s="34"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="36"/>
+      <c r="U18" s="10" t="n">
         <f aca="false">$T$16/D18</f>
         <v>0.806135031122582</v>
       </c>
@@ -3025,6 +3782,9 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
       <c r="D19" s="28" t="n">
         <v>16</v>
       </c>
@@ -3061,7 +3821,7 @@
       <c r="N19" s="28" t="n">
         <v>-0.106</v>
       </c>
-      <c r="O19" s="34" t="n">
+      <c r="O19" s="29" t="n">
         <v>-0.093</v>
       </c>
       <c r="P19" s="30" t="n">
@@ -3072,10 +3832,10 @@
         <f aca="false">J19</f>
         <v>1923.84105960265</v>
       </c>
-      <c r="R19" s="35"/>
-      <c r="S19" s="36"/>
-      <c r="T19" s="37"/>
-      <c r="U19" s="9" t="n">
+      <c r="R19" s="34"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="10" t="n">
         <f aca="false">$T$16/D19</f>
         <v>0.705368152232259</v>
       </c>
@@ -3085,6 +3845,9 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
       <c r="D20" s="28" t="n">
         <v>18</v>
       </c>
@@ -3118,8 +3881,12 @@
         <f aca="false">2*D20*($B$10/1000)/$F$15</f>
         <v>0.263610486578714</v>
       </c>
-      <c r="N20" s="28"/>
-      <c r="O20" s="34"/>
+      <c r="N20" s="28" t="n">
+        <v>-0.011</v>
+      </c>
+      <c r="O20" s="29" t="n">
+        <v>-0.012637550314478</v>
+      </c>
       <c r="P20" s="30" t="n">
         <f aca="false">2*D20*$B$1*SIN(RADIANS(10))/$F$15</f>
         <v>0.263610486578714</v>
@@ -3128,10 +3895,10 @@
         <f aca="false">J20</f>
         <v>1923.84105960265</v>
       </c>
-      <c r="R20" s="35"/>
-      <c r="S20" s="36"/>
-      <c r="T20" s="37"/>
-      <c r="U20" s="9" t="n">
+      <c r="R20" s="34"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="10" t="n">
         <f aca="false">$T$16/D20</f>
         <v>0.626993913095342</v>
       </c>
@@ -3141,43 +3908,46 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D21" s="38" t="n">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="37" t="n">
         <v>20</v>
       </c>
-      <c r="E21" s="39" t="n">
+      <c r="E21" s="38" t="n">
         <f aca="false">D21/12.27</f>
         <v>1.62999185004075</v>
       </c>
       <c r="F21" s="21"/>
       <c r="G21" s="22"/>
-      <c r="H21" s="40" t="n">
+      <c r="H21" s="39" t="n">
         <f aca="false">AVERAGE(DataAmplitudes!L4:L9)</f>
         <v>4.81088333333333</v>
       </c>
-      <c r="I21" s="41" t="n">
+      <c r="I21" s="40" t="n">
         <f aca="false">H21/$B$10</f>
         <v>0.791564941081362</v>
       </c>
-      <c r="J21" s="42" t="n">
+      <c r="J21" s="41" t="n">
         <f aca="false">$F$15*$B$1/$B$12</f>
         <v>1923.84105960265</v>
       </c>
-      <c r="K21" s="42" t="n">
+      <c r="K21" s="41" t="n">
         <f aca="false">$F$15*2*(H21/1000)/$B$12</f>
         <v>528.878565121413</v>
       </c>
-      <c r="L21" s="43" t="n">
+      <c r="L21" s="42" t="n">
         <f aca="false">D21*2*(H21/1000)/$F$15</f>
         <v>0.231849799196787</v>
       </c>
-      <c r="M21" s="44" t="n">
+      <c r="M21" s="43" t="n">
         <f aca="false">2*D21*($B$10/1000)/$F$15</f>
         <v>0.292900540643015</v>
       </c>
-      <c r="N21" s="38" t="n">
-        <v>0.029</v>
-      </c>
-      <c r="O21" s="45" t="n">
+      <c r="N21" s="37" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="O21" s="44" t="n">
         <v>0.0624</v>
       </c>
       <c r="P21" s="30" t="n">
@@ -3188,10 +3958,10 @@
         <f aca="false">J21</f>
         <v>1923.84105960265</v>
       </c>
-      <c r="R21" s="35"/>
-      <c r="S21" s="36"/>
-      <c r="T21" s="37"/>
-      <c r="U21" s="9" t="n">
+      <c r="R21" s="34"/>
+      <c r="S21" s="35"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="10" t="n">
         <f aca="false">$T$16/D21</f>
         <v>0.564294521785807</v>
       </c>
@@ -3200,16 +3970,58 @@
         <v>0.274907619047619</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="T22" s="46" t="n">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="45" t="n">
         <v>13.24</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="T23" s="0" t="n">
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3" t="n">
         <f aca="false">T16/13.24</f>
         <v>0.852408643180978</v>
       </c>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3235,89 +4047,89 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L17" activeCellId="0" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="1" style="0" width="10.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="47"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="46"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48" t="s">
+      <c r="B2" s="49"/>
+      <c r="C2" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48" t="s">
+      <c r="D2" s="49"/>
+      <c r="E2" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48" t="s">
+      <c r="F2" s="49"/>
+      <c r="G2" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48" t="s">
+      <c r="H2" s="49"/>
+      <c r="I2" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48" t="s">
+      <c r="J2" s="49"/>
+      <c r="K2" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="48"/>
+      <c r="L2" s="49"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="50" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3357,7 +4169,7 @@
       <c r="K4" s="0" t="n">
         <v>1.209</v>
       </c>
-      <c r="L4" s="9" t="n">
+      <c r="L4" s="51" t="n">
         <f aca="false">1000*(0.03-0.0251846)</f>
         <v>4.8154</v>
       </c>
@@ -3399,7 +4211,7 @@
       <c r="K5" s="0" t="n">
         <v>1.234</v>
       </c>
-      <c r="L5" s="9" t="n">
+      <c r="L5" s="51" t="n">
         <v>4.821</v>
       </c>
     </row>
@@ -3439,7 +4251,7 @@
       <c r="K6" s="0" t="n">
         <v>1.259</v>
       </c>
-      <c r="L6" s="9" t="n">
+      <c r="L6" s="51" t="n">
         <f aca="false">1000*(0.03-0.025197)</f>
         <v>4.803</v>
       </c>
@@ -3481,7 +4293,7 @@
       <c r="K7" s="0" t="n">
         <v>1.334</v>
       </c>
-      <c r="L7" s="9" t="n">
+      <c r="L7" s="51" t="n">
         <v>4.8051</v>
       </c>
     </row>
@@ -3508,7 +4320,7 @@
       <c r="K8" s="0" t="n">
         <v>1.359</v>
       </c>
-      <c r="L8" s="9" t="n">
+      <c r="L8" s="51" t="n">
         <f aca="false">1000*(0.03-0.0251891)</f>
         <v>4.8109</v>
       </c>
@@ -3530,7 +4342,7 @@
       <c r="K9" s="0" t="n">
         <v>1.434</v>
       </c>
-      <c r="L9" s="9" t="n">
+      <c r="L9" s="51" t="n">
         <v>4.8099</v>
       </c>
     </row>
@@ -3550,6 +4362,12 @@
       <c r="F11" s="0" t="n">
         <v>10.5855</v>
       </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F22" s="51"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F23" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3577,41 +4395,41 @@
   </sheetPr>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="1" style="0" width="10.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="52" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3619,31 +4437,31 @@
       <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="5" t="n">
         <v>0.04050418523988</v>
       </c>
-      <c r="C2" s="7" t="n">
+      <c r="C2" s="8" t="n">
         <f aca="false">(B2-$B$5)/$B$5*100</f>
         <v>7.4764261684705</v>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="5" t="n">
         <v>0.3124608378971</v>
       </c>
-      <c r="E2" s="50" t="n">
+      <c r="E2" s="53" t="n">
         <f aca="false">(D2-$D$5)/$D$5*100</f>
         <v>7.47233783217189</v>
       </c>
-      <c r="F2" s="4" t="n">
+      <c r="F2" s="5" t="n">
         <v>0.3124608392986</v>
       </c>
-      <c r="G2" s="7" t="n">
+      <c r="G2" s="8" t="n">
         <f aca="false">(F2-$F$5)/$F$5*100</f>
         <v>7.47262049670521</v>
       </c>
-      <c r="H2" s="4" t="n">
+      <c r="H2" s="5" t="n">
         <v>-0.3124608364957</v>
       </c>
-      <c r="I2" s="7" t="n">
+      <c r="I2" s="8" t="n">
         <f aca="false">(H2-$H$5)/$H$5*100</f>
         <v>7.47205516919429</v>
       </c>
@@ -3652,31 +4470,31 @@
       <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="5" t="n">
         <v>0.03812457350305</v>
       </c>
-      <c r="C3" s="7" t="n">
+      <c r="C3" s="8" t="n">
         <f aca="false">(B3-$B$5)/$B$5*100</f>
         <v>1.16221039969546</v>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="5" t="n">
         <v>0.2941035477081</v>
       </c>
-      <c r="E3" s="50" t="n">
+      <c r="E3" s="53" t="n">
         <f aca="false">(D3-$D$5)/$D$5*100</f>
         <v>1.15826370322412</v>
       </c>
-      <c r="F3" s="4" t="n">
+      <c r="F3" s="5" t="n">
         <v>0.2941035675112</v>
       </c>
-      <c r="G3" s="7" t="n">
+      <c r="G3" s="8" t="n">
         <f aca="false">(F3-$F$5)/$F$5*100</f>
         <v>1.15853611867302</v>
       </c>
-      <c r="H3" s="4" t="n">
+      <c r="H3" s="5" t="n">
         <v>-0.294103527905</v>
       </c>
-      <c r="I3" s="7" t="n">
+      <c r="I3" s="8" t="n">
         <f aca="false">(H3-$H$5)/$H$5*100</f>
         <v>1.15799128924054</v>
       </c>
@@ -3685,31 +4503,31 @@
       <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="5" t="n">
         <v>0.03776120527854</v>
       </c>
-      <c r="C4" s="50" t="n">
+      <c r="C4" s="53" t="n">
         <f aca="false">(B4-$B$5)/$B$5*100</f>
         <v>0.198025638979295</v>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="5" t="n">
         <v>0.2913116853767</v>
       </c>
-      <c r="E4" s="50" t="n">
+      <c r="E4" s="53" t="n">
         <f aca="false">(D4-$D$5)/$D$5*100</f>
         <v>0.197989853609889</v>
       </c>
-      <c r="F4" s="4" t="n">
+      <c r="F4" s="5" t="n">
         <v>0.2913109553456</v>
       </c>
-      <c r="G4" s="7" t="n">
+      <c r="G4" s="8" t="n">
         <f aca="false">(F4-$F$5)/$F$5*100</f>
         <v>0.198001838147736</v>
       </c>
-      <c r="H4" s="4" t="n">
+      <c r="H4" s="5" t="n">
         <v>-0.2913124154078</v>
       </c>
-      <c r="I4" s="7" t="n">
+      <c r="I4" s="8" t="n">
         <f aca="false">(H4-$H$5)/$H$5*100</f>
         <v>0.197977869169468</v>
       </c>
@@ -3718,31 +4536,31 @@
       <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="5" t="n">
         <v>0.03768657619522</v>
       </c>
       <c r="C5" s="2" t="n">
         <f aca="false">(B5-$B$5)/$B$5*100</f>
         <v>0</v>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="5" t="n">
         <v>0.2907360574821</v>
       </c>
       <c r="E5" s="2" t="n">
         <f aca="false">(D5-$D$5)/$D$5*100</f>
         <v>0</v>
       </c>
-      <c r="F5" s="4" t="n">
+      <c r="F5" s="5" t="n">
         <v>0.2907352941191</v>
       </c>
-      <c r="G5" s="7" t="n">
+      <c r="G5" s="8" t="n">
         <f aca="false">(F5-$F$5)/$F$5*100</f>
         <v>0</v>
       </c>
-      <c r="H5" s="4" t="n">
+      <c r="H5" s="5" t="n">
         <v>-0.290736820845</v>
       </c>
-      <c r="I5" s="7" t="n">
+      <c r="I5" s="8" t="n">
         <f aca="false">(H5-$H$5)/$H$5*100</f>
         <v>-0</v>
       </c>
@@ -3766,41 +4584,41 @@
   </sheetPr>
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="1" style="0" width="10.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="52" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3808,31 +4626,31 @@
       <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4" t="n">
         <v>0.04030959074389</v>
       </c>
-      <c r="C2" s="5" t="n">
+      <c r="C2" s="6" t="n">
         <f aca="false">(B2-$B$5)/$B$5*100</f>
         <v>7.04823230062975</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="4" t="n">
         <v>0.3109552614872</v>
       </c>
-      <c r="E2" s="5" t="n">
+      <c r="E2" s="6" t="n">
         <f aca="false">(D2-$D$5)/$D$5*100</f>
         <v>7.054901184085</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" s="4" t="n">
         <v>0.3109555611867</v>
       </c>
-      <c r="G2" s="7" t="n">
+      <c r="G2" s="8" t="n">
         <f aca="false">(F2-$F$5)/$F$5*100</f>
         <v>7.05446483961023</v>
       </c>
-      <c r="H2" s="3" t="n">
+      <c r="H2" s="4" t="n">
         <v>-0.3109549617878</v>
       </c>
-      <c r="I2" s="7" t="n">
+      <c r="I2" s="8" t="n">
         <f aca="false">(H2-$H$5)/$H$5*100</f>
         <v>7.05533753299236</v>
       </c>
@@ -3841,31 +4659,31 @@
       <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4" t="n">
         <v>0.03806880863113</v>
       </c>
-      <c r="C3" s="7" t="n">
+      <c r="C3" s="8" t="n">
         <f aca="false">(B3-$B$5)/$B$5*100</f>
         <v>1.09749552272814</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="4" t="n">
         <v>0.293720957096</v>
       </c>
-      <c r="E3" s="7" t="n">
+      <c r="E3" s="8" t="n">
         <f aca="false">(D3-$D$5)/$D$5*100</f>
         <v>1.12151789044903</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F3" s="4" t="n">
         <v>0.2937177425854</v>
       </c>
-      <c r="G3" s="7" t="n">
+      <c r="G3" s="8" t="n">
         <f aca="false">(F3-$F$5)/$F$5*100</f>
         <v>1.11990159101643</v>
       </c>
-      <c r="H3" s="3" t="n">
+      <c r="H3" s="4" t="n">
         <v>-0.2937241716065</v>
       </c>
-      <c r="I3" s="7" t="n">
+      <c r="I3" s="8" t="n">
         <f aca="false">(H3-$H$5)/$H$5*100</f>
         <v>1.12313420613868</v>
       </c>
@@ -3874,31 +4692,31 @@
       <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="5" t="n">
         <v>0.03774558302765</v>
       </c>
-      <c r="C4" s="50" t="n">
+      <c r="C4" s="53" t="n">
         <f aca="false">(B4-$B$5)/$B$5*100</f>
         <v>0.239120906456881</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="4" t="n">
         <v>0.2911846767037</v>
       </c>
-      <c r="E4" s="7" t="n">
+      <c r="E4" s="8" t="n">
         <f aca="false">(D4-$D$5)/$D$5*100</f>
         <v>0.248333608330097</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" s="4" t="n">
         <v>0.2911843657898</v>
       </c>
-      <c r="G4" s="7" t="n">
+      <c r="G4" s="8" t="n">
         <f aca="false">(F4-$F$5)/$F$5*100</f>
         <v>0.247721347463204</v>
       </c>
-      <c r="H4" s="3" t="n">
+      <c r="H4" s="4" t="n">
         <v>-0.2911849876176</v>
       </c>
-      <c r="I4" s="7" t="n">
+      <c r="I4" s="8" t="n">
         <f aca="false">(H4-$H$5)/$H$5*100</f>
         <v>0.248945875368266</v>
       </c>
@@ -3907,31 +4725,31 @@
       <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="5" t="n">
         <v>0.03765554075726</v>
       </c>
       <c r="C5" s="2" t="n">
         <f aca="false">(B5-$B$5)/$B$5*100</f>
         <v>0</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="4" t="n">
         <v>0.2904633585645</v>
       </c>
       <c r="E5" s="2" t="n">
         <f aca="false">(D5-$D$5)/$D$5*100</f>
         <v>0</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" s="4" t="n">
         <v>0.2904648224178</v>
       </c>
-      <c r="G5" s="7" t="n">
+      <c r="G5" s="8" t="n">
         <f aca="false">(F5-$F$5)/$F$5*100</f>
         <v>0</v>
       </c>
-      <c r="H5" s="3" t="n">
+      <c r="H5" s="4" t="n">
         <v>-0.2904618947112</v>
       </c>
-      <c r="I5" s="7" t="n">
+      <c r="I5" s="8" t="n">
         <f aca="false">(H5-$H$5)/$H$5*100</f>
         <v>-0</v>
       </c>
@@ -3948,7 +4766,7 @@
       <c r="L9" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="M9" s="51" t="n">
+      <c r="M9" s="54" t="n">
         <f aca="false">LN((F4-F3)/(F3-F2))/LN(M8)</f>
         <v>-2.76644364303513</v>
       </c>
@@ -3972,82 +4790,82 @@
   </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="50" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="53" t="n">
+      <c r="A2" s="55" t="n">
         <f aca="false">'UR0.29'!G15</f>
         <v>0.308197745651861</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="C2" s="10" t="n">
+      <c r="C2" s="56" t="n">
         <v>2E-005</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="53"/>
+      <c r="A3" s="55"/>
       <c r="B3" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="C3" s="10" t="n">
+      <c r="C3" s="56" t="n">
         <v>2.5E-005</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="53"/>
+      <c r="A4" s="55"/>
       <c r="B4" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C4" s="10" t="n">
+      <c r="C4" s="56" t="n">
         <v>2.5E-005</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="53"/>
+      <c r="A5" s="55"/>
       <c r="B5" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="C5" s="10" t="n">
+      <c r="C5" s="56" t="n">
         <v>2.5E-005</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="53"/>
+      <c r="A6" s="55"/>
       <c r="B6" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="C6" s="10" t="n">
+      <c r="C6" s="56" t="n">
         <v>2E-005</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="53"/>
+      <c r="A7" s="55"/>
       <c r="B7" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="C7" s="10" t="n">
+      <c r="C7" s="56" t="n">
         <v>2E-005</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="53"/>
+      <c r="A8" s="55"/>
       <c r="B8" s="0" t="n">
         <v>20</v>
       </c>

--- a/Resultados/Resultados.xlsx
+++ b/Resultados/Resultados.xlsx
@@ -10,9 +10,8 @@
   <sheets>
     <sheet name="UR0.29" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="DataAmplitudes" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="MIS" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="MIS-Wedge" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Corridas" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="MIS-Wedge" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Corridas" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
   <si>
     <t xml:space="preserve">L [m]</t>
   </si>
@@ -122,6 +121,9 @@
     <t xml:space="preserve">Aeff/L</t>
   </si>
   <si>
+    <t xml:space="preserve">w*</t>
+  </si>
+  <si>
     <t xml:space="preserve">UR=0.29</t>
   </si>
   <si>
@@ -144,6 +146,21 @@
   </si>
   <si>
     <t xml:space="preserve">t [s]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ff=16Hz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d+ 10°</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d+ 10,78°</t>
+  </si>
+  <si>
+    <t xml:space="preserve">←el primero siempre overshootea con respecto al valor periódico que después agarra</t>
   </si>
   <si>
     <t xml:space="preserve">n</t>
@@ -322,12 +339,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10.5"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -349,6 +360,12 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -373,7 +390,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF595959"/>
+        <bgColor rgb="FF666699"/>
       </patternFill>
     </fill>
     <fill>
@@ -389,12 +406,54 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="17">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -541,16 +600,16 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="71">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -558,39 +617,55 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -598,19 +673,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -618,51 +693,55 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -670,11 +749,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="170" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -690,35 +773,35 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -726,19 +809,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -750,10 +833,38 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="170" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -768,6 +879,10 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -839,7 +954,7 @@
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF420E"/>
-      <rgbColor rgb="FF595959"/>
+      <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FFB3B3B3"/>
       <rgbColor rgb="FF004586"/>
       <rgbColor rgb="FF339966"/>
@@ -854,7 +969,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -915,25 +1030,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.6519967400163</c:v>
+                  <c:v>0.604229607250755</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.814995925020375</c:v>
+                  <c:v>0.755287009063444</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.97799511002445</c:v>
+                  <c:v>0.906344410876133</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.14099429502853</c:v>
+                  <c:v>1.05740181268882</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3039934800326</c:v>
+                  <c:v>1.20845921450151</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.46699266503668</c:v>
+                  <c:v>1.3595166163142</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.62999185004075</c:v>
+                  <c:v>1.51057401812689</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -970,11 +1085,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="75065980"/>
-        <c:axId val="26042041"/>
+        <c:axId val="75358891"/>
+        <c:axId val="95166845"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="75065980"/>
+        <c:axId val="75358891"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.8"/>
@@ -1052,13 +1167,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26042041"/>
+        <c:crossAx val="95166845"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="26042041"/>
+        <c:axId val="95166845"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1134,7 +1249,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75065980"/>
+        <c:crossAx val="75358891"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1162,313 +1277,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4472c4"/>
-            </a:solidFill>
-            <a:ln w="19080">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="4472c4"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1100" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'UR0.29'!$U$15:$U$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.41073630446452</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.12858904357161</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.940490869643012</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.806135031122582</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.705368152232259</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.626993913095342</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.564294521785807</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'UR0.29'!$V$15:$V$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.570939047619048</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.706622857142857</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.717021714285714</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.605583571428571</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.462437142857143</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.347291428571428</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.274907619047619</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="95674487"/>
-        <c:axId val="33056164"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="95674487"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="0.5"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="1" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="1" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>f*</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="0.000" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="bfbfbf"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1100" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="33056164"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="33056164"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="1" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="1" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>Aeff/L</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="bfbfbf"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1100" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="95674487"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1521,6 +1330,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1535,25 +1345,25 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.65</c:v>
+                  <c:v>0.60</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.81</c:v>
+                  <c:v>0.76</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.98</c:v>
+                  <c:v>0.91</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.14</c:v>
+                  <c:v>1.06</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.30</c:v>
+                  <c:v>1.21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.47</c:v>
+                  <c:v>1.36</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.63</c:v>
+                  <c:v>1.51</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1633,6 +1443,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1647,25 +1458,25 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.65</c:v>
+                  <c:v>0.60</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.81</c:v>
+                  <c:v>0.76</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.98</c:v>
+                  <c:v>0.91</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.14</c:v>
+                  <c:v>1.06</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.30</c:v>
+                  <c:v>1.21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.47</c:v>
+                  <c:v>1.36</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.63</c:v>
+                  <c:v>1.51</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1710,11 +1521,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="50554546"/>
-        <c:axId val="7960435"/>
+        <c:axId val="86640861"/>
+        <c:axId val="24600810"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="50554546"/>
+        <c:axId val="86640861"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1770,15 +1581,15 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7960435"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="24600810"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="7960435"/>
+        <c:axId val="24600810"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1821,7 +1632,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1843,7 +1654,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50554546"/>
+        <c:crossAx val="86640861"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1884,251 +1695,6 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>MIS!$A$2:$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>MIS!$B$2:$B$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.04050418523988</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.03812457350305</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.03776120527854</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.03768657619522</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="1"/>
-        <c:axId val="98492604"/>
-        <c:axId val="1544292"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="98492604"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1544292"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1544292"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="6480">
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.000E+00" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="98492604"/>
-        <c:crossesAt val="0"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
     <a:ln w="9360">
       <a:noFill/>
     </a:ln>
@@ -2136,252 +1702,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>MIS!$A$2:$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>MIS!$D$2:$D$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.3124608378971</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2941035477081</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2913116853767</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.2907360574821</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="1"/>
-        <c:axId val="98096493"/>
-        <c:axId val="81820374"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="98096493"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="81820374"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="81820374"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="6480">
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.000E+00" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="98096493"/>
-        <c:crossesAt val="0"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2469,11 +1790,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="94940091"/>
-        <c:axId val="35704456"/>
+        <c:axId val="83806712"/>
+        <c:axId val="51575471"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="94940091"/>
+        <c:axId val="83806712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2505,7 +1826,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35704456"/>
+        <c:crossAx val="51575471"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2513,7 +1834,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="35704456"/>
+        <c:axId val="51575471"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2555,7 +1876,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94940091"/>
+        <c:crossAx val="83806712"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2606,7 +1927,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2694,11 +2015,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="84957123"/>
-        <c:axId val="45489022"/>
+        <c:axId val="92770092"/>
+        <c:axId val="85140496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="84957123"/>
+        <c:axId val="92770092"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2730,7 +2051,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45489022"/>
+        <c:crossAx val="85140496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2738,7 +2059,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45489022"/>
+        <c:axId val="85140496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2780,7 +2101,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84957123"/>
+        <c:crossAx val="92770092"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2842,9 +2163,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>388800</xdr:colOff>
+      <xdr:colOff>387360</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>53640</xdr:rowOff>
+      <xdr:rowOff>52200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2853,41 +2174,11 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="4643640" y="3873240"/>
-        <a:ext cx="8744040" cy="3541320"/>
+        <a:ext cx="8742600" cy="3539880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>233280</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>99360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>338760</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>17280</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart 4"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="14874120" y="4305600"/>
-        <a:ext cx="6489360" cy="3598200"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2902,22 +2193,22 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>94320</xdr:colOff>
+      <xdr:colOff>92880</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>32760</xdr:rowOff>
+      <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvPr id="1" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3394440" y="7637760"/>
-        <a:ext cx="7978680" cy="4487760"/>
+        <a:ext cx="7977240" cy="4486320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2931,89 +2222,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>595080</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>139320</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>595800</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>120960</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="1415880" y="1405800"/>
-        <a:ext cx="5748120" cy="3239280"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>727920</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>138960</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>328320</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>120600</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="7296120" y="1405440"/>
-        <a:ext cx="5745240" cy="3239280"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
       <xdr:colOff>30600</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>119880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1440</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>821160</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>100080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="851400" y="1386360"/>
-        <a:ext cx="6539400" cy="3239280"/>
+        <a:ext cx="6537960" cy="3237840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3032,18 +2258,18 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>89280</xdr:colOff>
+      <xdr:colOff>87840</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>54000</xdr:rowOff>
+      <xdr:rowOff>52560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="7552080" y="1338840"/>
-        <a:ext cx="6537960" cy="3239280"/>
+        <a:ext cx="6536520" cy="3237840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3061,10 +2287,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V23"/>
+  <dimension ref="A1:X23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C37" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q64" activeCellId="0" sqref="Q64"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T16" activeCellId="0" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3111,10 +2337,10 @@
       <c r="V1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="5" t="n">
         <v>5E-005</v>
       </c>
       <c r="C2" s="3"/>
@@ -3139,10 +2365,10 @@
       <c r="V2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="6" t="n">
         <v>0.16</v>
       </c>
       <c r="C3" s="3"/>
@@ -3167,10 +2393,10 @@
       <c r="V3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="5" t="n">
         <v>5600000000</v>
       </c>
       <c r="C4" s="3"/>
@@ -3195,10 +2421,10 @@
       <c r="V4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="6" t="n">
         <v>1623</v>
       </c>
       <c r="C5" s="3"/>
@@ -3223,10 +2449,10 @@
       <c r="V5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="n">
+      <c r="B6" s="7" t="n">
         <f aca="false">B2^3/12</f>
         <v>1.04166666666667E-014</v>
       </c>
@@ -3252,15 +2478,18 @@
       <c r="V6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="n">
+      <c r="B7" s="7" t="n">
         <f aca="false">B6*B4</f>
         <v>5.83333333333333E-005</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="D7" s="8" t="n">
+        <f aca="false">(4805000000)*(B2)^3/(12*(1-0.38^2))</f>
+        <v>5.84993961352657E-005</v>
+      </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -3281,10 +2510,10 @@
       <c r="V7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="n">
+      <c r="B8" s="9" t="n">
         <f aca="false">(1/(2*PI()))*1.875^2*SQRT(B7/(B5*B2*B1^4))</f>
         <v>12.246182350683</v>
       </c>
@@ -3310,10 +2539,10 @@
       <c r="V8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="n">
+      <c r="B9" s="9" t="n">
         <f aca="false">2*PI()*B8</f>
         <v>76.9450330148531</v>
       </c>
@@ -3339,10 +2568,10 @@
       <c r="V9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="n">
+      <c r="B10" s="11" t="n">
         <f aca="false">0.035*SIN(RADIANS(10))*1000</f>
         <v>6.07768621834256</v>
       </c>
@@ -3368,10 +2597,10 @@
       <c r="V10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="10" t="n">
+      <c r="B11" s="13" t="n">
         <f aca="false">B9*B1</f>
         <v>2.69307615551986</v>
       </c>
@@ -3397,10 +2626,10 @@
       <c r="V11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="11" t="n">
+      <c r="B12" s="14" t="n">
         <v>1.51E-005</v>
       </c>
       <c r="C12" s="3"/>
@@ -3425,10 +2654,10 @@
       <c r="V12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="12" t="n">
+      <c r="B13" s="16" t="n">
         <f aca="false">2*(B10/1000)*B3</f>
         <v>0.00194485958986962</v>
       </c>
@@ -3439,7 +2668,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="13"/>
+      <c r="J13" s="17"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -3457,128 +2686,131 @@
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="H14" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="14" t="s">
+      <c r="I14" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="14" t="s">
+      <c r="J14" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="K14" s="14" t="s">
+      <c r="K14" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="14" t="s">
+      <c r="L14" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="M14" s="15" t="s">
+      <c r="M14" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="N14" s="14" t="s">
+      <c r="N14" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="O14" s="16" t="s">
+      <c r="O14" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="P14" s="17" t="s">
+      <c r="P14" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="Q14" s="18" t="s">
+      <c r="Q14" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="R14" s="9" t="s">
+      <c r="R14" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="S14" s="9" t="s">
+      <c r="S14" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="T14" s="18" t="s">
+      <c r="T14" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="U14" s="18" t="s">
+      <c r="U14" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="V14" s="18" t="s">
+      <c r="V14" s="22" t="s">
         <v>31</v>
+      </c>
+      <c r="X14" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="19" t="n">
+      <c r="D15" s="24" t="n">
         <v>8</v>
       </c>
-      <c r="E15" s="20" t="n">
-        <f aca="false">D15/12.27</f>
-        <v>0.6519967400163</v>
-      </c>
-      <c r="F15" s="21" t="n">
+      <c r="E15" s="25" t="n">
+        <f aca="false">D15/13.24</f>
+        <v>0.604229607250755</v>
+      </c>
+      <c r="F15" s="26" t="n">
         <v>0.83</v>
       </c>
-      <c r="G15" s="22" t="n">
+      <c r="G15" s="27" t="n">
         <f aca="false">F15/$B$11</f>
         <v>0.308197745651861</v>
       </c>
-      <c r="H15" s="23" t="n">
+      <c r="H15" s="28" t="n">
         <f aca="false">AVERAGE(DataAmplitudes!J4:J9)</f>
         <v>9.99143333333334</v>
       </c>
-      <c r="I15" s="24" t="n">
+      <c r="I15" s="29" t="n">
         <f aca="false">H15/$B$10</f>
         <v>1.64395346755135</v>
       </c>
-      <c r="J15" s="25" t="n">
+      <c r="J15" s="30" t="n">
         <f aca="false">$F$15*$B$1/$B$12</f>
         <v>1923.84105960265</v>
       </c>
-      <c r="K15" s="25" t="n">
+      <c r="K15" s="30" t="n">
         <f aca="false">$F$15*2*(H15/1000)/$B$12</f>
         <v>1098.39598233996</v>
       </c>
-      <c r="L15" s="26" t="n">
+      <c r="L15" s="31" t="n">
         <f aca="false">D15*2*(H15/1000)/$F$15</f>
         <v>0.1926059437751</v>
       </c>
-      <c r="M15" s="27" t="n">
+      <c r="M15" s="32" t="n">
         <f aca="false">2*D15*($B$10/1000)/$F$15</f>
         <v>0.117160216257206</v>
       </c>
-      <c r="N15" s="28" t="n">
+      <c r="N15" s="33" t="n">
         <v>0.3</v>
       </c>
-      <c r="O15" s="29" t="n">
+      <c r="O15" s="34" t="n">
         <v>0.297202351395596</v>
       </c>
-      <c r="P15" s="30" t="n">
+      <c r="P15" s="35" t="n">
         <f aca="false">2*D15*$B$1*SIN(RADIANS(10))/$F$15</f>
         <v>0.117160216257206</v>
       </c>
-      <c r="Q15" s="31" t="n">
+      <c r="Q15" s="36" t="n">
         <f aca="false">J15</f>
         <v>1923.84105960265</v>
       </c>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="10" t="n">
+      <c r="T15" s="17"/>
+      <c r="U15" s="37" t="n">
         <f aca="false">$T$16/D15</f>
-        <v>1.41073630446452</v>
-      </c>
-      <c r="V15" s="32" t="n">
+        <v>1.82735102881922</v>
+      </c>
+      <c r="V15" s="38" t="n">
         <f aca="false">(2*H15)/(1000*$B$1)</f>
         <v>0.570939047619048</v>
       </c>
@@ -3587,70 +2819,70 @@
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="19" t="n">
+      <c r="D16" s="24" t="n">
         <v>10</v>
       </c>
-      <c r="E16" s="20" t="n">
-        <f aca="false">D16/12.27</f>
-        <v>0.814995925020375</v>
-      </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="24" t="n">
+      <c r="E16" s="25" t="n">
+        <f aca="false">D16/13.24</f>
+        <v>0.755287009063444</v>
+      </c>
+      <c r="F16" s="26"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="29" t="n">
         <f aca="false">AVERAGE(DataAmplitudes!D4:D7)</f>
         <v>12.3659</v>
       </c>
-      <c r="I16" s="24" t="n">
+      <c r="I16" s="29" t="n">
         <f aca="false">H16/$B$10</f>
         <v>2.03463942621445</v>
       </c>
-      <c r="J16" s="25" t="n">
+      <c r="J16" s="30" t="n">
         <f aca="false">$F$15*$B$1/$B$12</f>
         <v>1923.84105960265</v>
       </c>
-      <c r="K16" s="25" t="n">
+      <c r="K16" s="30" t="n">
         <f aca="false">$F$15*2*(H16/1000)/$B$12</f>
         <v>1359.43006622517</v>
       </c>
-      <c r="L16" s="26" t="n">
+      <c r="L16" s="31" t="n">
         <f aca="false">D16*2*(H16/1000)/$F$15</f>
         <v>0.297973493975904</v>
       </c>
-      <c r="M16" s="27" t="n">
+      <c r="M16" s="32" t="n">
         <f aca="false">2*D16*($B$10/1000)/$F$15</f>
         <v>0.146450270321508</v>
       </c>
-      <c r="N16" s="28" t="n">
+      <c r="N16" s="33" t="n">
         <v>0.135</v>
       </c>
-      <c r="O16" s="33" t="n">
+      <c r="O16" s="39" t="n">
         <v>0.1268</v>
       </c>
-      <c r="P16" s="30" t="n">
+      <c r="P16" s="35" t="n">
         <f aca="false">2*D16*$B$1*SIN(RADIANS(10))/$F$15</f>
         <v>0.146450270321508</v>
       </c>
-      <c r="Q16" s="31" t="n">
+      <c r="Q16" s="36" t="n">
         <f aca="false">J16</f>
         <v>1923.84105960265</v>
       </c>
-      <c r="R16" s="34" t="n">
+      <c r="R16" s="40" t="n">
         <f aca="false">B3/B1</f>
         <v>4.57142857142857</v>
       </c>
-      <c r="S16" s="35" t="n">
+      <c r="S16" s="41" t="n">
         <f aca="false">(1+0.74273*$R$16+0.14862*$R$16^2)/(1+0.74273*$R$16+0.35004*$R$16^2+0.058364*$R$16^4)</f>
         <v>0.201647874132701</v>
       </c>
-      <c r="T16" s="36" t="n">
-        <f aca="false">13.24*(1/SQRT(1+(PI()*1.205*0.16)/(4*1623*0.00005)*S16))</f>
-        <v>11.2858904357161</v>
-      </c>
-      <c r="U16" s="10" t="n">
+      <c r="T16" s="42" t="n">
+        <f aca="false">17.15*(1/SQRT(1+(PI()*1.205*0.16)/(4*1623*0.00005)*S16))</f>
+        <v>14.6188082305538</v>
+      </c>
+      <c r="U16" s="37" t="n">
         <f aca="false">$T$16/D16</f>
-        <v>1.12858904357161</v>
-      </c>
-      <c r="V16" s="32" t="n">
+        <v>1.46188082305538</v>
+      </c>
+      <c r="V16" s="38" t="n">
         <f aca="false">(2*H16)/(1000*$B$1)</f>
         <v>0.706622857142857</v>
       </c>
@@ -3659,61 +2891,61 @@
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="28" t="n">
+      <c r="D17" s="33" t="n">
         <v>12</v>
       </c>
-      <c r="E17" s="20" t="n">
-        <f aca="false">D17/12.27</f>
-        <v>0.97799511002445</v>
-      </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="24" t="n">
+      <c r="E17" s="25" t="n">
+        <f aca="false">D17/13.24</f>
+        <v>0.906344410876133</v>
+      </c>
+      <c r="F17" s="26"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="29" t="n">
         <f aca="false">AVERAGE(DataAmplitudes!B4:B8)</f>
         <v>12.54788</v>
       </c>
-      <c r="I17" s="24" t="n">
+      <c r="I17" s="29" t="n">
         <f aca="false">H17/$B$10</f>
         <v>2.06458174200081</v>
       </c>
-      <c r="J17" s="25" t="n">
+      <c r="J17" s="30" t="n">
         <f aca="false">$F$15*$B$1/$B$12</f>
         <v>1923.84105960265</v>
       </c>
-      <c r="K17" s="25" t="n">
+      <c r="K17" s="30" t="n">
         <f aca="false">$F$15*2*(H17/1000)/$B$12</f>
         <v>1379.43581456954</v>
       </c>
-      <c r="L17" s="26" t="n">
+      <c r="L17" s="31" t="n">
         <f aca="false">D17*2*(H17/1000)/$F$15</f>
         <v>0.362830265060241</v>
       </c>
-      <c r="M17" s="27" t="n">
+      <c r="M17" s="32" t="n">
         <f aca="false">2*D17*($B$10/1000)/$F$15</f>
         <v>0.175740324385809</v>
       </c>
-      <c r="N17" s="28" t="n">
+      <c r="N17" s="33" t="n">
         <v>-0.121</v>
       </c>
-      <c r="O17" s="33" t="n">
+      <c r="O17" s="39" t="n">
         <v>-0.1184</v>
       </c>
-      <c r="P17" s="30" t="n">
+      <c r="P17" s="35" t="n">
         <f aca="false">2*D17*$B$1*SIN(RADIANS(10))/$F$15</f>
         <v>0.175740324385809</v>
       </c>
-      <c r="Q17" s="31" t="n">
+      <c r="Q17" s="36" t="n">
         <f aca="false">J17</f>
         <v>1923.84105960265</v>
       </c>
-      <c r="R17" s="34"/>
-      <c r="S17" s="35"/>
-      <c r="T17" s="36"/>
-      <c r="U17" s="10" t="n">
+      <c r="R17" s="40"/>
+      <c r="S17" s="41"/>
+      <c r="T17" s="42"/>
+      <c r="U17" s="37" t="n">
         <f aca="false">$T$16/D17</f>
-        <v>0.940490869643012</v>
-      </c>
-      <c r="V17" s="32" t="n">
+        <v>1.21823401921281</v>
+      </c>
+      <c r="V17" s="38" t="n">
         <f aca="false">(2*H17)/(1000*$B$1)</f>
         <v>0.717021714285714</v>
       </c>
@@ -3722,61 +2954,61 @@
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="28" t="n">
+      <c r="D18" s="33" t="n">
         <v>14</v>
       </c>
-      <c r="E18" s="20" t="n">
-        <f aca="false">D18/12.27</f>
-        <v>1.14099429502853</v>
-      </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="24" t="n">
+      <c r="E18" s="25" t="n">
+        <f aca="false">D18/13.24</f>
+        <v>1.05740181268882</v>
+      </c>
+      <c r="F18" s="26"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="29" t="n">
         <f aca="false">AVERAGE(DataAmplitudes!F4:F11)</f>
         <v>10.5977125</v>
       </c>
-      <c r="I18" s="24" t="n">
+      <c r="I18" s="29" t="n">
         <f aca="false">H18/$B$10</f>
         <v>1.74370839810978</v>
       </c>
-      <c r="J18" s="25" t="n">
+      <c r="J18" s="30" t="n">
         <f aca="false">$F$15*$B$1/$B$12</f>
         <v>1923.84105960265</v>
       </c>
-      <c r="K18" s="25" t="n">
+      <c r="K18" s="30" t="n">
         <f aca="false">$F$15*2*(H18/1000)/$B$12</f>
         <v>1165.0465397351</v>
       </c>
-      <c r="L18" s="26" t="n">
+      <c r="L18" s="31" t="n">
         <f aca="false">D18*2*(H18/1000)/$F$15</f>
         <v>0.357513192771084</v>
       </c>
-      <c r="M18" s="27" t="n">
+      <c r="M18" s="32" t="n">
         <f aca="false">2*D18*($B$10/1000)/$F$15</f>
         <v>0.20503037845011</v>
       </c>
-      <c r="N18" s="28" t="n">
+      <c r="N18" s="33" t="n">
         <v>-0.185</v>
       </c>
-      <c r="O18" s="33" t="n">
+      <c r="O18" s="39" t="n">
         <v>-0.1812</v>
       </c>
-      <c r="P18" s="30" t="n">
+      <c r="P18" s="35" t="n">
         <f aca="false">2*D18*$B$1*SIN(RADIANS(10))/$F$15</f>
         <v>0.20503037845011</v>
       </c>
-      <c r="Q18" s="31" t="n">
+      <c r="Q18" s="36" t="n">
         <f aca="false">J18</f>
         <v>1923.84105960265</v>
       </c>
-      <c r="R18" s="34"/>
-      <c r="S18" s="35"/>
-      <c r="T18" s="36"/>
-      <c r="U18" s="10" t="n">
+      <c r="R18" s="40"/>
+      <c r="S18" s="41"/>
+      <c r="T18" s="42"/>
+      <c r="U18" s="37" t="n">
         <f aca="false">$T$16/D18</f>
-        <v>0.806135031122582</v>
-      </c>
-      <c r="V18" s="32" t="n">
+        <v>1.0442005878967</v>
+      </c>
+      <c r="V18" s="38" t="n">
         <f aca="false">(2*H18)/(1000*$B$1)</f>
         <v>0.605583571428571</v>
       </c>
@@ -3785,61 +3017,61 @@
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="28" t="n">
+      <c r="D19" s="33" t="n">
         <v>16</v>
       </c>
-      <c r="E19" s="20" t="n">
-        <f aca="false">D19/12.27</f>
-        <v>1.3039934800326</v>
-      </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="23" t="n">
+      <c r="E19" s="25" t="n">
+        <f aca="false">D19/13.24</f>
+        <v>1.20845921450151</v>
+      </c>
+      <c r="F19" s="26"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="28" t="n">
         <f aca="false">AVERAGE(DataAmplitudes!H4:H7)</f>
         <v>8.09265</v>
       </c>
-      <c r="I19" s="24" t="n">
+      <c r="I19" s="29" t="n">
         <f aca="false">H19/$B$10</f>
         <v>1.33153468429749</v>
       </c>
-      <c r="J19" s="25" t="n">
+      <c r="J19" s="30" t="n">
         <f aca="false">$F$15*$B$1/$B$12</f>
         <v>1923.84105960265</v>
       </c>
-      <c r="K19" s="25" t="n">
+      <c r="K19" s="30" t="n">
         <f aca="false">$F$15*2*(H19/1000)/$B$12</f>
         <v>889.655562913907</v>
       </c>
-      <c r="L19" s="26" t="n">
+      <c r="L19" s="31" t="n">
         <f aca="false">D19*2*(H19/1000)/$F$15</f>
         <v>0.31200578313253</v>
       </c>
-      <c r="M19" s="27" t="n">
+      <c r="M19" s="32" t="n">
         <f aca="false">2*D19*($B$10/1000)/$F$15</f>
         <v>0.234320432514412</v>
       </c>
-      <c r="N19" s="28" t="n">
+      <c r="N19" s="33" t="n">
         <v>-0.106</v>
       </c>
-      <c r="O19" s="29" t="n">
+      <c r="O19" s="34" t="n">
         <v>-0.093</v>
       </c>
-      <c r="P19" s="30" t="n">
+      <c r="P19" s="35" t="n">
         <f aca="false">2*D19*$B$1*SIN(RADIANS(10))/$F$15</f>
         <v>0.234320432514412</v>
       </c>
-      <c r="Q19" s="31" t="n">
+      <c r="Q19" s="36" t="n">
         <f aca="false">J19</f>
         <v>1923.84105960265</v>
       </c>
-      <c r="R19" s="34"/>
-      <c r="S19" s="35"/>
-      <c r="T19" s="36"/>
-      <c r="U19" s="10" t="n">
+      <c r="R19" s="40"/>
+      <c r="S19" s="41"/>
+      <c r="T19" s="42"/>
+      <c r="U19" s="37" t="n">
         <f aca="false">$T$16/D19</f>
-        <v>0.705368152232259</v>
-      </c>
-      <c r="V19" s="32" t="n">
+        <v>0.913675514409611</v>
+      </c>
+      <c r="V19" s="38" t="n">
         <f aca="false">(2*H19)/(1000*$B$1)</f>
         <v>0.462437142857143</v>
       </c>
@@ -3848,61 +3080,61 @@
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="28" t="n">
+      <c r="D20" s="33" t="n">
         <v>18</v>
       </c>
-      <c r="E20" s="20" t="n">
-        <f aca="false">D20/12.27</f>
-        <v>1.46699266503668</v>
-      </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="23" t="n">
+      <c r="E20" s="25" t="n">
+        <f aca="false">D20/13.24</f>
+        <v>1.3595166163142</v>
+      </c>
+      <c r="F20" s="26"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="28" t="n">
         <f aca="false">1000*(0.03-0.0239224)</f>
         <v>6.0776</v>
       </c>
-      <c r="I20" s="24" t="n">
+      <c r="I20" s="29" t="n">
         <f aca="false">H20/$B$10</f>
         <v>0.999985813952964</v>
       </c>
-      <c r="J20" s="25" t="n">
+      <c r="J20" s="30" t="n">
         <f aca="false">$F$15*$B$1/$B$12</f>
         <v>1923.84105960265</v>
       </c>
-      <c r="K20" s="25" t="n">
+      <c r="K20" s="30" t="n">
         <f aca="false">$F$15*2*(H20/1000)/$B$12</f>
         <v>668.133509933775</v>
       </c>
-      <c r="L20" s="26" t="n">
+      <c r="L20" s="31" t="n">
         <f aca="false">D20*2*(H20/1000)/$F$15</f>
         <v>0.263606746987952</v>
       </c>
-      <c r="M20" s="27" t="n">
+      <c r="M20" s="32" t="n">
         <f aca="false">2*D20*($B$10/1000)/$F$15</f>
         <v>0.263610486578714</v>
       </c>
-      <c r="N20" s="28" t="n">
+      <c r="N20" s="33" t="n">
         <v>-0.011</v>
       </c>
-      <c r="O20" s="29" t="n">
+      <c r="O20" s="34" t="n">
         <v>-0.012637550314478</v>
       </c>
-      <c r="P20" s="30" t="n">
+      <c r="P20" s="35" t="n">
         <f aca="false">2*D20*$B$1*SIN(RADIANS(10))/$F$15</f>
         <v>0.263610486578714</v>
       </c>
-      <c r="Q20" s="31" t="n">
+      <c r="Q20" s="36" t="n">
         <f aca="false">J20</f>
         <v>1923.84105960265</v>
       </c>
-      <c r="R20" s="34"/>
-      <c r="S20" s="35"/>
-      <c r="T20" s="36"/>
-      <c r="U20" s="10" t="n">
+      <c r="R20" s="40"/>
+      <c r="S20" s="41"/>
+      <c r="T20" s="42"/>
+      <c r="U20" s="37" t="n">
         <f aca="false">$T$16/D20</f>
-        <v>0.626993913095342</v>
-      </c>
-      <c r="V20" s="32" t="n">
+        <v>0.812156012808543</v>
+      </c>
+      <c r="V20" s="38" t="n">
         <f aca="false">(2*H20)/(1000*$B$1)</f>
         <v>0.347291428571428</v>
       </c>
@@ -3911,61 +3143,61 @@
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="37" t="n">
+      <c r="D21" s="43" t="n">
         <v>20</v>
       </c>
-      <c r="E21" s="38" t="n">
-        <f aca="false">D21/12.27</f>
-        <v>1.62999185004075</v>
-      </c>
-      <c r="F21" s="21"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="39" t="n">
+      <c r="E21" s="44" t="n">
+        <f aca="false">D21/13.24</f>
+        <v>1.51057401812689</v>
+      </c>
+      <c r="F21" s="26"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="45" t="n">
         <f aca="false">AVERAGE(DataAmplitudes!L4:L9)</f>
         <v>4.81088333333333</v>
       </c>
-      <c r="I21" s="40" t="n">
+      <c r="I21" s="46" t="n">
         <f aca="false">H21/$B$10</f>
         <v>0.791564941081362</v>
       </c>
-      <c r="J21" s="41" t="n">
+      <c r="J21" s="47" t="n">
         <f aca="false">$F$15*$B$1/$B$12</f>
         <v>1923.84105960265</v>
       </c>
-      <c r="K21" s="41" t="n">
+      <c r="K21" s="47" t="n">
         <f aca="false">$F$15*2*(H21/1000)/$B$12</f>
         <v>528.878565121413</v>
       </c>
-      <c r="L21" s="42" t="n">
+      <c r="L21" s="48" t="n">
         <f aca="false">D21*2*(H21/1000)/$F$15</f>
         <v>0.231849799196787</v>
       </c>
-      <c r="M21" s="43" t="n">
+      <c r="M21" s="49" t="n">
         <f aca="false">2*D21*($B$10/1000)/$F$15</f>
         <v>0.292900540643015</v>
       </c>
-      <c r="N21" s="37" t="n">
+      <c r="N21" s="43" t="n">
         <v>0.061</v>
       </c>
-      <c r="O21" s="44" t="n">
+      <c r="O21" s="50" t="n">
         <v>0.0624</v>
       </c>
-      <c r="P21" s="30" t="n">
+      <c r="P21" s="35" t="n">
         <f aca="false">2*D21*$B$1*SIN(RADIANS(10))/$F$15</f>
         <v>0.292900540643015</v>
       </c>
-      <c r="Q21" s="31" t="n">
+      <c r="Q21" s="36" t="n">
         <f aca="false">J21</f>
         <v>1923.84105960265</v>
       </c>
-      <c r="R21" s="34"/>
-      <c r="S21" s="35"/>
-      <c r="T21" s="36"/>
-      <c r="U21" s="10" t="n">
+      <c r="R21" s="40"/>
+      <c r="S21" s="41"/>
+      <c r="T21" s="42"/>
+      <c r="U21" s="37" t="n">
         <f aca="false">$T$16/D21</f>
-        <v>0.564294521785807</v>
-      </c>
-      <c r="V21" s="32" t="n">
+        <v>0.730940411527689</v>
+      </c>
+      <c r="V21" s="38" t="n">
         <f aca="false">(2*H21)/(1000*$B$1)</f>
         <v>0.274907619047619</v>
       </c>
@@ -3990,7 +3222,7 @@
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
-      <c r="T22" s="45" t="n">
+      <c r="T22" s="51" t="n">
         <v>13.24</v>
       </c>
       <c r="U22" s="3"/>
@@ -4018,7 +3250,7 @@
       <c r="S23" s="3"/>
       <c r="T23" s="3" t="n">
         <f aca="false">T16/13.24</f>
-        <v>0.852408643180978</v>
+        <v>1.1041395944527</v>
       </c>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
@@ -4047,10 +3279,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L17" activeCellId="0" sqref="L17"/>
+      <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4059,77 +3291,77 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="46"/>
+      <c r="A1" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="52"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49" t="s">
+      <c r="A2" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49" t="s">
+      <c r="D2" s="55"/>
+      <c r="E2" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49" t="s">
+      <c r="F2" s="55"/>
+      <c r="G2" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49" t="s">
+      <c r="H2" s="55"/>
+      <c r="I2" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="49"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="55"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="50" t="s">
+      <c r="A3" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="50" t="s">
+      <c r="C3" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="50" t="s">
+      <c r="E3" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="50" t="s">
+      <c r="G3" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="50" t="s">
+      <c r="I3" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" s="50" t="s">
+      <c r="K3" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="56" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4169,7 +3401,7 @@
       <c r="K4" s="0" t="n">
         <v>1.209</v>
       </c>
-      <c r="L4" s="51" t="n">
+      <c r="L4" s="57" t="n">
         <f aca="false">1000*(0.03-0.0251846)</f>
         <v>4.8154</v>
       </c>
@@ -4211,7 +3443,7 @@
       <c r="K5" s="0" t="n">
         <v>1.234</v>
       </c>
-      <c r="L5" s="51" t="n">
+      <c r="L5" s="57" t="n">
         <v>4.821</v>
       </c>
     </row>
@@ -4251,7 +3483,7 @@
       <c r="K6" s="0" t="n">
         <v>1.259</v>
       </c>
-      <c r="L6" s="51" t="n">
+      <c r="L6" s="57" t="n">
         <f aca="false">1000*(0.03-0.025197)</f>
         <v>4.803</v>
       </c>
@@ -4293,7 +3525,7 @@
       <c r="K7" s="0" t="n">
         <v>1.334</v>
       </c>
-      <c r="L7" s="51" t="n">
+      <c r="L7" s="57" t="n">
         <v>4.8051</v>
       </c>
     </row>
@@ -4320,7 +3552,7 @@
       <c r="K8" s="0" t="n">
         <v>1.359</v>
       </c>
-      <c r="L8" s="51" t="n">
+      <c r="L8" s="57" t="n">
         <f aca="false">1000*(0.03-0.0251891)</f>
         <v>4.8109</v>
       </c>
@@ -4342,7 +3574,7 @@
       <c r="K9" s="0" t="n">
         <v>1.434</v>
       </c>
-      <c r="L9" s="51" t="n">
+      <c r="L9" s="57" t="n">
         <v>4.8099</v>
       </c>
     </row>
@@ -4363,20 +3595,137 @@
         <v>10.5855</v>
       </c>
     </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="N18" s="58" t="n">
+        <f aca="false">10.75/(SIN(RADIANS(10.78))*0.035*1000)</f>
+        <v>1.64213778508738</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="53" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>1.037</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>10.3671</v>
+      </c>
+      <c r="C20" s="58" t="n">
+        <f aca="false">B20/(1000*0.035*SIN(RADIANS(10)))</f>
+        <v>1.7057642707371</v>
+      </c>
+      <c r="D20" s="58" t="n">
+        <f aca="false">B20/(1000*0.035*SIN(RADIANS(10.78)))</f>
+        <v>1.58364712853762</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>1.068</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <f aca="false">1000*(0.03-0.0199501)</f>
+        <v>10.0499</v>
+      </c>
+      <c r="C21" s="58" t="n">
+        <f aca="false">B21/(1000*0.035*SIN(RADIANS(10)))</f>
+        <v>1.65357335652986</v>
+      </c>
+      <c r="D21" s="58" t="n">
+        <f aca="false">B21/(1000*0.035*SIN(RADIANS(10.78)))</f>
+        <v>1.53519260710229</v>
+      </c>
+    </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F22" s="51"/>
+      <c r="A22" s="0" t="n">
+        <f aca="false">1.068+(A21-A20)</f>
+        <v>1.099</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>9.8834</v>
+      </c>
+      <c r="C22" s="58" t="n">
+        <f aca="false">B22/(1000*0.035*SIN(RADIANS(10)))</f>
+        <v>1.62617806266005</v>
+      </c>
+      <c r="D22" s="58" t="n">
+        <f aca="false">B22/(1000*0.035*SIN(RADIANS(10.78)))</f>
+        <v>1.50975856605885</v>
+      </c>
+      <c r="G22" s="57"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F23" s="51"/>
+      <c r="A23" s="0" t="n">
+        <v>1.131</v>
+      </c>
+      <c r="B23" s="59" t="n">
+        <f aca="false">1000*(0.03-0.0202027)</f>
+        <v>9.7973</v>
+      </c>
+      <c r="C23" s="58" t="n">
+        <f aca="false">B23/(1000*0.035*SIN(RADIANS(10)))</f>
+        <v>1.61201148727152</v>
+      </c>
+      <c r="D23" s="58" t="n">
+        <f aca="false">B23/(1000*0.035*SIN(RADIANS(10.78)))</f>
+        <v>1.49660618807782</v>
+      </c>
+      <c r="G23" s="57"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <f aca="false">A23+(A23-A22)</f>
+        <v>1.163</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>9.7546</v>
+      </c>
+      <c r="C24" s="58" t="n">
+        <f aca="false">B24/(1000*0.035*SIN(RADIANS(10)))</f>
+        <v>1.60498578728208</v>
+      </c>
+      <c r="D24" s="58" t="n">
+        <f aca="false">B24/(1000*0.035*SIN(RADIANS(10.78)))</f>
+        <v>1.49008346403845</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0" right="0" top="0.39375" bottom="0.39375" header="0" footer="0"/>
@@ -4393,7 +3742,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -4401,168 +3750,185 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="1" style="0" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="1" style="0" width="10.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="52" t="s">
-        <v>42</v>
+      <c r="A1" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="60" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="61" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="n">
-        <v>0.04050418523988</v>
-      </c>
-      <c r="C2" s="8" t="n">
+      <c r="B2" s="62" t="n">
+        <v>0.04030959074389</v>
+      </c>
+      <c r="C2" s="63" t="n">
         <f aca="false">(B2-$B$5)/$B$5*100</f>
-        <v>7.4764261684705</v>
-      </c>
-      <c r="D2" s="5" t="n">
-        <v>0.3124608378971</v>
-      </c>
-      <c r="E2" s="53" t="n">
+        <v>7.04823230062975</v>
+      </c>
+      <c r="D2" s="62" t="n">
+        <v>0.3109552614872</v>
+      </c>
+      <c r="E2" s="63" t="n">
         <f aca="false">(D2-$D$5)/$D$5*100</f>
-        <v>7.47233783217189</v>
-      </c>
-      <c r="F2" s="5" t="n">
-        <v>0.3124608392986</v>
-      </c>
-      <c r="G2" s="8" t="n">
+        <v>7.054901184085</v>
+      </c>
+      <c r="F2" s="62" t="n">
+        <v>0.3109555611867</v>
+      </c>
+      <c r="G2" s="64" t="n">
         <f aca="false">(F2-$F$5)/$F$5*100</f>
-        <v>7.47262049670521</v>
-      </c>
-      <c r="H2" s="5" t="n">
-        <v>-0.3124608364957</v>
-      </c>
-      <c r="I2" s="8" t="n">
+        <v>7.05446483961023</v>
+      </c>
+      <c r="H2" s="62" t="n">
+        <v>-0.3109549617878</v>
+      </c>
+      <c r="I2" s="64" t="n">
         <f aca="false">(H2-$H$5)/$H$5*100</f>
-        <v>7.47205516919429</v>
+        <v>7.05533753299236</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="61" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="n">
-        <v>0.03812457350305</v>
-      </c>
-      <c r="C3" s="8" t="n">
+      <c r="B3" s="62" t="n">
+        <v>0.03806880863113</v>
+      </c>
+      <c r="C3" s="64" t="n">
         <f aca="false">(B3-$B$5)/$B$5*100</f>
-        <v>1.16221039969546</v>
-      </c>
-      <c r="D3" s="5" t="n">
-        <v>0.2941035477081</v>
-      </c>
-      <c r="E3" s="53" t="n">
+        <v>1.09749552272814</v>
+      </c>
+      <c r="D3" s="62" t="n">
+        <v>0.293720957096</v>
+      </c>
+      <c r="E3" s="64" t="n">
         <f aca="false">(D3-$D$5)/$D$5*100</f>
-        <v>1.15826370322412</v>
-      </c>
-      <c r="F3" s="5" t="n">
-        <v>0.2941035675112</v>
-      </c>
-      <c r="G3" s="8" t="n">
+        <v>1.12151789044903</v>
+      </c>
+      <c r="F3" s="62" t="n">
+        <v>0.2937177425854</v>
+      </c>
+      <c r="G3" s="64" t="n">
         <f aca="false">(F3-$F$5)/$F$5*100</f>
-        <v>1.15853611867302</v>
-      </c>
-      <c r="H3" s="5" t="n">
-        <v>-0.294103527905</v>
-      </c>
-      <c r="I3" s="8" t="n">
+        <v>1.11990159101643</v>
+      </c>
+      <c r="H3" s="62" t="n">
+        <v>-0.2937241716065</v>
+      </c>
+      <c r="I3" s="64" t="n">
         <f aca="false">(H3-$H$5)/$H$5*100</f>
-        <v>1.15799128924054</v>
+        <v>1.12313420613868</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="61" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="n">
-        <v>0.03776120527854</v>
-      </c>
-      <c r="C4" s="53" t="n">
+      <c r="B4" s="65" t="n">
+        <v>0.03774558302765</v>
+      </c>
+      <c r="C4" s="66" t="n">
         <f aca="false">(B4-$B$5)/$B$5*100</f>
-        <v>0.198025638979295</v>
-      </c>
-      <c r="D4" s="5" t="n">
-        <v>0.2913116853767</v>
-      </c>
-      <c r="E4" s="53" t="n">
+        <v>0.239120906456881</v>
+      </c>
+      <c r="D4" s="62" t="n">
+        <v>0.2911846767037</v>
+      </c>
+      <c r="E4" s="64" t="n">
         <f aca="false">(D4-$D$5)/$D$5*100</f>
-        <v>0.197989853609889</v>
-      </c>
-      <c r="F4" s="5" t="n">
-        <v>0.2913109553456</v>
-      </c>
-      <c r="G4" s="8" t="n">
+        <v>0.248333608330097</v>
+      </c>
+      <c r="F4" s="62" t="n">
+        <v>0.2911843657898</v>
+      </c>
+      <c r="G4" s="64" t="n">
         <f aca="false">(F4-$F$5)/$F$5*100</f>
-        <v>0.198001838147736</v>
-      </c>
-      <c r="H4" s="5" t="n">
-        <v>-0.2913124154078</v>
-      </c>
-      <c r="I4" s="8" t="n">
+        <v>0.247721347463204</v>
+      </c>
+      <c r="H4" s="62" t="n">
+        <v>-0.2911849876176</v>
+      </c>
+      <c r="I4" s="64" t="n">
         <f aca="false">(H4-$H$5)/$H$5*100</f>
-        <v>0.197977869169468</v>
+        <v>0.248945875368266</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="61" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="n">
-        <v>0.03768657619522</v>
-      </c>
-      <c r="C5" s="2" t="n">
+      <c r="B5" s="65" t="n">
+        <v>0.03765554075726</v>
+      </c>
+      <c r="C5" s="61" t="n">
         <f aca="false">(B5-$B$5)/$B$5*100</f>
         <v>0</v>
       </c>
-      <c r="D5" s="5" t="n">
-        <v>0.2907360574821</v>
-      </c>
-      <c r="E5" s="2" t="n">
+      <c r="D5" s="62" t="n">
+        <v>0.2904633585645</v>
+      </c>
+      <c r="E5" s="61" t="n">
         <f aca="false">(D5-$D$5)/$D$5*100</f>
         <v>0</v>
       </c>
-      <c r="F5" s="5" t="n">
-        <v>0.2907352941191</v>
-      </c>
-      <c r="G5" s="8" t="n">
+      <c r="F5" s="62" t="n">
+        <v>0.2904648224178</v>
+      </c>
+      <c r="G5" s="64" t="n">
         <f aca="false">(F5-$F$5)/$F$5*100</f>
         <v>0</v>
       </c>
-      <c r="H5" s="5" t="n">
-        <v>-0.290736820845</v>
-      </c>
-      <c r="I5" s="8" t="n">
+      <c r="H5" s="62" t="n">
+        <v>-0.2904618947112</v>
+      </c>
+      <c r="I5" s="64" t="n">
         <f aca="false">(H5-$H$5)/$H$5*100</f>
         <v>-0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L8" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L9" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="M9" s="67" t="n">
+        <f aca="false">LN((F4-F3)/(F3-F2))/LN(M8)</f>
+        <v>-2.76644364303513</v>
       </c>
     </row>
   </sheetData>
@@ -4582,297 +3948,141 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="1" style="0" width="10.61"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="52" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="n">
-        <v>0.04030959074389</v>
-      </c>
-      <c r="C2" s="6" t="n">
-        <f aca="false">(B2-$B$5)/$B$5*100</f>
-        <v>7.04823230062975</v>
-      </c>
-      <c r="D2" s="4" t="n">
-        <v>0.3109552614872</v>
-      </c>
-      <c r="E2" s="6" t="n">
-        <f aca="false">(D2-$D$5)/$D$5*100</f>
-        <v>7.054901184085</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>0.3109555611867</v>
-      </c>
-      <c r="G2" s="8" t="n">
-        <f aca="false">(F2-$F$5)/$F$5*100</f>
-        <v>7.05446483961023</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>-0.3109549617878</v>
-      </c>
-      <c r="I2" s="8" t="n">
-        <f aca="false">(H2-$H$5)/$H$5*100</f>
-        <v>7.05533753299236</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="n">
-        <v>0.03806880863113</v>
-      </c>
-      <c r="C3" s="8" t="n">
-        <f aca="false">(B3-$B$5)/$B$5*100</f>
-        <v>1.09749552272814</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>0.293720957096</v>
-      </c>
-      <c r="E3" s="8" t="n">
-        <f aca="false">(D3-$D$5)/$D$5*100</f>
-        <v>1.12151789044903</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>0.2937177425854</v>
-      </c>
-      <c r="G3" s="8" t="n">
-        <f aca="false">(F3-$F$5)/$F$5*100</f>
-        <v>1.11990159101643</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>-0.2937241716065</v>
-      </c>
-      <c r="I3" s="8" t="n">
-        <f aca="false">(H3-$H$5)/$H$5*100</f>
-        <v>1.12313420613868</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5" t="n">
-        <v>0.03774558302765</v>
-      </c>
-      <c r="C4" s="53" t="n">
-        <f aca="false">(B4-$B$5)/$B$5*100</f>
-        <v>0.239120906456881</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>0.2911846767037</v>
-      </c>
-      <c r="E4" s="8" t="n">
-        <f aca="false">(D4-$D$5)/$D$5*100</f>
-        <v>0.248333608330097</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>0.2911843657898</v>
-      </c>
-      <c r="G4" s="8" t="n">
-        <f aca="false">(F4-$F$5)/$F$5*100</f>
-        <v>0.247721347463204</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>-0.2911849876176</v>
-      </c>
-      <c r="I4" s="8" t="n">
-        <f aca="false">(H4-$H$5)/$H$5*100</f>
-        <v>0.248945875368266</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5" t="n">
-        <v>0.03765554075726</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <f aca="false">(B5-$B$5)/$B$5*100</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>0.2904633585645</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <f aca="false">(D5-$D$5)/$D$5*100</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>0.2904648224178</v>
-      </c>
-      <c r="G5" s="8" t="n">
-        <f aca="false">(F5-$F$5)/$F$5*100</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>-0.2904618947112</v>
-      </c>
-      <c r="I5" s="8" t="n">
-        <f aca="false">(H5-$H$5)/$H$5*100</f>
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L8" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="M8" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L9" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="M9" s="54" t="n">
-        <f aca="false">LN((F4-F3)/(F3-F2))/LN(M8)</f>
-        <v>-2.76644364303513</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0" right="0" top="0.39375" bottom="0.39375" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="50" t="s">
-        <v>49</v>
+      <c r="B1" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="55" t="n">
-        <f aca="false">'UR0.29'!G15</f>
-        <v>0.308197745651861</v>
+      <c r="A2" s="68" t="n">
+        <v>0.3082</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="C2" s="56" t="n">
+      <c r="C2" s="69" t="n">
         <v>2E-005</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="55"/>
+      <c r="A3" s="68"/>
       <c r="B3" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="C3" s="56" t="n">
+      <c r="C3" s="69" t="n">
         <v>2.5E-005</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="55"/>
+      <c r="A4" s="68"/>
       <c r="B4" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C4" s="56" t="n">
+      <c r="C4" s="69" t="n">
         <v>2.5E-005</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="55"/>
+      <c r="A5" s="68"/>
       <c r="B5" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="C5" s="56" t="n">
+      <c r="C5" s="69" t="n">
         <v>2.5E-005</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="55"/>
+      <c r="A6" s="68"/>
       <c r="B6" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="C6" s="56" t="n">
+      <c r="C6" s="69" t="n">
         <v>2E-005</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="55"/>
+      <c r="A7" s="68"/>
       <c r="B7" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="C7" s="56" t="n">
+      <c r="C7" s="69" t="n">
         <v>2E-005</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="55"/>
+      <c r="A8" s="68"/>
       <c r="B8" s="0" t="n">
         <v>20</v>
       </c>
     </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="70" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="70"/>
+      <c r="B10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" s="69" t="n">
+        <v>1E-005</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="70"/>
+      <c r="B11" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C11" s="69" t="n">
+        <v>1E-005</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="70"/>
+      <c r="B12" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="70"/>
+      <c r="B13" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="70"/>
+      <c r="B14" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="70"/>
+      <c r="B15" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A15"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Resultados/Resultados.xlsx
+++ b/Resultados/Resultados.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="73">
   <si>
     <t xml:space="preserve">L [m]</t>
   </si>
@@ -100,6 +100,9 @@
     <t xml:space="preserve">CD (planilla)</t>
   </si>
   <si>
+    <t xml:space="preserve">D+ 10.78°</t>
+  </si>
+  <si>
     <t xml:space="preserve">St</t>
   </si>
   <si>
@@ -124,6 +127,24 @@
     <t xml:space="preserve">w*</t>
   </si>
   <si>
+    <t xml:space="preserve">E=6,8E+9 / 1623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E=8E+9 / 1623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E=7,7E+9 / r=1390</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E=7,5E+9 / 1325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E=5,8E+9 / 1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experimental</t>
+  </si>
+  <si>
     <t xml:space="preserve">UR=0.29</t>
   </si>
   <si>
@@ -148,7 +169,10 @@
     <t xml:space="preserve">t [s]</t>
   </si>
   <si>
-    <t xml:space="preserve">New E</t>
+    <t xml:space="preserve">New E=6,8E+9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New E=7.9E+9 Pa / rho = 1390 kg/m3</t>
   </si>
   <si>
     <t xml:space="preserve">Ff=16Hz</t>
@@ -161,6 +185,33 @@
   </si>
   <si>
     <t xml:space="preserve">←el primero siempre overshootea con respecto al valor periódico que después agarra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New E=8,5E+9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New E=7.7E+9 Pa / rho = 1390 kg/m3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ff=12Hz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New E=8,1E+9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ff=14Hz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New E=7.9E+9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rho</t>
   </si>
   <si>
     <t xml:space="preserve">n</t>
@@ -208,7 +259,7 @@
     <numFmt numFmtId="171" formatCode="0"/>
     <numFmt numFmtId="172" formatCode="General"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -326,6 +377,14 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -336,6 +395,11 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -350,31 +414,12 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -405,8 +450,14 @@
         <bgColor rgb="FF800000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -526,6 +577,13 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -600,7 +658,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="79">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -805,23 +863,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="170" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -829,15 +883,51 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="172" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -916,7 +1006,7 @@
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF7E0021"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
@@ -944,22 +1034,22 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FF83CAFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF4472C4"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFFD320"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF420E"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FFB3B3B3"/>
       <rgbColor rgb="FF004586"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF579D1C"/>
       <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF314004"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
@@ -1033,22 +1123,22 @@
                   <c:v>0.604229607250755</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.755287009063444</c:v>
+                  <c:v>0.814995925020375</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.906344410876133</c:v>
+                  <c:v>0.97799511002445</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.05740181268882</c:v>
+                  <c:v>1.14099429502853</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.20845921450151</c:v>
+                  <c:v>1.3039934800326</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3595166163142</c:v>
+                  <c:v>1.46699266503668</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.51057401812689</c:v>
+                  <c:v>1.62999185004075</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1083,13 +1173,569 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="75358891"/>
-        <c:axId val="95166845"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'UR0.29'!$W$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E=5,8E+9 / 1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="314004"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="314004"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'UR0.29'!$R$30:$R$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.97799511002445</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.14099429502853</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3039934800326</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'UR0.29'!$W$30:$W$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.66256139642377</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6722461904307</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.52323173374673</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'UR0.29'!$V$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E=7,5E+9 / 1325</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="83caff"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="83caff"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'UR0.29'!$R$30:$R$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.97799511002445</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.14099429502853</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3039934800326</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'UR0.29'!$V$30:$V$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.79643763408429</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8822717942183</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'UR0.29'!$T$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E=8E+9 / 1623</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'UR0.29'!$R$30:$R$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.97799511002445</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.14099429502853</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3039934800326</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'UR0.29'!$T$30:$T$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.95834478184374</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.77042311642844</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'UR0.29'!$U$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E=7,7E+9 / r=1390</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7e0021"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'UR0.29'!$R$30:$R$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.97799511002445</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.14099429502853</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3039934800326</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'UR0.29'!$U$30:$U$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.8259044600139</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.91099011083192</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'UR0.29'!$S$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E=6,8E+9 / 1623</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'UR0.29'!$R$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.3039934800326</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'UR0.29'!$S$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.49008346403845</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>experimental</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>experimental</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7e0021"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'UR0.29'!$S$45:$S$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.488838194557601</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.651784259410135</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.814730324262669</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.977676389115203</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.14062245396774</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.30356851882027</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4665145836728</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.62946064852534</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.79240671337787</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'UR0.29'!$T$45:$T$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.984673710116129</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.07883213620503</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.20171686177868</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.51770615611092</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.71879025250417</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7203861580311</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.64059088168457</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.48100032899152</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.28647452979585</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="12553713"/>
+        <c:axId val="71486624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="75358891"/>
+        <c:axId val="12553713"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.8"/>
@@ -1167,13 +1813,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95166845"/>
+        <c:crossAx val="71486624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="95166845"/>
+        <c:axId val="71486624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1249,7 +1895,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75358891"/>
+        <c:crossAx val="12553713"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1260,8 +1906,33 @@
         </a:ln>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="d9d9d9"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
+    <c:dispBlanksAs val="span"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1348,22 +2019,22 @@
                   <c:v>0.60</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.76</c:v>
+                  <c:v>0.81</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.91</c:v>
+                  <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.06</c:v>
+                  <c:v>1.14</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.21</c:v>
+                  <c:v>1.30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.36</c:v>
+                  <c:v>1.47</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.51</c:v>
+                  <c:v>1.63</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1461,22 +2132,22 @@
                   <c:v>0.60</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.76</c:v>
+                  <c:v>0.81</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.91</c:v>
+                  <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.06</c:v>
+                  <c:v>1.14</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.21</c:v>
+                  <c:v>1.30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.36</c:v>
+                  <c:v>1.47</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.51</c:v>
+                  <c:v>1.63</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1521,11 +2192,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="86640861"/>
-        <c:axId val="24600810"/>
+        <c:axId val="31427991"/>
+        <c:axId val="53415537"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86640861"/>
+        <c:axId val="31427991"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1581,7 +2252,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="24600810"/>
+        <c:crossAx val="53415537"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1589,7 +2260,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="24600810"/>
+        <c:axId val="53415537"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1654,7 +2325,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86640861"/>
+        <c:crossAx val="31427991"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1790,11 +2461,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="83806712"/>
-        <c:axId val="51575471"/>
+        <c:axId val="85402866"/>
+        <c:axId val="43610706"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83806712"/>
+        <c:axId val="85402866"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1826,7 +2497,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51575471"/>
+        <c:crossAx val="43610706"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1834,7 +2505,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51575471"/>
+        <c:axId val="43610706"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1876,7 +2547,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83806712"/>
+        <c:crossAx val="85402866"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2015,11 +2686,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="92770092"/>
-        <c:axId val="85140496"/>
+        <c:axId val="60148059"/>
+        <c:axId val="32978049"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92770092"/>
+        <c:axId val="60148059"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2051,7 +2722,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85140496"/>
+        <c:crossAx val="32978049"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2059,7 +2730,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85140496"/>
+        <c:axId val="32978049"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2101,7 +2772,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92770092"/>
+        <c:crossAx val="60148059"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2157,15 +2828,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>709920</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>17640</xdr:rowOff>
+      <xdr:colOff>469440</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>18000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>387360</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>52200</xdr:rowOff>
+      <xdr:colOff>675720</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>131400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2173,8 +2844,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4643640" y="3873240"/>
-        <a:ext cx="8742600" cy="3539880"/>
+        <a:off x="4403160" y="6852960"/>
+        <a:ext cx="9271440" cy="6773400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2187,15 +2858,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>281880</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>101880</xdr:rowOff>
+      <xdr:colOff>348120</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>123480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>92880</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:colOff>153000</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>47160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2203,8 +2874,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3394440" y="7637760"/>
-        <a:ext cx="7977240" cy="4486320"/>
+        <a:off x="3460680" y="13793760"/>
+        <a:ext cx="7971120" cy="4480200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2228,9 +2899,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>821160</xdr:colOff>
+      <xdr:colOff>815040</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>100080</xdr:rowOff>
+      <xdr:rowOff>93960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2239,7 +2910,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="851400" y="1386360"/>
-        <a:ext cx="6537960" cy="3237840"/>
+        <a:ext cx="6531840" cy="3231720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2258,9 +2929,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>87840</xdr:colOff>
+      <xdr:colOff>81720</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>52560</xdr:rowOff>
+      <xdr:rowOff>46440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2269,7 +2940,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="7552080" y="1338840"/>
-        <a:ext cx="6536520" cy="3237840"/>
+        <a:ext cx="6530400" cy="3231720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2287,10 +2958,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X23"/>
+  <dimension ref="A1:Y53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T16" activeCellId="0" sqref="T16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C32" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W32" activeCellId="0" sqref="W32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2303,9 +2974,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="10.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="11.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="16" style="0" width="10.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="14.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="20" style="0" width="10.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="10.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="17.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="17.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="19.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="15.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="22.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="10.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2335,6 +3009,7 @@
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
@@ -2363,6 +3038,7 @@
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
@@ -2391,6 +3067,7 @@
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
@@ -2419,6 +3096,7 @@
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
@@ -2447,6 +3125,7 @@
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
@@ -2476,6 +3155,7 @@
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
@@ -2508,6 +3188,7 @@
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
@@ -2537,6 +3218,7 @@
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
@@ -2566,6 +3248,7 @@
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
@@ -2595,6 +3278,7 @@
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="12" t="s">
@@ -2624,6 +3308,7 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="s">
@@ -2652,6 +3337,7 @@
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="15" t="s">
@@ -2681,6 +3367,7 @@
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3"/>
@@ -2722,19 +3409,19 @@
       <c r="O14" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="P14" s="21" t="s">
+      <c r="P14" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="Q14" s="22" t="s">
+      <c r="Q14" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="R14" s="23" t="s">
+      <c r="R14" s="22" t="s">
         <v>27</v>
       </c>
       <c r="S14" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="T14" s="22" t="s">
+      <c r="T14" s="23" t="s">
         <v>29</v>
       </c>
       <c r="U14" s="22" t="s">
@@ -2743,8 +3430,11 @@
       <c r="V14" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="X14" s="0" t="s">
+      <c r="W14" s="22" t="s">
         <v>32</v>
+      </c>
+      <c r="Y14" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2795,22 +3485,26 @@
       <c r="O15" s="34" t="n">
         <v>0.297202351395596</v>
       </c>
-      <c r="P15" s="35" t="n">
+      <c r="P15" s="34" t="n">
+        <f aca="false">H15/(1000*SIN(RADIANS(10.78))*0.035)</f>
+        <v>1.52626141431146</v>
+      </c>
+      <c r="Q15" s="35" t="n">
         <f aca="false">2*D15*$B$1*SIN(RADIANS(10))/$F$15</f>
         <v>0.117160216257206</v>
       </c>
-      <c r="Q15" s="36" t="n">
+      <c r="R15" s="36" t="n">
         <f aca="false">J15</f>
         <v>1923.84105960265</v>
       </c>
-      <c r="R15" s="3"/>
       <c r="S15" s="3"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="37" t="n">
-        <f aca="false">$T$16/D15</f>
+      <c r="T15" s="3"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="37" t="n">
+        <f aca="false">$U$16/D15</f>
         <v>1.82735102881922</v>
       </c>
-      <c r="V15" s="38" t="n">
+      <c r="W15" s="38" t="n">
         <f aca="false">(2*H15)/(1000*$B$1)</f>
         <v>0.570939047619048</v>
       </c>
@@ -2823,8 +3517,8 @@
         <v>10</v>
       </c>
       <c r="E16" s="25" t="n">
-        <f aca="false">D16/13.24</f>
-        <v>0.755287009063444</v>
+        <f aca="false">D16/12.27</f>
+        <v>0.814995925020375</v>
       </c>
       <c r="F16" s="26"/>
       <c r="G16" s="27"/>
@@ -2858,31 +3552,35 @@
       <c r="O16" s="39" t="n">
         <v>0.1268</v>
       </c>
-      <c r="P16" s="35" t="n">
+      <c r="P16" s="34" t="n">
+        <f aca="false">H16/(1000*SIN(RADIANS(10.78))*0.035)</f>
+        <v>1.88897782666158</v>
+      </c>
+      <c r="Q16" s="35" t="n">
         <f aca="false">2*D16*$B$1*SIN(RADIANS(10))/$F$15</f>
         <v>0.146450270321508</v>
       </c>
-      <c r="Q16" s="36" t="n">
+      <c r="R16" s="36" t="n">
         <f aca="false">J16</f>
         <v>1923.84105960265</v>
       </c>
-      <c r="R16" s="40" t="n">
+      <c r="S16" s="40" t="n">
         <f aca="false">B3/B1</f>
         <v>4.57142857142857</v>
       </c>
-      <c r="S16" s="41" t="n">
-        <f aca="false">(1+0.74273*$R$16+0.14862*$R$16^2)/(1+0.74273*$R$16+0.35004*$R$16^2+0.058364*$R$16^4)</f>
+      <c r="T16" s="41" t="n">
+        <f aca="false">(1+0.74273*$S$16+0.14862*$S$16^2)/(1+0.74273*$S$16+0.35004*$S$16^2+0.058364*$S$16^4)</f>
         <v>0.201647874132701</v>
       </c>
-      <c r="T16" s="42" t="n">
-        <f aca="false">17.15*(1/SQRT(1+(PI()*1.205*0.16)/(4*1623*0.00005)*S16))</f>
+      <c r="U16" s="42" t="n">
+        <f aca="false">17.15*(1/SQRT(1+(PI()*1.205*0.16)/(4*1623*0.00005)*T16))</f>
         <v>14.6188082305538</v>
       </c>
-      <c r="U16" s="37" t="n">
-        <f aca="false">$T$16/D16</f>
+      <c r="V16" s="37" t="n">
+        <f aca="false">$U$16/D16</f>
         <v>1.46188082305538</v>
       </c>
-      <c r="V16" s="38" t="n">
+      <c r="W16" s="38" t="n">
         <f aca="false">(2*H16)/(1000*$B$1)</f>
         <v>0.706622857142857</v>
       </c>
@@ -2895,8 +3593,8 @@
         <v>12</v>
       </c>
       <c r="E17" s="25" t="n">
-        <f aca="false">D17/13.24</f>
-        <v>0.906344410876133</v>
+        <f aca="false">D17/12.27</f>
+        <v>0.97799511002445</v>
       </c>
       <c r="F17" s="26"/>
       <c r="G17" s="27"/>
@@ -2930,22 +3628,26 @@
       <c r="O17" s="39" t="n">
         <v>-0.1184</v>
       </c>
-      <c r="P17" s="35" t="n">
+      <c r="P17" s="34" t="n">
+        <f aca="false">H17/(1000*SIN(RADIANS(10.78))*0.035)</f>
+        <v>1.91677654611556</v>
+      </c>
+      <c r="Q17" s="35" t="n">
         <f aca="false">2*D17*$B$1*SIN(RADIANS(10))/$F$15</f>
         <v>0.175740324385809</v>
       </c>
-      <c r="Q17" s="36" t="n">
+      <c r="R17" s="36" t="n">
         <f aca="false">J17</f>
         <v>1923.84105960265</v>
       </c>
-      <c r="R17" s="40"/>
-      <c r="S17" s="41"/>
-      <c r="T17" s="42"/>
-      <c r="U17" s="37" t="n">
-        <f aca="false">$T$16/D17</f>
+      <c r="S17" s="40"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="42"/>
+      <c r="V17" s="37" t="n">
+        <f aca="false">$U$16/D17</f>
         <v>1.21823401921281</v>
       </c>
-      <c r="V17" s="38" t="n">
+      <c r="W17" s="38" t="n">
         <f aca="false">(2*H17)/(1000*$B$1)</f>
         <v>0.717021714285714</v>
       </c>
@@ -2958,8 +3660,8 @@
         <v>14</v>
       </c>
       <c r="E18" s="25" t="n">
-        <f aca="false">D18/13.24</f>
-        <v>1.05740181268882</v>
+        <f aca="false">D18/12.27</f>
+        <v>1.14099429502853</v>
       </c>
       <c r="F18" s="26"/>
       <c r="G18" s="27"/>
@@ -2993,22 +3695,26 @@
       <c r="O18" s="39" t="n">
         <v>-0.1812</v>
       </c>
-      <c r="P18" s="35" t="n">
+      <c r="P18" s="34" t="n">
+        <f aca="false">H18/(1000*SIN(RADIANS(10.78))*0.035)</f>
+        <v>1.61887480295282</v>
+      </c>
+      <c r="Q18" s="35" t="n">
         <f aca="false">2*D18*$B$1*SIN(RADIANS(10))/$F$15</f>
         <v>0.20503037845011</v>
       </c>
-      <c r="Q18" s="36" t="n">
+      <c r="R18" s="36" t="n">
         <f aca="false">J18</f>
         <v>1923.84105960265</v>
       </c>
-      <c r="R18" s="40"/>
-      <c r="S18" s="41"/>
-      <c r="T18" s="42"/>
-      <c r="U18" s="37" t="n">
-        <f aca="false">$T$16/D18</f>
+      <c r="S18" s="40"/>
+      <c r="T18" s="41"/>
+      <c r="U18" s="42"/>
+      <c r="V18" s="37" t="n">
+        <f aca="false">$U$16/D18</f>
         <v>1.0442005878967</v>
       </c>
-      <c r="V18" s="38" t="n">
+      <c r="W18" s="38" t="n">
         <f aca="false">(2*H18)/(1000*$B$1)</f>
         <v>0.605583571428571</v>
       </c>
@@ -3021,8 +3727,8 @@
         <v>16</v>
       </c>
       <c r="E19" s="25" t="n">
-        <f aca="false">D19/13.24</f>
-        <v>1.20845921450151</v>
+        <f aca="false">D19/12.27</f>
+        <v>1.3039934800326</v>
       </c>
       <c r="F19" s="26"/>
       <c r="G19" s="27"/>
@@ -3056,22 +3762,26 @@
       <c r="O19" s="34" t="n">
         <v>-0.093</v>
       </c>
-      <c r="P19" s="35" t="n">
+      <c r="P19" s="34" t="n">
+        <f aca="false">H19/(1000*SIN(RADIANS(10.78))*0.035)</f>
+        <v>1.23620896246394</v>
+      </c>
+      <c r="Q19" s="35" t="n">
         <f aca="false">2*D19*$B$1*SIN(RADIANS(10))/$F$15</f>
         <v>0.234320432514412</v>
       </c>
-      <c r="Q19" s="36" t="n">
+      <c r="R19" s="36" t="n">
         <f aca="false">J19</f>
         <v>1923.84105960265</v>
       </c>
-      <c r="R19" s="40"/>
-      <c r="S19" s="41"/>
-      <c r="T19" s="42"/>
-      <c r="U19" s="37" t="n">
-        <f aca="false">$T$16/D19</f>
+      <c r="S19" s="40"/>
+      <c r="T19" s="41"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="37" t="n">
+        <f aca="false">$U$16/D19</f>
         <v>0.913675514409611</v>
       </c>
-      <c r="V19" s="38" t="n">
+      <c r="W19" s="38" t="n">
         <f aca="false">(2*H19)/(1000*$B$1)</f>
         <v>0.462437142857143</v>
       </c>
@@ -3084,8 +3794,8 @@
         <v>18</v>
       </c>
       <c r="E20" s="25" t="n">
-        <f aca="false">D20/13.24</f>
-        <v>1.3595166163142</v>
+        <f aca="false">D20/12.27</f>
+        <v>1.46699266503668</v>
       </c>
       <c r="F20" s="26"/>
       <c r="G20" s="27"/>
@@ -3119,22 +3829,26 @@
       <c r="O20" s="34" t="n">
         <v>-0.012637550314478</v>
       </c>
-      <c r="P20" s="35" t="n">
+      <c r="P20" s="34" t="n">
+        <f aca="false">H20/(1000*SIN(RADIANS(10.78))*0.035)</f>
+        <v>0.928395963036935</v>
+      </c>
+      <c r="Q20" s="35" t="n">
         <f aca="false">2*D20*$B$1*SIN(RADIANS(10))/$F$15</f>
         <v>0.263610486578714</v>
       </c>
-      <c r="Q20" s="36" t="n">
+      <c r="R20" s="36" t="n">
         <f aca="false">J20</f>
         <v>1923.84105960265</v>
       </c>
-      <c r="R20" s="40"/>
-      <c r="S20" s="41"/>
-      <c r="T20" s="42"/>
-      <c r="U20" s="37" t="n">
-        <f aca="false">$T$16/D20</f>
+      <c r="S20" s="40"/>
+      <c r="T20" s="41"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="37" t="n">
+        <f aca="false">$U$16/D20</f>
         <v>0.812156012808543</v>
       </c>
-      <c r="V20" s="38" t="n">
+      <c r="W20" s="38" t="n">
         <f aca="false">(2*H20)/(1000*$B$1)</f>
         <v>0.347291428571428</v>
       </c>
@@ -3147,8 +3861,8 @@
         <v>20</v>
       </c>
       <c r="E21" s="44" t="n">
-        <f aca="false">D21/13.24</f>
-        <v>1.51057401812689</v>
+        <f aca="false">D21/12.27</f>
+        <v>1.62999185004075</v>
       </c>
       <c r="F21" s="26"/>
       <c r="G21" s="27"/>
@@ -3182,22 +3896,26 @@
       <c r="O21" s="50" t="n">
         <v>0.0624</v>
       </c>
-      <c r="P21" s="35" t="n">
+      <c r="P21" s="51" t="n">
+        <f aca="false">H21/(1000*SIN(RADIANS(10.78))*0.035)</f>
+        <v>0.734896121052445</v>
+      </c>
+      <c r="Q21" s="35" t="n">
         <f aca="false">2*D21*$B$1*SIN(RADIANS(10))/$F$15</f>
         <v>0.292900540643015</v>
       </c>
-      <c r="Q21" s="36" t="n">
+      <c r="R21" s="36" t="n">
         <f aca="false">J21</f>
         <v>1923.84105960265</v>
       </c>
-      <c r="R21" s="40"/>
-      <c r="S21" s="41"/>
-      <c r="T21" s="42"/>
-      <c r="U21" s="37" t="n">
-        <f aca="false">$T$16/D21</f>
+      <c r="S21" s="40"/>
+      <c r="T21" s="41"/>
+      <c r="U21" s="42"/>
+      <c r="V21" s="37" t="n">
+        <f aca="false">$U$16/D21</f>
         <v>0.730940411527689</v>
       </c>
-      <c r="V21" s="38" t="n">
+      <c r="W21" s="38" t="n">
         <f aca="false">(2*H21)/(1000*$B$1)</f>
         <v>0.274907619047619</v>
       </c>
@@ -3222,11 +3940,12 @@
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
-      <c r="T22" s="51" t="n">
+      <c r="T22" s="3"/>
+      <c r="U22" s="52" t="n">
         <v>13.24</v>
       </c>
-      <c r="U22" s="3"/>
       <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3"/>
@@ -3248,20 +3967,204 @@
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
-      <c r="T23" s="3" t="n">
-        <f aca="false">T16/13.24</f>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3" t="n">
+        <f aca="false">U16/13.24</f>
         <v>1.1041395944527</v>
       </c>
-      <c r="U23" s="3"/>
       <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R28" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="S28" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="T28" s="54"/>
+      <c r="U28" s="54"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S29" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="T29" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="U29" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="V29" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="W29" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="X29" s="57"/>
+      <c r="Y29" s="57"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R30" s="58" t="n">
+        <f aca="false">E17</f>
+        <v>0.97799511002445</v>
+      </c>
+      <c r="S30" s="58"/>
+      <c r="T30" s="58" t="n">
+        <f aca="false">DataAmplitudes!D51</f>
+        <v>1.95834478184374</v>
+      </c>
+      <c r="U30" s="58" t="n">
+        <f aca="false">DataAmplitudes!Q34</f>
+        <v>1.8259044600139</v>
+      </c>
+      <c r="V30" s="58" t="n">
+        <f aca="false">DataAmplitudes!D66</f>
+        <v>1.79643763408429</v>
+      </c>
+      <c r="W30" s="58" t="n">
+        <f aca="false">DataAmplitudes!D76</f>
+        <v>1.66256139642377</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R31" s="58" t="n">
+        <f aca="false">E18</f>
+        <v>1.14099429502853</v>
+      </c>
+      <c r="S31" s="58"/>
+      <c r="U31" s="58" t="n">
+        <f aca="false">DataAmplitudes!Q44</f>
+        <v>1.91099011083192</v>
+      </c>
+      <c r="V31" s="58" t="n">
+        <f aca="false">DataAmplitudes!N67</f>
+        <v>1.8822717942183</v>
+      </c>
+      <c r="W31" s="58" t="n">
+        <f aca="false">DataAmplitudes!I76</f>
+        <v>1.6722461904307</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R32" s="58" t="n">
+        <f aca="false">E19</f>
+        <v>1.3039934800326</v>
+      </c>
+      <c r="S32" s="58" t="n">
+        <f aca="false">DataAmplitudes!D24</f>
+        <v>1.49008346403845</v>
+      </c>
+      <c r="T32" s="58" t="n">
+        <f aca="false">DataAmplitudes!D42</f>
+        <v>1.77042311642844</v>
+      </c>
+      <c r="U32" s="0" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V32" s="58" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W32" s="58" t="n">
+        <f aca="false">DataAmplitudes!N76</f>
+        <v>1.52323173374673</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S43" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="T43" s="54"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S44" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="T44" s="53" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S45" s="0" t="n">
+        <v>0.488838194557601</v>
+      </c>
+      <c r="T45" s="0" t="n">
+        <v>0.984673710116129</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S46" s="0" t="n">
+        <v>0.651784259410135</v>
+      </c>
+      <c r="T46" s="0" t="n">
+        <v>1.07883213620503</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S47" s="0" t="n">
+        <v>0.814730324262669</v>
+      </c>
+      <c r="T47" s="0" t="n">
+        <v>1.20171686177868</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S48" s="0" t="n">
+        <v>0.977676389115203</v>
+      </c>
+      <c r="T48" s="0" t="n">
+        <v>1.51770615611092</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S49" s="0" t="n">
+        <v>1.14062245396774</v>
+      </c>
+      <c r="T49" s="0" t="n">
+        <v>1.71879025250417</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S50" s="0" t="n">
+        <v>1.30356851882027</v>
+      </c>
+      <c r="T50" s="0" t="n">
+        <v>1.7203861580311</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S51" s="0" t="n">
+        <v>1.4665145836728</v>
+      </c>
+      <c r="T51" s="0" t="n">
+        <v>1.64059088168457</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S52" s="0" t="n">
+        <v>1.62946064852534</v>
+      </c>
+      <c r="T52" s="0" t="n">
+        <v>1.48100032899152</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S53" s="0" t="n">
+        <v>1.79240671337787</v>
+      </c>
+      <c r="T53" s="0" t="n">
+        <v>1.28647452979585</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
     <mergeCell ref="F15:F21"/>
     <mergeCell ref="G15:G21"/>
-    <mergeCell ref="R16:R21"/>
     <mergeCell ref="S16:S21"/>
     <mergeCell ref="T16:T21"/>
+    <mergeCell ref="U16:U21"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="S43:T43"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0" right="0" top="0.39375" bottom="0.39375" header="0" footer="0"/>
@@ -3279,10 +4182,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:R77"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F77" activeCellId="0" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3291,77 +4194,77 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="52" t="s">
-        <v>33</v>
+      <c r="A1" s="54" t="s">
+        <v>40</v>
       </c>
       <c r="B1" s="53"/>
-      <c r="C1" s="52"/>
+      <c r="C1" s="54"/>
       <c r="D1" s="53"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="52"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="54"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="L2" s="55"/>
+      <c r="A2" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="60"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="56" t="s">
+      <c r="A3" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="56" t="s">
+      <c r="C3" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="56" t="s">
+      <c r="E3" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="56" t="s">
+      <c r="G3" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="56" t="s">
+      <c r="I3" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="56" t="s">
+      <c r="K3" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="55" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3401,7 +4304,7 @@
       <c r="K4" s="0" t="n">
         <v>1.209</v>
       </c>
-      <c r="L4" s="57" t="n">
+      <c r="L4" s="61" t="n">
         <f aca="false">1000*(0.03-0.0251846)</f>
         <v>4.8154</v>
       </c>
@@ -3443,7 +4346,7 @@
       <c r="K5" s="0" t="n">
         <v>1.234</v>
       </c>
-      <c r="L5" s="57" t="n">
+      <c r="L5" s="61" t="n">
         <v>4.821</v>
       </c>
     </row>
@@ -3483,7 +4386,7 @@
       <c r="K6" s="0" t="n">
         <v>1.259</v>
       </c>
-      <c r="L6" s="57" t="n">
+      <c r="L6" s="61" t="n">
         <f aca="false">1000*(0.03-0.025197)</f>
         <v>4.803</v>
       </c>
@@ -3525,7 +4428,7 @@
       <c r="K7" s="0" t="n">
         <v>1.334</v>
       </c>
-      <c r="L7" s="57" t="n">
+      <c r="L7" s="61" t="n">
         <v>4.8051</v>
       </c>
     </row>
@@ -3552,7 +4455,7 @@
       <c r="K8" s="0" t="n">
         <v>1.359</v>
       </c>
-      <c r="L8" s="57" t="n">
+      <c r="L8" s="61" t="n">
         <f aca="false">1000*(0.03-0.0251891)</f>
         <v>4.8109</v>
       </c>
@@ -3574,7 +4477,7 @@
       <c r="K9" s="0" t="n">
         <v>1.434</v>
       </c>
-      <c r="L9" s="57" t="n">
+      <c r="L9" s="61" t="n">
         <v>4.8099</v>
       </c>
     </row>
@@ -3596,35 +4499,57 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
+      <c r="A17" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="N17" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="O17" s="60"/>
+      <c r="P17" s="60"/>
+      <c r="Q17" s="60"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="N18" s="58" t="n">
-        <f aca="false">10.75/(SIN(RADIANS(10.78))*0.035*1000)</f>
-        <v>1.64213778508738</v>
-      </c>
+      <c r="A18" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="N18" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="O18" s="60"/>
+      <c r="P18" s="60"/>
+      <c r="Q18" s="60"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="53" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B19" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="56" t="s">
-        <v>43</v>
+      <c r="C19" s="53" t="s">
+        <v>51</v>
       </c>
       <c r="D19" s="53" t="s">
-        <v>44</v>
+        <v>52</v>
+      </c>
+      <c r="N19" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="O19" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="P19" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q19" s="53" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3643,7 +4568,21 @@
         <v>1.58364712853762</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>45</v>
+        <v>53</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <v>1.031</v>
+      </c>
+      <c r="O20" s="58" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="P20" s="58" t="n">
+        <f aca="false">O20/(1000*0.035*SIN(RADIANS(10)))</f>
+        <v>1.9612726902592</v>
+      </c>
+      <c r="Q20" s="58" t="n">
+        <f aca="false">O20/(1000*0.035*SIN(RADIANS(10.78)))</f>
+        <v>1.82086347890619</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3661,6 +4600,21 @@
       <c r="D21" s="58" t="n">
         <f aca="false">B21/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.53519260710229</v>
+      </c>
+      <c r="N21" s="0" t="n">
+        <v>1.063</v>
+      </c>
+      <c r="O21" s="58" t="n">
+        <f aca="false">1000*(0.03-0.0182312)</f>
+        <v>11.7688</v>
+      </c>
+      <c r="P21" s="58" t="n">
+        <f aca="false">O21/(1000*0.035*SIN(RADIANS(10)))</f>
+        <v>1.93639480177202</v>
+      </c>
+      <c r="Q21" s="58" t="n">
+        <f aca="false">O21/(1000*0.035*SIN(RADIANS(10.78)))</f>
+        <v>1.79776662001268</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3679,13 +4633,27 @@
         <f aca="false">B22/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.50975856605885</v>
       </c>
-      <c r="G22" s="57"/>
+      <c r="G22" s="61"/>
+      <c r="N22" s="0" t="n">
+        <v>1.095</v>
+      </c>
+      <c r="O22" s="58" t="n">
+        <v>11.6725</v>
+      </c>
+      <c r="P22" s="58" t="n">
+        <f aca="false">O22/(1000*0.035*SIN(RADIANS(10)))</f>
+        <v>1.9205499561284</v>
+      </c>
+      <c r="Q22" s="58" t="n">
+        <f aca="false">O22/(1000*0.035*SIN(RADIANS(10.78)))</f>
+        <v>1.78305612059837</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>1.131</v>
       </c>
-      <c r="B23" s="59" t="n">
+      <c r="B23" s="62" t="n">
         <f aca="false">1000*(0.03-0.0202027)</f>
         <v>9.7973</v>
       </c>
@@ -3697,7 +4665,22 @@
         <f aca="false">B23/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.49660618807782</v>
       </c>
-      <c r="G23" s="57"/>
+      <c r="G23" s="61"/>
+      <c r="N23" s="0" t="n">
+        <v>1.126</v>
+      </c>
+      <c r="O23" s="63" t="n">
+        <f aca="false">1000*(0.03-0.018351)</f>
+        <v>11.649</v>
+      </c>
+      <c r="P23" s="58" t="n">
+        <f aca="false">O23/(1000*0.035*SIN(RADIANS(10)))</f>
+        <v>1.91668335308972</v>
+      </c>
+      <c r="Q23" s="58" t="n">
+        <f aca="false">O23/(1000*0.035*SIN(RADIANS(10.78)))</f>
+        <v>1.77946633102166</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
@@ -3715,17 +4698,1004 @@
         <f aca="false">B24/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.49008346403845</v>
       </c>
+      <c r="N24" s="0" t="n">
+        <v>1.157</v>
+      </c>
+      <c r="O24" s="58" t="n">
+        <v>11.6353</v>
+      </c>
+      <c r="P24" s="58" t="n">
+        <f aca="false">O24/(1000*0.035*SIN(RADIANS(10)))</f>
+        <v>1.91442920578632</v>
+      </c>
+      <c r="Q24" s="58" t="n">
+        <f aca="false">O24/(1000*0.035*SIN(RADIANS(10.78)))</f>
+        <v>1.77737356007695</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N25" s="0" t="n">
+        <v>1.188</v>
+      </c>
+      <c r="O25" s="63" t="n">
+        <f aca="false">1000*(0.03-0.0183805)</f>
+        <v>11.6195</v>
+      </c>
+      <c r="P25" s="58" t="n">
+        <f aca="false">O25/(1000*0.035*SIN(RADIANS(10)))</f>
+        <v>1.91182953225393</v>
+      </c>
+      <c r="Q25" s="58" t="n">
+        <f aca="false">O25/(1000*0.035*SIN(RADIANS(10.78)))</f>
+        <v>1.77495999942538</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="O26" s="58"/>
+      <c r="P26" s="58"/>
+      <c r="Q26" s="58"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="60"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="N27" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="O27" s="64"/>
+      <c r="P27" s="64"/>
+      <c r="Q27" s="65" t="n">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>1.033</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>12.3826</v>
+      </c>
+      <c r="C29" s="58" t="n">
+        <f aca="false">B29/(1000*0.035*SIN(RADIANS(10)))</f>
+        <v>2.03738718241641</v>
+      </c>
+      <c r="D29" s="58" t="n">
+        <f aca="false">B29/(1000*0.035*SIN(RADIANS(10.78)))</f>
+        <v>1.89152886861609</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="N29" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="O29" s="60"/>
+      <c r="P29" s="60"/>
+      <c r="Q29" s="60"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>1.064</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <f aca="false">(0.03-0.0178154)*1000</f>
+        <v>12.1846</v>
+      </c>
+      <c r="C30" s="58" t="n">
+        <f aca="false">B30/(1000*0.035*SIN(RADIANS(10)))</f>
+        <v>2.00480899511177</v>
+      </c>
+      <c r="D30" s="58" t="n">
+        <f aca="false">B30/(1000*0.035*SIN(RADIANS(10.78)))</f>
+        <v>1.86128298196983</v>
+      </c>
+      <c r="N30" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="O30" s="60"/>
+      <c r="P30" s="60"/>
+      <c r="Q30" s="60"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="58" t="n">
+        <f aca="false">B31/(1000*0.035*SIN(RADIANS(10)))</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="58" t="n">
+        <f aca="false">B31/(1000*0.035*SIN(RADIANS(10.78)))</f>
+        <v>0</v>
+      </c>
+      <c r="N31" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="O31" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="P31" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q31" s="53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="62"/>
+      <c r="C32" s="58" t="n">
+        <f aca="false">B32/(1000*0.035*SIN(RADIANS(10)))</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="58" t="n">
+        <f aca="false">B32/(1000*0.035*SIN(RADIANS(10.78)))</f>
+        <v>0</v>
+      </c>
+      <c r="N32" s="0" t="n">
+        <v>1.031</v>
+      </c>
+      <c r="O32" s="58" t="n">
+        <v>11.8117</v>
+      </c>
+      <c r="P32" s="58" t="n">
+        <f aca="false">O32/(1000*0.035*SIN(RADIANS(10)))</f>
+        <v>1.94345340902136</v>
+      </c>
+      <c r="Q32" s="58" t="n">
+        <f aca="false">O32/(1000*0.035*SIN(RADIANS(10.78)))</f>
+        <v>1.80431989545271</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="58" t="n">
+        <f aca="false">B33/(1000*0.035*SIN(RADIANS(10)))</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="58" t="n">
+        <f aca="false">B33/(1000*0.035*SIN(RADIANS(10.78)))</f>
+        <v>0</v>
+      </c>
+      <c r="N33" s="0" t="n">
+        <v>1.073</v>
+      </c>
+      <c r="O33" s="58" t="n">
+        <f aca="false">1000*(0.03-0.0180445)</f>
+        <v>11.9555</v>
+      </c>
+      <c r="P33" s="58" t="n">
+        <f aca="false">O33/(1000*0.035*SIN(RADIANS(10)))</f>
+        <v>1.96711372889211</v>
+      </c>
+      <c r="Q33" s="58" t="n">
+        <f aca="false">O33/(1000*0.035*SIN(RADIANS(10.78)))</f>
+        <v>1.82628635252206</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N34" s="0" t="n">
+        <v>1.114</v>
+      </c>
+      <c r="O34" s="58" t="n">
+        <v>11.953</v>
+      </c>
+      <c r="P34" s="58" t="n">
+        <f aca="false">O34/(1000*0.035*SIN(RADIANS(10)))</f>
+        <v>1.96670238814331</v>
+      </c>
+      <c r="Q34" s="58" t="n">
+        <f aca="false">O34/(1000*0.035*SIN(RADIANS(10.78)))</f>
+        <v>1.8259044600139</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="60"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="O35" s="63"/>
+      <c r="P35" s="58" t="n">
+        <f aca="false">O35/(1000*0.035*SIN(RADIANS(10)))</f>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="58" t="n">
+        <f aca="false">O35/(1000*0.035*SIN(RADIANS(10.78)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="60"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="60"/>
+      <c r="O36" s="58"/>
+      <c r="P36" s="58" t="n">
+        <f aca="false">O36/(1000*0.035*SIN(RADIANS(10)))</f>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="58" t="n">
+        <f aca="false">O36/(1000*0.035*SIN(RADIANS(10.78)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="O37" s="63"/>
+      <c r="P37" s="58" t="n">
+        <f aca="false">O37/(1000*0.035*SIN(RADIANS(10)))</f>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="58" t="n">
+        <f aca="false">O37/(1000*0.035*SIN(RADIANS(10.78)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>1.033</v>
+      </c>
+      <c r="B38" s="58" t="n">
+        <v>12.0366</v>
+      </c>
+      <c r="C38" s="58" t="n">
+        <f aca="false">B38/(1000*0.035*SIN(RADIANS(10)))</f>
+        <v>1.98045762278305</v>
+      </c>
+      <c r="D38" s="58" t="n">
+        <f aca="false">B38/(1000*0.035*SIN(RADIANS(10.78)))</f>
+        <v>1.83867494548677</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>1.065</v>
+      </c>
+      <c r="B39" s="58" t="n">
+        <f aca="false">(0.03-0.0182043)*1000</f>
+        <v>11.7957</v>
+      </c>
+      <c r="C39" s="58" t="n">
+        <f aca="false">B39/(1000*0.035*SIN(RADIANS(10)))</f>
+        <v>1.94082082822907</v>
+      </c>
+      <c r="D39" s="58" t="n">
+        <f aca="false">B39/(1000*0.035*SIN(RADIANS(10.78)))</f>
+        <v>1.80187578340048</v>
+      </c>
+      <c r="G39" s="58" t="n">
+        <f aca="false">D21/D20*D38</f>
+        <v>1.78241739103968</v>
+      </c>
+      <c r="N39" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="O39" s="60"/>
+      <c r="P39" s="60"/>
+      <c r="Q39" s="60"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>1.096</v>
+      </c>
+      <c r="B40" s="58" t="n">
+        <v>11.6751</v>
+      </c>
+      <c r="C40" s="58" t="n">
+        <f aca="false">B40/(1000*0.035*SIN(RADIANS(10)))</f>
+        <v>1.92097775050715</v>
+      </c>
+      <c r="D40" s="58" t="n">
+        <f aca="false">B40/(1000*0.035*SIN(RADIANS(10.78)))</f>
+        <v>1.78345328880685</v>
+      </c>
+      <c r="G40" s="58" t="n">
+        <f aca="false">D22/D20*D38</f>
+        <v>1.75288749565683</v>
+      </c>
+      <c r="N40" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="O40" s="60"/>
+      <c r="P40" s="60"/>
+      <c r="Q40" s="60"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>1.128</v>
+      </c>
+      <c r="B41" s="63" t="n">
+        <f aca="false">(0.03-0.0183851)*1000</f>
+        <v>11.6149</v>
+      </c>
+      <c r="C41" s="58" t="n">
+        <f aca="false">B41/(1000*0.035*SIN(RADIANS(10)))</f>
+        <v>1.91107266527614</v>
+      </c>
+      <c r="D41" s="58" t="n">
+        <f aca="false">B41/(1000*0.035*SIN(RADIANS(10.78)))</f>
+        <v>1.77425731721036</v>
+      </c>
+      <c r="G41" s="58" t="n">
+        <f aca="false">D23/$D$20*D38</f>
+        <v>1.73761708128768</v>
+      </c>
+      <c r="N41" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="O41" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="P41" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q41" s="53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>1.159</v>
+      </c>
+      <c r="B42" s="58" t="n">
+        <v>11.5898</v>
+      </c>
+      <c r="C42" s="58" t="n">
+        <f aca="false">B42/(1000*0.035*SIN(RADIANS(10)))</f>
+        <v>1.90694280415823</v>
+      </c>
+      <c r="D42" s="58" t="n">
+        <f aca="false">B42/(1000*0.035*SIN(RADIANS(10.78)))</f>
+        <v>1.77042311642844</v>
+      </c>
+      <c r="G42" s="58" t="n">
+        <f aca="false">D24/D20*D38</f>
+        <v>1.73004394895826</v>
+      </c>
+      <c r="N42" s="0" t="n">
+        <v>1.031</v>
+      </c>
+      <c r="O42" s="58" t="n">
+        <v>11.8117</v>
+      </c>
+      <c r="P42" s="58" t="n">
+        <f aca="false">O42/(1000*0.035*SIN(RADIANS(10)))</f>
+        <v>1.94345340902136</v>
+      </c>
+      <c r="Q42" s="58" t="n">
+        <f aca="false">O42/(1000*0.035*SIN(RADIANS(10.78)))</f>
+        <v>1.80431989545271</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="58"/>
+      <c r="C43" s="58" t="n">
+        <f aca="false">B43/(1000*0.035*SIN(RADIANS(10)))</f>
+        <v>0</v>
+      </c>
+      <c r="D43" s="58" t="n">
+        <f aca="false">B43/(1000*0.035*SIN(RADIANS(10.78)))</f>
+        <v>0</v>
+      </c>
+      <c r="N43" s="0" t="n">
+        <v>1.073</v>
+      </c>
+      <c r="O43" s="58" t="n">
+        <f aca="false">1000*(0.03-0.0174737)</f>
+        <v>12.5263</v>
+      </c>
+      <c r="P43" s="58" t="n">
+        <f aca="false">O43/(1000*0.035*SIN(RADIANS(10)))</f>
+        <v>2.0610310486572</v>
+      </c>
+      <c r="Q43" s="58" t="n">
+        <f aca="false">O43/(1000*0.035*SIN(RADIANS(10.78)))</f>
+        <v>1.91348004998512</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="58"/>
+      <c r="C44" s="58" t="n">
+        <f aca="false">B44/(1000*0.035*SIN(RADIANS(10)))</f>
+        <v>0</v>
+      </c>
+      <c r="D44" s="58" t="n">
+        <f aca="false">B44/(1000*0.035*SIN(RADIANS(10.78)))</f>
+        <v>0</v>
+      </c>
+      <c r="N44" s="0" t="n">
+        <v>1.103</v>
+      </c>
+      <c r="O44" s="58" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="P44" s="58" t="n">
+        <f aca="false">O44/(1000*0.035*SIN(RADIANS(10)))</f>
+        <v>2.05834910697505</v>
+      </c>
+      <c r="Q44" s="58" t="n">
+        <f aca="false">O44/(1000*0.035*SIN(RADIANS(10.78)))</f>
+        <v>1.91099011083192</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O45" s="63"/>
+      <c r="P45" s="58" t="n">
+        <f aca="false">O45/(1000*0.035*SIN(RADIANS(10)))</f>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="58" t="n">
+        <f aca="false">O45/(1000*0.035*SIN(RADIANS(10.78)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" s="60"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="60"/>
+      <c r="O46" s="58"/>
+      <c r="P46" s="58" t="n">
+        <f aca="false">O46/(1000*0.035*SIN(RADIANS(10)))</f>
+        <v>0</v>
+      </c>
+      <c r="Q46" s="58" t="n">
+        <f aca="false">O46/(1000*0.035*SIN(RADIANS(10.78)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" s="60"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="60"/>
+      <c r="O47" s="63"/>
+      <c r="P47" s="58" t="n">
+        <f aca="false">O47/(1000*0.035*SIN(RADIANS(10)))</f>
+        <v>0</v>
+      </c>
+      <c r="Q47" s="58" t="n">
+        <f aca="false">O47/(1000*0.035*SIN(RADIANS(10.78)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48" s="53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="n">
+        <v>1.032</v>
+      </c>
+      <c r="B49" s="58" t="n">
+        <v>12.6366</v>
+      </c>
+      <c r="C49" s="58" t="n">
+        <f aca="false">B49/(1000*0.035*SIN(RADIANS(10)))</f>
+        <v>2.07917940249408</v>
+      </c>
+      <c r="D49" s="58" t="n">
+        <f aca="false">B49/(1000*0.035*SIN(RADIANS(10.78)))</f>
+        <v>1.93032914744513</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
+        <v>1.074</v>
+      </c>
+      <c r="B50" s="58" t="n">
+        <f aca="false">(0.03-0.0171832)*1000</f>
+        <v>12.8168</v>
+      </c>
+      <c r="C50" s="58" t="n">
+        <f aca="false">B50/(1000*0.035*SIN(RADIANS(10)))</f>
+        <v>2.10882884366729</v>
+      </c>
+      <c r="D50" s="58" t="n">
+        <f aca="false">B50/(1000*0.035*SIN(RADIANS(10.78)))</f>
+        <v>1.9578559594333</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
+        <v>1.116</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>12.82</v>
+      </c>
+      <c r="C51" s="58" t="n">
+        <f aca="false">B51/(1000*0.035*SIN(RADIANS(10)))</f>
+        <v>2.10935535982575</v>
+      </c>
+      <c r="D51" s="58" t="n">
+        <f aca="false">B51/(1000*0.035*SIN(RADIANS(10.78)))</f>
+        <v>1.95834478184374</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="63"/>
+      <c r="C52" s="58" t="n">
+        <f aca="false">B52/(1000*0.035*SIN(RADIANS(10)))</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="58" t="n">
+        <f aca="false">B52/(1000*0.035*SIN(RADIANS(10.78)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="58"/>
+      <c r="C53" s="58" t="n">
+        <f aca="false">B53/(1000*0.035*SIN(RADIANS(10)))</f>
+        <v>0</v>
+      </c>
+      <c r="D53" s="58" t="n">
+        <f aca="false">B53/(1000*0.035*SIN(RADIANS(10.78)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="58"/>
+      <c r="C54" s="58" t="n">
+        <f aca="false">B54/(1000*0.035*SIN(RADIANS(10)))</f>
+        <v>0</v>
+      </c>
+      <c r="D54" s="58" t="n">
+        <f aca="false">B54/(1000*0.035*SIN(RADIANS(10.78)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="58"/>
+      <c r="C55" s="58" t="n">
+        <f aca="false">B55/(1000*0.035*SIN(RADIANS(10)))</f>
+        <v>0</v>
+      </c>
+      <c r="D55" s="58" t="n">
+        <f aca="false">B55/(1000*0.035*SIN(RADIANS(10.78)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="66"/>
+      <c r="B58" s="66"/>
+      <c r="C58" s="66"/>
+      <c r="D58" s="66"/>
+      <c r="E58" s="66"/>
+      <c r="F58" s="66"/>
+      <c r="G58" s="66"/>
+      <c r="H58" s="66"/>
+      <c r="I58" s="66"/>
+      <c r="J58" s="66"/>
+      <c r="K58" s="66"/>
+      <c r="L58" s="66"/>
+      <c r="M58" s="66"/>
+      <c r="N58" s="66"/>
+      <c r="O58" s="66"/>
+      <c r="P58" s="66"/>
+      <c r="Q58" s="66"/>
+      <c r="R58" s="66"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" s="67" t="n">
+        <v>7500000000</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" s="59" t="n">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="B63" s="56"/>
+      <c r="C63" s="56"/>
+      <c r="D63" s="56"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="B64" s="54"/>
+      <c r="C64" s="54"/>
+      <c r="D64" s="54"/>
+      <c r="F64" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="G64" s="54"/>
+      <c r="H64" s="54"/>
+      <c r="I64" s="54"/>
+      <c r="K64" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="L64" s="54"/>
+      <c r="M64" s="54"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="B65" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="D65" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="F65" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="G65" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="H65" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="I65" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="K65" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="L65" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="M65" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="N65" s="53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="B66" s="0" t="n">
+        <f aca="false">1000*(0.03-0.0182399)</f>
+        <v>11.7601</v>
+      </c>
+      <c r="C66" s="58" t="n">
+        <f aca="false">B66/(1000*0.035*SIN(RADIANS(10)))</f>
+        <v>1.93496333596621</v>
+      </c>
+      <c r="D66" s="58" t="n">
+        <f aca="false">B66/(1000*0.035*SIN(RADIANS(10.78)))</f>
+        <v>1.79643763408429</v>
+      </c>
+      <c r="F66" s="0" t="n">
+        <v>1.032</v>
+      </c>
+      <c r="G66" s="0" t="n">
+        <v>11.6128</v>
+      </c>
+      <c r="H66" s="58" t="n">
+        <f aca="false">G66/(1000*0.035*SIN(RADIANS(10)))</f>
+        <v>1.91072713904715</v>
+      </c>
+      <c r="I66" s="58" t="n">
+        <f aca="false">G66/(1000*0.035*SIN(RADIANS(10.78)))</f>
+        <v>1.77393652750351</v>
+      </c>
+      <c r="K66" s="0" t="n">
+        <v>1.031</v>
+      </c>
+      <c r="L66" s="58" t="n">
+        <v>12.3236</v>
+      </c>
+      <c r="M66" s="58" t="n">
+        <f aca="false">L66/(1000*0.035*SIN(RADIANS(10)))</f>
+        <v>2.02767954074483</v>
+      </c>
+      <c r="N66" s="58" t="n">
+        <f aca="false">L66/(1000*0.035*SIN(RADIANS(10.78)))</f>
+        <v>1.88251620542352</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="n">
+        <v>1.114</v>
+      </c>
+      <c r="B67" s="0" t="n">
+        <v>11.757</v>
+      </c>
+      <c r="C67" s="58" t="n">
+        <f aca="false">B67/(1000*0.035*SIN(RADIANS(10)))</f>
+        <v>1.93445327343771</v>
+      </c>
+      <c r="D67" s="58" t="n">
+        <f aca="false">B67/(1000*0.035*SIN(RADIANS(10.78)))</f>
+        <v>1.79596408737417</v>
+      </c>
+      <c r="F67" s="0" t="n">
+        <v>1.063</v>
+      </c>
+      <c r="G67" s="0" t="n">
+        <f aca="false">1000*(0.03-0.0185551)</f>
+        <v>11.4449</v>
+      </c>
+      <c r="H67" s="58" t="n">
+        <f aca="false">G67/(1000*0.035*SIN(RADIANS(10)))</f>
+        <v>1.88310149435802</v>
+      </c>
+      <c r="I67" s="58" t="n">
+        <f aca="false">G67/(1000*0.035*SIN(RADIANS(10.78)))</f>
+        <v>1.74828862665549</v>
+      </c>
+      <c r="K67" s="0" t="n">
+        <v>1.065</v>
+      </c>
+      <c r="L67" s="58" t="n">
+        <f aca="false">1000*(0.03-0.017678)</f>
+        <v>12.322</v>
+      </c>
+      <c r="M67" s="58" t="n">
+        <f aca="false">L67/(1000*0.035*SIN(RADIANS(10)))</f>
+        <v>2.0274162826656</v>
+      </c>
+      <c r="N67" s="58" t="n">
+        <f aca="false">L67/(1000*0.035*SIN(RADIANS(10.78)))</f>
+        <v>1.8822717942183</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="66"/>
+      <c r="B69" s="66"/>
+      <c r="C69" s="66"/>
+      <c r="D69" s="66"/>
+      <c r="E69" s="66"/>
+      <c r="F69" s="66"/>
+      <c r="G69" s="66"/>
+      <c r="H69" s="66"/>
+      <c r="I69" s="66"/>
+      <c r="J69" s="66"/>
+      <c r="K69" s="66"/>
+      <c r="L69" s="66"/>
+      <c r="M69" s="66"/>
+      <c r="N69" s="66"/>
+      <c r="O69" s="66"/>
+      <c r="P69" s="66"/>
+      <c r="Q69" s="66"/>
+      <c r="R69" s="66"/>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B71" s="67" t="n">
+        <v>5800000000</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="B72" s="59" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="B74" s="54"/>
+      <c r="C74" s="54"/>
+      <c r="D74" s="54"/>
+      <c r="F74" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="G74" s="54"/>
+      <c r="H74" s="54"/>
+      <c r="I74" s="54"/>
+      <c r="K74" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="L74" s="54"/>
+      <c r="M74" s="54"/>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="B75" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="D75" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="F75" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="G75" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="H75" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="I75" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="K75" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="L75" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="M75" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="N75" s="53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="n">
+        <v>1.074</v>
+      </c>
+      <c r="B76" s="0" t="n">
+        <f aca="false">1000*(0.03-0.0191163)</f>
+        <v>10.8837</v>
+      </c>
+      <c r="C76" s="58" t="n">
+        <f aca="false">B76/(1000*0.035*SIN(RADIANS(10)))</f>
+        <v>1.7907637230683</v>
+      </c>
+      <c r="D76" s="58" t="n">
+        <f aca="false">B76/(1000*0.035*SIN(RADIANS(10.78)))</f>
+        <v>1.66256139642377</v>
+      </c>
+      <c r="F76" s="0" t="n">
+        <v>1.068</v>
+      </c>
+      <c r="G76" s="0" t="n">
+        <f aca="false">1000*(0.03-0.0190529)</f>
+        <v>10.9471</v>
+      </c>
+      <c r="H76" s="58" t="n">
+        <f aca="false">G76/(1000*0.035*SIN(RADIANS(10)))</f>
+        <v>1.80119532445776</v>
+      </c>
+      <c r="I76" s="58" t="n">
+        <f aca="false">G76/(1000*0.035*SIN(RADIANS(10.78)))</f>
+        <v>1.6722461904307</v>
+      </c>
+      <c r="K76" s="0" t="n">
+        <v>1.064</v>
+      </c>
+      <c r="L76" s="58" t="n">
+        <f aca="false">1000*(0.03-0.0200284)</f>
+        <v>9.9716</v>
+      </c>
+      <c r="M76" s="58" t="n">
+        <f aca="false">L76/(1000*0.035*SIN(RADIANS(10)))</f>
+        <v>1.64069016427757</v>
+      </c>
+      <c r="N76" s="58" t="n">
+        <f aca="false">L76/(1000*0.035*SIN(RADIANS(10.78)))</f>
+        <v>1.52323173374673</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C77" s="58" t="n">
+        <f aca="false">B77/(1000*0.035*SIN(RADIANS(10)))</f>
+        <v>0</v>
+      </c>
+      <c r="D77" s="58" t="n">
+        <f aca="false">B77/(1000*0.035*SIN(RADIANS(10.78)))</f>
+        <v>0</v>
+      </c>
+      <c r="H77" s="58" t="n">
+        <f aca="false">G77/(1000*0.035*SIN(RADIANS(10)))</f>
+        <v>0</v>
+      </c>
+      <c r="I77" s="58" t="n">
+        <f aca="false">G77/(1000*0.035*SIN(RADIANS(10.78)))</f>
+        <v>0</v>
+      </c>
+      <c r="L77" s="58"/>
+      <c r="M77" s="58" t="n">
+        <f aca="false">L77/(1000*0.035*SIN(RADIANS(10)))</f>
+        <v>0</v>
+      </c>
+      <c r="N77" s="58" t="n">
+        <f aca="false">L77/(1000*0.035*SIN(RADIANS(10.78)))</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="28">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="N17:Q17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="N18:Q18"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="N30:Q30"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="N39:Q39"/>
+    <mergeCell ref="N40:Q40"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="F64:I64"/>
+    <mergeCell ref="K64:M64"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="F74:I74"/>
+    <mergeCell ref="K74:M74"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0" right="0" top="0.39375" bottom="0.39375" header="0" footer="0"/>
@@ -3754,169 +5724,169 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="60" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="60" t="s">
-        <v>48</v>
+      <c r="A1" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="68" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="61" t="n">
+      <c r="A2" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="62" t="n">
+      <c r="B2" s="70" t="n">
         <v>0.04030959074389</v>
       </c>
-      <c r="C2" s="63" t="n">
+      <c r="C2" s="71" t="n">
         <f aca="false">(B2-$B$5)/$B$5*100</f>
         <v>7.04823230062975</v>
       </c>
-      <c r="D2" s="62" t="n">
+      <c r="D2" s="70" t="n">
         <v>0.3109552614872</v>
       </c>
-      <c r="E2" s="63" t="n">
+      <c r="E2" s="71" t="n">
         <f aca="false">(D2-$D$5)/$D$5*100</f>
         <v>7.054901184085</v>
       </c>
-      <c r="F2" s="62" t="n">
+      <c r="F2" s="70" t="n">
         <v>0.3109555611867</v>
       </c>
-      <c r="G2" s="64" t="n">
+      <c r="G2" s="72" t="n">
         <f aca="false">(F2-$F$5)/$F$5*100</f>
         <v>7.05446483961023</v>
       </c>
-      <c r="H2" s="62" t="n">
+      <c r="H2" s="70" t="n">
         <v>-0.3109549617878</v>
       </c>
-      <c r="I2" s="64" t="n">
+      <c r="I2" s="72" t="n">
         <f aca="false">(H2-$H$5)/$H$5*100</f>
         <v>7.05533753299236</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="61" t="n">
+      <c r="A3" s="69" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="62" t="n">
+      <c r="B3" s="70" t="n">
         <v>0.03806880863113</v>
       </c>
-      <c r="C3" s="64" t="n">
+      <c r="C3" s="72" t="n">
         <f aca="false">(B3-$B$5)/$B$5*100</f>
         <v>1.09749552272814</v>
       </c>
-      <c r="D3" s="62" t="n">
+      <c r="D3" s="70" t="n">
         <v>0.293720957096</v>
       </c>
-      <c r="E3" s="64" t="n">
+      <c r="E3" s="72" t="n">
         <f aca="false">(D3-$D$5)/$D$5*100</f>
         <v>1.12151789044903</v>
       </c>
-      <c r="F3" s="62" t="n">
+      <c r="F3" s="70" t="n">
         <v>0.2937177425854</v>
       </c>
-      <c r="G3" s="64" t="n">
+      <c r="G3" s="72" t="n">
         <f aca="false">(F3-$F$5)/$F$5*100</f>
         <v>1.11990159101643</v>
       </c>
-      <c r="H3" s="62" t="n">
+      <c r="H3" s="70" t="n">
         <v>-0.2937241716065</v>
       </c>
-      <c r="I3" s="64" t="n">
+      <c r="I3" s="72" t="n">
         <f aca="false">(H3-$H$5)/$H$5*100</f>
         <v>1.12313420613868</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="61" t="n">
+      <c r="A4" s="69" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="65" t="n">
+      <c r="B4" s="73" t="n">
         <v>0.03774558302765</v>
       </c>
-      <c r="C4" s="66" t="n">
+      <c r="C4" s="74" t="n">
         <f aca="false">(B4-$B$5)/$B$5*100</f>
         <v>0.239120906456881</v>
       </c>
-      <c r="D4" s="62" t="n">
+      <c r="D4" s="70" t="n">
         <v>0.2911846767037</v>
       </c>
-      <c r="E4" s="64" t="n">
+      <c r="E4" s="72" t="n">
         <f aca="false">(D4-$D$5)/$D$5*100</f>
         <v>0.248333608330097</v>
       </c>
-      <c r="F4" s="62" t="n">
+      <c r="F4" s="70" t="n">
         <v>0.2911843657898</v>
       </c>
-      <c r="G4" s="64" t="n">
+      <c r="G4" s="72" t="n">
         <f aca="false">(F4-$F$5)/$F$5*100</f>
         <v>0.247721347463204</v>
       </c>
-      <c r="H4" s="62" t="n">
+      <c r="H4" s="70" t="n">
         <v>-0.2911849876176</v>
       </c>
-      <c r="I4" s="64" t="n">
+      <c r="I4" s="72" t="n">
         <f aca="false">(H4-$H$5)/$H$5*100</f>
         <v>0.248945875368266</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="61" t="n">
+      <c r="A5" s="69" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="65" t="n">
+      <c r="B5" s="73" t="n">
         <v>0.03765554075726</v>
       </c>
-      <c r="C5" s="61" t="n">
+      <c r="C5" s="69" t="n">
         <f aca="false">(B5-$B$5)/$B$5*100</f>
         <v>0</v>
       </c>
-      <c r="D5" s="62" t="n">
+      <c r="D5" s="70" t="n">
         <v>0.2904633585645</v>
       </c>
-      <c r="E5" s="61" t="n">
+      <c r="E5" s="69" t="n">
         <f aca="false">(D5-$D$5)/$D$5*100</f>
         <v>0</v>
       </c>
-      <c r="F5" s="62" t="n">
+      <c r="F5" s="70" t="n">
         <v>0.2904648224178</v>
       </c>
-      <c r="G5" s="64" t="n">
+      <c r="G5" s="72" t="n">
         <f aca="false">(F5-$F$5)/$F$5*100</f>
         <v>0</v>
       </c>
-      <c r="H5" s="62" t="n">
+      <c r="H5" s="70" t="n">
         <v>-0.2904618947112</v>
       </c>
-      <c r="I5" s="64" t="n">
+      <c r="I5" s="72" t="n">
         <f aca="false">(H5-$H$5)/$H$5*100</f>
         <v>-0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L8" s="0" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="M8" s="0" t="n">
         <v>2</v>
@@ -3924,9 +5894,9 @@
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L9" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="M9" s="67" t="n">
+        <v>70</v>
+      </c>
+      <c r="M9" s="75" t="n">
         <f aca="false">LN((F4-F3)/(F3-F2))/LN(M8)</f>
         <v>-2.76644364303513</v>
       </c>
@@ -3954,83 +5924,83 @@
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.2890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="56" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="56" t="s">
-        <v>55</v>
+      <c r="B1" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="68" t="n">
+      <c r="A2" s="76" t="n">
         <v>0.3082</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="C2" s="69" t="n">
+      <c r="C2" s="77" t="n">
         <v>2E-005</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="68"/>
+      <c r="A3" s="76"/>
       <c r="B3" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="C3" s="69" t="n">
+      <c r="C3" s="77" t="n">
         <v>2.5E-005</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="68"/>
+      <c r="A4" s="76"/>
       <c r="B4" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C4" s="69" t="n">
+      <c r="C4" s="77" t="n">
         <v>2.5E-005</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="68"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="C5" s="69" t="n">
+      <c r="C5" s="77" t="n">
         <v>2.5E-005</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="68"/>
+      <c r="A6" s="76"/>
       <c r="B6" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="C6" s="69" t="n">
+      <c r="C6" s="77" t="n">
         <v>2E-005</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="68"/>
+      <c r="A7" s="76"/>
       <c r="B7" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="C7" s="69" t="n">
+      <c r="C7" s="77" t="n">
         <v>2E-005</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="68"/>
+      <c r="A8" s="76"/>
       <c r="B8" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="70" t="n">
+      <c r="A9" s="78" t="n">
         <v>0.54</v>
       </c>
       <c r="B9" s="0" t="n">
@@ -4038,43 +6008,43 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="70"/>
+      <c r="A10" s="78"/>
       <c r="B10" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="C10" s="69" t="n">
+      <c r="C10" s="77" t="n">
         <v>1E-005</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="70"/>
+      <c r="A11" s="78"/>
       <c r="B11" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C11" s="69" t="n">
+      <c r="C11" s="77" t="n">
         <v>1E-005</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="70"/>
+      <c r="A12" s="78"/>
       <c r="B12" s="0" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="70"/>
+      <c r="A13" s="78"/>
       <c r="B13" s="0" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="70"/>
+      <c r="A14" s="78"/>
       <c r="B14" s="0" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="70"/>
+      <c r="A15" s="78"/>
       <c r="B15" s="0" t="n">
         <v>20</v>
       </c>

--- a/Resultados/Resultados.xlsx
+++ b/Resultados/Resultados.xlsx
@@ -12,6 +12,7 @@
     <sheet name="DataAmplitudes" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="MIS-Wedge" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Corridas" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="81">
   <si>
     <t xml:space="preserve">L [m]</t>
   </si>
@@ -62,6 +63,9 @@
   </si>
   <si>
     <t xml:space="preserve">Area_ref [m2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UR029</t>
   </si>
   <si>
     <t xml:space="preserve">ff [Hz]</t>
@@ -127,13 +131,16 @@
     <t xml:space="preserve">w*</t>
   </si>
   <si>
+    <t xml:space="preserve">UR054</t>
+  </si>
+  <si>
     <t xml:space="preserve">E=6,8E+9 / 1623</t>
   </si>
   <si>
     <t xml:space="preserve">E=8E+9 / 1623</t>
   </si>
   <si>
-    <t xml:space="preserve">E=7,7E+9 / r=1390</t>
+    <t xml:space="preserve">E=7,7E+9 / 1390</t>
   </si>
   <si>
     <t xml:space="preserve">E=7,5E+9 / 1325</t>
@@ -142,7 +149,16 @@
     <t xml:space="preserve">E=5,8E+9 / 1000</t>
   </si>
   <si>
+    <t xml:space="preserve">E=7E+9 / 1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E=7.4E+9 / 1000</t>
+  </si>
+  <si>
     <t xml:space="preserve">Experimental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E=5.6E+9 / 1623</t>
   </si>
   <si>
     <t xml:space="preserve">UR=0.29</t>
@@ -167,6 +183,9 @@
   </si>
   <si>
     <t xml:space="preserve">t [s]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ff=18 Hz</t>
   </si>
   <si>
     <t xml:space="preserve">New E=6,8E+9</t>
@@ -242,6 +261,12 @@
   </si>
   <si>
     <t xml:space="preserve">dt [s]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y</t>
   </si>
 </sst>
 </file>
@@ -658,7 +683,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="78">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -875,7 +900,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -887,20 +912,16 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1040,7 +1061,7 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF4472C4"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFAECF00"/>
       <rgbColor rgb="FFFFD320"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF420E"/>
@@ -1049,7 +1070,7 @@
       <rgbColor rgb="FF004586"/>
       <rgbColor rgb="FF579D1C"/>
       <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF314004"/>
+      <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
@@ -1059,7 +1080,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1072,6 +1093,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'UR0.29'!$D$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UR029</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="4472c4"/>
@@ -1120,7 +1152,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.604229607250755</c:v>
+                  <c:v>0.6519967400163</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.814995925020375</c:v>
@@ -1145,30 +1177,30 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'UR0.29'!$I$15:$I$21</c:f>
+              <c:f>'UR0.29'!$P$15:$P$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.64395346755135</c:v>
+                  <c:v>1.52626141431146</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.03463942621445</c:v>
+                  <c:v>1.88897782666158</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.06458174200081</c:v>
+                  <c:v>1.91677654611556</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.74370839810978</c:v>
+                  <c:v>1.61887480295282</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.33153468429749</c:v>
+                  <c:v>1.23620896246394</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.999985813952964</c:v>
+                  <c:v>0.928395963036935</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.791564941081362</c:v>
+                  <c:v>0.734896121052445</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1180,29 +1212,29 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'UR0.29'!$W$29</c:f>
+              <c:f>'UR0.29'!$D$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>E=5,8E+9 / 1000</c:v>
+                  <c:v>UR054</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="314004"/>
+              <a:srgbClr val="ff420e"/>
             </a:solidFill>
             <a:ln w="28800">
               <a:noFill/>
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="square"/>
+            <c:symbol val="diamond"/>
             <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="314004"/>
+                <a:srgbClr val="ff420e"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
@@ -1228,514 +1260,71 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'UR0.29'!$R$30:$R$32</c:f>
+              <c:f>'UR0.29'!$E$25:$E$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>0.6519967400163</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.814995925020375</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.97799511002445</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>1.14099429502853</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>1.3039934800326</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.46699266503668</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.62999185004075</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'UR0.29'!$W$30:$W$32</c:f>
+              <c:f>'UR0.29'!$P$25:$P$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.66256139642377</c:v>
+                  <c:v>1.36277577751828</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6722461904307</c:v>
+                  <c:v>1.70453223172055</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.52323173374673</c:v>
+                  <c:v>1.7233861799834</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.51412506624445</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.21678238433732</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.978362778804571</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.788944094757282</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'UR0.29'!$V$29</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>E=7,5E+9 / 1325</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="83caff"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="83caff"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'UR0.29'!$R$30:$R$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.97799511002445</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.14099429502853</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.3039934800326</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'UR0.29'!$V$30:$V$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1.79643763408429</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.8822717942183</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.75</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'UR0.29'!$T$29</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>E=8E+9 / 1623</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="579d1c"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="579d1c"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'UR0.29'!$R$30:$R$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.97799511002445</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.14099429502853</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.3039934800326</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'UR0.29'!$T$30:$T$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1.95834478184374</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.77042311642844</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'UR0.29'!$U$29</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>E=7,7E+9 / r=1390</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="7e0021"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="7e0021"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'UR0.29'!$R$30:$R$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.97799511002445</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.14099429502853</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.3039934800326</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'UR0.29'!$U$30:$U$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1.8259044600139</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.91099011083192</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.75</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'UR0.29'!$S$29</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>E=6,8E+9 / 1623</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'UR0.29'!$R$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1.3039934800326</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'UR0.29'!$S$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1.49008346403845</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>experimental</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>experimental</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="7e0021"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="7e0021"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'UR0.29'!$S$45:$S$53</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.488838194557601</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.651784259410135</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.814730324262669</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.977676389115203</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.14062245396774</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.30356851882027</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.4665145836728</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.62946064852534</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.79240671337787</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'UR0.29'!$T$45:$T$53</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.984673710116129</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.07883213620503</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.20171686177868</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.51770615611092</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.71879025250417</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.7203861580311</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.64059088168457</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.48100032899152</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.28647452979585</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:axId val="12553713"/>
-        <c:axId val="71486624"/>
+        <c:axId val="72956636"/>
+        <c:axId val="97662044"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="12553713"/>
+        <c:axId val="72956636"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.8"/>
@@ -1813,13 +1402,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71486624"/>
+        <c:crossAx val="97662044"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="71486624"/>
+        <c:axId val="97662044"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1895,9 +1484,11 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="12553713"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="72956636"/>
+        <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.25"/>
+        <c:minorUnit val="0.0416666666666667"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1948,7 +1539,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2016,7 +1607,7 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.60</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.81</c:v>
@@ -2129,7 +1720,7 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.60</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.81</c:v>
@@ -2192,11 +1783,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="31427991"/>
-        <c:axId val="53415537"/>
+        <c:axId val="11337466"/>
+        <c:axId val="89229792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="31427991"/>
+        <c:axId val="11337466"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2252,7 +1843,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53415537"/>
+        <c:crossAx val="89229792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2260,7 +1851,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="53415537"/>
+        <c:axId val="89229792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2325,7 +1916,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31427991"/>
+        <c:crossAx val="11337466"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2373,7 +1964,822 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'UR0.29'!$X$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E=7E+9 / 1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="aecf00"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="aecf00"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'UR0.29'!$R$30:$R$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.97799511002445</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.14099429502853</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3039934800326</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'UR0.29'!$X$30:$X$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.61290009466266</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.72030354365754</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.66086579368754</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'UR0.29'!$T$73</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E=5.6E+9 / 1623</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="83caff"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="83caff"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'UR0.29'!$E$16:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.814995925020375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97799511002445</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.14099429502853</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3039934800326</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.46699266503668</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.62999185004075</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'UR0.29'!$P$16:$P$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.88897782666158</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.91677654611556</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.61887480295282</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.23620896246394</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.928395963036935</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.734896121052445</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'UR0.29'!$T$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E=8E+9 / 1623</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7e0021"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'UR0.29'!$R$30:$R$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.97799511002445</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.14099429502853</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3039934800326</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'UR0.29'!$T$30:$T$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.95834478184374</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.77042311642844</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'UR0.29'!$V$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E=7,5E+9 / 1325</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'UR0.29'!$R$30:$R$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.97799511002445</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.14099429502853</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3039934800326</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'UR0.29'!$V$30:$V$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.79643763408429</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8822717942183</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'UR0.29'!$Y$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E=7.4E+9 / 1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'UR0.29'!$R$30:$R$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.97799511002445</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.14099429502853</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3039934800326</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'UR0.29'!$Y$30:$Y$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.5894824460623</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.69242539056187</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>experimental</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>experimental</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7e0021"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'UR0.29'!$S$45:$S$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.488838194557601</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.651784259410135</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.814730324262669</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.977676389115203</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.14062245396774</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.30356851882027</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4665145836728</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.62946064852534</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.79240671337787</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'UR0.29'!$T$45:$T$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.984673710116129</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.07883213620503</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.20171686177868</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.51770615611092</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.71879025250417</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7203861580311</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.64059088168457</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.48100032899152</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.28647452979585</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="96092928"/>
+        <c:axId val="50409664"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="96092928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.8"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="d9d9d9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="1" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>f+</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="bfbfbf"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1100" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="50409664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="50409664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="d9d9d9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="1" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>d+</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="bfbfbf"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1100" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="96092928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="d9d9d9"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2461,11 +2867,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="85402866"/>
-        <c:axId val="43610706"/>
+        <c:axId val="74285454"/>
+        <c:axId val="99645645"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="85402866"/>
+        <c:axId val="74285454"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2497,7 +2903,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43610706"/>
+        <c:crossAx val="99645645"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2505,7 +2911,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="43610706"/>
+        <c:axId val="99645645"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2547,7 +2953,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85402866"/>
+        <c:crossAx val="74285454"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2598,7 +3004,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2686,11 +3092,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="60148059"/>
-        <c:axId val="32978049"/>
+        <c:axId val="82341306"/>
+        <c:axId val="88665736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="60148059"/>
+        <c:axId val="82341306"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2722,7 +3128,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="32978049"/>
+        <c:crossAx val="88665736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2730,7 +3136,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="32978049"/>
+        <c:axId val="88665736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2772,7 +3178,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60148059"/>
+        <c:crossAx val="82341306"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2827,16 +3233,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>469440</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>18000</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>313920</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>172800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>675720</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>131400</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>483120</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>147600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2844,8 +3250,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4403160" y="6852960"/>
-        <a:ext cx="9271440" cy="6773400"/>
+        <a:off x="3426480" y="5956200"/>
+        <a:ext cx="9156240" cy="6459480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2858,15 +3264,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>348120</xdr:colOff>
+      <xdr:colOff>381600</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>123480</xdr:rowOff>
+      <xdr:rowOff>112320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>153000</xdr:colOff>
+      <xdr:colOff>184320</xdr:colOff>
       <xdr:row>104</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>33840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2874,12 +3280,42 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3460680" y="13793760"/>
-        <a:ext cx="7971120" cy="4480200"/>
+        <a:off x="3494160" y="13782600"/>
+        <a:ext cx="7968960" cy="4478040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>2160</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>1040400</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>111960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 3_0"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="15464160" y="13145040"/>
+        <a:ext cx="9269280" cy="6771240"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2899,18 +3335,18 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>815040</xdr:colOff>
+      <xdr:colOff>812880</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>93960</xdr:rowOff>
+      <xdr:rowOff>91800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="851400" y="1386360"/>
-        <a:ext cx="6531840" cy="3231720"/>
+        <a:ext cx="6529680" cy="3229560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2929,18 +3365,18 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>81720</xdr:colOff>
+      <xdr:colOff>79560</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>46440</xdr:rowOff>
+      <xdr:rowOff>44280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="4" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="7552080" y="1338840"/>
-        <a:ext cx="6530400" cy="3231720"/>
+        <a:ext cx="6528240" cy="3229560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2958,10 +3394,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y53"/>
+  <dimension ref="A1:Y73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C32" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W32" activeCellId="0" sqref="W32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B28" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R43" activeCellId="0" sqref="R43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2978,7 +3414,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="17.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="19.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="15.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="22.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="22.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="13.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="15.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="10.5"/>
   </cols>
   <sheetData>
@@ -3018,7 +3456,10 @@
       <c r="B2" s="5" t="n">
         <v>5E-005</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="3" t="n">
+        <f aca="false">B2*1.5</f>
+        <v>7.5E-005</v>
+      </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -3348,7 +3789,9 @@
         <v>0.00194485958986962</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -3374,67 +3817,67 @@
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J14" s="18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L14" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M14" s="19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N14" s="18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O14" s="20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P14" s="20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q14" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R14" s="22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S14" s="23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T14" s="23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U14" s="22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="V14" s="22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="W14" s="22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Y14" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3445,8 +3888,8 @@
         <v>8</v>
       </c>
       <c r="E15" s="25" t="n">
-        <f aca="false">D15/13.24</f>
-        <v>0.604229607250755</v>
+        <f aca="false">D15/12.27</f>
+        <v>0.6519967400163</v>
       </c>
       <c r="F15" s="26" t="n">
         <v>0.83</v>
@@ -3502,7 +3945,7 @@
       <c r="U15" s="17"/>
       <c r="V15" s="37" t="n">
         <f aca="false">$U$16/D15</f>
-        <v>1.82735102881922</v>
+        <v>1.82301212061301</v>
       </c>
       <c r="W15" s="38" t="n">
         <f aca="false">(2*H15)/(1000*$B$1)</f>
@@ -3573,12 +4016,12 @@
         <v>0.201647874132701</v>
       </c>
       <c r="U16" s="42" t="n">
-        <f aca="false">17.15*(1/SQRT(1+(PI()*1.205*0.16)/(4*1623*0.00005)*T16))</f>
-        <v>14.6188082305538</v>
+        <f aca="false">17.3*(1/SQRT(1+(PI()*1.205*0.16)/(4*1000*C2)*T16))</f>
+        <v>14.5840969649041</v>
       </c>
       <c r="V16" s="37" t="n">
         <f aca="false">$U$16/D16</f>
-        <v>1.46188082305538</v>
+        <v>1.45840969649041</v>
       </c>
       <c r="W16" s="38" t="n">
         <f aca="false">(2*H16)/(1000*$B$1)</f>
@@ -3645,7 +4088,7 @@
       <c r="U17" s="42"/>
       <c r="V17" s="37" t="n">
         <f aca="false">$U$16/D17</f>
-        <v>1.21823401921281</v>
+        <v>1.215341413742</v>
       </c>
       <c r="W17" s="38" t="n">
         <f aca="false">(2*H17)/(1000*$B$1)</f>
@@ -3712,7 +4155,7 @@
       <c r="U18" s="42"/>
       <c r="V18" s="37" t="n">
         <f aca="false">$U$16/D18</f>
-        <v>1.0442005878967</v>
+        <v>1.04172121177886</v>
       </c>
       <c r="W18" s="38" t="n">
         <f aca="false">(2*H18)/(1000*$B$1)</f>
@@ -3779,7 +4222,7 @@
       <c r="U19" s="42"/>
       <c r="V19" s="37" t="n">
         <f aca="false">$U$16/D19</f>
-        <v>0.913675514409611</v>
+        <v>0.911506060306503</v>
       </c>
       <c r="W19" s="38" t="n">
         <f aca="false">(2*H19)/(1000*$B$1)</f>
@@ -3846,7 +4289,7 @@
       <c r="U20" s="42"/>
       <c r="V20" s="37" t="n">
         <f aca="false">$U$16/D20</f>
-        <v>0.812156012808543</v>
+        <v>0.810227609161336</v>
       </c>
       <c r="W20" s="38" t="n">
         <f aca="false">(2*H20)/(1000*$B$1)</f>
@@ -3913,7 +4356,7 @@
       <c r="U21" s="42"/>
       <c r="V21" s="37" t="n">
         <f aca="false">$U$16/D21</f>
-        <v>0.730940411527689</v>
+        <v>0.729204848245202</v>
       </c>
       <c r="W21" s="38" t="n">
         <f aca="false">(2*H21)/(1000*$B$1)</f>
@@ -3951,13 +4394,15 @@
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
+      <c r="J23" s="17"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
@@ -3970,118 +4415,493 @@
       <c r="T23" s="3"/>
       <c r="U23" s="3" t="n">
         <f aca="false">U16/13.24</f>
-        <v>1.1041395944527</v>
+        <v>1.10151789765136</v>
       </c>
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
     </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D24" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="N24" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="O24" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="P24" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D25" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="E25" s="25" t="n">
+        <f aca="false">D25/12.27</f>
+        <v>0.6519967400163</v>
+      </c>
+      <c r="F25" s="26" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G25" s="27" t="n">
+        <f aca="false">F25/$B$11</f>
+        <v>0.538417748427949</v>
+      </c>
+      <c r="H25" s="28" t="n">
+        <v>8.9212</v>
+      </c>
+      <c r="I25" s="29" t="n">
+        <f aca="false">H25/$B$10</f>
+        <v>1.46786123526346</v>
+      </c>
+      <c r="J25" s="30" t="n">
+        <f aca="false">$F$15*$B$1/$B$12</f>
+        <v>1923.84105960265</v>
+      </c>
+      <c r="K25" s="30" t="n">
+        <f aca="false">$F$15*2*(H25/1000)/$B$12</f>
+        <v>980.74119205298</v>
+      </c>
+      <c r="L25" s="31" t="n">
+        <f aca="false">D25*2*(H25/1000)/$F$15</f>
+        <v>0.171974939759036</v>
+      </c>
+      <c r="M25" s="32" t="n">
+        <f aca="false">2*D25*($B$10/1000)/$F$15</f>
+        <v>0.117160216257206</v>
+      </c>
+      <c r="N25" s="33" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="O25" s="34" t="n">
+        <v>0.297202351395596</v>
+      </c>
+      <c r="P25" s="34" t="n">
+        <f aca="false">H25/(1000*SIN(RADIANS(10.78))*0.035)</f>
+        <v>1.36277577751828</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D26" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="E26" s="25" t="n">
+        <f aca="false">D26/12.27</f>
+        <v>0.814995925020375</v>
+      </c>
+      <c r="F26" s="26"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="29" t="n">
+        <f aca="false">AVERAGE(DataAmplitudes!D18:D26)</f>
+        <v>11.1584555555556</v>
+      </c>
+      <c r="I26" s="29" t="n">
+        <f aca="false">H26/$B$10</f>
+        <v>1.83597098545153</v>
+      </c>
+      <c r="J26" s="30" t="n">
+        <f aca="false">$F$15*$B$1/$B$12</f>
+        <v>1923.84105960265</v>
+      </c>
+      <c r="K26" s="30" t="n">
+        <f aca="false">$F$15*2*(H26/1000)/$B$12</f>
+        <v>1226.69114054452</v>
+      </c>
+      <c r="L26" s="31" t="n">
+        <f aca="false">D26*2*(H26/1000)/$F$15</f>
+        <v>0.268878447121821</v>
+      </c>
+      <c r="M26" s="32" t="n">
+        <f aca="false">2*D26*($B$10/1000)/$F$15</f>
+        <v>0.146450270321508</v>
+      </c>
+      <c r="N26" s="33" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="O26" s="39" t="n">
+        <v>0.1268</v>
+      </c>
+      <c r="P26" s="34" t="n">
+        <f aca="false">H26/(1000*SIN(RADIANS(10.78))*0.035)</f>
+        <v>1.70453223172055</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D27" s="33" t="n">
+        <v>12</v>
+      </c>
+      <c r="E27" s="25" t="n">
+        <f aca="false">D27/12.27</f>
+        <v>0.97799511002445</v>
+      </c>
+      <c r="F27" s="26"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="29" t="n">
+        <f aca="false">AVERAGE(DataAmplitudes!B19:B28)</f>
+        <v>11.28188</v>
+      </c>
+      <c r="I27" s="29" t="n">
+        <f aca="false">H27/$B$10</f>
+        <v>1.85627878681053</v>
+      </c>
+      <c r="J27" s="30" t="n">
+        <f aca="false">$F$15*$B$1/$B$12</f>
+        <v>1923.84105960265</v>
+      </c>
+      <c r="K27" s="30" t="n">
+        <f aca="false">$F$15*2*(H27/1000)/$B$12</f>
+        <v>1240.25965562914</v>
+      </c>
+      <c r="L27" s="31" t="n">
+        <f aca="false">D27*2*(H27/1000)/$F$15</f>
+        <v>0.326223036144578</v>
+      </c>
+      <c r="M27" s="32" t="n">
+        <f aca="false">2*D27*($B$10/1000)/$F$15</f>
+        <v>0.175740324385809</v>
+      </c>
+      <c r="N27" s="33" t="n">
+        <v>-0.121</v>
+      </c>
+      <c r="O27" s="39" t="n">
+        <v>-0.1184</v>
+      </c>
+      <c r="P27" s="34" t="n">
+        <f aca="false">H27/(1000*SIN(RADIANS(10.78))*0.035)</f>
+        <v>1.7233861799834</v>
+      </c>
+    </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D28" s="33" t="n">
+        <v>14</v>
+      </c>
+      <c r="E28" s="25" t="n">
+        <f aca="false">D28/12.27</f>
+        <v>1.14099429502853</v>
+      </c>
+      <c r="F28" s="26"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="29" t="n">
+        <f aca="false">AVERAGE(DataAmplitudes!F17:F29)</f>
+        <v>9.91198461538462</v>
+      </c>
+      <c r="I28" s="29" t="n">
+        <f aca="false">H28/$B$10</f>
+        <v>1.63088126949859</v>
+      </c>
+      <c r="J28" s="30" t="n">
+        <f aca="false">$F$15*$B$1/$B$12</f>
+        <v>1923.84105960265</v>
+      </c>
+      <c r="K28" s="30" t="n">
+        <f aca="false">$F$15*2*(H28/1000)/$B$12</f>
+        <v>1089.6618848701</v>
+      </c>
+      <c r="L28" s="31" t="n">
+        <f aca="false">D28*2*(H28/1000)/$F$15</f>
+        <v>0.334380203892493</v>
+      </c>
+      <c r="M28" s="32" t="n">
+        <f aca="false">2*D28*($B$10/1000)/$F$15</f>
+        <v>0.20503037845011</v>
+      </c>
+      <c r="N28" s="33" t="n">
+        <v>-0.185</v>
+      </c>
+      <c r="O28" s="39" t="n">
+        <v>-0.1812</v>
+      </c>
+      <c r="P28" s="34" t="n">
+        <f aca="false">H28/(1000*SIN(RADIANS(10.78))*0.035)</f>
+        <v>1.51412506624445</v>
+      </c>
       <c r="R28" s="53" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S28" s="54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="T28" s="54"/>
       <c r="U28" s="54"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D29" s="33" t="n">
+        <v>16</v>
+      </c>
+      <c r="E29" s="25" t="n">
+        <f aca="false">D29/12.27</f>
+        <v>1.3039934800326</v>
+      </c>
+      <c r="F29" s="26"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="28" t="n">
+        <f aca="false">AVERAGE(DataAmplitudes!H19:H31)</f>
+        <v>7.96547692307692</v>
+      </c>
+      <c r="I29" s="29" t="n">
+        <f aca="false">H29/$B$10</f>
+        <v>1.3106100968222</v>
+      </c>
+      <c r="J29" s="30" t="n">
+        <f aca="false">$F$15*$B$1/$B$12</f>
+        <v>1923.84105960265</v>
+      </c>
+      <c r="K29" s="30" t="n">
+        <f aca="false">$F$15*2*(H29/1000)/$B$12</f>
+        <v>875.674946510443</v>
+      </c>
+      <c r="L29" s="31" t="n">
+        <f aca="false">D29*2*(H29/1000)/$F$15</f>
+        <v>0.307102724745134</v>
+      </c>
+      <c r="M29" s="32" t="n">
+        <f aca="false">2*D29*($B$10/1000)/$F$15</f>
+        <v>0.234320432514412</v>
+      </c>
+      <c r="N29" s="33" t="n">
+        <v>-0.106</v>
+      </c>
+      <c r="O29" s="34" t="n">
+        <v>-0.093</v>
+      </c>
+      <c r="P29" s="34" t="n">
+        <f aca="false">H29/(1000*SIN(RADIANS(10.78))*0.035)</f>
+        <v>1.21678238433732</v>
+      </c>
       <c r="S29" s="55" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T29" s="55" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U29" s="55" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V29" s="56" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W29" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="X29" s="57"/>
-      <c r="Y29" s="57"/>
+        <v>40</v>
+      </c>
+      <c r="X29" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y29" s="55" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R30" s="58" t="n">
+      <c r="D30" s="33" t="n">
+        <v>18</v>
+      </c>
+      <c r="E30" s="25" t="n">
+        <f aca="false">D30/12.27</f>
+        <v>1.46699266503668</v>
+      </c>
+      <c r="F30" s="26"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="28" t="n">
+        <f aca="false">1000*(0.03-0.0235953)</f>
+        <v>6.4047</v>
+      </c>
+      <c r="I30" s="29" t="n">
+        <f aca="false">H30/$B$10</f>
+        <v>1.05380563752543</v>
+      </c>
+      <c r="J30" s="30" t="n">
+        <f aca="false">$F$15*$B$1/$B$12</f>
+        <v>1923.84105960265</v>
+      </c>
+      <c r="K30" s="30" t="n">
+        <f aca="false">$F$15*2*(H30/1000)/$B$12</f>
+        <v>704.092847682119</v>
+      </c>
+      <c r="L30" s="31" t="n">
+        <f aca="false">D30*2*(H30/1000)/$F$15</f>
+        <v>0.27779421686747</v>
+      </c>
+      <c r="M30" s="32" t="n">
+        <f aca="false">2*D30*($B$10/1000)/$F$15</f>
+        <v>0.263610486578714</v>
+      </c>
+      <c r="N30" s="33" t="n">
+        <v>-0.011</v>
+      </c>
+      <c r="O30" s="34" t="n">
+        <v>-0.012637550314478</v>
+      </c>
+      <c r="P30" s="34" t="n">
+        <f aca="false">H30/(1000*SIN(RADIANS(10.78))*0.035)</f>
+        <v>0.978362778804571</v>
+      </c>
+      <c r="R30" s="57" t="n">
         <f aca="false">E17</f>
         <v>0.97799511002445</v>
       </c>
-      <c r="S30" s="58"/>
-      <c r="T30" s="58" t="n">
-        <f aca="false">DataAmplitudes!D51</f>
+      <c r="S30" s="57"/>
+      <c r="T30" s="57" t="n">
+        <f aca="false">DataAmplitudes!D71</f>
         <v>1.95834478184374</v>
       </c>
-      <c r="U30" s="58" t="n">
-        <f aca="false">DataAmplitudes!Q34</f>
+      <c r="U30" s="57" t="n">
+        <f aca="false">DataAmplitudes!Q54</f>
         <v>1.8259044600139</v>
       </c>
-      <c r="V30" s="58" t="n">
-        <f aca="false">DataAmplitudes!D66</f>
+      <c r="V30" s="57" t="n">
+        <f aca="false">DataAmplitudes!D86</f>
         <v>1.79643763408429</v>
       </c>
-      <c r="W30" s="58" t="n">
-        <f aca="false">DataAmplitudes!D76</f>
+      <c r="W30" s="57" t="n">
+        <f aca="false">DataAmplitudes!D96</f>
         <v>1.66256139642377</v>
       </c>
+      <c r="X30" s="57" t="n">
+        <f aca="false">DataAmplitudes!D107</f>
+        <v>1.61290009466266</v>
+      </c>
+      <c r="Y30" s="57" t="n">
+        <f aca="false">DataAmplitudes!D116</f>
+        <v>1.5894824460623</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R31" s="58" t="n">
+      <c r="D31" s="43" t="n">
+        <v>20</v>
+      </c>
+      <c r="E31" s="44" t="n">
+        <f aca="false">D31/12.27</f>
+        <v>1.62999185004075</v>
+      </c>
+      <c r="F31" s="26"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="45" t="n">
+        <v>5.1647</v>
+      </c>
+      <c r="I31" s="46" t="n">
+        <f aca="false">H31/$B$10</f>
+        <v>0.849780626122626</v>
+      </c>
+      <c r="J31" s="47" t="n">
+        <f aca="false">$F$15*$B$1/$B$12</f>
+        <v>1923.84105960265</v>
+      </c>
+      <c r="K31" s="47" t="n">
+        <f aca="false">$F$15*2*(H31/1000)/$B$12</f>
+        <v>567.774966887417</v>
+      </c>
+      <c r="L31" s="48" t="n">
+        <f aca="false">D31*2*(H31/1000)/$F$15</f>
+        <v>0.248901204819277</v>
+      </c>
+      <c r="M31" s="49" t="n">
+        <f aca="false">2*D31*($B$10/1000)/$F$15</f>
+        <v>0.292900540643015</v>
+      </c>
+      <c r="N31" s="43" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="O31" s="50" t="n">
+        <v>0.0624</v>
+      </c>
+      <c r="P31" s="51" t="n">
+        <f aca="false">H31/(1000*SIN(RADIANS(10.78))*0.035)</f>
+        <v>0.788944094757282</v>
+      </c>
+      <c r="R31" s="57" t="n">
         <f aca="false">E18</f>
         <v>1.14099429502853</v>
       </c>
-      <c r="S31" s="58"/>
-      <c r="U31" s="58" t="n">
-        <f aca="false">DataAmplitudes!Q44</f>
+      <c r="S31" s="57"/>
+      <c r="U31" s="57" t="n">
+        <f aca="false">DataAmplitudes!Q64</f>
         <v>1.91099011083192</v>
       </c>
-      <c r="V31" s="58" t="n">
-        <f aca="false">DataAmplitudes!N67</f>
+      <c r="V31" s="57" t="n">
+        <f aca="false">DataAmplitudes!N87</f>
         <v>1.8822717942183</v>
       </c>
-      <c r="W31" s="58" t="n">
-        <f aca="false">DataAmplitudes!I76</f>
+      <c r="W31" s="57" t="n">
+        <f aca="false">DataAmplitudes!I96</f>
         <v>1.6722461904307</v>
       </c>
+      <c r="X31" s="57" t="n">
+        <f aca="false">DataAmplitudes!I107</f>
+        <v>1.72030354365754</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R32" s="58" t="n">
+      <c r="R32" s="57" t="n">
         <f aca="false">E19</f>
         <v>1.3039934800326</v>
       </c>
-      <c r="S32" s="58" t="n">
-        <f aca="false">DataAmplitudes!D24</f>
+      <c r="S32" s="57" t="n">
+        <f aca="false">DataAmplitudes!D44</f>
         <v>1.49008346403845</v>
       </c>
-      <c r="T32" s="58" t="n">
-        <f aca="false">DataAmplitudes!D42</f>
+      <c r="T32" s="57" t="n">
+        <f aca="false">DataAmplitudes!D62</f>
         <v>1.77042311642844</v>
       </c>
       <c r="U32" s="0" t="n">
         <v>1.75</v>
       </c>
-      <c r="V32" s="58" t="n">
+      <c r="V32" s="57" t="n">
         <v>1.75</v>
       </c>
-      <c r="W32" s="58" t="n">
-        <f aca="false">DataAmplitudes!N76</f>
+      <c r="W32" s="57" t="n">
+        <f aca="false">DataAmplitudes!N96</f>
         <v>1.52323173374673</v>
+      </c>
+      <c r="X32" s="57" t="n">
+        <f aca="false">DataAmplitudes!N107</f>
+        <v>1.66086579368754</v>
+      </c>
+      <c r="Y32" s="57" t="n">
+        <f aca="false">DataAmplitudes!N116</f>
+        <v>1.69242539056187</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S43" s="54" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="T43" s="54"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S44" s="53" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T44" s="53" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4156,13 +4976,20 @@
         <v>1.28647452979585</v>
       </c>
     </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T73" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
     <mergeCell ref="F15:F21"/>
     <mergeCell ref="G15:G21"/>
     <mergeCell ref="S16:S21"/>
     <mergeCell ref="T16:T21"/>
     <mergeCell ref="U16:U21"/>
+    <mergeCell ref="F25:F31"/>
+    <mergeCell ref="G25:G31"/>
     <mergeCell ref="S28:U28"/>
     <mergeCell ref="S43:T43"/>
   </mergeCells>
@@ -4182,10 +5009,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R77"/>
+  <dimension ref="A1:R117"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F77" activeCellId="0" sqref="F77"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B117" activeCellId="0" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4194,78 +5021,78 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="54" t="s">
-        <v>40</v>
+      <c r="A1" s="58" t="s">
+        <v>45</v>
       </c>
       <c r="B1" s="53"/>
-      <c r="C1" s="54"/>
+      <c r="C1" s="58"/>
       <c r="D1" s="53"/>
-      <c r="E1" s="54"/>
+      <c r="E1" s="58"/>
       <c r="F1" s="59"/>
-      <c r="G1" s="54"/>
+      <c r="G1" s="58"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60" t="s">
+      <c r="A2" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="L2" s="60"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="54"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="55" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" s="55" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F3" s="55" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" s="55" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H3" s="55" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I3" s="55" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J3" s="55" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K3" s="55" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="L3" s="55" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4304,7 +5131,7 @@
       <c r="K4" s="0" t="n">
         <v>1.209</v>
       </c>
-      <c r="L4" s="61" t="n">
+      <c r="L4" s="60" t="n">
         <f aca="false">1000*(0.03-0.0251846)</f>
         <v>4.8154</v>
       </c>
@@ -4346,7 +5173,7 @@
       <c r="K5" s="0" t="n">
         <v>1.234</v>
       </c>
-      <c r="L5" s="61" t="n">
+      <c r="L5" s="60" t="n">
         <v>4.821</v>
       </c>
     </row>
@@ -4386,7 +5213,7 @@
       <c r="K6" s="0" t="n">
         <v>1.259</v>
       </c>
-      <c r="L6" s="61" t="n">
+      <c r="L6" s="60" t="n">
         <f aca="false">1000*(0.03-0.025197)</f>
         <v>4.803</v>
       </c>
@@ -4428,7 +5255,7 @@
       <c r="K7" s="0" t="n">
         <v>1.334</v>
       </c>
-      <c r="L7" s="61" t="n">
+      <c r="L7" s="60" t="n">
         <v>4.8051</v>
       </c>
     </row>
@@ -4455,7 +5282,7 @@
       <c r="K8" s="0" t="n">
         <v>1.359</v>
       </c>
-      <c r="L8" s="61" t="n">
+      <c r="L8" s="60" t="n">
         <f aca="false">1000*(0.03-0.0251891)</f>
         <v>4.8109</v>
       </c>
@@ -4477,7 +5304,7 @@
       <c r="K9" s="0" t="n">
         <v>1.434</v>
       </c>
-      <c r="L9" s="61" t="n">
+      <c r="L9" s="60" t="n">
         <v>4.8099</v>
       </c>
     </row>
@@ -4498,1204 +5325,2116 @@
         <v>10.5855</v>
       </c>
     </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="53"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="58"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="N15" s="54"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="J16" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="L16" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="N16" s="55" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="N17" s="60" t="s">
-        <v>49</v>
-      </c>
-      <c r="O17" s="60"/>
-      <c r="P17" s="60"/>
-      <c r="Q17" s="60"/>
+      <c r="A17" s="0" t="n">
+        <v>1.037</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>11.2246</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>1.037</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>10.823</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>1.037</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>10.1493</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>1.036</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>8.2258</v>
+      </c>
+      <c r="L17" s="60"/>
+      <c r="M17" s="0" t="n">
+        <v>1.034</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>6.4371</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="N18" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="O18" s="60"/>
-      <c r="P18" s="60"/>
-      <c r="Q18" s="60"/>
+      <c r="A18" s="0" t="n">
+        <v>1.079</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <f aca="false">1000*(0.03-0.0184594)</f>
+        <v>11.5406</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>1.087</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <f aca="false">1000*(0.03-0.0188499)</f>
+        <v>11.1501</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <f aca="false">1000*(0.03-0.0199989)</f>
+        <v>10.0011</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>1.067</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <f aca="false">1000*(0.03-0.0219693)</f>
+        <v>8.0307</v>
+      </c>
+      <c r="L18" s="60"/>
+      <c r="M18" s="0" t="n">
+        <v>1.062</v>
+      </c>
+      <c r="N18" s="0" t="n">
+        <f aca="false">1000*(0.03-0.0236393)</f>
+        <v>6.3607</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="N19" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="O19" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="P19" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q19" s="53" t="s">
-        <v>52</v>
+      <c r="A19" s="0" t="n">
+        <v>1.121</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>11.3365</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>1.137</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>11.1705</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>10.0136</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>1.099</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>7.9623</v>
+      </c>
+      <c r="L19" s="60"/>
+      <c r="M19" s="0" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <v>6.4446</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
-        <v>1.037</v>
+        <v>1.162</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>10.3671</v>
-      </c>
-      <c r="C20" s="58" t="n">
-        <f aca="false">B20/(1000*0.035*SIN(RADIANS(10)))</f>
-        <v>1.7057642707371</v>
-      </c>
-      <c r="D20" s="58" t="n">
-        <f aca="false">B20/(1000*0.035*SIN(RADIANS(10.78)))</f>
-        <v>1.58364712853762</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>53</v>
+        <f aca="false">1000*(0.03-0.018667)</f>
+        <v>11.333</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>1.187</v>
+      </c>
+      <c r="D20" s="61" t="n">
+        <f aca="false">1000*(0.03-0.0188516)</f>
+        <v>11.1484</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>1.144</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <f aca="false">1000*(0.03-0.0200268)</f>
+        <v>9.9732</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <f aca="false">1000*(0.03-0.0220684)</f>
+        <v>7.9316</v>
+      </c>
+      <c r="L20" s="60"/>
+      <c r="M20" s="0" t="n">
+        <v>1.117</v>
       </c>
       <c r="N20" s="0" t="n">
-        <v>1.031</v>
-      </c>
-      <c r="O20" s="58" t="n">
-        <v>11.92</v>
-      </c>
-      <c r="P20" s="58" t="n">
-        <f aca="false">O20/(1000*0.035*SIN(RADIANS(10)))</f>
-        <v>1.9612726902592</v>
-      </c>
-      <c r="Q20" s="58" t="n">
-        <f aca="false">O20/(1000*0.035*SIN(RADIANS(10.78)))</f>
-        <v>1.82086347890619</v>
+        <f aca="false">1000*(0.03-0.0235943)</f>
+        <v>6.4057</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
+        <v>1.204</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>11.3021</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>1.236</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>11.1513</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>9.8949</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>1.161</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>7.9697</v>
+      </c>
+      <c r="L21" s="60"/>
+      <c r="M21" s="0" t="n">
+        <v>1.145</v>
+      </c>
+      <c r="N21" s="0" t="n">
+        <v>6.4519</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>1.246</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <f aca="false">1000*(0.03-0.0187463)</f>
+        <v>11.2537</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>1.286</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <f aca="false">1000*(0.03-0.0188444)</f>
+        <v>11.1556</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>1.216</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <f aca="false">1000*(0.03-0.020181)</f>
+        <v>9.819</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>1.192</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <f aca="false">1000*(0.03-0.0220122)</f>
+        <v>7.9878</v>
+      </c>
+      <c r="L22" s="60"/>
+      <c r="M22" s="0" t="n">
+        <v>1.173</v>
+      </c>
+      <c r="N22" s="0" t="n">
+        <f aca="false">1000*(0.03-0.0235911)</f>
+        <v>6.4089</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>1.288</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>11.2983</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>1.336</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>11.1635</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>9.7784</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>1.224</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>7.9645</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <v>1.201</v>
+      </c>
+      <c r="N23" s="0" t="n">
+        <v>6.4467</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>1.329</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <f aca="false">1000*(0.03-0.0187389)</f>
+        <v>11.2611</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>1.386</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <f aca="false">1000*(0.03-0.0188335)</f>
+        <v>11.1665</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>1.288</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <f aca="false">1000*(0.03-0.0202178)</f>
+        <v>9.7822</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>1.255</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <f aca="false">1000*(0.03-0.0220415)</f>
+        <v>7.9585</v>
+      </c>
+      <c r="M24" s="0" t="n">
+        <v>1.229</v>
+      </c>
+      <c r="N24" s="0" t="n">
+        <f aca="false">1000*(0.03-0.0235953)</f>
+        <v>6.4047</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>1.371</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>11.2533</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>1.436</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>11.1639</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>9.8065</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>1.286</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>7.968</v>
+      </c>
+      <c r="M25" s="0" t="n">
+        <v>1.256</v>
+      </c>
+      <c r="N25" s="0" t="n">
+        <v>6.4429</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>1.413</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <f aca="false">1000*(0.03-0.0187309)</f>
+        <v>11.2691</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>1.487</v>
+      </c>
+      <c r="D26" s="61" t="n">
+        <f aca="false">1000*(0.03-0.0188437)</f>
+        <v>11.1563</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>1.359</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <f aca="false">1000*(0.03-0.0201416)</f>
+        <v>9.8584</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>1.317</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <f aca="false">1000*(0.03-0.0220158)</f>
+        <v>7.9842</v>
+      </c>
+      <c r="M26" s="0" t="n">
+        <v>1.284</v>
+      </c>
+      <c r="N26" s="0" t="n">
+        <f aca="false">1000*(0.03-0.0235828)</f>
+        <v>6.4172</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>1.454</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>11.2382</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>1.395</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>9.9112</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>1.349</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>7.9632</v>
+      </c>
+      <c r="M27" s="0" t="n">
+        <v>1.312</v>
+      </c>
+      <c r="N27" s="0" t="n">
+        <v>6.4418</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>1.496</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <f aca="false">1000*(0.03-0.0187265)</f>
+        <v>11.2735</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>1.431</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <f aca="false">1000*(0.03-0.0200982)</f>
+        <v>9.9018</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <f aca="false">1000*(0.03-0.0220409)</f>
+        <v>7.9591</v>
+      </c>
+      <c r="M28" s="0" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="N28" s="0" t="n">
+        <f aca="false">1000*(0.03-0.0235831)</f>
+        <v>6.4169</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E29" s="0" t="n">
+        <v>1.466</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>9.9662</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>1.411</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>7.9627</v>
+      </c>
+      <c r="M29" s="0" t="n">
+        <v>1.367</v>
+      </c>
+      <c r="N29" s="0" t="n">
+        <v>6.4336</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G30" s="0" t="n">
+        <v>1.442</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <f aca="false">1000*(0.03-0.0220253)</f>
+        <v>7.9747</v>
+      </c>
+      <c r="M30" s="0" t="n">
+        <v>1.395</v>
+      </c>
+      <c r="N30" s="0" t="n">
+        <f aca="false">1000*(0.03-0.0235771)</f>
+        <v>6.4229</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G31" s="0" t="n">
+        <v>1.474</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>7.9649</v>
+      </c>
+      <c r="M31" s="0" t="n">
+        <v>1.423</v>
+      </c>
+      <c r="N31" s="0" t="n">
+        <v>6.4367</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M32" s="0" t="n">
+        <v>1.451</v>
+      </c>
+      <c r="N32" s="0" t="n">
+        <f aca="false">1000*(0.03-0.0235745)</f>
+        <v>6.4255</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M33" s="0" t="n">
+        <v>1.479</v>
+      </c>
+      <c r="N33" s="0" t="n">
+        <v>6.4241</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="N37" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="O37" s="54"/>
+      <c r="P37" s="54"/>
+      <c r="Q37" s="54"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="N38" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="O38" s="54"/>
+      <c r="P38" s="54"/>
+      <c r="Q38" s="54"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="N39" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="O39" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="P39" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q39" s="53" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>1.037</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>10.3671</v>
+      </c>
+      <c r="C40" s="57" t="n">
+        <f aca="false">B40/(1000*0.035*SIN(RADIANS(10)))</f>
+        <v>1.7057642707371</v>
+      </c>
+      <c r="D40" s="57" t="n">
+        <f aca="false">B40/(1000*0.035*SIN(RADIANS(10.78)))</f>
+        <v>1.58364712853762</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="N40" s="0" t="n">
+        <v>1.031</v>
+      </c>
+      <c r="O40" s="57" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="P40" s="57" t="n">
+        <f aca="false">O40/(1000*0.035*SIN(RADIANS(10)))</f>
+        <v>1.9612726902592</v>
+      </c>
+      <c r="Q40" s="57" t="n">
+        <f aca="false">O40/(1000*0.035*SIN(RADIANS(10.78)))</f>
+        <v>1.82086347890619</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
         <v>1.068</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B41" s="0" t="n">
         <f aca="false">1000*(0.03-0.0199501)</f>
         <v>10.0499</v>
       </c>
-      <c r="C21" s="58" t="n">
-        <f aca="false">B21/(1000*0.035*SIN(RADIANS(10)))</f>
+      <c r="C41" s="57" t="n">
+        <f aca="false">B41/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.65357335652986</v>
       </c>
-      <c r="D21" s="58" t="n">
-        <f aca="false">B21/(1000*0.035*SIN(RADIANS(10.78)))</f>
+      <c r="D41" s="57" t="n">
+        <f aca="false">B41/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.53519260710229</v>
       </c>
-      <c r="N21" s="0" t="n">
+      <c r="N41" s="0" t="n">
         <v>1.063</v>
       </c>
-      <c r="O21" s="58" t="n">
+      <c r="O41" s="57" t="n">
         <f aca="false">1000*(0.03-0.0182312)</f>
         <v>11.7688</v>
       </c>
-      <c r="P21" s="58" t="n">
-        <f aca="false">O21/(1000*0.035*SIN(RADIANS(10)))</f>
+      <c r="P41" s="57" t="n">
+        <f aca="false">O41/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.93639480177202</v>
       </c>
-      <c r="Q21" s="58" t="n">
-        <f aca="false">O21/(1000*0.035*SIN(RADIANS(10.78)))</f>
+      <c r="Q41" s="57" t="n">
+        <f aca="false">O41/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.79776662001268</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
-        <f aca="false">1.068+(A21-A20)</f>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <f aca="false">1.068+(A41-A40)</f>
         <v>1.099</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B42" s="0" t="n">
         <v>9.8834</v>
       </c>
-      <c r="C22" s="58" t="n">
-        <f aca="false">B22/(1000*0.035*SIN(RADIANS(10)))</f>
+      <c r="C42" s="57" t="n">
+        <f aca="false">B42/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.62617806266005</v>
       </c>
-      <c r="D22" s="58" t="n">
-        <f aca="false">B22/(1000*0.035*SIN(RADIANS(10.78)))</f>
+      <c r="D42" s="57" t="n">
+        <f aca="false">B42/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.50975856605885</v>
       </c>
-      <c r="G22" s="61"/>
-      <c r="N22" s="0" t="n">
+      <c r="G42" s="60"/>
+      <c r="N42" s="0" t="n">
         <v>1.095</v>
       </c>
-      <c r="O22" s="58" t="n">
+      <c r="O42" s="57" t="n">
         <v>11.6725</v>
       </c>
-      <c r="P22" s="58" t="n">
-        <f aca="false">O22/(1000*0.035*SIN(RADIANS(10)))</f>
+      <c r="P42" s="57" t="n">
+        <f aca="false">O42/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.9205499561284</v>
       </c>
-      <c r="Q22" s="58" t="n">
-        <f aca="false">O22/(1000*0.035*SIN(RADIANS(10.78)))</f>
+      <c r="Q42" s="57" t="n">
+        <f aca="false">O42/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.78305612059837</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
         <v>1.131</v>
       </c>
-      <c r="B23" s="62" t="n">
+      <c r="B43" s="61" t="n">
         <f aca="false">1000*(0.03-0.0202027)</f>
         <v>9.7973</v>
       </c>
-      <c r="C23" s="58" t="n">
-        <f aca="false">B23/(1000*0.035*SIN(RADIANS(10)))</f>
+      <c r="C43" s="57" t="n">
+        <f aca="false">B43/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.61201148727152</v>
       </c>
-      <c r="D23" s="58" t="n">
-        <f aca="false">B23/(1000*0.035*SIN(RADIANS(10.78)))</f>
+      <c r="D43" s="57" t="n">
+        <f aca="false">B43/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.49660618807782</v>
       </c>
-      <c r="G23" s="61"/>
-      <c r="N23" s="0" t="n">
+      <c r="G43" s="60"/>
+      <c r="N43" s="0" t="n">
         <v>1.126</v>
       </c>
-      <c r="O23" s="63" t="n">
+      <c r="O43" s="62" t="n">
         <f aca="false">1000*(0.03-0.018351)</f>
         <v>11.649</v>
       </c>
-      <c r="P23" s="58" t="n">
-        <f aca="false">O23/(1000*0.035*SIN(RADIANS(10)))</f>
+      <c r="P43" s="57" t="n">
+        <f aca="false">O43/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.91668335308972</v>
       </c>
-      <c r="Q23" s="58" t="n">
-        <f aca="false">O23/(1000*0.035*SIN(RADIANS(10.78)))</f>
+      <c r="Q43" s="57" t="n">
+        <f aca="false">O43/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.77946633102166</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
-        <f aca="false">A23+(A23-A22)</f>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <f aca="false">A43+(A43-A42)</f>
         <v>1.163</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B44" s="0" t="n">
         <v>9.7546</v>
       </c>
-      <c r="C24" s="58" t="n">
-        <f aca="false">B24/(1000*0.035*SIN(RADIANS(10)))</f>
+      <c r="C44" s="57" t="n">
+        <f aca="false">B44/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.60498578728208</v>
       </c>
-      <c r="D24" s="58" t="n">
-        <f aca="false">B24/(1000*0.035*SIN(RADIANS(10.78)))</f>
+      <c r="D44" s="57" t="n">
+        <f aca="false">B44/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.49008346403845</v>
       </c>
-      <c r="N24" s="0" t="n">
+      <c r="N44" s="0" t="n">
         <v>1.157</v>
       </c>
-      <c r="O24" s="58" t="n">
+      <c r="O44" s="57" t="n">
         <v>11.6353</v>
       </c>
-      <c r="P24" s="58" t="n">
-        <f aca="false">O24/(1000*0.035*SIN(RADIANS(10)))</f>
+      <c r="P44" s="57" t="n">
+        <f aca="false">O44/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.91442920578632</v>
       </c>
-      <c r="Q24" s="58" t="n">
-        <f aca="false">O24/(1000*0.035*SIN(RADIANS(10.78)))</f>
+      <c r="Q44" s="57" t="n">
+        <f aca="false">O44/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.77737356007695</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N25" s="0" t="n">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N45" s="0" t="n">
         <v>1.188</v>
       </c>
-      <c r="O25" s="63" t="n">
+      <c r="O45" s="62" t="n">
         <f aca="false">1000*(0.03-0.0183805)</f>
         <v>11.6195</v>
       </c>
-      <c r="P25" s="58" t="n">
-        <f aca="false">O25/(1000*0.035*SIN(RADIANS(10)))</f>
+      <c r="P45" s="57" t="n">
+        <f aca="false">O45/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.91182953225393</v>
       </c>
-      <c r="Q25" s="58" t="n">
-        <f aca="false">O25/(1000*0.035*SIN(RADIANS(10.78)))</f>
+      <c r="Q45" s="57" t="n">
+        <f aca="false">O45/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.77495999942538</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" s="60"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="O26" s="58"/>
-      <c r="P26" s="58"/>
-      <c r="Q26" s="58"/>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="60"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
-      <c r="N27" s="64" t="s">
-        <v>55</v>
-      </c>
-      <c r="O27" s="64"/>
-      <c r="P27" s="64"/>
-      <c r="Q27" s="65" t="n">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" s="54"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="54"/>
+      <c r="O46" s="57"/>
+      <c r="P46" s="57"/>
+      <c r="Q46" s="57"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" s="54"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="54"/>
+      <c r="N47" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="O47" s="63"/>
+      <c r="P47" s="63"/>
+      <c r="Q47" s="64" t="n">
         <v>1.72</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" s="53" t="s">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="53" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+      <c r="B48" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" s="53" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="n">
         <v>1.033</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B49" s="0" t="n">
         <v>12.3826</v>
       </c>
-      <c r="C29" s="58" t="n">
-        <f aca="false">B29/(1000*0.035*SIN(RADIANS(10)))</f>
+      <c r="C49" s="57" t="n">
+        <f aca="false">B49/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>2.03738718241641</v>
       </c>
-      <c r="D29" s="58" t="n">
-        <f aca="false">B29/(1000*0.035*SIN(RADIANS(10.78)))</f>
+      <c r="D49" s="57" t="n">
+        <f aca="false">B49/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.89152886861609</v>
       </c>
-      <c r="E29" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="N29" s="60" t="s">
-        <v>56</v>
-      </c>
-      <c r="O29" s="60"/>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="60"/>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+      <c r="E49" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="N49" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="O49" s="54"/>
+      <c r="P49" s="54"/>
+      <c r="Q49" s="54"/>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
         <v>1.064</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B50" s="0" t="n">
         <f aca="false">(0.03-0.0178154)*1000</f>
         <v>12.1846</v>
       </c>
-      <c r="C30" s="58" t="n">
-        <f aca="false">B30/(1000*0.035*SIN(RADIANS(10)))</f>
+      <c r="C50" s="57" t="n">
+        <f aca="false">B50/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>2.00480899511177</v>
       </c>
-      <c r="D30" s="58" t="n">
-        <f aca="false">B30/(1000*0.035*SIN(RADIANS(10.78)))</f>
+      <c r="D50" s="57" t="n">
+        <f aca="false">B50/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.86128298196983</v>
       </c>
-      <c r="N30" s="60" t="s">
+      <c r="N50" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="O50" s="54"/>
+      <c r="P50" s="54"/>
+      <c r="Q50" s="54"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C51" s="57" t="n">
+        <f aca="false">B51/(1000*0.035*SIN(RADIANS(10)))</f>
+        <v>0</v>
+      </c>
+      <c r="D51" s="57" t="n">
+        <f aca="false">B51/(1000*0.035*SIN(RADIANS(10.78)))</f>
+        <v>0</v>
+      </c>
+      <c r="N51" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="O51" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="P51" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="O30" s="60"/>
-      <c r="P30" s="60"/>
-      <c r="Q30" s="60"/>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="58" t="n">
-        <f aca="false">B31/(1000*0.035*SIN(RADIANS(10)))</f>
+      <c r="Q51" s="53" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="61"/>
+      <c r="C52" s="57" t="n">
+        <f aca="false">B52/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="D31" s="58" t="n">
-        <f aca="false">B31/(1000*0.035*SIN(RADIANS(10.78)))</f>
+      <c r="D52" s="57" t="n">
+        <f aca="false">B52/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
-      <c r="N31" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="O31" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="P31" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q31" s="53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="62"/>
-      <c r="C32" s="58" t="n">
-        <f aca="false">B32/(1000*0.035*SIN(RADIANS(10)))</f>
+      <c r="N52" s="0" t="n">
+        <v>1.031</v>
+      </c>
+      <c r="O52" s="57" t="n">
+        <v>11.8117</v>
+      </c>
+      <c r="P52" s="57" t="n">
+        <f aca="false">O52/(1000*0.035*SIN(RADIANS(10)))</f>
+        <v>1.94345340902136</v>
+      </c>
+      <c r="Q52" s="57" t="n">
+        <f aca="false">O52/(1000*0.035*SIN(RADIANS(10.78)))</f>
+        <v>1.80431989545271</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C53" s="57" t="n">
+        <f aca="false">B53/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="D32" s="58" t="n">
-        <f aca="false">B32/(1000*0.035*SIN(RADIANS(10.78)))</f>
+      <c r="D53" s="57" t="n">
+        <f aca="false">B53/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
-      <c r="N32" s="0" t="n">
-        <v>1.031</v>
-      </c>
-      <c r="O32" s="58" t="n">
-        <v>11.8117</v>
-      </c>
-      <c r="P32" s="58" t="n">
-        <f aca="false">O32/(1000*0.035*SIN(RADIANS(10)))</f>
-        <v>1.94345340902136</v>
-      </c>
-      <c r="Q32" s="58" t="n">
-        <f aca="false">O32/(1000*0.035*SIN(RADIANS(10.78)))</f>
-        <v>1.80431989545271</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="58" t="n">
-        <f aca="false">B33/(1000*0.035*SIN(RADIANS(10)))</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="58" t="n">
-        <f aca="false">B33/(1000*0.035*SIN(RADIANS(10.78)))</f>
-        <v>0</v>
-      </c>
-      <c r="N33" s="0" t="n">
+      <c r="N53" s="0" t="n">
         <v>1.073</v>
       </c>
-      <c r="O33" s="58" t="n">
+      <c r="O53" s="57" t="n">
         <f aca="false">1000*(0.03-0.0180445)</f>
         <v>11.9555</v>
       </c>
-      <c r="P33" s="58" t="n">
-        <f aca="false">O33/(1000*0.035*SIN(RADIANS(10)))</f>
+      <c r="P53" s="57" t="n">
+        <f aca="false">O53/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.96711372889211</v>
       </c>
-      <c r="Q33" s="58" t="n">
-        <f aca="false">O33/(1000*0.035*SIN(RADIANS(10.78)))</f>
+      <c r="Q53" s="57" t="n">
+        <f aca="false">O53/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.82628635252206</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N34" s="0" t="n">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N54" s="0" t="n">
         <v>1.114</v>
       </c>
-      <c r="O34" s="58" t="n">
+      <c r="O54" s="57" t="n">
         <v>11.953</v>
       </c>
-      <c r="P34" s="58" t="n">
-        <f aca="false">O34/(1000*0.035*SIN(RADIANS(10)))</f>
+      <c r="P54" s="57" t="n">
+        <f aca="false">O54/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.96670238814331</v>
       </c>
-      <c r="Q34" s="58" t="n">
-        <f aca="false">O34/(1000*0.035*SIN(RADIANS(10.78)))</f>
+      <c r="Q54" s="57" t="n">
+        <f aca="false">O54/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.8259044600139</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="60" t="s">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55" s="54"/>
+      <c r="C55" s="54"/>
+      <c r="D55" s="54"/>
+      <c r="O55" s="62"/>
+      <c r="P55" s="57" t="n">
+        <f aca="false">O55/(1000*0.035*SIN(RADIANS(10)))</f>
+        <v>0</v>
+      </c>
+      <c r="Q55" s="57" t="n">
+        <f aca="false">O55/(1000*0.035*SIN(RADIANS(10.78)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" s="54"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="54"/>
+      <c r="O56" s="57"/>
+      <c r="P56" s="57" t="n">
+        <f aca="false">O56/(1000*0.035*SIN(RADIANS(10)))</f>
+        <v>0</v>
+      </c>
+      <c r="Q56" s="57" t="n">
+        <f aca="false">O56/(1000*0.035*SIN(RADIANS(10.78)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="D57" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="B35" s="60"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="60"/>
-      <c r="O35" s="63"/>
-      <c r="P35" s="58" t="n">
-        <f aca="false">O35/(1000*0.035*SIN(RADIANS(10)))</f>
+      <c r="O57" s="62"/>
+      <c r="P57" s="57" t="n">
+        <f aca="false">O57/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="Q35" s="58" t="n">
-        <f aca="false">O35/(1000*0.035*SIN(RADIANS(10.78)))</f>
+      <c r="Q57" s="57" t="n">
+        <f aca="false">O57/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" s="60"/>
-      <c r="C36" s="60"/>
-      <c r="D36" s="60"/>
-      <c r="O36" s="58"/>
-      <c r="P36" s="58" t="n">
-        <f aca="false">O36/(1000*0.035*SIN(RADIANS(10)))</f>
-        <v>0</v>
-      </c>
-      <c r="Q36" s="58" t="n">
-        <f aca="false">O36/(1000*0.035*SIN(RADIANS(10.78)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="D37" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="O37" s="63"/>
-      <c r="P37" s="58" t="n">
-        <f aca="false">O37/(1000*0.035*SIN(RADIANS(10)))</f>
-        <v>0</v>
-      </c>
-      <c r="Q37" s="58" t="n">
-        <f aca="false">O37/(1000*0.035*SIN(RADIANS(10.78)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="n">
         <v>1.033</v>
       </c>
-      <c r="B38" s="58" t="n">
+      <c r="B58" s="57" t="n">
         <v>12.0366</v>
       </c>
-      <c r="C38" s="58" t="n">
-        <f aca="false">B38/(1000*0.035*SIN(RADIANS(10)))</f>
+      <c r="C58" s="57" t="n">
+        <f aca="false">B58/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.98045762278305</v>
       </c>
-      <c r="D38" s="58" t="n">
-        <f aca="false">B38/(1000*0.035*SIN(RADIANS(10.78)))</f>
+      <c r="D58" s="57" t="n">
+        <f aca="false">B58/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.83867494548677</v>
       </c>
-      <c r="E38" s="0" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
+      <c r="E58" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="n">
         <v>1.065</v>
       </c>
-      <c r="B39" s="58" t="n">
+      <c r="B59" s="57" t="n">
         <f aca="false">(0.03-0.0182043)*1000</f>
         <v>11.7957</v>
       </c>
-      <c r="C39" s="58" t="n">
-        <f aca="false">B39/(1000*0.035*SIN(RADIANS(10)))</f>
+      <c r="C59" s="57" t="n">
+        <f aca="false">B59/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.94082082822907</v>
       </c>
-      <c r="D39" s="58" t="n">
-        <f aca="false">B39/(1000*0.035*SIN(RADIANS(10.78)))</f>
+      <c r="D59" s="57" t="n">
+        <f aca="false">B59/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.80187578340048</v>
       </c>
-      <c r="G39" s="58" t="n">
-        <f aca="false">D21/D20*D38</f>
+      <c r="G59" s="57" t="n">
+        <f aca="false">D41/D40*D58</f>
         <v>1.78241739103968</v>
       </c>
-      <c r="N39" s="60" t="s">
-        <v>56</v>
-      </c>
-      <c r="O39" s="60"/>
-      <c r="P39" s="60"/>
-      <c r="Q39" s="60"/>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
+      <c r="N59" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="O59" s="54"/>
+      <c r="P59" s="54"/>
+      <c r="Q59" s="54"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="n">
         <v>1.096</v>
       </c>
-      <c r="B40" s="58" t="n">
+      <c r="B60" s="57" t="n">
         <v>11.6751</v>
       </c>
-      <c r="C40" s="58" t="n">
-        <f aca="false">B40/(1000*0.035*SIN(RADIANS(10)))</f>
+      <c r="C60" s="57" t="n">
+        <f aca="false">B60/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.92097775050715</v>
       </c>
-      <c r="D40" s="58" t="n">
-        <f aca="false">B40/(1000*0.035*SIN(RADIANS(10.78)))</f>
+      <c r="D60" s="57" t="n">
+        <f aca="false">B60/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.78345328880685</v>
       </c>
-      <c r="G40" s="58" t="n">
-        <f aca="false">D22/D20*D38</f>
+      <c r="G60" s="57" t="n">
+        <f aca="false">D42/D40*D58</f>
         <v>1.75288749565683</v>
       </c>
-      <c r="N40" s="60" t="s">
-        <v>59</v>
-      </c>
-      <c r="O40" s="60"/>
-      <c r="P40" s="60"/>
-      <c r="Q40" s="60"/>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
+      <c r="N60" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="O60" s="54"/>
+      <c r="P60" s="54"/>
+      <c r="Q60" s="54"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="n">
         <v>1.128</v>
       </c>
-      <c r="B41" s="63" t="n">
+      <c r="B61" s="62" t="n">
         <f aca="false">(0.03-0.0183851)*1000</f>
         <v>11.6149</v>
       </c>
-      <c r="C41" s="58" t="n">
-        <f aca="false">B41/(1000*0.035*SIN(RADIANS(10)))</f>
+      <c r="C61" s="57" t="n">
+        <f aca="false">B61/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.91107266527614</v>
       </c>
-      <c r="D41" s="58" t="n">
-        <f aca="false">B41/(1000*0.035*SIN(RADIANS(10.78)))</f>
+      <c r="D61" s="57" t="n">
+        <f aca="false">B61/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.77425731721036</v>
       </c>
-      <c r="G41" s="58" t="n">
-        <f aca="false">D23/$D$20*D38</f>
+      <c r="G61" s="57" t="n">
+        <f aca="false">D43/$D$40*D58</f>
         <v>1.73761708128768</v>
       </c>
-      <c r="N41" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="O41" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="P41" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q41" s="53" t="s">
+      <c r="N61" s="53" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
+      <c r="O61" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="P61" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q61" s="53" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="n">
         <v>1.159</v>
       </c>
-      <c r="B42" s="58" t="n">
+      <c r="B62" s="57" t="n">
         <v>11.5898</v>
       </c>
-      <c r="C42" s="58" t="n">
-        <f aca="false">B42/(1000*0.035*SIN(RADIANS(10)))</f>
+      <c r="C62" s="57" t="n">
+        <f aca="false">B62/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.90694280415823</v>
       </c>
-      <c r="D42" s="58" t="n">
-        <f aca="false">B42/(1000*0.035*SIN(RADIANS(10.78)))</f>
+      <c r="D62" s="57" t="n">
+        <f aca="false">B62/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.77042311642844</v>
       </c>
-      <c r="G42" s="58" t="n">
-        <f aca="false">D24/D20*D38</f>
+      <c r="G62" s="57" t="n">
+        <f aca="false">D44/D40*D58</f>
         <v>1.73004394895826</v>
       </c>
-      <c r="N42" s="0" t="n">
+      <c r="N62" s="0" t="n">
         <v>1.031</v>
       </c>
-      <c r="O42" s="58" t="n">
+      <c r="O62" s="57" t="n">
         <v>11.8117</v>
       </c>
-      <c r="P42" s="58" t="n">
-        <f aca="false">O42/(1000*0.035*SIN(RADIANS(10)))</f>
+      <c r="P62" s="57" t="n">
+        <f aca="false">O62/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.94345340902136</v>
       </c>
-      <c r="Q42" s="58" t="n">
-        <f aca="false">O42/(1000*0.035*SIN(RADIANS(10.78)))</f>
+      <c r="Q62" s="57" t="n">
+        <f aca="false">O62/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.80431989545271</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="58"/>
-      <c r="C43" s="58" t="n">
-        <f aca="false">B43/(1000*0.035*SIN(RADIANS(10)))</f>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="57"/>
+      <c r="C63" s="57" t="n">
+        <f aca="false">B63/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="D43" s="58" t="n">
-        <f aca="false">B43/(1000*0.035*SIN(RADIANS(10.78)))</f>
+      <c r="D63" s="57" t="n">
+        <f aca="false">B63/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
-      <c r="N43" s="0" t="n">
+      <c r="N63" s="0" t="n">
         <v>1.073</v>
       </c>
-      <c r="O43" s="58" t="n">
+      <c r="O63" s="57" t="n">
         <f aca="false">1000*(0.03-0.0174737)</f>
         <v>12.5263</v>
       </c>
-      <c r="P43" s="58" t="n">
-        <f aca="false">O43/(1000*0.035*SIN(RADIANS(10)))</f>
+      <c r="P63" s="57" t="n">
+        <f aca="false">O63/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>2.0610310486572</v>
       </c>
-      <c r="Q43" s="58" t="n">
-        <f aca="false">O43/(1000*0.035*SIN(RADIANS(10.78)))</f>
+      <c r="Q63" s="57" t="n">
+        <f aca="false">O63/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.91348004998512</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="58"/>
-      <c r="C44" s="58" t="n">
-        <f aca="false">B44/(1000*0.035*SIN(RADIANS(10)))</f>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="57"/>
+      <c r="C64" s="57" t="n">
+        <f aca="false">B64/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="D44" s="58" t="n">
-        <f aca="false">B44/(1000*0.035*SIN(RADIANS(10.78)))</f>
+      <c r="D64" s="57" t="n">
+        <f aca="false">B64/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
-      <c r="N44" s="0" t="n">
+      <c r="N64" s="0" t="n">
         <v>1.103</v>
       </c>
-      <c r="O44" s="58" t="n">
+      <c r="O64" s="57" t="n">
         <v>12.51</v>
       </c>
-      <c r="P44" s="58" t="n">
-        <f aca="false">O44/(1000*0.035*SIN(RADIANS(10)))</f>
+      <c r="P64" s="57" t="n">
+        <f aca="false">O64/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>2.05834910697505</v>
       </c>
-      <c r="Q44" s="58" t="n">
-        <f aca="false">O44/(1000*0.035*SIN(RADIANS(10.78)))</f>
+      <c r="Q64" s="57" t="n">
+        <f aca="false">O64/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.91099011083192</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O45" s="63"/>
-      <c r="P45" s="58" t="n">
-        <f aca="false">O45/(1000*0.035*SIN(RADIANS(10)))</f>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O65" s="62"/>
+      <c r="P65" s="57" t="n">
+        <f aca="false">O65/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="Q45" s="58" t="n">
-        <f aca="false">O45/(1000*0.035*SIN(RADIANS(10.78)))</f>
+      <c r="Q65" s="57" t="n">
+        <f aca="false">O65/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="60" t="s">
-        <v>60</v>
-      </c>
-      <c r="B46" s="60"/>
-      <c r="C46" s="60"/>
-      <c r="D46" s="60"/>
-      <c r="O46" s="58"/>
-      <c r="P46" s="58" t="n">
-        <f aca="false">O46/(1000*0.035*SIN(RADIANS(10)))</f>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" s="54"/>
+      <c r="C66" s="54"/>
+      <c r="D66" s="54"/>
+      <c r="O66" s="57"/>
+      <c r="P66" s="57" t="n">
+        <f aca="false">O66/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="Q46" s="58" t="n">
-        <f aca="false">O46/(1000*0.035*SIN(RADIANS(10.78)))</f>
+      <c r="Q66" s="57" t="n">
+        <f aca="false">O66/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="60" t="s">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="B67" s="54"/>
+      <c r="C67" s="54"/>
+      <c r="D67" s="54"/>
+      <c r="O67" s="62"/>
+      <c r="P67" s="57" t="n">
+        <f aca="false">O67/(1000*0.035*SIN(RADIANS(10)))</f>
+        <v>0</v>
+      </c>
+      <c r="Q67" s="57" t="n">
+        <f aca="false">O67/(1000*0.035*SIN(RADIANS(10.78)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B68" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="B47" s="60"/>
-      <c r="C47" s="60"/>
-      <c r="D47" s="60"/>
-      <c r="O47" s="63"/>
-      <c r="P47" s="58" t="n">
-        <f aca="false">O47/(1000*0.035*SIN(RADIANS(10)))</f>
-        <v>0</v>
-      </c>
-      <c r="Q47" s="58" t="n">
-        <f aca="false">O47/(1000*0.035*SIN(RADIANS(10.78)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="C48" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="D48" s="53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
+      <c r="D68" s="53" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="n">
         <v>1.032</v>
       </c>
-      <c r="B49" s="58" t="n">
+      <c r="B69" s="57" t="n">
         <v>12.6366</v>
       </c>
-      <c r="C49" s="58" t="n">
-        <f aca="false">B49/(1000*0.035*SIN(RADIANS(10)))</f>
+      <c r="C69" s="57" t="n">
+        <f aca="false">B69/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>2.07917940249408</v>
       </c>
-      <c r="D49" s="58" t="n">
-        <f aca="false">B49/(1000*0.035*SIN(RADIANS(10.78)))</f>
+      <c r="D69" s="57" t="n">
+        <f aca="false">B69/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.93032914744513</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="n">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="n">
         <v>1.074</v>
       </c>
-      <c r="B50" s="58" t="n">
+      <c r="B70" s="57" t="n">
         <f aca="false">(0.03-0.0171832)*1000</f>
         <v>12.8168</v>
       </c>
-      <c r="C50" s="58" t="n">
-        <f aca="false">B50/(1000*0.035*SIN(RADIANS(10)))</f>
+      <c r="C70" s="57" t="n">
+        <f aca="false">B70/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>2.10882884366729</v>
       </c>
-      <c r="D50" s="58" t="n">
-        <f aca="false">B50/(1000*0.035*SIN(RADIANS(10.78)))</f>
+      <c r="D70" s="57" t="n">
+        <f aca="false">B70/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.9578559594333</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="n">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="n">
         <v>1.116</v>
       </c>
-      <c r="B51" s="0" t="n">
+      <c r="B71" s="0" t="n">
         <v>12.82</v>
       </c>
-      <c r="C51" s="58" t="n">
-        <f aca="false">B51/(1000*0.035*SIN(RADIANS(10)))</f>
+      <c r="C71" s="57" t="n">
+        <f aca="false">B71/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>2.10935535982575</v>
       </c>
-      <c r="D51" s="58" t="n">
-        <f aca="false">B51/(1000*0.035*SIN(RADIANS(10.78)))</f>
+      <c r="D71" s="57" t="n">
+        <f aca="false">B71/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.95834478184374</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="63"/>
-      <c r="C52" s="58" t="n">
-        <f aca="false">B52/(1000*0.035*SIN(RADIANS(10)))</f>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="62"/>
+      <c r="C72" s="57" t="n">
+        <f aca="false">B72/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="D52" s="58" t="n">
-        <f aca="false">B52/(1000*0.035*SIN(RADIANS(10.78)))</f>
+      <c r="D72" s="57" t="n">
+        <f aca="false">B72/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="58"/>
-      <c r="C53" s="58" t="n">
-        <f aca="false">B53/(1000*0.035*SIN(RADIANS(10)))</f>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="57"/>
+      <c r="C73" s="57" t="n">
+        <f aca="false">B73/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="D53" s="58" t="n">
-        <f aca="false">B53/(1000*0.035*SIN(RADIANS(10.78)))</f>
+      <c r="D73" s="57" t="n">
+        <f aca="false">B73/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="58"/>
-      <c r="C54" s="58" t="n">
-        <f aca="false">B54/(1000*0.035*SIN(RADIANS(10)))</f>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="57"/>
+      <c r="C74" s="57" t="n">
+        <f aca="false">B74/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="D54" s="58" t="n">
-        <f aca="false">B54/(1000*0.035*SIN(RADIANS(10.78)))</f>
+      <c r="D74" s="57" t="n">
+        <f aca="false">B74/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="58"/>
-      <c r="C55" s="58" t="n">
-        <f aca="false">B55/(1000*0.035*SIN(RADIANS(10)))</f>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="57"/>
+      <c r="C75" s="57" t="n">
+        <f aca="false">B75/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="D55" s="58" t="n">
-        <f aca="false">B55/(1000*0.035*SIN(RADIANS(10.78)))</f>
+      <c r="D75" s="57" t="n">
+        <f aca="false">B75/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="66"/>
-      <c r="B58" s="66"/>
-      <c r="C58" s="66"/>
-      <c r="D58" s="66"/>
-      <c r="E58" s="66"/>
-      <c r="F58" s="66"/>
-      <c r="G58" s="66"/>
-      <c r="H58" s="66"/>
-      <c r="I58" s="66"/>
-      <c r="J58" s="66"/>
-      <c r="K58" s="66"/>
-      <c r="L58" s="66"/>
-      <c r="M58" s="66"/>
-      <c r="N58" s="66"/>
-      <c r="O58" s="66"/>
-      <c r="P58" s="66"/>
-      <c r="Q58" s="66"/>
-      <c r="R58" s="66"/>
-    </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61" s="67" t="n">
+    <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="65"/>
+      <c r="B78" s="65"/>
+      <c r="C78" s="65"/>
+      <c r="D78" s="65"/>
+      <c r="E78" s="65"/>
+      <c r="F78" s="65"/>
+      <c r="G78" s="65"/>
+      <c r="H78" s="65"/>
+      <c r="I78" s="65"/>
+      <c r="J78" s="65"/>
+      <c r="K78" s="65"/>
+      <c r="L78" s="65"/>
+      <c r="M78" s="65"/>
+      <c r="N78" s="65"/>
+      <c r="O78" s="65"/>
+      <c r="P78" s="65"/>
+      <c r="Q78" s="65"/>
+      <c r="R78" s="65"/>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="B81" s="66" t="n">
         <v>7500000000</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62" s="59" t="n">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="B82" s="59" t="n">
         <v>1325</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="56" t="s">
-        <v>37</v>
-      </c>
-      <c r="B63" s="56"/>
-      <c r="C63" s="56"/>
-      <c r="D63" s="56"/>
-    </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="B64" s="54"/>
-      <c r="C64" s="54"/>
-      <c r="D64" s="54"/>
-      <c r="F64" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="G64" s="54"/>
-      <c r="H64" s="54"/>
-      <c r="I64" s="54"/>
-      <c r="K64" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="L64" s="54"/>
-      <c r="M64" s="54"/>
-    </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="B65" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="C65" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="D65" s="53" t="s">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="B83" s="63"/>
+      <c r="C83" s="63"/>
+      <c r="D83" s="63"/>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="B84" s="54"/>
+      <c r="C84" s="54"/>
+      <c r="D84" s="54"/>
+      <c r="F84" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="G84" s="54"/>
+      <c r="H84" s="54"/>
+      <c r="I84" s="54"/>
+      <c r="K84" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="L84" s="54"/>
+      <c r="M84" s="54"/>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="F65" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="G65" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="H65" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="I65" s="53" t="s">
+      <c r="B85" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="C85" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="D85" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="F85" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="K65" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="L65" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="M65" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="N65" s="53" t="s">
+      <c r="G85" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="H85" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="I85" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="K85" s="53" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="n">
+      <c r="L85" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="M85" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="N85" s="53" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="n">
         <v>1.07</v>
       </c>
-      <c r="B66" s="0" t="n">
+      <c r="B86" s="0" t="n">
         <f aca="false">1000*(0.03-0.0182399)</f>
         <v>11.7601</v>
       </c>
-      <c r="C66" s="58" t="n">
-        <f aca="false">B66/(1000*0.035*SIN(RADIANS(10)))</f>
+      <c r="C86" s="57" t="n">
+        <f aca="false">B86/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.93496333596621</v>
       </c>
-      <c r="D66" s="58" t="n">
-        <f aca="false">B66/(1000*0.035*SIN(RADIANS(10.78)))</f>
+      <c r="D86" s="57" t="n">
+        <f aca="false">B86/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.79643763408429</v>
       </c>
-      <c r="F66" s="0" t="n">
+      <c r="F86" s="0" t="n">
         <v>1.032</v>
       </c>
-      <c r="G66" s="0" t="n">
+      <c r="G86" s="0" t="n">
         <v>11.6128</v>
       </c>
-      <c r="H66" s="58" t="n">
-        <f aca="false">G66/(1000*0.035*SIN(RADIANS(10)))</f>
+      <c r="H86" s="57" t="n">
+        <f aca="false">G86/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.91072713904715</v>
       </c>
-      <c r="I66" s="58" t="n">
-        <f aca="false">G66/(1000*0.035*SIN(RADIANS(10.78)))</f>
+      <c r="I86" s="57" t="n">
+        <f aca="false">G86/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.77393652750351</v>
       </c>
-      <c r="K66" s="0" t="n">
+      <c r="K86" s="0" t="n">
         <v>1.031</v>
       </c>
-      <c r="L66" s="58" t="n">
+      <c r="L86" s="57" t="n">
         <v>12.3236</v>
       </c>
-      <c r="M66" s="58" t="n">
-        <f aca="false">L66/(1000*0.035*SIN(RADIANS(10)))</f>
+      <c r="M86" s="57" t="n">
+        <f aca="false">L86/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>2.02767954074483</v>
       </c>
-      <c r="N66" s="58" t="n">
-        <f aca="false">L66/(1000*0.035*SIN(RADIANS(10.78)))</f>
+      <c r="N86" s="57" t="n">
+        <f aca="false">L86/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.88251620542352</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="n">
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="n">
         <v>1.114</v>
       </c>
-      <c r="B67" s="0" t="n">
+      <c r="B87" s="0" t="n">
         <v>11.757</v>
       </c>
-      <c r="C67" s="58" t="n">
-        <f aca="false">B67/(1000*0.035*SIN(RADIANS(10)))</f>
+      <c r="C87" s="57" t="n">
+        <f aca="false">B87/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.93445327343771</v>
       </c>
-      <c r="D67" s="58" t="n">
-        <f aca="false">B67/(1000*0.035*SIN(RADIANS(10.78)))</f>
+      <c r="D87" s="57" t="n">
+        <f aca="false">B87/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.79596408737417</v>
       </c>
-      <c r="F67" s="0" t="n">
+      <c r="F87" s="0" t="n">
         <v>1.063</v>
       </c>
-      <c r="G67" s="0" t="n">
+      <c r="G87" s="0" t="n">
         <f aca="false">1000*(0.03-0.0185551)</f>
         <v>11.4449</v>
       </c>
-      <c r="H67" s="58" t="n">
-        <f aca="false">G67/(1000*0.035*SIN(RADIANS(10)))</f>
+      <c r="H87" s="57" t="n">
+        <f aca="false">G87/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.88310149435802</v>
       </c>
-      <c r="I67" s="58" t="n">
-        <f aca="false">G67/(1000*0.035*SIN(RADIANS(10.78)))</f>
+      <c r="I87" s="57" t="n">
+        <f aca="false">G87/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.74828862665549</v>
       </c>
-      <c r="K67" s="0" t="n">
+      <c r="K87" s="0" t="n">
         <v>1.065</v>
       </c>
-      <c r="L67" s="58" t="n">
+      <c r="L87" s="57" t="n">
         <f aca="false">1000*(0.03-0.017678)</f>
         <v>12.322</v>
       </c>
-      <c r="M67" s="58" t="n">
-        <f aca="false">L67/(1000*0.035*SIN(RADIANS(10)))</f>
+      <c r="M87" s="57" t="n">
+        <f aca="false">L87/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>2.0274162826656</v>
       </c>
-      <c r="N67" s="58" t="n">
-        <f aca="false">L67/(1000*0.035*SIN(RADIANS(10.78)))</f>
+      <c r="N87" s="57" t="n">
+        <f aca="false">L87/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.8822717942183</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="66"/>
-      <c r="B69" s="66"/>
-      <c r="C69" s="66"/>
-      <c r="D69" s="66"/>
-      <c r="E69" s="66"/>
-      <c r="F69" s="66"/>
-      <c r="G69" s="66"/>
-      <c r="H69" s="66"/>
-      <c r="I69" s="66"/>
-      <c r="J69" s="66"/>
-      <c r="K69" s="66"/>
-      <c r="L69" s="66"/>
-      <c r="M69" s="66"/>
-      <c r="N69" s="66"/>
-      <c r="O69" s="66"/>
-      <c r="P69" s="66"/>
-      <c r="Q69" s="66"/>
-      <c r="R69" s="66"/>
-    </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="B71" s="67" t="n">
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="65"/>
+      <c r="B89" s="65"/>
+      <c r="C89" s="65"/>
+      <c r="D89" s="65"/>
+      <c r="E89" s="65"/>
+      <c r="F89" s="65"/>
+      <c r="G89" s="65"/>
+      <c r="H89" s="65"/>
+      <c r="I89" s="65"/>
+      <c r="J89" s="65"/>
+      <c r="K89" s="65"/>
+      <c r="L89" s="65"/>
+      <c r="M89" s="65"/>
+      <c r="N89" s="65"/>
+      <c r="O89" s="65"/>
+      <c r="P89" s="65"/>
+      <c r="Q89" s="65"/>
+      <c r="R89" s="65"/>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="B91" s="66" t="n">
         <v>5800000000</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="B72" s="59" t="n">
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="B92" s="59" t="n">
         <v>1000</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="B74" s="54"/>
-      <c r="C74" s="54"/>
-      <c r="D74" s="54"/>
-      <c r="F74" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="G74" s="54"/>
-      <c r="H74" s="54"/>
-      <c r="I74" s="54"/>
-      <c r="K74" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="L74" s="54"/>
-      <c r="M74" s="54"/>
-    </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="B75" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="C75" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="D75" s="53" t="s">
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="B94" s="54"/>
+      <c r="C94" s="54"/>
+      <c r="D94" s="54"/>
+      <c r="F94" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="G94" s="54"/>
+      <c r="H94" s="54"/>
+      <c r="I94" s="54"/>
+      <c r="K94" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="L94" s="54"/>
+      <c r="M94" s="54"/>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="F75" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="G75" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="H75" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="I75" s="53" t="s">
+      <c r="B95" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="C95" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="D95" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="F95" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="K75" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="L75" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="M75" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="N75" s="53" t="s">
+      <c r="G95" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="H95" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="I95" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="K95" s="53" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="n">
+      <c r="L95" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="M95" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="N95" s="53" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="n">
         <v>1.074</v>
       </c>
-      <c r="B76" s="0" t="n">
+      <c r="B96" s="0" t="n">
         <f aca="false">1000*(0.03-0.0191163)</f>
         <v>10.8837</v>
       </c>
-      <c r="C76" s="58" t="n">
-        <f aca="false">B76/(1000*0.035*SIN(RADIANS(10)))</f>
+      <c r="C96" s="57" t="n">
+        <f aca="false">B96/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.7907637230683</v>
       </c>
-      <c r="D76" s="58" t="n">
-        <f aca="false">B76/(1000*0.035*SIN(RADIANS(10.78)))</f>
+      <c r="D96" s="57" t="n">
+        <f aca="false">B96/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.66256139642377</v>
       </c>
-      <c r="F76" s="0" t="n">
+      <c r="F96" s="0" t="n">
         <v>1.068</v>
       </c>
-      <c r="G76" s="0" t="n">
+      <c r="G96" s="0" t="n">
         <f aca="false">1000*(0.03-0.0190529)</f>
         <v>10.9471</v>
       </c>
-      <c r="H76" s="58" t="n">
-        <f aca="false">G76/(1000*0.035*SIN(RADIANS(10)))</f>
+      <c r="H96" s="57" t="n">
+        <f aca="false">G96/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.80119532445776</v>
       </c>
-      <c r="I76" s="58" t="n">
-        <f aca="false">G76/(1000*0.035*SIN(RADIANS(10.78)))</f>
+      <c r="I96" s="57" t="n">
+        <f aca="false">G96/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.6722461904307</v>
       </c>
-      <c r="K76" s="0" t="n">
+      <c r="K96" s="0" t="n">
         <v>1.064</v>
       </c>
-      <c r="L76" s="58" t="n">
+      <c r="L96" s="57" t="n">
         <f aca="false">1000*(0.03-0.0200284)</f>
         <v>9.9716</v>
       </c>
-      <c r="M76" s="58" t="n">
-        <f aca="false">L76/(1000*0.035*SIN(RADIANS(10)))</f>
+      <c r="M96" s="57" t="n">
+        <f aca="false">L96/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.64069016427757</v>
       </c>
-      <c r="N76" s="58" t="n">
-        <f aca="false">L76/(1000*0.035*SIN(RADIANS(10.78)))</f>
+      <c r="N96" s="57" t="n">
+        <f aca="false">L96/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.52323173374673</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C77" s="58" t="n">
-        <f aca="false">B77/(1000*0.035*SIN(RADIANS(10)))</f>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C97" s="57" t="n">
+        <f aca="false">B97/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="D77" s="58" t="n">
-        <f aca="false">B77/(1000*0.035*SIN(RADIANS(10.78)))</f>
+      <c r="D97" s="57" t="n">
+        <f aca="false">B97/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
-      <c r="H77" s="58" t="n">
-        <f aca="false">G77/(1000*0.035*SIN(RADIANS(10)))</f>
+      <c r="H97" s="57" t="n">
+        <f aca="false">G97/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="I77" s="58" t="n">
-        <f aca="false">G77/(1000*0.035*SIN(RADIANS(10.78)))</f>
+      <c r="I97" s="57" t="n">
+        <f aca="false">G97/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
-      <c r="L77" s="58"/>
-      <c r="M77" s="58" t="n">
-        <f aca="false">L77/(1000*0.035*SIN(RADIANS(10)))</f>
+      <c r="L97" s="57"/>
+      <c r="M97" s="57" t="n">
+        <f aca="false">L97/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="N77" s="58" t="n">
-        <f aca="false">L77/(1000*0.035*SIN(RADIANS(10.78)))</f>
+      <c r="N97" s="57" t="n">
+        <f aca="false">L97/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
     </row>
+    <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="65"/>
+      <c r="B99" s="65"/>
+      <c r="C99" s="65"/>
+      <c r="D99" s="65"/>
+      <c r="E99" s="65"/>
+      <c r="F99" s="65"/>
+      <c r="G99" s="65"/>
+      <c r="H99" s="65"/>
+      <c r="I99" s="65"/>
+      <c r="J99" s="65"/>
+      <c r="K99" s="65"/>
+      <c r="L99" s="65"/>
+      <c r="M99" s="65"/>
+      <c r="N99" s="65"/>
+      <c r="O99" s="65"/>
+      <c r="P99" s="65"/>
+      <c r="Q99" s="65"/>
+      <c r="R99" s="65"/>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="B101" s="66" t="n">
+        <v>7000000000</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="B102" s="59" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="B104" s="54"/>
+      <c r="C104" s="54"/>
+      <c r="D104" s="54"/>
+      <c r="F104" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="G104" s="54"/>
+      <c r="H104" s="54"/>
+      <c r="I104" s="54"/>
+      <c r="K104" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="L104" s="54"/>
+      <c r="M104" s="54"/>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B105" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="C105" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="D105" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="F105" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="G105" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="H105" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="I105" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="K105" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="L105" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="M105" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="N105" s="53" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="B106" s="61" t="n">
+        <f aca="false">1000*(0.03-0.0194274)</f>
+        <v>10.5726</v>
+      </c>
+      <c r="C106" s="57" t="n">
+        <f aca="false">B106/(1000*0.035*SIN(RADIANS(10)))</f>
+        <v>1.73957648028813</v>
+      </c>
+      <c r="D106" s="57" t="n">
+        <f aca="false">B106/(1000*0.035*SIN(RADIANS(10.78)))</f>
+        <v>1.61503869270836</v>
+      </c>
+      <c r="F106" s="0" t="n">
+        <v>1.029</v>
+      </c>
+      <c r="G106" s="0" t="n">
+        <v>11.23</v>
+      </c>
+      <c r="H106" s="57" t="n">
+        <f aca="false">G106/(1000*0.035*SIN(RADIANS(10)))</f>
+        <v>1.84774264359151</v>
+      </c>
+      <c r="I106" s="57" t="n">
+        <f aca="false">G106/(1000*0.035*SIN(RADIANS(10.78)))</f>
+        <v>1.71546114665407</v>
+      </c>
+      <c r="K106" s="0" t="n">
+        <v>1.061</v>
+      </c>
+      <c r="L106" s="57" t="n">
+        <f aca="false">1000*(0.03-0.0190729)</f>
+        <v>10.9271</v>
+      </c>
+      <c r="M106" s="57" t="n">
+        <f aca="false">L106/(1000*0.035*SIN(RADIANS(10)))</f>
+        <v>1.79790459846739</v>
+      </c>
+      <c r="N106" s="57" t="n">
+        <f aca="false">L106/(1000*0.035*SIN(RADIANS(10.78)))</f>
+        <v>1.66919105036542</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="n">
+        <v>1.113</v>
+      </c>
+      <c r="B107" s="0" t="n">
+        <f aca="false">10.5586</f>
+        <v>10.5586</v>
+      </c>
+      <c r="C107" s="57" t="n">
+        <f aca="false">B107/(1000*0.035*SIN(RADIANS(10)))</f>
+        <v>1.73727297209487</v>
+      </c>
+      <c r="D107" s="57" t="n">
+        <f aca="false">B107/(1000*0.035*SIN(RADIANS(10.78)))</f>
+        <v>1.61290009466266</v>
+      </c>
+      <c r="F107" s="0" t="n">
+        <v>1.065</v>
+      </c>
+      <c r="G107" s="57" t="n">
+        <f aca="false">1000*(0.03-0.0187383)</f>
+        <v>11.2617</v>
+      </c>
+      <c r="H107" s="57" t="n">
+        <f aca="false">G107/(1000*0.035*SIN(RADIANS(10)))</f>
+        <v>1.85295844428625</v>
+      </c>
+      <c r="I107" s="57" t="n">
+        <f aca="false">G107/(1000*0.035*SIN(RADIANS(10.78)))</f>
+        <v>1.72030354365754</v>
+      </c>
+      <c r="K107" s="0" t="n">
+        <v>1.093</v>
+      </c>
+      <c r="L107" s="57" t="n">
+        <v>10.8726</v>
+      </c>
+      <c r="M107" s="57" t="n">
+        <f aca="false">L107/(1000*0.035*SIN(RADIANS(10)))</f>
+        <v>1.78893737014364</v>
+      </c>
+      <c r="N107" s="57" t="n">
+        <f aca="false">L107/(1000*0.035*SIN(RADIANS(10.78)))</f>
+        <v>1.66086579368754</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="65"/>
+      <c r="B109" s="65"/>
+      <c r="C109" s="65"/>
+      <c r="D109" s="65"/>
+      <c r="E109" s="65"/>
+      <c r="F109" s="65"/>
+      <c r="G109" s="65"/>
+      <c r="H109" s="65"/>
+      <c r="I109" s="65"/>
+      <c r="J109" s="65"/>
+      <c r="K109" s="65"/>
+      <c r="L109" s="65"/>
+      <c r="M109" s="65"/>
+      <c r="N109" s="65"/>
+      <c r="O109" s="65"/>
+      <c r="P109" s="65"/>
+      <c r="Q109" s="65"/>
+      <c r="R109" s="65"/>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="B111" s="66" t="n">
+        <v>7400000000</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="B112" s="59" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="B114" s="54"/>
+      <c r="C114" s="54"/>
+      <c r="D114" s="54"/>
+      <c r="F114" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="G114" s="54"/>
+      <c r="H114" s="54"/>
+      <c r="I114" s="54"/>
+      <c r="K114" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="L114" s="54"/>
+      <c r="M114" s="54"/>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B115" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="C115" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="D115" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="F115" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="G115" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="H115" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="I115" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="K115" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="L115" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="M115" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="N115" s="53" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B116" s="61" t="n">
+        <v>10.4053</v>
+      </c>
+      <c r="C116" s="57" t="n">
+        <f aca="false">B116/(1000*0.035*SIN(RADIANS(10)))</f>
+        <v>1.7120495573787</v>
+      </c>
+      <c r="D116" s="57" t="n">
+        <f aca="false">B116/(1000*0.035*SIN(RADIANS(10.78)))</f>
+        <v>1.5894824460623</v>
+      </c>
+      <c r="H116" s="57" t="n">
+        <f aca="false">G116/(1000*0.035*SIN(RADIANS(10)))</f>
+        <v>0</v>
+      </c>
+      <c r="I116" s="57" t="n">
+        <f aca="false">G116/(1000*0.035*SIN(RADIANS(10.78)))</f>
+        <v>0</v>
+      </c>
+      <c r="K116" s="0" t="n">
+        <v>1.284</v>
+      </c>
+      <c r="L116" s="57" t="n">
+        <f aca="false">1000*(0.03-0.0189208)</f>
+        <v>11.0792</v>
+      </c>
+      <c r="M116" s="57" t="n">
+        <f aca="false">L116/(1000*0.035*SIN(RADIANS(10)))</f>
+        <v>1.82293056962414</v>
+      </c>
+      <c r="N116" s="57" t="n">
+        <f aca="false">L116/(1000*0.035*SIN(RADIANS(10.78)))</f>
+        <v>1.69242539056187</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C117" s="57" t="n">
+        <f aca="false">B117/(1000*0.035*SIN(RADIANS(10)))</f>
+        <v>0</v>
+      </c>
+      <c r="D117" s="57" t="n">
+        <f aca="false">B117/(1000*0.035*SIN(RADIANS(10.78)))</f>
+        <v>0</v>
+      </c>
+      <c r="G117" s="57"/>
+      <c r="H117" s="57" t="n">
+        <f aca="false">G117/(1000*0.035*SIN(RADIANS(10)))</f>
+        <v>0</v>
+      </c>
+      <c r="I117" s="57" t="n">
+        <f aca="false">G117/(1000*0.035*SIN(RADIANS(10.78)))</f>
+        <v>0</v>
+      </c>
+      <c r="K117" s="0" t="n">
+        <v>1.217</v>
+      </c>
+      <c r="L117" s="57" t="n">
+        <v>11.0762</v>
+      </c>
+      <c r="M117" s="57" t="n">
+        <f aca="false">L117/(1000*0.035*SIN(RADIANS(10)))</f>
+        <v>1.82243696072559</v>
+      </c>
+      <c r="N117" s="57" t="n">
+        <f aca="false">L117/(1000*0.035*SIN(RADIANS(10.78)))</f>
+        <v>1.69196711955208</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="41">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="N17:Q17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="N18:Q18"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="N27:P27"/>
-    <mergeCell ref="N29:Q29"/>
-    <mergeCell ref="N30:Q30"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="N39:Q39"/>
-    <mergeCell ref="N40:Q40"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="N37:Q37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="N38:Q38"/>
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="F64:I64"/>
-    <mergeCell ref="K64:M64"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="F74:I74"/>
-    <mergeCell ref="K74:M74"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="N49:Q49"/>
+    <mergeCell ref="N50:Q50"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="N59:Q59"/>
+    <mergeCell ref="N60:Q60"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="F84:I84"/>
+    <mergeCell ref="K84:M84"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="F94:I94"/>
+    <mergeCell ref="K94:M94"/>
+    <mergeCell ref="A104:D104"/>
+    <mergeCell ref="F104:I104"/>
+    <mergeCell ref="K104:M104"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="F114:I114"/>
+    <mergeCell ref="K114:M114"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0" right="0" top="0.39375" bottom="0.39375" header="0" footer="0"/>
@@ -5714,7 +7453,7 @@
   </sheetPr>
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -5724,169 +7463,169 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="68" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="68" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="68" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="68" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="68" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" s="68" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="I1" s="68" t="s">
-        <v>65</v>
+      <c r="A1" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="67" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" s="67" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="69" t="n">
+      <c r="A2" s="68" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="70" t="n">
+      <c r="B2" s="69" t="n">
         <v>0.04030959074389</v>
       </c>
-      <c r="C2" s="71" t="n">
+      <c r="C2" s="70" t="n">
         <f aca="false">(B2-$B$5)/$B$5*100</f>
         <v>7.04823230062975</v>
       </c>
-      <c r="D2" s="70" t="n">
+      <c r="D2" s="69" t="n">
         <v>0.3109552614872</v>
       </c>
-      <c r="E2" s="71" t="n">
+      <c r="E2" s="70" t="n">
         <f aca="false">(D2-$D$5)/$D$5*100</f>
         <v>7.054901184085</v>
       </c>
-      <c r="F2" s="70" t="n">
+      <c r="F2" s="69" t="n">
         <v>0.3109555611867</v>
       </c>
-      <c r="G2" s="72" t="n">
+      <c r="G2" s="71" t="n">
         <f aca="false">(F2-$F$5)/$F$5*100</f>
         <v>7.05446483961023</v>
       </c>
-      <c r="H2" s="70" t="n">
+      <c r="H2" s="69" t="n">
         <v>-0.3109549617878</v>
       </c>
-      <c r="I2" s="72" t="n">
+      <c r="I2" s="71" t="n">
         <f aca="false">(H2-$H$5)/$H$5*100</f>
         <v>7.05533753299236</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="69" t="n">
+      <c r="A3" s="68" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="70" t="n">
+      <c r="B3" s="69" t="n">
         <v>0.03806880863113</v>
       </c>
-      <c r="C3" s="72" t="n">
+      <c r="C3" s="71" t="n">
         <f aca="false">(B3-$B$5)/$B$5*100</f>
         <v>1.09749552272814</v>
       </c>
-      <c r="D3" s="70" t="n">
+      <c r="D3" s="69" t="n">
         <v>0.293720957096</v>
       </c>
-      <c r="E3" s="72" t="n">
+      <c r="E3" s="71" t="n">
         <f aca="false">(D3-$D$5)/$D$5*100</f>
         <v>1.12151789044903</v>
       </c>
-      <c r="F3" s="70" t="n">
+      <c r="F3" s="69" t="n">
         <v>0.2937177425854</v>
       </c>
-      <c r="G3" s="72" t="n">
+      <c r="G3" s="71" t="n">
         <f aca="false">(F3-$F$5)/$F$5*100</f>
         <v>1.11990159101643</v>
       </c>
-      <c r="H3" s="70" t="n">
+      <c r="H3" s="69" t="n">
         <v>-0.2937241716065</v>
       </c>
-      <c r="I3" s="72" t="n">
+      <c r="I3" s="71" t="n">
         <f aca="false">(H3-$H$5)/$H$5*100</f>
         <v>1.12313420613868</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="69" t="n">
+      <c r="A4" s="68" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="73" t="n">
+      <c r="B4" s="72" t="n">
         <v>0.03774558302765</v>
       </c>
-      <c r="C4" s="74" t="n">
+      <c r="C4" s="73" t="n">
         <f aca="false">(B4-$B$5)/$B$5*100</f>
         <v>0.239120906456881</v>
       </c>
-      <c r="D4" s="70" t="n">
+      <c r="D4" s="69" t="n">
         <v>0.2911846767037</v>
       </c>
-      <c r="E4" s="72" t="n">
+      <c r="E4" s="71" t="n">
         <f aca="false">(D4-$D$5)/$D$5*100</f>
         <v>0.248333608330097</v>
       </c>
-      <c r="F4" s="70" t="n">
+      <c r="F4" s="69" t="n">
         <v>0.2911843657898</v>
       </c>
-      <c r="G4" s="72" t="n">
+      <c r="G4" s="71" t="n">
         <f aca="false">(F4-$F$5)/$F$5*100</f>
         <v>0.247721347463204</v>
       </c>
-      <c r="H4" s="70" t="n">
+      <c r="H4" s="69" t="n">
         <v>-0.2911849876176</v>
       </c>
-      <c r="I4" s="72" t="n">
+      <c r="I4" s="71" t="n">
         <f aca="false">(H4-$H$5)/$H$5*100</f>
         <v>0.248945875368266</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="69" t="n">
+      <c r="A5" s="68" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="73" t="n">
+      <c r="B5" s="72" t="n">
         <v>0.03765554075726</v>
       </c>
-      <c r="C5" s="69" t="n">
+      <c r="C5" s="68" t="n">
         <f aca="false">(B5-$B$5)/$B$5*100</f>
         <v>0</v>
       </c>
-      <c r="D5" s="70" t="n">
+      <c r="D5" s="69" t="n">
         <v>0.2904633585645</v>
       </c>
-      <c r="E5" s="69" t="n">
+      <c r="E5" s="68" t="n">
         <f aca="false">(D5-$D$5)/$D$5*100</f>
         <v>0</v>
       </c>
-      <c r="F5" s="70" t="n">
+      <c r="F5" s="69" t="n">
         <v>0.2904648224178</v>
       </c>
-      <c r="G5" s="72" t="n">
+      <c r="G5" s="71" t="n">
         <f aca="false">(F5-$F$5)/$F$5*100</f>
         <v>0</v>
       </c>
-      <c r="H5" s="70" t="n">
+      <c r="H5" s="69" t="n">
         <v>-0.2904618947112</v>
       </c>
-      <c r="I5" s="72" t="n">
+      <c r="I5" s="71" t="n">
         <f aca="false">(H5-$H$5)/$H$5*100</f>
         <v>-0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L8" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="M8" s="0" t="n">
         <v>2</v>
@@ -5894,9 +7633,9 @@
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L9" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="M9" s="75" t="n">
+        <v>76</v>
+      </c>
+      <c r="M9" s="74" t="n">
         <f aca="false">LN((F4-F3)/(F3-F2))/LN(M8)</f>
         <v>-2.76644364303513</v>
       </c>
@@ -5920,87 +7659,87 @@
   </sheetPr>
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="55" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="55" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C1" s="55" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="76" t="n">
+      <c r="A2" s="75" t="n">
         <v>0.3082</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="C2" s="77" t="n">
+      <c r="C2" s="76" t="n">
         <v>2E-005</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="76"/>
+      <c r="A3" s="75"/>
       <c r="B3" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="C3" s="77" t="n">
+      <c r="C3" s="76" t="n">
         <v>2.5E-005</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="76"/>
+      <c r="A4" s="75"/>
       <c r="B4" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C4" s="77" t="n">
+      <c r="C4" s="76" t="n">
         <v>2.5E-005</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="76"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="C5" s="77" t="n">
+      <c r="C5" s="76" t="n">
         <v>2.5E-005</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="76"/>
+      <c r="A6" s="75"/>
       <c r="B6" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="C6" s="77" t="n">
+      <c r="C6" s="76" t="n">
         <v>2E-005</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="76"/>
+      <c r="A7" s="75"/>
       <c r="B7" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="C7" s="77" t="n">
+      <c r="C7" s="76" t="n">
         <v>2E-005</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="76"/>
+      <c r="A8" s="75"/>
       <c r="B8" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="78" t="n">
+      <c r="A9" s="77" t="n">
         <v>0.54</v>
       </c>
       <c r="B9" s="0" t="n">
@@ -6008,43 +7747,43 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="78"/>
+      <c r="A10" s="77"/>
       <c r="B10" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="C10" s="77" t="n">
+      <c r="C10" s="76" t="n">
         <v>1E-005</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="78"/>
+      <c r="A11" s="77"/>
       <c r="B11" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C11" s="77" t="n">
+      <c r="C11" s="76" t="n">
         <v>1E-005</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="78"/>
+      <c r="A12" s="77"/>
       <c r="B12" s="0" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="78"/>
+      <c r="A13" s="77"/>
       <c r="B13" s="0" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="78"/>
+      <c r="A14" s="77"/>
       <c r="B14" s="0" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="78"/>
+      <c r="A15" s="77"/>
       <c r="B15" s="0" t="n">
         <v>20</v>
       </c>
@@ -6062,4 +7801,1312 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B146"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A131" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E148" activeCellId="0" sqref="E148"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A5+-2.44601*A5^2+0.065033*A5^3</f>
+        <v>1.304874728</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A6+-2.44601*A6^2+0.065033*A6^3</f>
+        <v>1.322060004373</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A7+-2.44601*A7^2+0.065033*A7^3</f>
+        <v>1.338779880824</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A8+-2.44601*A8^2+0.065033*A8^3</f>
+        <v>1.355034747551</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A9+-2.44601*A9^2+0.065033*A9^3</f>
+        <v>1.370824994752</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A10+-2.44601*A10^2+0.065033*A10^3</f>
+        <v>1.386151012625</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>0.659999999999999</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A11+-2.44601*A11^2+0.065033*A11^3</f>
+        <v>1.401013191368</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>0.669999999999999</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A12+-2.44601*A12^2+0.065033*A12^3</f>
+        <v>1.415411921179</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>0.679999999999999</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A13+-2.44601*A13^2+0.065033*A13^3</f>
+        <v>1.429347592256</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>0.689999999999999</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A14+-2.44601*A14^2+0.065033*A14^3</f>
+        <v>1.442820594797</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>0.699999999999999</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A15+-2.44601*A15^2+0.065033*A15^3</f>
+        <v>1.455831319</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>0.709999999999999</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A16+-2.44601*A16^2+0.065033*A16^3</f>
+        <v>1.468380155063</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>0.719999999999999</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A17+-2.44601*A17^2+0.065033*A17^3</f>
+        <v>1.480467493184</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>0.729999999999999</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A18+-2.44601*A18^2+0.065033*A18^3</f>
+        <v>1.492093723561</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>0.739999999999999</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A19+-2.44601*A19^2+0.065033*A19^3</f>
+        <v>1.503259236392</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>0.749999999999999</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A20+-2.44601*A20^2+0.065033*A20^3</f>
+        <v>1.513964421875</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>0.759999999999998</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A21+-2.44601*A21^2+0.065033*A21^3</f>
+        <v>1.524209670208</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>0.769999999999998</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A22+-2.44601*A22^2+0.065033*A22^3</f>
+        <v>1.533995371589</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>0.779999999999998</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A23+-2.44601*A23^2+0.065033*A23^3</f>
+        <v>1.543321916216</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>0.789999999999998</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A24+-2.44601*A24^2+0.065033*A24^3</f>
+        <v>1.552189694287</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>0.799999999999998</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A25+-2.44601*A25^2+0.065033*A25^3</f>
+        <v>1.560599096</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>0.809999999999998</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A26+-2.44601*A26^2+0.065033*A26^3</f>
+        <v>1.568550511553</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>0.819999999999998</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A27+-2.44601*A27^2+0.065033*A27^3</f>
+        <v>1.576044331144</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>0.829999999999998</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A28+-2.44601*A28^2+0.065033*A28^3</f>
+        <v>1.583080944971</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>0.839999999999998</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A29+-2.44601*A29^2+0.065033*A29^3</f>
+        <v>1.589660743232</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>0.849999999999998</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A30+-2.44601*A30^2+0.065033*A30^3</f>
+        <v>1.595784116125</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>0.859999999999997</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A31+-2.44601*A31^2+0.065033*A31^3</f>
+        <v>1.601451453848</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>0.869999999999997</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A32+-2.44601*A32^2+0.065033*A32^3</f>
+        <v>1.606663146599</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>0.879999999999997</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A33+-2.44601*A33^2+0.065033*A33^3</f>
+        <v>1.611419584576</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>0.889999999999997</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A34+-2.44601*A34^2+0.065033*A34^3</f>
+        <v>1.615721157977</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>0.899999999999997</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A35+-2.44601*A35^2+0.065033*A35^3</f>
+        <v>1.619568257</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>0.909999999999997</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A36+-2.44601*A36^2+0.065033*A36^3</f>
+        <v>1.622961271843</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>0.919999999999997</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A37+-2.44601*A37^2+0.065033*A37^3</f>
+        <v>1.625900592704</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>0.929999999999997</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A38+-2.44601*A38^2+0.065033*A38^3</f>
+        <v>1.628386609781</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>0.939999999999997</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A39+-2.44601*A39^2+0.065033*A39^3</f>
+        <v>1.630419713272</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>0.949999999999997</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A40+-2.44601*A40^2+0.065033*A40^3</f>
+        <v>1.632000293375</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>0.959999999999996</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A41+-2.44601*A41^2+0.065033*A41^3</f>
+        <v>1.633128740288</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>0.969999999999996</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A42+-2.44601*A42^2+0.065033*A42^3</f>
+        <v>1.633805444209</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>0.979999999999996</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A43+-2.44601*A43^2+0.065033*A43^3</f>
+        <v>1.634030795336</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <v>0.989999999999996</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A44+-2.44601*A44^2+0.065033*A44^3</f>
+        <v>1.633805183867</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
+        <v>0.999999999999996</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A45+-2.44601*A45^2+0.065033*A45^3</f>
+        <v>1.633129</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A46+-2.44601*A46^2+0.065033*A46^3</f>
+        <v>1.632002633933</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A47+-2.44601*A47^2+0.065033*A47^3</f>
+        <v>1.630426475864</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A48+-2.44601*A48^2+0.065033*A48^3</f>
+        <v>1.628400915991</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A49+-2.44601*A49^2+0.065033*A49^3</f>
+        <v>1.625926344512</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A50+-2.44601*A50^2+0.065033*A50^3</f>
+        <v>1.623003151625</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A51+-2.44601*A51^2+0.065033*A51^3</f>
+        <v>1.619631727528</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A52+-2.44601*A52^2+0.065033*A52^3</f>
+        <v>1.615812462419</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="B53" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A53+-2.44601*A53^2+0.065033*A53^3</f>
+        <v>1.611545746496</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="B54" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A54+-2.44601*A54^2+0.065033*A54^3</f>
+        <v>1.606831969957</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="B55" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A55+-2.44601*A55^2+0.065033*A55^3</f>
+        <v>1.601671523</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="B56" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A56+-2.44601*A56^2+0.065033*A56^3</f>
+        <v>1.596064795823</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="n">
+        <v>1.11999999999999</v>
+      </c>
+      <c r="B57" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A57+-2.44601*A57^2+0.065033*A57^3</f>
+        <v>1.590012178624</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="n">
+        <v>1.12999999999999</v>
+      </c>
+      <c r="B58" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A58+-2.44601*A58^2+0.065033*A58^3</f>
+        <v>1.583514061601</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="n">
+        <v>1.13999999999999</v>
+      </c>
+      <c r="B59" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A59+-2.44601*A59^2+0.065033*A59^3</f>
+        <v>1.576570834952</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="n">
+        <v>1.14999999999999</v>
+      </c>
+      <c r="B60" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A60+-2.44601*A60^2+0.065033*A60^3</f>
+        <v>1.569182888875</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="n">
+        <v>1.15999999999999</v>
+      </c>
+      <c r="B61" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A61+-2.44601*A61^2+0.065033*A61^3</f>
+        <v>1.561350613568</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="n">
+        <v>1.16999999999999</v>
+      </c>
+      <c r="B62" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A62+-2.44601*A62^2+0.065033*A62^3</f>
+        <v>1.553074399229</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="n">
+        <v>1.17999999999999</v>
+      </c>
+      <c r="B63" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A63+-2.44601*A63^2+0.065033*A63^3</f>
+        <v>1.544354636056</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="n">
+        <v>1.18999999999999</v>
+      </c>
+      <c r="B64" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A64+-2.44601*A64^2+0.065033*A64^3</f>
+        <v>1.535191714247</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="n">
+        <v>1.19999999999999</v>
+      </c>
+      <c r="B65" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A65+-2.44601*A65^2+0.065033*A65^3</f>
+        <v>1.52558602400001</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="n">
+        <v>1.20999999999999</v>
+      </c>
+      <c r="B66" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A66+-2.44601*A66^2+0.065033*A66^3</f>
+        <v>1.51553795551301</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="n">
+        <v>1.21999999999999</v>
+      </c>
+      <c r="B67" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A67+-2.44601*A67^2+0.065033*A67^3</f>
+        <v>1.50504789898401</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="n">
+        <v>1.22999999999999</v>
+      </c>
+      <c r="B68" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A68+-2.44601*A68^2+0.065033*A68^3</f>
+        <v>1.49411624461101</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="n">
+        <v>1.23999999999999</v>
+      </c>
+      <c r="B69" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A69+-2.44601*A69^2+0.065033*A69^3</f>
+        <v>1.48274338259201</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="n">
+        <v>1.24999999999999</v>
+      </c>
+      <c r="B70" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A70+-2.44601*A70^2+0.065033*A70^3</f>
+        <v>1.47092970312501</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="n">
+        <v>1.25999999999999</v>
+      </c>
+      <c r="B71" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A71+-2.44601*A71^2+0.065033*A71^3</f>
+        <v>1.45867559640801</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="n">
+        <v>1.26999999999999</v>
+      </c>
+      <c r="B72" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A72+-2.44601*A72^2+0.065033*A72^3</f>
+        <v>1.44598145263901</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="n">
+        <v>1.27999999999999</v>
+      </c>
+      <c r="B73" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A73+-2.44601*A73^2+0.065033*A73^3</f>
+        <v>1.43284766201601</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="n">
+        <v>1.28999999999999</v>
+      </c>
+      <c r="B74" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A74+-2.44601*A74^2+0.065033*A74^3</f>
+        <v>1.41927461473701</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="n">
+        <v>1.29999999999999</v>
+      </c>
+      <c r="B75" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A75+-2.44601*A75^2+0.065033*A75^3</f>
+        <v>1.40526270100001</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="n">
+        <v>1.30999999999999</v>
+      </c>
+      <c r="B76" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A76+-2.44601*A76^2+0.065033*A76^3</f>
+        <v>1.39081231100301</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="n">
+        <v>1.31999999999999</v>
+      </c>
+      <c r="B77" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A77+-2.44601*A77^2+0.065033*A77^3</f>
+        <v>1.37592383494401</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="n">
+        <v>1.32999999999999</v>
+      </c>
+      <c r="B78" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A78+-2.44601*A78^2+0.065033*A78^3</f>
+        <v>1.36059766302101</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="n">
+        <v>1.33999999999999</v>
+      </c>
+      <c r="B79" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A79+-2.44601*A79^2+0.065033*A79^3</f>
+        <v>1.34483418543201</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="n">
+        <v>1.34999999999999</v>
+      </c>
+      <c r="B80" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A80+-2.44601*A80^2+0.065033*A80^3</f>
+        <v>1.32863379237501</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="n">
+        <v>1.35999999999999</v>
+      </c>
+      <c r="B81" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A81+-2.44601*A81^2+0.065033*A81^3</f>
+        <v>1.31199687404801</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="n">
+        <v>1.36999999999999</v>
+      </c>
+      <c r="B82" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A82+-2.44601*A82^2+0.065033*A82^3</f>
+        <v>1.29492382064901</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="n">
+        <v>1.37999999999999</v>
+      </c>
+      <c r="B83" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A83+-2.44601*A83^2+0.065033*A83^3</f>
+        <v>1.27741502237601</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="n">
+        <v>1.38999999999999</v>
+      </c>
+      <c r="B84" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A84+-2.44601*A84^2+0.065033*A84^3</f>
+        <v>1.25947086942701</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="n">
+        <v>1.39999999999999</v>
+      </c>
+      <c r="B85" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A85+-2.44601*A85^2+0.065033*A85^3</f>
+        <v>1.24109175200001</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="n">
+        <v>1.40999999999999</v>
+      </c>
+      <c r="B86" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A86+-2.44601*A86^2+0.065033*A86^3</f>
+        <v>1.22227806029301</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="n">
+        <v>1.41999999999999</v>
+      </c>
+      <c r="B87" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A87+-2.44601*A87^2+0.065033*A87^3</f>
+        <v>1.20303018450402</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="n">
+        <v>1.42999999999999</v>
+      </c>
+      <c r="B88" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A88+-2.44601*A88^2+0.065033*A88^3</f>
+        <v>1.18334851483102</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="n">
+        <v>1.43999999999999</v>
+      </c>
+      <c r="B89" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A89+-2.44601*A89^2+0.065033*A89^3</f>
+        <v>1.16323344147202</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="n">
+        <v>1.44999999999999</v>
+      </c>
+      <c r="B90" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A90+-2.44601*A90^2+0.065033*A90^3</f>
+        <v>1.14268535462502</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="n">
+        <v>1.45999999999999</v>
+      </c>
+      <c r="B91" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A91+-2.44601*A91^2+0.065033*A91^3</f>
+        <v>1.12170464448802</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="n">
+        <v>1.46999999999999</v>
+      </c>
+      <c r="B92" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A92+-2.44601*A92^2+0.065033*A92^3</f>
+        <v>1.10029170125902</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="n">
+        <v>1.47999999999999</v>
+      </c>
+      <c r="B93" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A93+-2.44601*A93^2+0.065033*A93^3</f>
+        <v>1.07844691513602</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="n">
+        <v>1.48999999999999</v>
+      </c>
+      <c r="B94" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A94+-2.44601*A94^2+0.065033*A94^3</f>
+        <v>1.05617067631702</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="n">
+        <v>1.49999999999999</v>
+      </c>
+      <c r="B95" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A95+-2.44601*A95^2+0.065033*A95^3</f>
+        <v>1.03346337500002</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="n">
+        <v>1.50999999999999</v>
+      </c>
+      <c r="B96" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A96+-2.44601*A96^2+0.065033*A96^3</f>
+        <v>1.01032540138302</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="n">
+        <v>1.51999999999999</v>
+      </c>
+      <c r="B97" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A97+-2.44601*A97^2+0.065033*A97^3</f>
+        <v>0.986757145664021</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="n">
+        <v>1.52999999999999</v>
+      </c>
+      <c r="B98" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A98+-2.44601*A98^2+0.065033*A98^3</f>
+        <v>0.962758998041022</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="n">
+        <v>1.53999999999999</v>
+      </c>
+      <c r="B99" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A99+-2.44601*A99^2+0.065033*A99^3</f>
+        <v>0.938331348712022</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="n">
+        <v>1.54999999999999</v>
+      </c>
+      <c r="B100" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A100+-2.44601*A100^2+0.065033*A100^3</f>
+        <v>0.913474587875023</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="n">
+        <v>1.55999999999999</v>
+      </c>
+      <c r="B101" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A101+-2.44601*A101^2+0.065033*A101^3</f>
+        <v>0.888189105728024</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="n">
+        <v>1.56999999999999</v>
+      </c>
+      <c r="B102" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A102+-2.44601*A102^2+0.065033*A102^3</f>
+        <v>0.862475292469023</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="n">
+        <v>1.57999999999999</v>
+      </c>
+      <c r="B103" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A103+-2.44601*A103^2+0.065033*A103^3</f>
+        <v>0.836333538296025</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="n">
+        <v>1.58999999999999</v>
+      </c>
+      <c r="B104" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A104+-2.44601*A104^2+0.065033*A104^3</f>
+        <v>0.809764233407026</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="n">
+        <v>1.59999999999999</v>
+      </c>
+      <c r="B105" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A105+-2.44601*A105^2+0.065033*A105^3</f>
+        <v>0.782767768000026</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="n">
+        <v>1.60999999999999</v>
+      </c>
+      <c r="B106" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A106+-2.44601*A106^2+0.065033*A106^3</f>
+        <v>0.755344532273027</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="n">
+        <v>1.61999999999999</v>
+      </c>
+      <c r="B107" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A107+-2.44601*A107^2+0.065033*A107^3</f>
+        <v>0.727494916424028</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="n">
+        <v>1.62999999999999</v>
+      </c>
+      <c r="B108" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A108+-2.44601*A108^2+0.065033*A108^3</f>
+        <v>0.699219310651027</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="n">
+        <v>1.63999999999999</v>
+      </c>
+      <c r="B109" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A109+-2.44601*A109^2+0.065033*A109^3</f>
+        <v>0.670518105152029</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="n">
+        <v>1.64999999999999</v>
+      </c>
+      <c r="B110" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A110+-2.44601*A110^2+0.065033*A110^3</f>
+        <v>0.641391690125031</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="n">
+        <v>1.65999999999999</v>
+      </c>
+      <c r="B111" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A111+-2.44601*A111^2+0.065033*A111^3</f>
+        <v>0.61184045576803</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="n">
+        <v>1.66999999999999</v>
+      </c>
+      <c r="B112" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A112+-2.44601*A112^2+0.065033*A112^3</f>
+        <v>0.581864792279033</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="n">
+        <v>1.67999999999999</v>
+      </c>
+      <c r="B113" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A113+-2.44601*A113^2+0.065033*A113^3</f>
+        <v>0.551465089856032</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="n">
+        <v>1.68999999999999</v>
+      </c>
+      <c r="B114" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A114+-2.44601*A114^2+0.065033*A114^3</f>
+        <v>0.520641738697033</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="n">
+        <v>1.69999999999999</v>
+      </c>
+      <c r="B115" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A115+-2.44601*A115^2+0.065033*A115^3</f>
+        <v>0.489395129000033</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="n">
+        <v>1.70999999999999</v>
+      </c>
+      <c r="B116" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A116+-2.44601*A116^2+0.065033*A116^3</f>
+        <v>0.457725650963035</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="n">
+        <v>1.71999999999999</v>
+      </c>
+      <c r="B117" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A117+-2.44601*A117^2+0.065033*A117^3</f>
+        <v>0.425633694784035</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="n">
+        <v>1.72999999999999</v>
+      </c>
+      <c r="B118" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A118+-2.44601*A118^2+0.065033*A118^3</f>
+        <v>0.393119650661036</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="n">
+        <v>1.73999999999999</v>
+      </c>
+      <c r="B119" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A119+-2.44601*A119^2+0.065033*A119^3</f>
+        <v>0.360183908792037</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="n">
+        <v>1.74999999999999</v>
+      </c>
+      <c r="B120" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A120+-2.44601*A120^2+0.065033*A120^3</f>
+        <v>0.326826859375038</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="n">
+        <v>1.75999999999999</v>
+      </c>
+      <c r="B121" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A121+-2.44601*A121^2+0.065033*A121^3</f>
+        <v>0.293048892608039</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="n">
+        <v>1.76999999999999</v>
+      </c>
+      <c r="B122" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A122+-2.44601*A122^2+0.065033*A122^3</f>
+        <v>0.258850398689039</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="n">
+        <v>1.77999999999999</v>
+      </c>
+      <c r="B123" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A123+-2.44601*A123^2+0.065033*A123^3</f>
+        <v>0.224231767816039</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="n">
+        <v>1.78999999999999</v>
+      </c>
+      <c r="B124" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A124+-2.44601*A124^2+0.065033*A124^3</f>
+        <v>0.189193390187041</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="n">
+        <v>1.79999999999999</v>
+      </c>
+      <c r="B125" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A125+-2.44601*A125^2+0.065033*A125^3</f>
+        <v>0.153735656000042</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="n">
+        <v>1.80999999999999</v>
+      </c>
+      <c r="B126" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A126+-2.44601*A126^2+0.065033*A126^3</f>
+        <v>0.117858955453042</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="n">
+        <v>1.81999999999999</v>
+      </c>
+      <c r="B127" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A127+-2.44601*A127^2+0.065033*A127^3</f>
+        <v>0.0815636787440418</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="n">
+        <v>1.82999999999999</v>
+      </c>
+      <c r="B128" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A128+-2.44601*A128^2+0.065033*A128^3</f>
+        <v>0.0448502160710455</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="n">
+        <v>1.83999999999999</v>
+      </c>
+      <c r="B129" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A129+-2.44601*A129^2+0.065033*A129^3</f>
+        <v>0.00771895763204516</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="n">
+        <v>1.84999999999999</v>
+      </c>
+      <c r="B130" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A130+-2.44601*A130^2+0.065033*A130^3</f>
+        <v>-0.0298297063749542</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="n">
+        <v>1.85999999999999</v>
+      </c>
+      <c r="B131" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A131+-2.44601*A131^2+0.065033*A131^3</f>
+        <v>-0.0677953857519523</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="n">
+        <v>1.86999999999999</v>
+      </c>
+      <c r="B132" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A132+-2.44601*A132^2+0.065033*A132^3</f>
+        <v>-0.106177690300952</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0" t="n">
+        <v>1.87999999999999</v>
+      </c>
+      <c r="B133" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A133+-2.44601*A133^2+0.065033*A133^3</f>
+        <v>-0.144976229823952</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="n">
+        <v>1.88999999999999</v>
+      </c>
+      <c r="B134" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A134+-2.44601*A134^2+0.065033*A134^3</f>
+        <v>-0.184190614122952</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="n">
+        <v>1.89999999999999</v>
+      </c>
+      <c r="B135" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A135+-2.44601*A135^2+0.065033*A135^3</f>
+        <v>-0.223820452999949</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="n">
+        <v>1.90999999999999</v>
+      </c>
+      <c r="B136" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A136+-2.44601*A136^2+0.065033*A136^3</f>
+        <v>-0.263865356256949</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="n">
+        <v>1.91999999999999</v>
+      </c>
+      <c r="B137" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A137+-2.44601*A137^2+0.065033*A137^3</f>
+        <v>-0.304324933695948</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="n">
+        <v>1.92999999999999</v>
+      </c>
+      <c r="B138" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A138+-2.44601*A138^2+0.065033*A138^3</f>
+        <v>-0.345198795118949</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="n">
+        <v>1.93999999999999</v>
+      </c>
+      <c r="B139" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A139+-2.44601*A139^2+0.065033*A139^3</f>
+        <v>-0.386486550327948</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="n">
+        <v>1.94999999999999</v>
+      </c>
+      <c r="B140" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A140+-2.44601*A140^2+0.065033*A140^3</f>
+        <v>-0.428187809124947</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="n">
+        <v>1.95999999999999</v>
+      </c>
+      <c r="B141" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A141+-2.44601*A141^2+0.065033*A141^3</f>
+        <v>-0.470302181311945</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0" t="n">
+        <v>1.96999999999999</v>
+      </c>
+      <c r="B142" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A142+-2.44601*A142^2+0.065033*A142^3</f>
+        <v>-0.512829276690944</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="n">
+        <v>1.97999999999999</v>
+      </c>
+      <c r="B143" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A143+-2.44601*A143^2+0.065033*A143^3</f>
+        <v>-0.555768705063943</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="n">
+        <v>1.98999999999999</v>
+      </c>
+      <c r="B144" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A144+-2.44601*A144^2+0.065033*A144^3</f>
+        <v>-0.599120076232943</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="n">
+        <v>1.99999999999999</v>
+      </c>
+      <c r="B145" s="0" t="n">
+        <f aca="false">-0.592681+4.606787*A145+-2.44601*A145^2+0.065033*A145^3</f>
+        <v>-0.64288299999994</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Resultados/Resultados.xlsx
+++ b/Resultados/Resultados.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="84">
   <si>
     <t xml:space="preserve">L [m]</t>
   </si>
@@ -68,6 +68,9 @@
     <t xml:space="preserve">UR029</t>
   </si>
   <si>
+    <t xml:space="preserve">GD – Stabilizing effect…</t>
+  </si>
+  <si>
     <t xml:space="preserve">ff [Hz]</t>
   </si>
   <si>
@@ -105,6 +108,12 @@
   </si>
   <si>
     <t xml:space="preserve">D+ 10.78°</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A_D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St_D</t>
   </si>
   <si>
     <t xml:space="preserve">St</t>
@@ -482,7 +491,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -582,6 +591,13 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="thin"/>
       <top/>
@@ -683,7 +699,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="82">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -756,6 +772,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -824,6 +844,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="170" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -844,6 +872,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="170" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="168" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -860,7 +892,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -880,20 +912,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="170" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="170" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="170" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1250,6 +1282,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1320,11 +1353,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="72956636"/>
-        <c:axId val="97662044"/>
+        <c:axId val="57868963"/>
+        <c:axId val="25570920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="72956636"/>
+        <c:axId val="57868963"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.8"/>
@@ -1402,13 +1435,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97662044"/>
+        <c:crossAx val="25570920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="97662044"/>
+        <c:axId val="25570920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1484,7 +1517,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72956636"/>
+        <c:crossAx val="57868963"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.25"/>
@@ -1783,11 +1816,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="11337466"/>
-        <c:axId val="89229792"/>
+        <c:axId val="64899568"/>
+        <c:axId val="14201913"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="11337466"/>
+        <c:axId val="64899568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1843,7 +1876,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89229792"/>
+        <c:crossAx val="14201913"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1851,7 +1884,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89229792"/>
+        <c:axId val="14201913"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1916,7 +1949,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11337466"/>
+        <c:crossAx val="64899568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1979,7 +2012,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'UR0.29'!$X$29</c:f>
+              <c:f>'UR0.29'!$Z$29:$Z$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2028,7 +2061,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'UR0.29'!$R$30:$R$32</c:f>
+              <c:f>'UR0.29'!$T$30:$T$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2046,7 +2079,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'UR0.29'!$X$30:$X$32</c:f>
+              <c:f>'UR0.29'!$Z$30:$Z$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2069,7 +2102,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'UR0.29'!$T$73</c:f>
+              <c:f>'UR0.29'!$V$73:$V$73</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2177,7 +2210,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'UR0.29'!$T$29</c:f>
+              <c:f>'UR0.29'!$V$29:$V$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2226,7 +2259,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'UR0.29'!$R$30:$R$32</c:f>
+              <c:f>'UR0.29'!$T$30:$T$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2244,7 +2277,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'UR0.29'!$T$30:$T$32</c:f>
+              <c:f>'UR0.29'!$V$30:$V$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2264,7 +2297,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'UR0.29'!$V$29</c:f>
+              <c:f>'UR0.29'!$X$29:$X$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2313,7 +2346,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'UR0.29'!$R$30:$R$32</c:f>
+              <c:f>'UR0.29'!$T$30:$T$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2331,7 +2364,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'UR0.29'!$V$30:$V$32</c:f>
+              <c:f>'UR0.29'!$X$30:$X$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2354,7 +2387,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'UR0.29'!$Y$29</c:f>
+              <c:f>'UR0.29'!$AA$29:$AA$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2403,7 +2436,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'UR0.29'!$R$30:$R$32</c:f>
+              <c:f>'UR0.29'!$T$30:$T$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2421,7 +2454,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'UR0.29'!$Y$30:$Y$32</c:f>
+              <c:f>'UR0.29'!$AA$30:$AA$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2490,7 +2523,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'UR0.29'!$S$45:$S$53</c:f>
+              <c:f>'UR0.29'!$U$45:$U$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2526,7 +2559,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'UR0.29'!$T$45:$T$53</c:f>
+              <c:f>'UR0.29'!$V$45:$V$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2562,11 +2595,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="96092928"/>
-        <c:axId val="50409664"/>
+        <c:axId val="80608576"/>
+        <c:axId val="49577315"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="96092928"/>
+        <c:axId val="80608576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.8"/>
@@ -2644,13 +2677,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50409664"/>
+        <c:crossAx val="49577315"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="50409664"/>
+        <c:axId val="49577315"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2726,7 +2759,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96092928"/>
+        <c:crossAx val="80608576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2867,11 +2900,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="74285454"/>
-        <c:axId val="99645645"/>
+        <c:axId val="74005826"/>
+        <c:axId val="36056858"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74285454"/>
+        <c:axId val="74005826"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2903,7 +2936,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99645645"/>
+        <c:crossAx val="36056858"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2911,7 +2944,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99645645"/>
+        <c:axId val="36056858"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2953,7 +2986,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74285454"/>
+        <c:crossAx val="74005826"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3092,11 +3125,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="82341306"/>
-        <c:axId val="88665736"/>
+        <c:axId val="21448086"/>
+        <c:axId val="93894100"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="82341306"/>
+        <c:axId val="21448086"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3128,7 +3161,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88665736"/>
+        <c:crossAx val="93894100"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3136,7 +3169,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88665736"/>
+        <c:axId val="93894100"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3178,7 +3211,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82341306"/>
+        <c:crossAx val="21448086"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3234,9 +3267,9 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>313920</xdr:colOff>
+      <xdr:colOff>314280</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>172800</xdr:rowOff>
+      <xdr:rowOff>173160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
@@ -3250,8 +3283,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3426480" y="5956200"/>
-        <a:ext cx="9156240" cy="6459480"/>
+        <a:off x="3426840" y="5956560"/>
+        <a:ext cx="9155880" cy="6459120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3264,7 +3297,7 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>381600</xdr:colOff>
+      <xdr:colOff>381960</xdr:colOff>
       <xdr:row>78</xdr:row>
       <xdr:rowOff>112320</xdr:rowOff>
     </xdr:from>
@@ -3272,7 +3305,7 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>184320</xdr:colOff>
       <xdr:row>104</xdr:row>
-      <xdr:rowOff>33840</xdr:rowOff>
+      <xdr:rowOff>33480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3280,8 +3313,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3494160" y="13782600"/>
-        <a:ext cx="7968960" cy="4478040"/>
+        <a:off x="3494520" y="13782600"/>
+        <a:ext cx="7968600" cy="4477680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3293,13 +3326,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>2160</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>720</xdr:rowOff>
+      <xdr:rowOff>1080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>1040400</xdr:colOff>
       <xdr:row>113</xdr:row>
       <xdr:rowOff>111960</xdr:rowOff>
@@ -3310,8 +3343,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="15464160" y="13145040"/>
-        <a:ext cx="9269280" cy="6771240"/>
+        <a:off x="17106480" y="13145400"/>
+        <a:ext cx="9268920" cy="6770880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3335,9 +3368,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>812880</xdr:colOff>
+      <xdr:colOff>812520</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>91800</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3346,7 +3379,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="851400" y="1386360"/>
-        <a:ext cx="6529680" cy="3229560"/>
+        <a:ext cx="6529320" cy="3229200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3365,9 +3398,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>79560</xdr:colOff>
+      <xdr:colOff>79200</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>44280</xdr:rowOff>
+      <xdr:rowOff>43920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3376,7 +3409,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="7552080" y="1338840"/>
-        <a:ext cx="6528240" cy="3229560"/>
+        <a:ext cx="6527880" cy="3229200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3394,10 +3427,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y73"/>
+  <dimension ref="A1:AA73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B28" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R43" activeCellId="0" sqref="R43"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C7" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R15" activeCellId="0" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3409,15 +3442,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="10.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="10.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="11.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="16" style="0" width="10.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="17.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="17.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="19.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="15.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="22.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="13.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="15.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="10.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="16" style="0" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="17.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="17.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="19.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="15.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="22.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="13.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="15.41"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3448,6 +3480,8 @@
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
@@ -3480,6 +3514,8 @@
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
@@ -3509,6 +3545,8 @@
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
@@ -3538,6 +3576,8 @@
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
@@ -3567,6 +3607,8 @@
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
@@ -3597,6 +3639,8 @@
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
@@ -3630,6 +3674,8 @@
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
@@ -3660,6 +3706,8 @@
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
@@ -3690,6 +3738,8 @@
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
@@ -3720,6 +3770,8 @@
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="12" t="s">
@@ -3750,6 +3802,8 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="s">
@@ -3779,6 +3833,8 @@
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="15" t="s">
@@ -3804,150 +3860,168 @@
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
+      <c r="Q13" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="R13" s="18"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="18" t="s">
+      <c r="D14" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="E14" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="F14" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="G14" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="18" t="s">
+      <c r="H14" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="18" t="s">
+      <c r="I14" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="K14" s="18" t="s">
+      <c r="J14" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="L14" s="18" t="s">
+      <c r="K14" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="M14" s="19" t="s">
+      <c r="L14" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="N14" s="18" t="s">
+      <c r="M14" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="O14" s="20" t="s">
+      <c r="N14" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="P14" s="20" t="s">
+      <c r="O14" s="21" t="s">
         <v>26</v>
       </c>
+      <c r="P14" s="21" t="s">
+        <v>27</v>
+      </c>
       <c r="Q14" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="R14" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="S14" s="23" t="s">
+      <c r="R14" s="21" t="s">
         <v>29</v>
       </c>
+      <c r="S14" s="22" t="s">
+        <v>30</v>
+      </c>
       <c r="T14" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="U14" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="V14" s="22" t="s">
+      <c r="U14" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="W14" s="22" t="s">
+      <c r="V14" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="Y14" s="0" t="s">
+      <c r="W14" s="23" t="s">
         <v>34</v>
+      </c>
+      <c r="X14" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y14" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA14" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="24" t="n">
+      <c r="D15" s="25" t="n">
         <v>8</v>
       </c>
-      <c r="E15" s="25" t="n">
+      <c r="E15" s="26" t="n">
         <f aca="false">D15/12.27</f>
         <v>0.6519967400163</v>
       </c>
-      <c r="F15" s="26" t="n">
+      <c r="F15" s="27" t="n">
         <v>0.83</v>
       </c>
-      <c r="G15" s="27" t="n">
+      <c r="G15" s="28" t="n">
         <f aca="false">F15/$B$11</f>
         <v>0.308197745651861</v>
       </c>
-      <c r="H15" s="28" t="n">
+      <c r="H15" s="29" t="n">
         <f aca="false">AVERAGE(DataAmplitudes!J4:J9)</f>
         <v>9.99143333333334</v>
       </c>
-      <c r="I15" s="29" t="n">
+      <c r="I15" s="30" t="n">
         <f aca="false">H15/$B$10</f>
         <v>1.64395346755135</v>
       </c>
-      <c r="J15" s="30" t="n">
+      <c r="J15" s="31" t="n">
         <f aca="false">$F$15*$B$1/$B$12</f>
         <v>1923.84105960265</v>
       </c>
-      <c r="K15" s="30" t="n">
+      <c r="K15" s="31" t="n">
         <f aca="false">$F$15*2*(H15/1000)/$B$12</f>
         <v>1098.39598233996</v>
       </c>
-      <c r="L15" s="31" t="n">
+      <c r="L15" s="32" t="n">
         <f aca="false">D15*2*(H15/1000)/$F$15</f>
         <v>0.1926059437751</v>
       </c>
-      <c r="M15" s="32" t="n">
+      <c r="M15" s="33" t="n">
         <f aca="false">2*D15*($B$10/1000)/$F$15</f>
         <v>0.117160216257206</v>
       </c>
-      <c r="N15" s="33" t="n">
+      <c r="N15" s="34" t="n">
         <v>0.3</v>
       </c>
-      <c r="O15" s="34" t="n">
+      <c r="O15" s="35" t="n">
         <v>0.297202351395596</v>
       </c>
-      <c r="P15" s="34" t="n">
+      <c r="P15" s="35" t="n">
         <f aca="false">H15/(1000*SIN(RADIANS(10.78))*0.035)</f>
         <v>1.52626141431146</v>
       </c>
-      <c r="Q15" s="35" t="n">
+      <c r="Q15" s="36" t="n">
+        <f aca="false">2*H15/2</f>
+        <v>9.99143333333334</v>
+      </c>
+      <c r="R15" s="37" t="n">
+        <f aca="false">E15*0.002/$F$15</f>
+        <v>0.00157107648196699</v>
+      </c>
+      <c r="S15" s="38" t="n">
         <f aca="false">2*D15*$B$1*SIN(RADIANS(10))/$F$15</f>
         <v>0.117160216257206</v>
       </c>
-      <c r="R15" s="36" t="n">
+      <c r="T15" s="39" t="n">
         <f aca="false">J15</f>
         <v>1923.84105960265</v>
       </c>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="37" t="n">
-        <f aca="false">$U$16/D15</f>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="40" t="n">
+        <f aca="false">$W$16/D15</f>
         <v>1.82301212061301</v>
       </c>
-      <c r="W15" s="38" t="n">
+      <c r="Y15" s="41" t="n">
         <f aca="false">(2*H15)/(1000*$B$1)</f>
         <v>0.570939047619048</v>
       </c>
@@ -3956,74 +4030,82 @@
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="24" t="n">
+      <c r="D16" s="25" t="n">
         <v>10</v>
       </c>
-      <c r="E16" s="25" t="n">
+      <c r="E16" s="26" t="n">
         <f aca="false">D16/12.27</f>
         <v>0.814995925020375</v>
       </c>
-      <c r="F16" s="26"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="29" t="n">
+      <c r="F16" s="27"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="30" t="n">
         <f aca="false">AVERAGE(DataAmplitudes!D4:D7)</f>
         <v>12.3659</v>
       </c>
-      <c r="I16" s="29" t="n">
+      <c r="I16" s="30" t="n">
         <f aca="false">H16/$B$10</f>
         <v>2.03463942621445</v>
       </c>
-      <c r="J16" s="30" t="n">
+      <c r="J16" s="31" t="n">
         <f aca="false">$F$15*$B$1/$B$12</f>
         <v>1923.84105960265</v>
       </c>
-      <c r="K16" s="30" t="n">
+      <c r="K16" s="31" t="n">
         <f aca="false">$F$15*2*(H16/1000)/$B$12</f>
         <v>1359.43006622517</v>
       </c>
-      <c r="L16" s="31" t="n">
+      <c r="L16" s="32" t="n">
         <f aca="false">D16*2*(H16/1000)/$F$15</f>
         <v>0.297973493975904</v>
       </c>
-      <c r="M16" s="32" t="n">
+      <c r="M16" s="33" t="n">
         <f aca="false">2*D16*($B$10/1000)/$F$15</f>
         <v>0.146450270321508</v>
       </c>
-      <c r="N16" s="33" t="n">
+      <c r="N16" s="34" t="n">
         <v>0.135</v>
       </c>
-      <c r="O16" s="39" t="n">
+      <c r="O16" s="42" t="n">
         <v>0.1268</v>
       </c>
-      <c r="P16" s="34" t="n">
+      <c r="P16" s="35" t="n">
         <f aca="false">H16/(1000*SIN(RADIANS(10.78))*0.035)</f>
         <v>1.88897782666158</v>
       </c>
       <c r="Q16" s="35" t="n">
+        <f aca="false">2*H16/2</f>
+        <v>12.3659</v>
+      </c>
+      <c r="R16" s="43" t="n">
+        <f aca="false">E16*0.002/$F$15</f>
+        <v>0.00196384560245874</v>
+      </c>
+      <c r="S16" s="38" t="n">
         <f aca="false">2*D16*$B$1*SIN(RADIANS(10))/$F$15</f>
         <v>0.146450270321508</v>
       </c>
-      <c r="R16" s="36" t="n">
+      <c r="T16" s="39" t="n">
         <f aca="false">J16</f>
         <v>1923.84105960265</v>
       </c>
-      <c r="S16" s="40" t="n">
+      <c r="U16" s="44" t="n">
         <f aca="false">B3/B1</f>
         <v>4.57142857142857</v>
       </c>
-      <c r="T16" s="41" t="n">
-        <f aca="false">(1+0.74273*$S$16+0.14862*$S$16^2)/(1+0.74273*$S$16+0.35004*$S$16^2+0.058364*$S$16^4)</f>
+      <c r="V16" s="45" t="n">
+        <f aca="false">(1+0.74273*$U$16+0.14862*$U$16^2)/(1+0.74273*$U$16+0.35004*$U$16^2+0.058364*$U$16^4)</f>
         <v>0.201647874132701</v>
       </c>
-      <c r="U16" s="42" t="n">
-        <f aca="false">17.3*(1/SQRT(1+(PI()*1.205*0.16)/(4*1000*C2)*T16))</f>
+      <c r="W16" s="46" t="n">
+        <f aca="false">17.3*(1/SQRT(1+(PI()*1.205*0.16)/(4*1000*C2)*V16))</f>
         <v>14.5840969649041</v>
       </c>
-      <c r="V16" s="37" t="n">
-        <f aca="false">$U$16/D16</f>
+      <c r="X16" s="40" t="n">
+        <f aca="false">$W$16/D16</f>
         <v>1.45840969649041</v>
       </c>
-      <c r="W16" s="38" t="n">
+      <c r="Y16" s="41" t="n">
         <f aca="false">(2*H16)/(1000*$B$1)</f>
         <v>0.706622857142857</v>
       </c>
@@ -4032,65 +4114,73 @@
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="33" t="n">
+      <c r="D17" s="34" t="n">
         <v>12</v>
       </c>
-      <c r="E17" s="25" t="n">
+      <c r="E17" s="26" t="n">
         <f aca="false">D17/12.27</f>
         <v>0.97799511002445</v>
       </c>
-      <c r="F17" s="26"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="29" t="n">
+      <c r="F17" s="27"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="30" t="n">
         <f aca="false">AVERAGE(DataAmplitudes!B4:B8)</f>
         <v>12.54788</v>
       </c>
-      <c r="I17" s="29" t="n">
+      <c r="I17" s="30" t="n">
         <f aca="false">H17/$B$10</f>
         <v>2.06458174200081</v>
       </c>
-      <c r="J17" s="30" t="n">
+      <c r="J17" s="31" t="n">
         <f aca="false">$F$15*$B$1/$B$12</f>
         <v>1923.84105960265</v>
       </c>
-      <c r="K17" s="30" t="n">
+      <c r="K17" s="31" t="n">
         <f aca="false">$F$15*2*(H17/1000)/$B$12</f>
         <v>1379.43581456954</v>
       </c>
-      <c r="L17" s="31" t="n">
+      <c r="L17" s="32" t="n">
         <f aca="false">D17*2*(H17/1000)/$F$15</f>
         <v>0.362830265060241</v>
       </c>
-      <c r="M17" s="32" t="n">
+      <c r="M17" s="33" t="n">
         <f aca="false">2*D17*($B$10/1000)/$F$15</f>
         <v>0.175740324385809</v>
       </c>
-      <c r="N17" s="33" t="n">
+      <c r="N17" s="34" t="n">
         <v>-0.121</v>
       </c>
-      <c r="O17" s="39" t="n">
+      <c r="O17" s="42" t="n">
         <v>-0.1184</v>
       </c>
-      <c r="P17" s="34" t="n">
+      <c r="P17" s="35" t="n">
         <f aca="false">H17/(1000*SIN(RADIANS(10.78))*0.035)</f>
         <v>1.91677654611556</v>
       </c>
       <c r="Q17" s="35" t="n">
+        <f aca="false">2*H17/2</f>
+        <v>12.54788</v>
+      </c>
+      <c r="R17" s="43" t="n">
+        <f aca="false">E17*0.002/$F$15</f>
+        <v>0.00235661472295048</v>
+      </c>
+      <c r="S17" s="38" t="n">
         <f aca="false">2*D17*$B$1*SIN(RADIANS(10))/$F$15</f>
         <v>0.175740324385809</v>
       </c>
-      <c r="R17" s="36" t="n">
+      <c r="T17" s="39" t="n">
         <f aca="false">J17</f>
         <v>1923.84105960265</v>
       </c>
-      <c r="S17" s="40"/>
-      <c r="T17" s="41"/>
-      <c r="U17" s="42"/>
-      <c r="V17" s="37" t="n">
-        <f aca="false">$U$16/D17</f>
+      <c r="U17" s="44"/>
+      <c r="V17" s="45"/>
+      <c r="W17" s="46"/>
+      <c r="X17" s="40" t="n">
+        <f aca="false">$W$16/D17</f>
         <v>1.215341413742</v>
       </c>
-      <c r="W17" s="38" t="n">
+      <c r="Y17" s="41" t="n">
         <f aca="false">(2*H17)/(1000*$B$1)</f>
         <v>0.717021714285714</v>
       </c>
@@ -4099,65 +4189,73 @@
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="33" t="n">
+      <c r="D18" s="34" t="n">
         <v>14</v>
       </c>
-      <c r="E18" s="25" t="n">
+      <c r="E18" s="26" t="n">
         <f aca="false">D18/12.27</f>
         <v>1.14099429502853</v>
       </c>
-      <c r="F18" s="26"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="29" t="n">
+      <c r="F18" s="27"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="30" t="n">
         <f aca="false">AVERAGE(DataAmplitudes!F4:F11)</f>
         <v>10.5977125</v>
       </c>
-      <c r="I18" s="29" t="n">
+      <c r="I18" s="30" t="n">
         <f aca="false">H18/$B$10</f>
         <v>1.74370839810978</v>
       </c>
-      <c r="J18" s="30" t="n">
+      <c r="J18" s="31" t="n">
         <f aca="false">$F$15*$B$1/$B$12</f>
         <v>1923.84105960265</v>
       </c>
-      <c r="K18" s="30" t="n">
+      <c r="K18" s="31" t="n">
         <f aca="false">$F$15*2*(H18/1000)/$B$12</f>
         <v>1165.0465397351</v>
       </c>
-      <c r="L18" s="31" t="n">
+      <c r="L18" s="32" t="n">
         <f aca="false">D18*2*(H18/1000)/$F$15</f>
         <v>0.357513192771084</v>
       </c>
-      <c r="M18" s="32" t="n">
+      <c r="M18" s="33" t="n">
         <f aca="false">2*D18*($B$10/1000)/$F$15</f>
         <v>0.20503037845011</v>
       </c>
-      <c r="N18" s="33" t="n">
+      <c r="N18" s="34" t="n">
         <v>-0.185</v>
       </c>
-      <c r="O18" s="39" t="n">
+      <c r="O18" s="42" t="n">
         <v>-0.1812</v>
       </c>
-      <c r="P18" s="34" t="n">
+      <c r="P18" s="35" t="n">
         <f aca="false">H18/(1000*SIN(RADIANS(10.78))*0.035)</f>
         <v>1.61887480295282</v>
       </c>
       <c r="Q18" s="35" t="n">
+        <f aca="false">2*H18/2</f>
+        <v>10.5977125</v>
+      </c>
+      <c r="R18" s="43" t="n">
+        <f aca="false">E18*0.002/$F$15</f>
+        <v>0.00274938384344224</v>
+      </c>
+      <c r="S18" s="38" t="n">
         <f aca="false">2*D18*$B$1*SIN(RADIANS(10))/$F$15</f>
         <v>0.20503037845011</v>
       </c>
-      <c r="R18" s="36" t="n">
+      <c r="T18" s="39" t="n">
         <f aca="false">J18</f>
         <v>1923.84105960265</v>
       </c>
-      <c r="S18" s="40"/>
-      <c r="T18" s="41"/>
-      <c r="U18" s="42"/>
-      <c r="V18" s="37" t="n">
-        <f aca="false">$U$16/D18</f>
+      <c r="U18" s="44"/>
+      <c r="V18" s="45"/>
+      <c r="W18" s="46"/>
+      <c r="X18" s="40" t="n">
+        <f aca="false">$W$16/D18</f>
         <v>1.04172121177886</v>
       </c>
-      <c r="W18" s="38" t="n">
+      <c r="Y18" s="41" t="n">
         <f aca="false">(2*H18)/(1000*$B$1)</f>
         <v>0.605583571428571</v>
       </c>
@@ -4166,65 +4264,73 @@
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="33" t="n">
+      <c r="D19" s="34" t="n">
         <v>16</v>
       </c>
-      <c r="E19" s="25" t="n">
+      <c r="E19" s="26" t="n">
         <f aca="false">D19/12.27</f>
         <v>1.3039934800326</v>
       </c>
-      <c r="F19" s="26"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="28" t="n">
+      <c r="F19" s="27"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="29" t="n">
         <f aca="false">AVERAGE(DataAmplitudes!H4:H7)</f>
         <v>8.09265</v>
       </c>
-      <c r="I19" s="29" t="n">
+      <c r="I19" s="30" t="n">
         <f aca="false">H19/$B$10</f>
         <v>1.33153468429749</v>
       </c>
-      <c r="J19" s="30" t="n">
+      <c r="J19" s="31" t="n">
         <f aca="false">$F$15*$B$1/$B$12</f>
         <v>1923.84105960265</v>
       </c>
-      <c r="K19" s="30" t="n">
+      <c r="K19" s="31" t="n">
         <f aca="false">$F$15*2*(H19/1000)/$B$12</f>
         <v>889.655562913907</v>
       </c>
-      <c r="L19" s="31" t="n">
+      <c r="L19" s="32" t="n">
         <f aca="false">D19*2*(H19/1000)/$F$15</f>
         <v>0.31200578313253</v>
       </c>
-      <c r="M19" s="32" t="n">
+      <c r="M19" s="33" t="n">
         <f aca="false">2*D19*($B$10/1000)/$F$15</f>
         <v>0.234320432514412</v>
       </c>
-      <c r="N19" s="33" t="n">
+      <c r="N19" s="34" t="n">
         <v>-0.106</v>
       </c>
-      <c r="O19" s="34" t="n">
+      <c r="O19" s="35" t="n">
         <v>-0.093</v>
       </c>
-      <c r="P19" s="34" t="n">
+      <c r="P19" s="35" t="n">
         <f aca="false">H19/(1000*SIN(RADIANS(10.78))*0.035)</f>
         <v>1.23620896246394</v>
       </c>
       <c r="Q19" s="35" t="n">
+        <f aca="false">2*H19/2</f>
+        <v>8.09265</v>
+      </c>
+      <c r="R19" s="43" t="n">
+        <f aca="false">E19*0.002/$F$15</f>
+        <v>0.00314215296393398</v>
+      </c>
+      <c r="S19" s="38" t="n">
         <f aca="false">2*D19*$B$1*SIN(RADIANS(10))/$F$15</f>
         <v>0.234320432514412</v>
       </c>
-      <c r="R19" s="36" t="n">
+      <c r="T19" s="39" t="n">
         <f aca="false">J19</f>
         <v>1923.84105960265</v>
       </c>
-      <c r="S19" s="40"/>
-      <c r="T19" s="41"/>
-      <c r="U19" s="42"/>
-      <c r="V19" s="37" t="n">
-        <f aca="false">$U$16/D19</f>
+      <c r="U19" s="44"/>
+      <c r="V19" s="45"/>
+      <c r="W19" s="46"/>
+      <c r="X19" s="40" t="n">
+        <f aca="false">$W$16/D19</f>
         <v>0.911506060306503</v>
       </c>
-      <c r="W19" s="38" t="n">
+      <c r="Y19" s="41" t="n">
         <f aca="false">(2*H19)/(1000*$B$1)</f>
         <v>0.462437142857143</v>
       </c>
@@ -4233,65 +4339,73 @@
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="33" t="n">
+      <c r="D20" s="34" t="n">
         <v>18</v>
       </c>
-      <c r="E20" s="25" t="n">
+      <c r="E20" s="26" t="n">
         <f aca="false">D20/12.27</f>
         <v>1.46699266503668</v>
       </c>
-      <c r="F20" s="26"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="28" t="n">
+      <c r="F20" s="27"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="29" t="n">
         <f aca="false">1000*(0.03-0.0239224)</f>
         <v>6.0776</v>
       </c>
-      <c r="I20" s="29" t="n">
+      <c r="I20" s="30" t="n">
         <f aca="false">H20/$B$10</f>
         <v>0.999985813952964</v>
       </c>
-      <c r="J20" s="30" t="n">
+      <c r="J20" s="31" t="n">
         <f aca="false">$F$15*$B$1/$B$12</f>
         <v>1923.84105960265</v>
       </c>
-      <c r="K20" s="30" t="n">
+      <c r="K20" s="31" t="n">
         <f aca="false">$F$15*2*(H20/1000)/$B$12</f>
         <v>668.133509933775</v>
       </c>
-      <c r="L20" s="31" t="n">
+      <c r="L20" s="32" t="n">
         <f aca="false">D20*2*(H20/1000)/$F$15</f>
         <v>0.263606746987952</v>
       </c>
-      <c r="M20" s="32" t="n">
+      <c r="M20" s="33" t="n">
         <f aca="false">2*D20*($B$10/1000)/$F$15</f>
         <v>0.263610486578714</v>
       </c>
-      <c r="N20" s="33" t="n">
+      <c r="N20" s="34" t="n">
         <v>-0.011</v>
       </c>
-      <c r="O20" s="34" t="n">
+      <c r="O20" s="35" t="n">
         <v>-0.012637550314478</v>
       </c>
-      <c r="P20" s="34" t="n">
+      <c r="P20" s="35" t="n">
         <f aca="false">H20/(1000*SIN(RADIANS(10.78))*0.035)</f>
         <v>0.928395963036935</v>
       </c>
       <c r="Q20" s="35" t="n">
+        <f aca="false">2*H20/2</f>
+        <v>6.0776</v>
+      </c>
+      <c r="R20" s="43" t="n">
+        <f aca="false">E20*0.002/$F$15</f>
+        <v>0.00353492208442573</v>
+      </c>
+      <c r="S20" s="38" t="n">
         <f aca="false">2*D20*$B$1*SIN(RADIANS(10))/$F$15</f>
         <v>0.263610486578714</v>
       </c>
-      <c r="R20" s="36" t="n">
+      <c r="T20" s="39" t="n">
         <f aca="false">J20</f>
         <v>1923.84105960265</v>
       </c>
-      <c r="S20" s="40"/>
-      <c r="T20" s="41"/>
-      <c r="U20" s="42"/>
-      <c r="V20" s="37" t="n">
-        <f aca="false">$U$16/D20</f>
+      <c r="U20" s="44"/>
+      <c r="V20" s="45"/>
+      <c r="W20" s="46"/>
+      <c r="X20" s="40" t="n">
+        <f aca="false">$W$16/D20</f>
         <v>0.810227609161336</v>
       </c>
-      <c r="W20" s="38" t="n">
+      <c r="Y20" s="41" t="n">
         <f aca="false">(2*H20)/(1000*$B$1)</f>
         <v>0.347291428571428</v>
       </c>
@@ -4300,65 +4414,73 @@
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="43" t="n">
+      <c r="D21" s="47" t="n">
         <v>20</v>
       </c>
-      <c r="E21" s="44" t="n">
+      <c r="E21" s="48" t="n">
         <f aca="false">D21/12.27</f>
         <v>1.62999185004075</v>
       </c>
-      <c r="F21" s="26"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="45" t="n">
+      <c r="F21" s="27"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="49" t="n">
         <f aca="false">AVERAGE(DataAmplitudes!L4:L9)</f>
         <v>4.81088333333333</v>
       </c>
-      <c r="I21" s="46" t="n">
+      <c r="I21" s="50" t="n">
         <f aca="false">H21/$B$10</f>
         <v>0.791564941081362</v>
       </c>
-      <c r="J21" s="47" t="n">
+      <c r="J21" s="51" t="n">
         <f aca="false">$F$15*$B$1/$B$12</f>
         <v>1923.84105960265</v>
       </c>
-      <c r="K21" s="47" t="n">
+      <c r="K21" s="51" t="n">
         <f aca="false">$F$15*2*(H21/1000)/$B$12</f>
         <v>528.878565121413</v>
       </c>
-      <c r="L21" s="48" t="n">
+      <c r="L21" s="52" t="n">
         <f aca="false">D21*2*(H21/1000)/$F$15</f>
         <v>0.231849799196787</v>
       </c>
-      <c r="M21" s="49" t="n">
+      <c r="M21" s="53" t="n">
         <f aca="false">2*D21*($B$10/1000)/$F$15</f>
         <v>0.292900540643015</v>
       </c>
-      <c r="N21" s="43" t="n">
+      <c r="N21" s="47" t="n">
         <v>0.061</v>
       </c>
-      <c r="O21" s="50" t="n">
+      <c r="O21" s="54" t="n">
         <v>0.0624</v>
       </c>
-      <c r="P21" s="51" t="n">
+      <c r="P21" s="55" t="n">
         <f aca="false">H21/(1000*SIN(RADIANS(10.78))*0.035)</f>
         <v>0.734896121052445</v>
       </c>
-      <c r="Q21" s="35" t="n">
+      <c r="Q21" s="55" t="n">
+        <f aca="false">2*H21/2</f>
+        <v>4.81088333333333</v>
+      </c>
+      <c r="R21" s="56" t="n">
+        <f aca="false">E21*0.002/$F$15</f>
+        <v>0.00392769120491747</v>
+      </c>
+      <c r="S21" s="38" t="n">
         <f aca="false">2*D21*$B$1*SIN(RADIANS(10))/$F$15</f>
         <v>0.292900540643015</v>
       </c>
-      <c r="R21" s="36" t="n">
+      <c r="T21" s="39" t="n">
         <f aca="false">J21</f>
         <v>1923.84105960265</v>
       </c>
-      <c r="S21" s="40"/>
-      <c r="T21" s="41"/>
-      <c r="U21" s="42"/>
-      <c r="V21" s="37" t="n">
-        <f aca="false">$U$16/D21</f>
+      <c r="U21" s="44"/>
+      <c r="V21" s="45"/>
+      <c r="W21" s="46"/>
+      <c r="X21" s="40" t="n">
+        <f aca="false">$W$16/D21</f>
         <v>0.729204848245202</v>
       </c>
-      <c r="W21" s="38" t="n">
+      <c r="Y21" s="41" t="n">
         <f aca="false">(2*H21)/(1000*$B$1)</f>
         <v>0.274907619047619</v>
       </c>
@@ -4384,18 +4506,20 @@
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
-      <c r="U22" s="52" t="n">
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="18" t="n">
         <v>13.24</v>
       </c>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -4413,585 +4537,604 @@
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
-      <c r="U23" s="3" t="n">
-        <f aca="false">U16/13.24</f>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3" t="n">
+        <f aca="false">W16/13.24</f>
         <v>1.10151789765136</v>
       </c>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D24" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="18" t="s">
+      <c r="D24" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="E24" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G24" s="18" t="s">
+      <c r="F24" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H24" s="18" t="s">
+      <c r="G24" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="I24" s="18" t="s">
+      <c r="H24" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="J24" s="18" t="s">
+      <c r="I24" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="K24" s="18" t="s">
+      <c r="J24" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="L24" s="18" t="s">
+      <c r="K24" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="M24" s="19" t="s">
+      <c r="L24" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="N24" s="18" t="s">
+      <c r="M24" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="O24" s="20" t="s">
+      <c r="N24" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="P24" s="20" t="s">
+      <c r="O24" s="21" t="s">
         <v>26</v>
       </c>
+      <c r="P24" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D25" s="24" t="n">
+      <c r="D25" s="25" t="n">
         <v>8</v>
       </c>
-      <c r="E25" s="25" t="n">
+      <c r="E25" s="26" t="n">
         <f aca="false">D25/12.27</f>
         <v>0.6519967400163</v>
       </c>
-      <c r="F25" s="26" t="n">
+      <c r="F25" s="27" t="n">
         <v>1.45</v>
       </c>
-      <c r="G25" s="27" t="n">
+      <c r="G25" s="28" t="n">
         <f aca="false">F25/$B$11</f>
         <v>0.538417748427949</v>
       </c>
-      <c r="H25" s="28" t="n">
+      <c r="H25" s="29" t="n">
         <v>8.9212</v>
       </c>
-      <c r="I25" s="29" t="n">
+      <c r="I25" s="30" t="n">
         <f aca="false">H25/$B$10</f>
         <v>1.46786123526346</v>
       </c>
-      <c r="J25" s="30" t="n">
+      <c r="J25" s="31" t="n">
         <f aca="false">$F$15*$B$1/$B$12</f>
         <v>1923.84105960265</v>
       </c>
-      <c r="K25" s="30" t="n">
+      <c r="K25" s="31" t="n">
         <f aca="false">$F$15*2*(H25/1000)/$B$12</f>
         <v>980.74119205298</v>
       </c>
-      <c r="L25" s="31" t="n">
+      <c r="L25" s="32" t="n">
         <f aca="false">D25*2*(H25/1000)/$F$15</f>
         <v>0.171974939759036</v>
       </c>
-      <c r="M25" s="32" t="n">
+      <c r="M25" s="33" t="n">
         <f aca="false">2*D25*($B$10/1000)/$F$15</f>
         <v>0.117160216257206</v>
       </c>
-      <c r="N25" s="33" t="n">
+      <c r="N25" s="34" t="n">
         <v>0.3</v>
       </c>
-      <c r="O25" s="34" t="n">
+      <c r="O25" s="35" t="n">
         <v>0.297202351395596</v>
       </c>
-      <c r="P25" s="34" t="n">
+      <c r="P25" s="35" t="n">
         <f aca="false">H25/(1000*SIN(RADIANS(10.78))*0.035)</f>
         <v>1.36277577751828</v>
       </c>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="35"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D26" s="24" t="n">
+      <c r="D26" s="25" t="n">
         <v>10</v>
       </c>
-      <c r="E26" s="25" t="n">
+      <c r="E26" s="26" t="n">
         <f aca="false">D26/12.27</f>
         <v>0.814995925020375</v>
       </c>
-      <c r="F26" s="26"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="29" t="n">
+      <c r="F26" s="27"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="30" t="n">
         <f aca="false">AVERAGE(DataAmplitudes!D18:D26)</f>
         <v>11.1584555555556</v>
       </c>
-      <c r="I26" s="29" t="n">
+      <c r="I26" s="30" t="n">
         <f aca="false">H26/$B$10</f>
         <v>1.83597098545153</v>
       </c>
-      <c r="J26" s="30" t="n">
+      <c r="J26" s="31" t="n">
         <f aca="false">$F$15*$B$1/$B$12</f>
         <v>1923.84105960265</v>
       </c>
-      <c r="K26" s="30" t="n">
+      <c r="K26" s="31" t="n">
         <f aca="false">$F$15*2*(H26/1000)/$B$12</f>
         <v>1226.69114054452</v>
       </c>
-      <c r="L26" s="31" t="n">
+      <c r="L26" s="32" t="n">
         <f aca="false">D26*2*(H26/1000)/$F$15</f>
         <v>0.268878447121821</v>
       </c>
-      <c r="M26" s="32" t="n">
+      <c r="M26" s="33" t="n">
         <f aca="false">2*D26*($B$10/1000)/$F$15</f>
         <v>0.146450270321508</v>
       </c>
-      <c r="N26" s="33" t="n">
+      <c r="N26" s="34" t="n">
         <v>0.135</v>
       </c>
-      <c r="O26" s="39" t="n">
+      <c r="O26" s="42" t="n">
         <v>0.1268</v>
       </c>
-      <c r="P26" s="34" t="n">
+      <c r="P26" s="35" t="n">
         <f aca="false">H26/(1000*SIN(RADIANS(10.78))*0.035)</f>
         <v>1.70453223172055</v>
       </c>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="35"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D27" s="33" t="n">
+      <c r="D27" s="34" t="n">
         <v>12</v>
       </c>
-      <c r="E27" s="25" t="n">
+      <c r="E27" s="26" t="n">
         <f aca="false">D27/12.27</f>
         <v>0.97799511002445</v>
       </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="29" t="n">
+      <c r="F27" s="27"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="30" t="n">
         <f aca="false">AVERAGE(DataAmplitudes!B19:B28)</f>
         <v>11.28188</v>
       </c>
-      <c r="I27" s="29" t="n">
+      <c r="I27" s="30" t="n">
         <f aca="false">H27/$B$10</f>
         <v>1.85627878681053</v>
       </c>
-      <c r="J27" s="30" t="n">
+      <c r="J27" s="31" t="n">
         <f aca="false">$F$15*$B$1/$B$12</f>
         <v>1923.84105960265</v>
       </c>
-      <c r="K27" s="30" t="n">
+      <c r="K27" s="31" t="n">
         <f aca="false">$F$15*2*(H27/1000)/$B$12</f>
         <v>1240.25965562914</v>
       </c>
-      <c r="L27" s="31" t="n">
+      <c r="L27" s="32" t="n">
         <f aca="false">D27*2*(H27/1000)/$F$15</f>
         <v>0.326223036144578</v>
       </c>
-      <c r="M27" s="32" t="n">
+      <c r="M27" s="33" t="n">
         <f aca="false">2*D27*($B$10/1000)/$F$15</f>
         <v>0.175740324385809</v>
       </c>
-      <c r="N27" s="33" t="n">
+      <c r="N27" s="34" t="n">
         <v>-0.121</v>
       </c>
-      <c r="O27" s="39" t="n">
+      <c r="O27" s="42" t="n">
         <v>-0.1184</v>
       </c>
-      <c r="P27" s="34" t="n">
+      <c r="P27" s="35" t="n">
         <f aca="false">H27/(1000*SIN(RADIANS(10.78))*0.035)</f>
         <v>1.7233861799834</v>
       </c>
+      <c r="Q27" s="35"/>
+      <c r="R27" s="35"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D28" s="33" t="n">
+      <c r="D28" s="34" t="n">
         <v>14</v>
       </c>
-      <c r="E28" s="25" t="n">
+      <c r="E28" s="26" t="n">
         <f aca="false">D28/12.27</f>
         <v>1.14099429502853</v>
       </c>
-      <c r="F28" s="26"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="29" t="n">
+      <c r="F28" s="27"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="30" t="n">
         <f aca="false">AVERAGE(DataAmplitudes!F17:F29)</f>
         <v>9.91198461538462</v>
       </c>
-      <c r="I28" s="29" t="n">
+      <c r="I28" s="30" t="n">
         <f aca="false">H28/$B$10</f>
         <v>1.63088126949859</v>
       </c>
-      <c r="J28" s="30" t="n">
+      <c r="J28" s="31" t="n">
         <f aca="false">$F$15*$B$1/$B$12</f>
         <v>1923.84105960265</v>
       </c>
-      <c r="K28" s="30" t="n">
+      <c r="K28" s="31" t="n">
         <f aca="false">$F$15*2*(H28/1000)/$B$12</f>
         <v>1089.6618848701</v>
       </c>
-      <c r="L28" s="31" t="n">
+      <c r="L28" s="32" t="n">
         <f aca="false">D28*2*(H28/1000)/$F$15</f>
         <v>0.334380203892493</v>
       </c>
-      <c r="M28" s="32" t="n">
+      <c r="M28" s="33" t="n">
         <f aca="false">2*D28*($B$10/1000)/$F$15</f>
         <v>0.20503037845011</v>
       </c>
-      <c r="N28" s="33" t="n">
+      <c r="N28" s="34" t="n">
         <v>-0.185</v>
       </c>
-      <c r="O28" s="39" t="n">
+      <c r="O28" s="42" t="n">
         <v>-0.1812</v>
       </c>
-      <c r="P28" s="34" t="n">
+      <c r="P28" s="35" t="n">
         <f aca="false">H28/(1000*SIN(RADIANS(10.78))*0.035)</f>
         <v>1.51412506624445</v>
       </c>
-      <c r="R28" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="S28" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="T28" s="54"/>
-      <c r="U28" s="54"/>
+      <c r="Q28" s="35"/>
+      <c r="R28" s="35"/>
+      <c r="T28" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="U28" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="V28" s="58"/>
+      <c r="W28" s="58"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D29" s="33" t="n">
+      <c r="D29" s="34" t="n">
         <v>16</v>
       </c>
-      <c r="E29" s="25" t="n">
+      <c r="E29" s="26" t="n">
         <f aca="false">D29/12.27</f>
         <v>1.3039934800326</v>
       </c>
-      <c r="F29" s="26"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="28" t="n">
+      <c r="F29" s="27"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="29" t="n">
         <f aca="false">AVERAGE(DataAmplitudes!H19:H31)</f>
         <v>7.96547692307692</v>
       </c>
-      <c r="I29" s="29" t="n">
+      <c r="I29" s="30" t="n">
         <f aca="false">H29/$B$10</f>
         <v>1.3106100968222</v>
       </c>
-      <c r="J29" s="30" t="n">
+      <c r="J29" s="31" t="n">
         <f aca="false">$F$15*$B$1/$B$12</f>
         <v>1923.84105960265</v>
       </c>
-      <c r="K29" s="30" t="n">
+      <c r="K29" s="31" t="n">
         <f aca="false">$F$15*2*(H29/1000)/$B$12</f>
         <v>875.674946510443</v>
       </c>
-      <c r="L29" s="31" t="n">
+      <c r="L29" s="32" t="n">
         <f aca="false">D29*2*(H29/1000)/$F$15</f>
         <v>0.307102724745134</v>
       </c>
-      <c r="M29" s="32" t="n">
+      <c r="M29" s="33" t="n">
         <f aca="false">2*D29*($B$10/1000)/$F$15</f>
         <v>0.234320432514412</v>
       </c>
-      <c r="N29" s="33" t="n">
+      <c r="N29" s="34" t="n">
         <v>-0.106</v>
       </c>
-      <c r="O29" s="34" t="n">
+      <c r="O29" s="35" t="n">
         <v>-0.093</v>
       </c>
-      <c r="P29" s="34" t="n">
+      <c r="P29" s="35" t="n">
         <f aca="false">H29/(1000*SIN(RADIANS(10.78))*0.035)</f>
         <v>1.21678238433732</v>
       </c>
-      <c r="S29" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="T29" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="U29" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="V29" s="56" t="s">
+      <c r="Q29" s="35"/>
+      <c r="R29" s="35"/>
+      <c r="U29" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="W29" s="55" t="s">
+      <c r="V29" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="X29" s="55" t="s">
+      <c r="W29" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="Y29" s="55" t="s">
+      <c r="X29" s="60" t="s">
         <v>42</v>
       </c>
+      <c r="Y29" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z29" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA29" s="59" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D30" s="33" t="n">
+      <c r="D30" s="34" t="n">
         <v>18</v>
       </c>
-      <c r="E30" s="25" t="n">
+      <c r="E30" s="26" t="n">
         <f aca="false">D30/12.27</f>
         <v>1.46699266503668</v>
       </c>
-      <c r="F30" s="26"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="28" t="n">
+      <c r="F30" s="27"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="29" t="n">
         <f aca="false">1000*(0.03-0.0235953)</f>
         <v>6.4047</v>
       </c>
-      <c r="I30" s="29" t="n">
+      <c r="I30" s="30" t="n">
         <f aca="false">H30/$B$10</f>
         <v>1.05380563752543</v>
       </c>
-      <c r="J30" s="30" t="n">
+      <c r="J30" s="31" t="n">
         <f aca="false">$F$15*$B$1/$B$12</f>
         <v>1923.84105960265</v>
       </c>
-      <c r="K30" s="30" t="n">
+      <c r="K30" s="31" t="n">
         <f aca="false">$F$15*2*(H30/1000)/$B$12</f>
         <v>704.092847682119</v>
       </c>
-      <c r="L30" s="31" t="n">
+      <c r="L30" s="32" t="n">
         <f aca="false">D30*2*(H30/1000)/$F$15</f>
         <v>0.27779421686747</v>
       </c>
-      <c r="M30" s="32" t="n">
+      <c r="M30" s="33" t="n">
         <f aca="false">2*D30*($B$10/1000)/$F$15</f>
         <v>0.263610486578714</v>
       </c>
-      <c r="N30" s="33" t="n">
+      <c r="N30" s="34" t="n">
         <v>-0.011</v>
       </c>
-      <c r="O30" s="34" t="n">
+      <c r="O30" s="35" t="n">
         <v>-0.012637550314478</v>
       </c>
-      <c r="P30" s="34" t="n">
+      <c r="P30" s="35" t="n">
         <f aca="false">H30/(1000*SIN(RADIANS(10.78))*0.035)</f>
         <v>0.978362778804571</v>
       </c>
-      <c r="R30" s="57" t="n">
+      <c r="Q30" s="35"/>
+      <c r="R30" s="35"/>
+      <c r="T30" s="61" t="n">
         <f aca="false">E17</f>
         <v>0.97799511002445</v>
       </c>
-      <c r="S30" s="57"/>
-      <c r="T30" s="57" t="n">
+      <c r="U30" s="61"/>
+      <c r="V30" s="61" t="n">
         <f aca="false">DataAmplitudes!D71</f>
         <v>1.95834478184374</v>
       </c>
-      <c r="U30" s="57" t="n">
+      <c r="W30" s="61" t="n">
         <f aca="false">DataAmplitudes!Q54</f>
         <v>1.8259044600139</v>
       </c>
-      <c r="V30" s="57" t="n">
+      <c r="X30" s="61" t="n">
         <f aca="false">DataAmplitudes!D86</f>
         <v>1.79643763408429</v>
       </c>
-      <c r="W30" s="57" t="n">
+      <c r="Y30" s="61" t="n">
         <f aca="false">DataAmplitudes!D96</f>
         <v>1.66256139642377</v>
       </c>
-      <c r="X30" s="57" t="n">
+      <c r="Z30" s="61" t="n">
         <f aca="false">DataAmplitudes!D107</f>
         <v>1.61290009466266</v>
       </c>
-      <c r="Y30" s="57" t="n">
+      <c r="AA30" s="61" t="n">
         <f aca="false">DataAmplitudes!D116</f>
         <v>1.5894824460623</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D31" s="43" t="n">
+      <c r="D31" s="47" t="n">
         <v>20</v>
       </c>
-      <c r="E31" s="44" t="n">
+      <c r="E31" s="48" t="n">
         <f aca="false">D31/12.27</f>
         <v>1.62999185004075</v>
       </c>
-      <c r="F31" s="26"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="45" t="n">
+      <c r="F31" s="27"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="49" t="n">
         <v>5.1647</v>
       </c>
-      <c r="I31" s="46" t="n">
+      <c r="I31" s="50" t="n">
         <f aca="false">H31/$B$10</f>
         <v>0.849780626122626</v>
       </c>
-      <c r="J31" s="47" t="n">
+      <c r="J31" s="51" t="n">
         <f aca="false">$F$15*$B$1/$B$12</f>
         <v>1923.84105960265</v>
       </c>
-      <c r="K31" s="47" t="n">
+      <c r="K31" s="51" t="n">
         <f aca="false">$F$15*2*(H31/1000)/$B$12</f>
         <v>567.774966887417</v>
       </c>
-      <c r="L31" s="48" t="n">
+      <c r="L31" s="52" t="n">
         <f aca="false">D31*2*(H31/1000)/$F$15</f>
         <v>0.248901204819277</v>
       </c>
-      <c r="M31" s="49" t="n">
+      <c r="M31" s="53" t="n">
         <f aca="false">2*D31*($B$10/1000)/$F$15</f>
         <v>0.292900540643015</v>
       </c>
-      <c r="N31" s="43" t="n">
+      <c r="N31" s="47" t="n">
         <v>0.061</v>
       </c>
-      <c r="O31" s="50" t="n">
+      <c r="O31" s="54" t="n">
         <v>0.0624</v>
       </c>
-      <c r="P31" s="51" t="n">
+      <c r="P31" s="55" t="n">
         <f aca="false">H31/(1000*SIN(RADIANS(10.78))*0.035)</f>
         <v>0.788944094757282</v>
       </c>
-      <c r="R31" s="57" t="n">
+      <c r="Q31" s="55"/>
+      <c r="R31" s="55"/>
+      <c r="T31" s="61" t="n">
         <f aca="false">E18</f>
         <v>1.14099429502853</v>
       </c>
-      <c r="S31" s="57"/>
-      <c r="U31" s="57" t="n">
+      <c r="U31" s="61"/>
+      <c r="W31" s="61" t="n">
         <f aca="false">DataAmplitudes!Q64</f>
         <v>1.91099011083192</v>
       </c>
-      <c r="V31" s="57" t="n">
+      <c r="X31" s="61" t="n">
         <f aca="false">DataAmplitudes!N87</f>
         <v>1.8822717942183</v>
       </c>
-      <c r="W31" s="57" t="n">
+      <c r="Y31" s="61" t="n">
         <f aca="false">DataAmplitudes!I96</f>
         <v>1.6722461904307</v>
       </c>
-      <c r="X31" s="57" t="n">
+      <c r="Z31" s="61" t="n">
         <f aca="false">DataAmplitudes!I107</f>
         <v>1.72030354365754</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R32" s="57" t="n">
+      <c r="T32" s="61" t="n">
         <f aca="false">E19</f>
         <v>1.3039934800326</v>
       </c>
-      <c r="S32" s="57" t="n">
+      <c r="U32" s="61" t="n">
         <f aca="false">DataAmplitudes!D44</f>
         <v>1.49008346403845</v>
       </c>
-      <c r="T32" s="57" t="n">
+      <c r="V32" s="61" t="n">
         <f aca="false">DataAmplitudes!D62</f>
         <v>1.77042311642844</v>
       </c>
-      <c r="U32" s="0" t="n">
+      <c r="W32" s="0" t="n">
         <v>1.75</v>
       </c>
-      <c r="V32" s="57" t="n">
+      <c r="X32" s="61" t="n">
         <v>1.75</v>
       </c>
-      <c r="W32" s="57" t="n">
+      <c r="Y32" s="61" t="n">
         <f aca="false">DataAmplitudes!N96</f>
         <v>1.52323173374673</v>
       </c>
-      <c r="X32" s="57" t="n">
+      <c r="Z32" s="61" t="n">
         <f aca="false">DataAmplitudes!N107</f>
         <v>1.66086579368754</v>
       </c>
-      <c r="Y32" s="57" t="n">
+      <c r="AA32" s="61" t="n">
         <f aca="false">DataAmplitudes!N116</f>
         <v>1.69242539056187</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S43" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="T43" s="54"/>
+      <c r="U43" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="V43" s="58"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S44" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="T44" s="53" t="s">
-        <v>19</v>
+      <c r="U44" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="V44" s="57" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S45" s="0" t="n">
+      <c r="U45" s="0" t="n">
         <v>0.488838194557601</v>
       </c>
-      <c r="T45" s="0" t="n">
+      <c r="V45" s="0" t="n">
         <v>0.984673710116129</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S46" s="0" t="n">
+      <c r="U46" s="0" t="n">
         <v>0.651784259410135</v>
       </c>
-      <c r="T46" s="0" t="n">
+      <c r="V46" s="0" t="n">
         <v>1.07883213620503</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S47" s="0" t="n">
+      <c r="U47" s="0" t="n">
         <v>0.814730324262669</v>
       </c>
-      <c r="T47" s="0" t="n">
+      <c r="V47" s="0" t="n">
         <v>1.20171686177868</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S48" s="0" t="n">
+      <c r="U48" s="0" t="n">
         <v>0.977676389115203</v>
       </c>
-      <c r="T48" s="0" t="n">
+      <c r="V48" s="0" t="n">
         <v>1.51770615611092</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S49" s="0" t="n">
+      <c r="U49" s="0" t="n">
         <v>1.14062245396774</v>
       </c>
-      <c r="T49" s="0" t="n">
+      <c r="V49" s="0" t="n">
         <v>1.71879025250417</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S50" s="0" t="n">
+      <c r="U50" s="0" t="n">
         <v>1.30356851882027</v>
       </c>
-      <c r="T50" s="0" t="n">
+      <c r="V50" s="0" t="n">
         <v>1.7203861580311</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S51" s="0" t="n">
+      <c r="U51" s="0" t="n">
         <v>1.4665145836728</v>
       </c>
-      <c r="T51" s="0" t="n">
+      <c r="V51" s="0" t="n">
         <v>1.64059088168457</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S52" s="0" t="n">
+      <c r="U52" s="0" t="n">
         <v>1.62946064852534</v>
       </c>
-      <c r="T52" s="0" t="n">
+      <c r="V52" s="0" t="n">
         <v>1.48100032899152</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S53" s="0" t="n">
+      <c r="U53" s="0" t="n">
         <v>1.79240671337787</v>
       </c>
-      <c r="T53" s="0" t="n">
+      <c r="V53" s="0" t="n">
         <v>1.28647452979585</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="T73" s="0" t="s">
-        <v>44</v>
+      <c r="V73" s="0" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="Q13:R13"/>
     <mergeCell ref="F15:F21"/>
     <mergeCell ref="G15:G21"/>
-    <mergeCell ref="S16:S21"/>
-    <mergeCell ref="T16:T21"/>
     <mergeCell ref="U16:U21"/>
+    <mergeCell ref="V16:V21"/>
+    <mergeCell ref="W16:W21"/>
     <mergeCell ref="F25:F31"/>
     <mergeCell ref="G25:G31"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="U28:W28"/>
+    <mergeCell ref="U43:V43"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0" right="0" top="0.39375" bottom="0.39375" header="0" footer="0"/>
@@ -5021,78 +5164,78 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="58"/>
+      <c r="A1" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="62"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54" t="s">
+      <c r="A2" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54" t="s">
+      <c r="D2" s="58"/>
+      <c r="E2" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="L2" s="54"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="58"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="J3" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="L3" s="55" t="s">
-        <v>18</v>
+      <c r="A3" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" s="59" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5131,7 +5274,7 @@
       <c r="K4" s="0" t="n">
         <v>1.209</v>
       </c>
-      <c r="L4" s="60" t="n">
+      <c r="L4" s="64" t="n">
         <f aca="false">1000*(0.03-0.0251846)</f>
         <v>4.8154</v>
       </c>
@@ -5173,7 +5316,7 @@
       <c r="K5" s="0" t="n">
         <v>1.234</v>
       </c>
-      <c r="L5" s="60" t="n">
+      <c r="L5" s="64" t="n">
         <v>4.821</v>
       </c>
     </row>
@@ -5213,7 +5356,7 @@
       <c r="K6" s="0" t="n">
         <v>1.259</v>
       </c>
-      <c r="L6" s="60" t="n">
+      <c r="L6" s="64" t="n">
         <f aca="false">1000*(0.03-0.025197)</f>
         <v>4.803</v>
       </c>
@@ -5255,7 +5398,7 @@
       <c r="K7" s="0" t="n">
         <v>1.334</v>
       </c>
-      <c r="L7" s="60" t="n">
+      <c r="L7" s="64" t="n">
         <v>4.8051</v>
       </c>
     </row>
@@ -5282,7 +5425,7 @@
       <c r="K8" s="0" t="n">
         <v>1.359</v>
       </c>
-      <c r="L8" s="60" t="n">
+      <c r="L8" s="64" t="n">
         <f aca="false">1000*(0.03-0.0251891)</f>
         <v>4.8109</v>
       </c>
@@ -5304,7 +5447,7 @@
       <c r="K9" s="0" t="n">
         <v>1.434</v>
       </c>
-      <c r="L9" s="60" t="n">
+      <c r="L9" s="64" t="n">
         <v>4.8099</v>
       </c>
     </row>
@@ -5326,88 +5469,88 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="53"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="58"/>
+      <c r="A14" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="57"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="62"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54" t="s">
+      <c r="A15" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54" t="s">
+      <c r="B15" s="58"/>
+      <c r="C15" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54" t="s">
+      <c r="D15" s="58"/>
+      <c r="E15" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54" t="s">
+      <c r="F15" s="58"/>
+      <c r="G15" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="N15" s="54"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="N15" s="58"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="H16" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="J16" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="K16" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="L16" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="M16" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="N16" s="55" t="s">
-        <v>18</v>
+      <c r="A16" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="J16" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="L16" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="N16" s="59" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5435,7 +5578,7 @@
       <c r="H17" s="0" t="n">
         <v>8.2258</v>
       </c>
-      <c r="L17" s="60"/>
+      <c r="L17" s="64"/>
       <c r="M17" s="0" t="n">
         <v>1.034</v>
       </c>
@@ -5469,7 +5612,7 @@
         <f aca="false">1000*(0.03-0.0219693)</f>
         <v>8.0307</v>
       </c>
-      <c r="L18" s="60"/>
+      <c r="L18" s="64"/>
       <c r="M18" s="0" t="n">
         <v>1.062</v>
       </c>
@@ -5500,7 +5643,7 @@
       <c r="H19" s="0" t="n">
         <v>7.9623</v>
       </c>
-      <c r="L19" s="60"/>
+      <c r="L19" s="64"/>
       <c r="M19" s="0" t="n">
         <v>1.09</v>
       </c>
@@ -5519,7 +5662,7 @@
       <c r="C20" s="0" t="n">
         <v>1.187</v>
       </c>
-      <c r="D20" s="61" t="n">
+      <c r="D20" s="65" t="n">
         <f aca="false">1000*(0.03-0.0188516)</f>
         <v>11.1484</v>
       </c>
@@ -5537,7 +5680,7 @@
         <f aca="false">1000*(0.03-0.0220684)</f>
         <v>7.9316</v>
       </c>
-      <c r="L20" s="60"/>
+      <c r="L20" s="64"/>
       <c r="M20" s="0" t="n">
         <v>1.117</v>
       </c>
@@ -5571,7 +5714,7 @@
       <c r="H21" s="0" t="n">
         <v>7.9697</v>
       </c>
-      <c r="L21" s="60"/>
+      <c r="L21" s="64"/>
       <c r="M21" s="0" t="n">
         <v>1.145</v>
       </c>
@@ -5608,7 +5751,7 @@
         <f aca="false">1000*(0.03-0.0220122)</f>
         <v>7.9878</v>
       </c>
-      <c r="L22" s="60"/>
+      <c r="L22" s="64"/>
       <c r="M22" s="0" t="n">
         <v>1.173</v>
       </c>
@@ -5723,7 +5866,7 @@
       <c r="C26" s="0" t="n">
         <v>1.487</v>
       </c>
-      <c r="D26" s="61" t="n">
+      <c r="D26" s="65" t="n">
         <f aca="false">1000*(0.03-0.0188437)</f>
         <v>11.1563</v>
       </c>
@@ -5875,57 +6018,57 @@
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="N37" s="54" t="s">
+      <c r="A37" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="58"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
+      <c r="N37" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="O37" s="58"/>
+      <c r="P37" s="58"/>
+      <c r="Q37" s="58"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="58"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="58"/>
+      <c r="N38" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="O38" s="58"/>
+      <c r="P38" s="58"/>
+      <c r="Q38" s="58"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="O37" s="54"/>
-      <c r="P37" s="54"/>
-      <c r="Q37" s="54"/>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
-      <c r="N38" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="O38" s="54"/>
-      <c r="P38" s="54"/>
-      <c r="Q38" s="54"/>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="B39" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="C39" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="D39" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="N39" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="O39" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="P39" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q39" s="53" t="s">
-        <v>58</v>
+      <c r="B39" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="N39" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="O39" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="P39" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q39" s="57" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5935,28 +6078,28 @@
       <c r="B40" s="0" t="n">
         <v>10.3671</v>
       </c>
-      <c r="C40" s="57" t="n">
+      <c r="C40" s="61" t="n">
         <f aca="false">B40/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.7057642707371</v>
       </c>
-      <c r="D40" s="57" t="n">
+      <c r="D40" s="61" t="n">
         <f aca="false">B40/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.58364712853762</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N40" s="0" t="n">
         <v>1.031</v>
       </c>
-      <c r="O40" s="57" t="n">
+      <c r="O40" s="61" t="n">
         <v>11.92</v>
       </c>
-      <c r="P40" s="57" t="n">
+      <c r="P40" s="61" t="n">
         <f aca="false">O40/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.9612726902592</v>
       </c>
-      <c r="Q40" s="57" t="n">
+      <c r="Q40" s="61" t="n">
         <f aca="false">O40/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.82086347890619</v>
       </c>
@@ -5969,26 +6112,26 @@
         <f aca="false">1000*(0.03-0.0199501)</f>
         <v>10.0499</v>
       </c>
-      <c r="C41" s="57" t="n">
+      <c r="C41" s="61" t="n">
         <f aca="false">B41/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.65357335652986</v>
       </c>
-      <c r="D41" s="57" t="n">
+      <c r="D41" s="61" t="n">
         <f aca="false">B41/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.53519260710229</v>
       </c>
       <c r="N41" s="0" t="n">
         <v>1.063</v>
       </c>
-      <c r="O41" s="57" t="n">
+      <c r="O41" s="61" t="n">
         <f aca="false">1000*(0.03-0.0182312)</f>
         <v>11.7688</v>
       </c>
-      <c r="P41" s="57" t="n">
+      <c r="P41" s="61" t="n">
         <f aca="false">O41/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.93639480177202</v>
       </c>
-      <c r="Q41" s="57" t="n">
+      <c r="Q41" s="61" t="n">
         <f aca="false">O41/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.79776662001268</v>
       </c>
@@ -6001,26 +6144,26 @@
       <c r="B42" s="0" t="n">
         <v>9.8834</v>
       </c>
-      <c r="C42" s="57" t="n">
+      <c r="C42" s="61" t="n">
         <f aca="false">B42/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.62617806266005</v>
       </c>
-      <c r="D42" s="57" t="n">
+      <c r="D42" s="61" t="n">
         <f aca="false">B42/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.50975856605885</v>
       </c>
-      <c r="G42" s="60"/>
+      <c r="G42" s="64"/>
       <c r="N42" s="0" t="n">
         <v>1.095</v>
       </c>
-      <c r="O42" s="57" t="n">
+      <c r="O42" s="61" t="n">
         <v>11.6725</v>
       </c>
-      <c r="P42" s="57" t="n">
+      <c r="P42" s="61" t="n">
         <f aca="false">O42/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.9205499561284</v>
       </c>
-      <c r="Q42" s="57" t="n">
+      <c r="Q42" s="61" t="n">
         <f aca="false">O42/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.78305612059837</v>
       </c>
@@ -6029,31 +6172,31 @@
       <c r="A43" s="0" t="n">
         <v>1.131</v>
       </c>
-      <c r="B43" s="61" t="n">
+      <c r="B43" s="65" t="n">
         <f aca="false">1000*(0.03-0.0202027)</f>
         <v>9.7973</v>
       </c>
-      <c r="C43" s="57" t="n">
+      <c r="C43" s="61" t="n">
         <f aca="false">B43/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.61201148727152</v>
       </c>
-      <c r="D43" s="57" t="n">
+      <c r="D43" s="61" t="n">
         <f aca="false">B43/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.49660618807782</v>
       </c>
-      <c r="G43" s="60"/>
+      <c r="G43" s="64"/>
       <c r="N43" s="0" t="n">
         <v>1.126</v>
       </c>
-      <c r="O43" s="62" t="n">
+      <c r="O43" s="66" t="n">
         <f aca="false">1000*(0.03-0.018351)</f>
         <v>11.649</v>
       </c>
-      <c r="P43" s="57" t="n">
+      <c r="P43" s="61" t="n">
         <f aca="false">O43/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.91668335308972</v>
       </c>
-      <c r="Q43" s="57" t="n">
+      <c r="Q43" s="61" t="n">
         <f aca="false">O43/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.77946633102166</v>
       </c>
@@ -6066,25 +6209,25 @@
       <c r="B44" s="0" t="n">
         <v>9.7546</v>
       </c>
-      <c r="C44" s="57" t="n">
+      <c r="C44" s="61" t="n">
         <f aca="false">B44/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.60498578728208</v>
       </c>
-      <c r="D44" s="57" t="n">
+      <c r="D44" s="61" t="n">
         <f aca="false">B44/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.49008346403845</v>
       </c>
       <c r="N44" s="0" t="n">
         <v>1.157</v>
       </c>
-      <c r="O44" s="57" t="n">
+      <c r="O44" s="61" t="n">
         <v>11.6353</v>
       </c>
-      <c r="P44" s="57" t="n">
+      <c r="P44" s="61" t="n">
         <f aca="false">O44/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.91442920578632</v>
       </c>
-      <c r="Q44" s="57" t="n">
+      <c r="Q44" s="61" t="n">
         <f aca="false">O44/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.77737356007695</v>
       </c>
@@ -6093,58 +6236,58 @@
       <c r="N45" s="0" t="n">
         <v>1.188</v>
       </c>
-      <c r="O45" s="62" t="n">
+      <c r="O45" s="66" t="n">
         <f aca="false">1000*(0.03-0.0183805)</f>
         <v>11.6195</v>
       </c>
-      <c r="P45" s="57" t="n">
+      <c r="P45" s="61" t="n">
         <f aca="false">O45/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.91182953225393</v>
       </c>
-      <c r="Q45" s="57" t="n">
+      <c r="Q45" s="61" t="n">
         <f aca="false">O45/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.77495999942538</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="54" t="s">
+      <c r="A46" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" s="58"/>
+      <c r="C46" s="58"/>
+      <c r="D46" s="58"/>
+      <c r="O46" s="61"/>
+      <c r="P46" s="61"/>
+      <c r="Q46" s="61"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" s="58"/>
+      <c r="C47" s="58"/>
+      <c r="D47" s="58"/>
+      <c r="N47" s="67" t="s">
+        <v>64</v>
+      </c>
+      <c r="O47" s="67"/>
+      <c r="P47" s="67"/>
+      <c r="Q47" s="68" t="n">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="B46" s="54"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="54"/>
-      <c r="O46" s="57"/>
-      <c r="P46" s="57"/>
-      <c r="Q46" s="57"/>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="B47" s="54"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="54"/>
-      <c r="N47" s="63" t="s">
+      <c r="D48" s="57" t="s">
         <v>61</v>
-      </c>
-      <c r="O47" s="63"/>
-      <c r="P47" s="63"/>
-      <c r="Q47" s="64" t="n">
-        <v>1.72</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="B48" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="C48" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="D48" s="53" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6154,23 +6297,23 @@
       <c r="B49" s="0" t="n">
         <v>12.3826</v>
       </c>
-      <c r="C49" s="57" t="n">
+      <c r="C49" s="61" t="n">
         <f aca="false">B49/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>2.03738718241641</v>
       </c>
-      <c r="D49" s="57" t="n">
+      <c r="D49" s="61" t="n">
         <f aca="false">B49/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.89152886861609</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="N49" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="O49" s="54"/>
-      <c r="P49" s="54"/>
-      <c r="Q49" s="54"/>
+      <c r="N49" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="O49" s="58"/>
+      <c r="P49" s="58"/>
+      <c r="Q49" s="58"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
@@ -6180,89 +6323,89 @@
         <f aca="false">(0.03-0.0178154)*1000</f>
         <v>12.1846</v>
       </c>
-      <c r="C50" s="57" t="n">
+      <c r="C50" s="61" t="n">
         <f aca="false">B50/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>2.00480899511177</v>
       </c>
-      <c r="D50" s="57" t="n">
+      <c r="D50" s="61" t="n">
         <f aca="false">B50/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.86128298196983</v>
       </c>
-      <c r="N50" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="O50" s="54"/>
-      <c r="P50" s="54"/>
-      <c r="Q50" s="54"/>
+      <c r="N50" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="O50" s="58"/>
+      <c r="P50" s="58"/>
+      <c r="Q50" s="58"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C51" s="57" t="n">
+      <c r="C51" s="61" t="n">
         <f aca="false">B51/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="D51" s="57" t="n">
+      <c r="D51" s="61" t="n">
         <f aca="false">B51/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
-      <c r="N51" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="O51" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="P51" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q51" s="53" t="s">
-        <v>58</v>
+      <c r="N51" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="O51" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="P51" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q51" s="57" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="61"/>
-      <c r="C52" s="57" t="n">
+      <c r="B52" s="65"/>
+      <c r="C52" s="61" t="n">
         <f aca="false">B52/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="D52" s="57" t="n">
+      <c r="D52" s="61" t="n">
         <f aca="false">B52/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
       <c r="N52" s="0" t="n">
         <v>1.031</v>
       </c>
-      <c r="O52" s="57" t="n">
+      <c r="O52" s="61" t="n">
         <v>11.8117</v>
       </c>
-      <c r="P52" s="57" t="n">
+      <c r="P52" s="61" t="n">
         <f aca="false">O52/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.94345340902136</v>
       </c>
-      <c r="Q52" s="57" t="n">
+      <c r="Q52" s="61" t="n">
         <f aca="false">O52/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.80431989545271</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C53" s="57" t="n">
+      <c r="C53" s="61" t="n">
         <f aca="false">B53/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="D53" s="57" t="n">
+      <c r="D53" s="61" t="n">
         <f aca="false">B53/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
       <c r="N53" s="0" t="n">
         <v>1.073</v>
       </c>
-      <c r="O53" s="57" t="n">
+      <c r="O53" s="61" t="n">
         <f aca="false">1000*(0.03-0.0180445)</f>
         <v>11.9555</v>
       </c>
-      <c r="P53" s="57" t="n">
+      <c r="P53" s="61" t="n">
         <f aca="false">O53/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.96711372889211</v>
       </c>
-      <c r="Q53" s="57" t="n">
+      <c r="Q53" s="61" t="n">
         <f aca="false">O53/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.82628635252206</v>
       </c>
@@ -6271,71 +6414,71 @@
       <c r="N54" s="0" t="n">
         <v>1.114</v>
       </c>
-      <c r="O54" s="57" t="n">
+      <c r="O54" s="61" t="n">
         <v>11.953</v>
       </c>
-      <c r="P54" s="57" t="n">
+      <c r="P54" s="61" t="n">
         <f aca="false">O54/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.96670238814331</v>
       </c>
-      <c r="Q54" s="57" t="n">
+      <c r="Q54" s="61" t="n">
         <f aca="false">O54/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.8259044600139</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="54" t="s">
-        <v>64</v>
-      </c>
-      <c r="B55" s="54"/>
-      <c r="C55" s="54"/>
-      <c r="D55" s="54"/>
-      <c r="O55" s="62"/>
-      <c r="P55" s="57" t="n">
+      <c r="A55" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55" s="58"/>
+      <c r="C55" s="58"/>
+      <c r="D55" s="58"/>
+      <c r="O55" s="66"/>
+      <c r="P55" s="61" t="n">
         <f aca="false">O55/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="Q55" s="57" t="n">
+      <c r="Q55" s="61" t="n">
         <f aca="false">O55/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56" s="54"/>
-      <c r="C56" s="54"/>
-      <c r="D56" s="54"/>
-      <c r="O56" s="57"/>
-      <c r="P56" s="57" t="n">
+      <c r="A56" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" s="58"/>
+      <c r="C56" s="58"/>
+      <c r="D56" s="58"/>
+      <c r="O56" s="61"/>
+      <c r="P56" s="61" t="n">
         <f aca="false">O56/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="Q56" s="57" t="n">
+      <c r="Q56" s="61" t="n">
         <f aca="false">O56/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="B57" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="C57" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="D57" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="O57" s="62"/>
-      <c r="P57" s="57" t="n">
+      <c r="A57" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="D57" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="O57" s="66"/>
+      <c r="P57" s="61" t="n">
         <f aca="false">O57/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="Q57" s="57" t="n">
+      <c r="Q57" s="61" t="n">
         <f aca="false">O57/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
@@ -6344,263 +6487,263 @@
       <c r="A58" s="0" t="n">
         <v>1.033</v>
       </c>
-      <c r="B58" s="57" t="n">
+      <c r="B58" s="61" t="n">
         <v>12.0366</v>
       </c>
-      <c r="C58" s="57" t="n">
+      <c r="C58" s="61" t="n">
         <f aca="false">B58/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.98045762278305</v>
       </c>
-      <c r="D58" s="57" t="n">
+      <c r="D58" s="61" t="n">
         <f aca="false">B58/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.83867494548677</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="n">
         <v>1.065</v>
       </c>
-      <c r="B59" s="57" t="n">
+      <c r="B59" s="61" t="n">
         <f aca="false">(0.03-0.0182043)*1000</f>
         <v>11.7957</v>
       </c>
-      <c r="C59" s="57" t="n">
+      <c r="C59" s="61" t="n">
         <f aca="false">B59/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.94082082822907</v>
       </c>
-      <c r="D59" s="57" t="n">
+      <c r="D59" s="61" t="n">
         <f aca="false">B59/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.80187578340048</v>
       </c>
-      <c r="G59" s="57" t="n">
+      <c r="G59" s="61" t="n">
         <f aca="false">D41/D40*D58</f>
         <v>1.78241739103968</v>
       </c>
-      <c r="N59" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="O59" s="54"/>
-      <c r="P59" s="54"/>
-      <c r="Q59" s="54"/>
+      <c r="N59" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="O59" s="58"/>
+      <c r="P59" s="58"/>
+      <c r="Q59" s="58"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
         <v>1.096</v>
       </c>
-      <c r="B60" s="57" t="n">
+      <c r="B60" s="61" t="n">
         <v>11.6751</v>
       </c>
-      <c r="C60" s="57" t="n">
+      <c r="C60" s="61" t="n">
         <f aca="false">B60/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.92097775050715</v>
       </c>
-      <c r="D60" s="57" t="n">
+      <c r="D60" s="61" t="n">
         <f aca="false">B60/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.78345328880685</v>
       </c>
-      <c r="G60" s="57" t="n">
+      <c r="G60" s="61" t="n">
         <f aca="false">D42/D40*D58</f>
         <v>1.75288749565683</v>
       </c>
-      <c r="N60" s="54" t="s">
-        <v>65</v>
-      </c>
-      <c r="O60" s="54"/>
-      <c r="P60" s="54"/>
-      <c r="Q60" s="54"/>
+      <c r="N60" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="O60" s="58"/>
+      <c r="P60" s="58"/>
+      <c r="Q60" s="58"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="n">
         <v>1.128</v>
       </c>
-      <c r="B61" s="62" t="n">
+      <c r="B61" s="66" t="n">
         <f aca="false">(0.03-0.0183851)*1000</f>
         <v>11.6149</v>
       </c>
-      <c r="C61" s="57" t="n">
+      <c r="C61" s="61" t="n">
         <f aca="false">B61/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.91107266527614</v>
       </c>
-      <c r="D61" s="57" t="n">
+      <c r="D61" s="61" t="n">
         <f aca="false">B61/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.77425731721036</v>
       </c>
-      <c r="G61" s="57" t="n">
+      <c r="G61" s="61" t="n">
         <f aca="false">D43/$D$40*D58</f>
         <v>1.73761708128768</v>
       </c>
-      <c r="N61" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="O61" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="P61" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q61" s="53" t="s">
-        <v>58</v>
+      <c r="N61" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="O61" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="P61" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q61" s="57" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="n">
         <v>1.159</v>
       </c>
-      <c r="B62" s="57" t="n">
+      <c r="B62" s="61" t="n">
         <v>11.5898</v>
       </c>
-      <c r="C62" s="57" t="n">
+      <c r="C62" s="61" t="n">
         <f aca="false">B62/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.90694280415823</v>
       </c>
-      <c r="D62" s="57" t="n">
+      <c r="D62" s="61" t="n">
         <f aca="false">B62/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.77042311642844</v>
       </c>
-      <c r="G62" s="57" t="n">
+      <c r="G62" s="61" t="n">
         <f aca="false">D44/D40*D58</f>
         <v>1.73004394895826</v>
       </c>
       <c r="N62" s="0" t="n">
         <v>1.031</v>
       </c>
-      <c r="O62" s="57" t="n">
+      <c r="O62" s="61" t="n">
         <v>11.8117</v>
       </c>
-      <c r="P62" s="57" t="n">
+      <c r="P62" s="61" t="n">
         <f aca="false">O62/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.94345340902136</v>
       </c>
-      <c r="Q62" s="57" t="n">
+      <c r="Q62" s="61" t="n">
         <f aca="false">O62/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.80431989545271</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="57"/>
-      <c r="C63" s="57" t="n">
+      <c r="B63" s="61"/>
+      <c r="C63" s="61" t="n">
         <f aca="false">B63/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="D63" s="57" t="n">
+      <c r="D63" s="61" t="n">
         <f aca="false">B63/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
       <c r="N63" s="0" t="n">
         <v>1.073</v>
       </c>
-      <c r="O63" s="57" t="n">
+      <c r="O63" s="61" t="n">
         <f aca="false">1000*(0.03-0.0174737)</f>
         <v>12.5263</v>
       </c>
-      <c r="P63" s="57" t="n">
+      <c r="P63" s="61" t="n">
         <f aca="false">O63/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>2.0610310486572</v>
       </c>
-      <c r="Q63" s="57" t="n">
+      <c r="Q63" s="61" t="n">
         <f aca="false">O63/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.91348004998512</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="57"/>
-      <c r="C64" s="57" t="n">
+      <c r="B64" s="61"/>
+      <c r="C64" s="61" t="n">
         <f aca="false">B64/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="D64" s="57" t="n">
+      <c r="D64" s="61" t="n">
         <f aca="false">B64/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
       <c r="N64" s="0" t="n">
         <v>1.103</v>
       </c>
-      <c r="O64" s="57" t="n">
+      <c r="O64" s="61" t="n">
         <v>12.51</v>
       </c>
-      <c r="P64" s="57" t="n">
+      <c r="P64" s="61" t="n">
         <f aca="false">O64/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>2.05834910697505</v>
       </c>
-      <c r="Q64" s="57" t="n">
+      <c r="Q64" s="61" t="n">
         <f aca="false">O64/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.91099011083192</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O65" s="62"/>
-      <c r="P65" s="57" t="n">
+      <c r="O65" s="66"/>
+      <c r="P65" s="61" t="n">
         <f aca="false">O65/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="Q65" s="57" t="n">
+      <c r="Q65" s="61" t="n">
         <f aca="false">O65/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="54" t="s">
-        <v>66</v>
-      </c>
-      <c r="B66" s="54"/>
-      <c r="C66" s="54"/>
-      <c r="D66" s="54"/>
-      <c r="O66" s="57"/>
-      <c r="P66" s="57" t="n">
+      <c r="A66" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66" s="58"/>
+      <c r="C66" s="58"/>
+      <c r="D66" s="58"/>
+      <c r="O66" s="61"/>
+      <c r="P66" s="61" t="n">
         <f aca="false">O66/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="Q66" s="57" t="n">
+      <c r="Q66" s="61" t="n">
         <f aca="false">O66/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="B67" s="54"/>
-      <c r="C67" s="54"/>
-      <c r="D67" s="54"/>
-      <c r="O67" s="62"/>
-      <c r="P67" s="57" t="n">
+      <c r="A67" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" s="58"/>
+      <c r="C67" s="58"/>
+      <c r="D67" s="58"/>
+      <c r="O67" s="66"/>
+      <c r="P67" s="61" t="n">
         <f aca="false">O67/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="Q67" s="57" t="n">
+      <c r="Q67" s="61" t="n">
         <f aca="false">O67/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="B68" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="C68" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="D68" s="53" t="s">
-        <v>58</v>
+      <c r="A68" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="B68" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="D68" s="57" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="n">
         <v>1.032</v>
       </c>
-      <c r="B69" s="57" t="n">
+      <c r="B69" s="61" t="n">
         <v>12.6366</v>
       </c>
-      <c r="C69" s="57" t="n">
+      <c r="C69" s="61" t="n">
         <f aca="false">B69/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>2.07917940249408</v>
       </c>
-      <c r="D69" s="57" t="n">
+      <c r="D69" s="61" t="n">
         <f aca="false">B69/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.93032914744513</v>
       </c>
@@ -6609,15 +6752,15 @@
       <c r="A70" s="0" t="n">
         <v>1.074</v>
       </c>
-      <c r="B70" s="57" t="n">
+      <c r="B70" s="61" t="n">
         <f aca="false">(0.03-0.0171832)*1000</f>
         <v>12.8168</v>
       </c>
-      <c r="C70" s="57" t="n">
+      <c r="C70" s="61" t="n">
         <f aca="false">B70/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>2.10882884366729</v>
       </c>
-      <c r="D70" s="57" t="n">
+      <c r="D70" s="61" t="n">
         <f aca="false">B70/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.9578559594333</v>
       </c>
@@ -6629,158 +6772,158 @@
       <c r="B71" s="0" t="n">
         <v>12.82</v>
       </c>
-      <c r="C71" s="57" t="n">
+      <c r="C71" s="61" t="n">
         <f aca="false">B71/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>2.10935535982575</v>
       </c>
-      <c r="D71" s="57" t="n">
+      <c r="D71" s="61" t="n">
         <f aca="false">B71/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.95834478184374</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="62"/>
-      <c r="C72" s="57" t="n">
+      <c r="B72" s="66"/>
+      <c r="C72" s="61" t="n">
         <f aca="false">B72/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="D72" s="57" t="n">
+      <c r="D72" s="61" t="n">
         <f aca="false">B72/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="57"/>
-      <c r="C73" s="57" t="n">
+      <c r="B73" s="61"/>
+      <c r="C73" s="61" t="n">
         <f aca="false">B73/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="D73" s="57" t="n">
+      <c r="D73" s="61" t="n">
         <f aca="false">B73/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="57"/>
-      <c r="C74" s="57" t="n">
+      <c r="B74" s="61"/>
+      <c r="C74" s="61" t="n">
         <f aca="false">B74/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="D74" s="57" t="n">
+      <c r="D74" s="61" t="n">
         <f aca="false">B74/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="57"/>
-      <c r="C75" s="57" t="n">
+      <c r="B75" s="61"/>
+      <c r="C75" s="61" t="n">
         <f aca="false">B75/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="D75" s="57" t="n">
+      <c r="D75" s="61" t="n">
         <f aca="false">B75/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="65"/>
-      <c r="B78" s="65"/>
-      <c r="C78" s="65"/>
-      <c r="D78" s="65"/>
-      <c r="E78" s="65"/>
-      <c r="F78" s="65"/>
-      <c r="G78" s="65"/>
-      <c r="H78" s="65"/>
-      <c r="I78" s="65"/>
-      <c r="J78" s="65"/>
-      <c r="K78" s="65"/>
-      <c r="L78" s="65"/>
-      <c r="M78" s="65"/>
-      <c r="N78" s="65"/>
-      <c r="O78" s="65"/>
-      <c r="P78" s="65"/>
-      <c r="Q78" s="65"/>
-      <c r="R78" s="65"/>
+      <c r="A78" s="69"/>
+      <c r="B78" s="69"/>
+      <c r="C78" s="69"/>
+      <c r="D78" s="69"/>
+      <c r="E78" s="69"/>
+      <c r="F78" s="69"/>
+      <c r="G78" s="69"/>
+      <c r="H78" s="69"/>
+      <c r="I78" s="69"/>
+      <c r="J78" s="69"/>
+      <c r="K78" s="69"/>
+      <c r="L78" s="69"/>
+      <c r="M78" s="69"/>
+      <c r="N78" s="69"/>
+      <c r="O78" s="69"/>
+      <c r="P78" s="69"/>
+      <c r="Q78" s="69"/>
+      <c r="R78" s="69"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="B81" s="66" t="n">
+      <c r="A81" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="B81" s="70" t="n">
         <v>7500000000</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="B82" s="59" t="n">
+      <c r="A82" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="B82" s="63" t="n">
         <v>1325</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="63" t="s">
-        <v>39</v>
-      </c>
-      <c r="B83" s="63"/>
-      <c r="C83" s="63"/>
-      <c r="D83" s="63"/>
+      <c r="A83" s="67" t="s">
+        <v>42</v>
+      </c>
+      <c r="B83" s="67"/>
+      <c r="C83" s="67"/>
+      <c r="D83" s="67"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="B84" s="54"/>
-      <c r="C84" s="54"/>
-      <c r="D84" s="54"/>
-      <c r="F84" s="54" t="s">
+      <c r="A84" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="G84" s="54"/>
-      <c r="H84" s="54"/>
-      <c r="I84" s="54"/>
-      <c r="K84" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="L84" s="54"/>
-      <c r="M84" s="54"/>
+      <c r="B84" s="58"/>
+      <c r="C84" s="58"/>
+      <c r="D84" s="58"/>
+      <c r="F84" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="G84" s="58"/>
+      <c r="H84" s="58"/>
+      <c r="I84" s="58"/>
+      <c r="K84" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="L84" s="58"/>
+      <c r="M84" s="58"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="B85" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="C85" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="D85" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="F85" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="G85" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="H85" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="I85" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="K85" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="L85" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="M85" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="N85" s="53" t="s">
-        <v>58</v>
+      <c r="A85" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="B85" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="C85" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="D85" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="F85" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="G85" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="H85" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="I85" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="K85" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="L85" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="M85" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="N85" s="57" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6791,11 +6934,11 @@
         <f aca="false">1000*(0.03-0.0182399)</f>
         <v>11.7601</v>
       </c>
-      <c r="C86" s="57" t="n">
+      <c r="C86" s="61" t="n">
         <f aca="false">B86/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.93496333596621</v>
       </c>
-      <c r="D86" s="57" t="n">
+      <c r="D86" s="61" t="n">
         <f aca="false">B86/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.79643763408429</v>
       </c>
@@ -6805,25 +6948,25 @@
       <c r="G86" s="0" t="n">
         <v>11.6128</v>
       </c>
-      <c r="H86" s="57" t="n">
+      <c r="H86" s="61" t="n">
         <f aca="false">G86/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.91072713904715</v>
       </c>
-      <c r="I86" s="57" t="n">
+      <c r="I86" s="61" t="n">
         <f aca="false">G86/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.77393652750351</v>
       </c>
       <c r="K86" s="0" t="n">
         <v>1.031</v>
       </c>
-      <c r="L86" s="57" t="n">
+      <c r="L86" s="61" t="n">
         <v>12.3236</v>
       </c>
-      <c r="M86" s="57" t="n">
+      <c r="M86" s="61" t="n">
         <f aca="false">L86/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>2.02767954074483</v>
       </c>
-      <c r="N86" s="57" t="n">
+      <c r="N86" s="61" t="n">
         <f aca="false">L86/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.88251620542352</v>
       </c>
@@ -6835,11 +6978,11 @@
       <c r="B87" s="0" t="n">
         <v>11.757</v>
       </c>
-      <c r="C87" s="57" t="n">
+      <c r="C87" s="61" t="n">
         <f aca="false">B87/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.93445327343771</v>
       </c>
-      <c r="D87" s="57" t="n">
+      <c r="D87" s="61" t="n">
         <f aca="false">B87/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.79596408737417</v>
       </c>
@@ -6850,122 +6993,122 @@
         <f aca="false">1000*(0.03-0.0185551)</f>
         <v>11.4449</v>
       </c>
-      <c r="H87" s="57" t="n">
+      <c r="H87" s="61" t="n">
         <f aca="false">G87/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.88310149435802</v>
       </c>
-      <c r="I87" s="57" t="n">
+      <c r="I87" s="61" t="n">
         <f aca="false">G87/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.74828862665549</v>
       </c>
       <c r="K87" s="0" t="n">
         <v>1.065</v>
       </c>
-      <c r="L87" s="57" t="n">
+      <c r="L87" s="61" t="n">
         <f aca="false">1000*(0.03-0.017678)</f>
         <v>12.322</v>
       </c>
-      <c r="M87" s="57" t="n">
+      <c r="M87" s="61" t="n">
         <f aca="false">L87/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>2.0274162826656</v>
       </c>
-      <c r="N87" s="57" t="n">
+      <c r="N87" s="61" t="n">
         <f aca="false">L87/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.8822717942183</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="65"/>
-      <c r="B89" s="65"/>
-      <c r="C89" s="65"/>
-      <c r="D89" s="65"/>
-      <c r="E89" s="65"/>
-      <c r="F89" s="65"/>
-      <c r="G89" s="65"/>
-      <c r="H89" s="65"/>
-      <c r="I89" s="65"/>
-      <c r="J89" s="65"/>
-      <c r="K89" s="65"/>
-      <c r="L89" s="65"/>
-      <c r="M89" s="65"/>
-      <c r="N89" s="65"/>
-      <c r="O89" s="65"/>
-      <c r="P89" s="65"/>
-      <c r="Q89" s="65"/>
-      <c r="R89" s="65"/>
+      <c r="A89" s="69"/>
+      <c r="B89" s="69"/>
+      <c r="C89" s="69"/>
+      <c r="D89" s="69"/>
+      <c r="E89" s="69"/>
+      <c r="F89" s="69"/>
+      <c r="G89" s="69"/>
+      <c r="H89" s="69"/>
+      <c r="I89" s="69"/>
+      <c r="J89" s="69"/>
+      <c r="K89" s="69"/>
+      <c r="L89" s="69"/>
+      <c r="M89" s="69"/>
+      <c r="N89" s="69"/>
+      <c r="O89" s="69"/>
+      <c r="P89" s="69"/>
+      <c r="Q89" s="69"/>
+      <c r="R89" s="69"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="B91" s="66" t="n">
+      <c r="A91" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="B91" s="70" t="n">
         <v>5800000000</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="B92" s="59" t="n">
+      <c r="A92" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="B92" s="63" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="B94" s="54"/>
-      <c r="C94" s="54"/>
-      <c r="D94" s="54"/>
-      <c r="F94" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="G94" s="54"/>
-      <c r="H94" s="54"/>
-      <c r="I94" s="54"/>
-      <c r="K94" s="54" t="s">
+      <c r="A94" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="L94" s="54"/>
-      <c r="M94" s="54"/>
+      <c r="B94" s="58"/>
+      <c r="C94" s="58"/>
+      <c r="D94" s="58"/>
+      <c r="F94" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="G94" s="58"/>
+      <c r="H94" s="58"/>
+      <c r="I94" s="58"/>
+      <c r="K94" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="L94" s="58"/>
+      <c r="M94" s="58"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="B95" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="C95" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="D95" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="F95" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="G95" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="H95" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="I95" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="K95" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="L95" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="M95" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="N95" s="53" t="s">
-        <v>58</v>
+      <c r="A95" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="B95" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="C95" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="D95" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="F95" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="G95" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="H95" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="I95" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="K95" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="L95" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="M95" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="N95" s="57" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6976,11 +7119,11 @@
         <f aca="false">1000*(0.03-0.0191163)</f>
         <v>10.8837</v>
       </c>
-      <c r="C96" s="57" t="n">
+      <c r="C96" s="61" t="n">
         <f aca="false">B96/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.7907637230683</v>
       </c>
-      <c r="D96" s="57" t="n">
+      <c r="D96" s="61" t="n">
         <f aca="false">B96/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.66256139642377</v>
       </c>
@@ -6991,164 +7134,164 @@
         <f aca="false">1000*(0.03-0.0190529)</f>
         <v>10.9471</v>
       </c>
-      <c r="H96" s="57" t="n">
+      <c r="H96" s="61" t="n">
         <f aca="false">G96/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.80119532445776</v>
       </c>
-      <c r="I96" s="57" t="n">
+      <c r="I96" s="61" t="n">
         <f aca="false">G96/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.6722461904307</v>
       </c>
       <c r="K96" s="0" t="n">
         <v>1.064</v>
       </c>
-      <c r="L96" s="57" t="n">
+      <c r="L96" s="61" t="n">
         <f aca="false">1000*(0.03-0.0200284)</f>
         <v>9.9716</v>
       </c>
-      <c r="M96" s="57" t="n">
+      <c r="M96" s="61" t="n">
         <f aca="false">L96/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.64069016427757</v>
       </c>
-      <c r="N96" s="57" t="n">
+      <c r="N96" s="61" t="n">
         <f aca="false">L96/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.52323173374673</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C97" s="57" t="n">
+      <c r="C97" s="61" t="n">
         <f aca="false">B97/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="D97" s="57" t="n">
+      <c r="D97" s="61" t="n">
         <f aca="false">B97/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
-      <c r="H97" s="57" t="n">
+      <c r="H97" s="61" t="n">
         <f aca="false">G97/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="I97" s="57" t="n">
+      <c r="I97" s="61" t="n">
         <f aca="false">G97/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
-      <c r="L97" s="57"/>
-      <c r="M97" s="57" t="n">
+      <c r="L97" s="61"/>
+      <c r="M97" s="61" t="n">
         <f aca="false">L97/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="N97" s="57" t="n">
+      <c r="N97" s="61" t="n">
         <f aca="false">L97/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="65"/>
-      <c r="B99" s="65"/>
-      <c r="C99" s="65"/>
-      <c r="D99" s="65"/>
-      <c r="E99" s="65"/>
-      <c r="F99" s="65"/>
-      <c r="G99" s="65"/>
-      <c r="H99" s="65"/>
-      <c r="I99" s="65"/>
-      <c r="J99" s="65"/>
-      <c r="K99" s="65"/>
-      <c r="L99" s="65"/>
-      <c r="M99" s="65"/>
-      <c r="N99" s="65"/>
-      <c r="O99" s="65"/>
-      <c r="P99" s="65"/>
-      <c r="Q99" s="65"/>
-      <c r="R99" s="65"/>
+      <c r="A99" s="69"/>
+      <c r="B99" s="69"/>
+      <c r="C99" s="69"/>
+      <c r="D99" s="69"/>
+      <c r="E99" s="69"/>
+      <c r="F99" s="69"/>
+      <c r="G99" s="69"/>
+      <c r="H99" s="69"/>
+      <c r="I99" s="69"/>
+      <c r="J99" s="69"/>
+      <c r="K99" s="69"/>
+      <c r="L99" s="69"/>
+      <c r="M99" s="69"/>
+      <c r="N99" s="69"/>
+      <c r="O99" s="69"/>
+      <c r="P99" s="69"/>
+      <c r="Q99" s="69"/>
+      <c r="R99" s="69"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="B101" s="66" t="n">
+      <c r="A101" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="B101" s="70" t="n">
         <v>7000000000</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="B102" s="59" t="n">
+      <c r="A102" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="B102" s="63" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="B104" s="54"/>
-      <c r="C104" s="54"/>
-      <c r="D104" s="54"/>
-      <c r="F104" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="G104" s="54"/>
-      <c r="H104" s="54"/>
-      <c r="I104" s="54"/>
-      <c r="K104" s="54" t="s">
+      <c r="A104" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="L104" s="54"/>
-      <c r="M104" s="54"/>
+      <c r="B104" s="58"/>
+      <c r="C104" s="58"/>
+      <c r="D104" s="58"/>
+      <c r="F104" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="G104" s="58"/>
+      <c r="H104" s="58"/>
+      <c r="I104" s="58"/>
+      <c r="K104" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="L104" s="58"/>
+      <c r="M104" s="58"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="B105" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="C105" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="D105" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="F105" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="G105" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="H105" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="I105" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="K105" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="L105" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="M105" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="N105" s="53" t="s">
-        <v>58</v>
+      <c r="A105" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="B105" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="C105" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="D105" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="F105" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="G105" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="H105" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="I105" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="K105" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="L105" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="M105" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="N105" s="57" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="n">
         <v>1.07</v>
       </c>
-      <c r="B106" s="61" t="n">
+      <c r="B106" s="65" t="n">
         <f aca="false">1000*(0.03-0.0194274)</f>
         <v>10.5726</v>
       </c>
-      <c r="C106" s="57" t="n">
+      <c r="C106" s="61" t="n">
         <f aca="false">B106/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.73957648028813</v>
       </c>
-      <c r="D106" s="57" t="n">
+      <c r="D106" s="61" t="n">
         <f aca="false">B106/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.61503869270836</v>
       </c>
@@ -7158,26 +7301,26 @@
       <c r="G106" s="0" t="n">
         <v>11.23</v>
       </c>
-      <c r="H106" s="57" t="n">
+      <c r="H106" s="61" t="n">
         <f aca="false">G106/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.84774264359151</v>
       </c>
-      <c r="I106" s="57" t="n">
+      <c r="I106" s="61" t="n">
         <f aca="false">G106/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.71546114665407</v>
       </c>
       <c r="K106" s="0" t="n">
         <v>1.061</v>
       </c>
-      <c r="L106" s="57" t="n">
+      <c r="L106" s="61" t="n">
         <f aca="false">1000*(0.03-0.0190729)</f>
         <v>10.9271</v>
       </c>
-      <c r="M106" s="57" t="n">
+      <c r="M106" s="61" t="n">
         <f aca="false">L106/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.79790459846739</v>
       </c>
-      <c r="N106" s="57" t="n">
+      <c r="N106" s="61" t="n">
         <f aca="false">L106/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.66919105036542</v>
       </c>
@@ -7190,204 +7333,204 @@
         <f aca="false">10.5586</f>
         <v>10.5586</v>
       </c>
-      <c r="C107" s="57" t="n">
+      <c r="C107" s="61" t="n">
         <f aca="false">B107/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.73727297209487</v>
       </c>
-      <c r="D107" s="57" t="n">
+      <c r="D107" s="61" t="n">
         <f aca="false">B107/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.61290009466266</v>
       </c>
       <c r="F107" s="0" t="n">
         <v>1.065</v>
       </c>
-      <c r="G107" s="57" t="n">
+      <c r="G107" s="61" t="n">
         <f aca="false">1000*(0.03-0.0187383)</f>
         <v>11.2617</v>
       </c>
-      <c r="H107" s="57" t="n">
+      <c r="H107" s="61" t="n">
         <f aca="false">G107/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.85295844428625</v>
       </c>
-      <c r="I107" s="57" t="n">
+      <c r="I107" s="61" t="n">
         <f aca="false">G107/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.72030354365754</v>
       </c>
       <c r="K107" s="0" t="n">
         <v>1.093</v>
       </c>
-      <c r="L107" s="57" t="n">
+      <c r="L107" s="61" t="n">
         <v>10.8726</v>
       </c>
-      <c r="M107" s="57" t="n">
+      <c r="M107" s="61" t="n">
         <f aca="false">L107/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.78893737014364</v>
       </c>
-      <c r="N107" s="57" t="n">
+      <c r="N107" s="61" t="n">
         <f aca="false">L107/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.66086579368754</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="65"/>
-      <c r="B109" s="65"/>
-      <c r="C109" s="65"/>
-      <c r="D109" s="65"/>
-      <c r="E109" s="65"/>
-      <c r="F109" s="65"/>
-      <c r="G109" s="65"/>
-      <c r="H109" s="65"/>
-      <c r="I109" s="65"/>
-      <c r="J109" s="65"/>
-      <c r="K109" s="65"/>
-      <c r="L109" s="65"/>
-      <c r="M109" s="65"/>
-      <c r="N109" s="65"/>
-      <c r="O109" s="65"/>
-      <c r="P109" s="65"/>
-      <c r="Q109" s="65"/>
-      <c r="R109" s="65"/>
+      <c r="A109" s="69"/>
+      <c r="B109" s="69"/>
+      <c r="C109" s="69"/>
+      <c r="D109" s="69"/>
+      <c r="E109" s="69"/>
+      <c r="F109" s="69"/>
+      <c r="G109" s="69"/>
+      <c r="H109" s="69"/>
+      <c r="I109" s="69"/>
+      <c r="J109" s="69"/>
+      <c r="K109" s="69"/>
+      <c r="L109" s="69"/>
+      <c r="M109" s="69"/>
+      <c r="N109" s="69"/>
+      <c r="O109" s="69"/>
+      <c r="P109" s="69"/>
+      <c r="Q109" s="69"/>
+      <c r="R109" s="69"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="B111" s="66" t="n">
+      <c r="A111" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="B111" s="70" t="n">
         <v>7400000000</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="B112" s="59" t="n">
+      <c r="A112" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="B112" s="63" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="B114" s="54"/>
-      <c r="C114" s="54"/>
-      <c r="D114" s="54"/>
-      <c r="F114" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="G114" s="54"/>
-      <c r="H114" s="54"/>
-      <c r="I114" s="54"/>
-      <c r="K114" s="54" t="s">
+      <c r="A114" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="L114" s="54"/>
-      <c r="M114" s="54"/>
+      <c r="B114" s="58"/>
+      <c r="C114" s="58"/>
+      <c r="D114" s="58"/>
+      <c r="F114" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="G114" s="58"/>
+      <c r="H114" s="58"/>
+      <c r="I114" s="58"/>
+      <c r="K114" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="L114" s="58"/>
+      <c r="M114" s="58"/>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="B115" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="C115" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="D115" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="F115" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="G115" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="H115" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="I115" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="K115" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="L115" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="M115" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="N115" s="53" t="s">
-        <v>58</v>
+      <c r="A115" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="B115" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="C115" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="D115" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="F115" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="G115" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="H115" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="I115" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="K115" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="L115" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="M115" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="N115" s="57" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B116" s="61" t="n">
+      <c r="B116" s="65" t="n">
         <v>10.4053</v>
       </c>
-      <c r="C116" s="57" t="n">
+      <c r="C116" s="61" t="n">
         <f aca="false">B116/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.7120495573787</v>
       </c>
-      <c r="D116" s="57" t="n">
+      <c r="D116" s="61" t="n">
         <f aca="false">B116/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.5894824460623</v>
       </c>
-      <c r="H116" s="57" t="n">
+      <c r="H116" s="61" t="n">
         <f aca="false">G116/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="I116" s="57" t="n">
+      <c r="I116" s="61" t="n">
         <f aca="false">G116/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
       <c r="K116" s="0" t="n">
         <v>1.284</v>
       </c>
-      <c r="L116" s="57" t="n">
+      <c r="L116" s="61" t="n">
         <f aca="false">1000*(0.03-0.0189208)</f>
         <v>11.0792</v>
       </c>
-      <c r="M116" s="57" t="n">
+      <c r="M116" s="61" t="n">
         <f aca="false">L116/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.82293056962414</v>
       </c>
-      <c r="N116" s="57" t="n">
+      <c r="N116" s="61" t="n">
         <f aca="false">L116/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.69242539056187</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C117" s="57" t="n">
+      <c r="C117" s="61" t="n">
         <f aca="false">B117/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="D117" s="57" t="n">
+      <c r="D117" s="61" t="n">
         <f aca="false">B117/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
-      <c r="G117" s="57"/>
-      <c r="H117" s="57" t="n">
+      <c r="G117" s="61"/>
+      <c r="H117" s="61" t="n">
         <f aca="false">G117/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="I117" s="57" t="n">
+      <c r="I117" s="61" t="n">
         <f aca="false">G117/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
       <c r="K117" s="0" t="n">
         <v>1.217</v>
       </c>
-      <c r="L117" s="57" t="n">
+      <c r="L117" s="61" t="n">
         <v>11.0762</v>
       </c>
-      <c r="M117" s="57" t="n">
+      <c r="M117" s="61" t="n">
         <f aca="false">L117/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.82243696072559</v>
       </c>
-      <c r="N117" s="57" t="n">
+      <c r="N117" s="61" t="n">
         <f aca="false">L117/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.69196711955208</v>
       </c>
@@ -7463,169 +7606,169 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="67" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" s="67" t="s">
+      <c r="A1" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="67" t="s">
+      <c r="B1" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="H1" s="67" t="s">
+      <c r="C1" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="I1" s="67" t="s">
-        <v>71</v>
+      <c r="D1" s="71" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="71" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="71" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="71" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="68" t="n">
+      <c r="A2" s="72" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="69" t="n">
+      <c r="B2" s="73" t="n">
         <v>0.04030959074389</v>
       </c>
-      <c r="C2" s="70" t="n">
+      <c r="C2" s="74" t="n">
         <f aca="false">(B2-$B$5)/$B$5*100</f>
         <v>7.04823230062975</v>
       </c>
-      <c r="D2" s="69" t="n">
+      <c r="D2" s="73" t="n">
         <v>0.3109552614872</v>
       </c>
-      <c r="E2" s="70" t="n">
+      <c r="E2" s="74" t="n">
         <f aca="false">(D2-$D$5)/$D$5*100</f>
         <v>7.054901184085</v>
       </c>
-      <c r="F2" s="69" t="n">
+      <c r="F2" s="73" t="n">
         <v>0.3109555611867</v>
       </c>
-      <c r="G2" s="71" t="n">
+      <c r="G2" s="75" t="n">
         <f aca="false">(F2-$F$5)/$F$5*100</f>
         <v>7.05446483961023</v>
       </c>
-      <c r="H2" s="69" t="n">
+      <c r="H2" s="73" t="n">
         <v>-0.3109549617878</v>
       </c>
-      <c r="I2" s="71" t="n">
+      <c r="I2" s="75" t="n">
         <f aca="false">(H2-$H$5)/$H$5*100</f>
         <v>7.05533753299236</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="68" t="n">
+      <c r="A3" s="72" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="69" t="n">
+      <c r="B3" s="73" t="n">
         <v>0.03806880863113</v>
       </c>
-      <c r="C3" s="71" t="n">
+      <c r="C3" s="75" t="n">
         <f aca="false">(B3-$B$5)/$B$5*100</f>
         <v>1.09749552272814</v>
       </c>
-      <c r="D3" s="69" t="n">
+      <c r="D3" s="73" t="n">
         <v>0.293720957096</v>
       </c>
-      <c r="E3" s="71" t="n">
+      <c r="E3" s="75" t="n">
         <f aca="false">(D3-$D$5)/$D$5*100</f>
         <v>1.12151789044903</v>
       </c>
-      <c r="F3" s="69" t="n">
+      <c r="F3" s="73" t="n">
         <v>0.2937177425854</v>
       </c>
-      <c r="G3" s="71" t="n">
+      <c r="G3" s="75" t="n">
         <f aca="false">(F3-$F$5)/$F$5*100</f>
         <v>1.11990159101643</v>
       </c>
-      <c r="H3" s="69" t="n">
+      <c r="H3" s="73" t="n">
         <v>-0.2937241716065</v>
       </c>
-      <c r="I3" s="71" t="n">
+      <c r="I3" s="75" t="n">
         <f aca="false">(H3-$H$5)/$H$5*100</f>
         <v>1.12313420613868</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="68" t="n">
+      <c r="A4" s="72" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="72" t="n">
+      <c r="B4" s="76" t="n">
         <v>0.03774558302765</v>
       </c>
-      <c r="C4" s="73" t="n">
+      <c r="C4" s="77" t="n">
         <f aca="false">(B4-$B$5)/$B$5*100</f>
         <v>0.239120906456881</v>
       </c>
-      <c r="D4" s="69" t="n">
+      <c r="D4" s="73" t="n">
         <v>0.2911846767037</v>
       </c>
-      <c r="E4" s="71" t="n">
+      <c r="E4" s="75" t="n">
         <f aca="false">(D4-$D$5)/$D$5*100</f>
         <v>0.248333608330097</v>
       </c>
-      <c r="F4" s="69" t="n">
+      <c r="F4" s="73" t="n">
         <v>0.2911843657898</v>
       </c>
-      <c r="G4" s="71" t="n">
+      <c r="G4" s="75" t="n">
         <f aca="false">(F4-$F$5)/$F$5*100</f>
         <v>0.247721347463204</v>
       </c>
-      <c r="H4" s="69" t="n">
+      <c r="H4" s="73" t="n">
         <v>-0.2911849876176</v>
       </c>
-      <c r="I4" s="71" t="n">
+      <c r="I4" s="75" t="n">
         <f aca="false">(H4-$H$5)/$H$5*100</f>
         <v>0.248945875368266</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="68" t="n">
+      <c r="A5" s="72" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="72" t="n">
+      <c r="B5" s="76" t="n">
         <v>0.03765554075726</v>
       </c>
-      <c r="C5" s="68" t="n">
+      <c r="C5" s="72" t="n">
         <f aca="false">(B5-$B$5)/$B$5*100</f>
         <v>0</v>
       </c>
-      <c r="D5" s="69" t="n">
+      <c r="D5" s="73" t="n">
         <v>0.2904633585645</v>
       </c>
-      <c r="E5" s="68" t="n">
+      <c r="E5" s="72" t="n">
         <f aca="false">(D5-$D$5)/$D$5*100</f>
         <v>0</v>
       </c>
-      <c r="F5" s="69" t="n">
+      <c r="F5" s="73" t="n">
         <v>0.2904648224178</v>
       </c>
-      <c r="G5" s="71" t="n">
+      <c r="G5" s="75" t="n">
         <f aca="false">(F5-$F$5)/$F$5*100</f>
         <v>0</v>
       </c>
-      <c r="H5" s="69" t="n">
+      <c r="H5" s="73" t="n">
         <v>-0.2904618947112</v>
       </c>
-      <c r="I5" s="71" t="n">
+      <c r="I5" s="75" t="n">
         <f aca="false">(H5-$H$5)/$H$5*100</f>
         <v>-0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L8" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M8" s="0" t="n">
         <v>2</v>
@@ -7633,9 +7776,9 @@
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L9" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="M9" s="74" t="n">
+        <v>79</v>
+      </c>
+      <c r="M9" s="78" t="n">
         <f aca="false">LN((F4-F3)/(F3-F2))/LN(M8)</f>
         <v>-2.76644364303513</v>
       </c>
@@ -7666,80 +7809,80 @@
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="55" t="s">
-        <v>78</v>
+      <c r="A1" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="59" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="75" t="n">
+      <c r="A2" s="79" t="n">
         <v>0.3082</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="C2" s="76" t="n">
+      <c r="C2" s="80" t="n">
         <v>2E-005</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="75"/>
+      <c r="A3" s="79"/>
       <c r="B3" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="C3" s="76" t="n">
+      <c r="C3" s="80" t="n">
         <v>2.5E-005</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="75"/>
+      <c r="A4" s="79"/>
       <c r="B4" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C4" s="76" t="n">
+      <c r="C4" s="80" t="n">
         <v>2.5E-005</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="75"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="C5" s="76" t="n">
+      <c r="C5" s="80" t="n">
         <v>2.5E-005</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="75"/>
+      <c r="A6" s="79"/>
       <c r="B6" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="C6" s="76" t="n">
+      <c r="C6" s="80" t="n">
         <v>2E-005</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="75"/>
+      <c r="A7" s="79"/>
       <c r="B7" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="C7" s="76" t="n">
+      <c r="C7" s="80" t="n">
         <v>2E-005</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="75"/>
+      <c r="A8" s="79"/>
       <c r="B8" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="77" t="n">
+      <c r="A9" s="81" t="n">
         <v>0.54</v>
       </c>
       <c r="B9" s="0" t="n">
@@ -7747,43 +7890,43 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="77"/>
+      <c r="A10" s="81"/>
       <c r="B10" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="C10" s="76" t="n">
+      <c r="C10" s="80" t="n">
         <v>1E-005</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="77"/>
+      <c r="A11" s="81"/>
       <c r="B11" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C11" s="76" t="n">
+      <c r="C11" s="80" t="n">
         <v>1E-005</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="77"/>
+      <c r="A12" s="81"/>
       <c r="B12" s="0" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="77"/>
+      <c r="A13" s="81"/>
       <c r="B13" s="0" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="77"/>
+      <c r="A14" s="81"/>
       <c r="B14" s="0" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="77"/>
+      <c r="A15" s="81"/>
       <c r="B15" s="0" t="n">
         <v>20</v>
       </c>
@@ -7808,21 +7951,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B146"/>
+  <dimension ref="A1:B151"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A131" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E148" activeCellId="0" sqref="E148"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Resultados/Resultados.xlsx
+++ b/Resultados/Resultados.xlsx
@@ -5,14 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="UR0.29" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="DataAmplitudes" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="MIS-Wedge" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Corridas" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Sheet5" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="90">
   <si>
     <t xml:space="preserve">L [m]</t>
   </si>
@@ -242,6 +241,9 @@
     <t xml:space="preserve">rho</t>
   </si>
   <si>
+    <t xml:space="preserve">Original dimensions</t>
+  </si>
+  <si>
     <t xml:space="preserve">n</t>
   </si>
   <si>
@@ -251,38 +253,53 @@
     <t xml:space="preserve">% Dif</t>
   </si>
   <si>
-    <t xml:space="preserve">Cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cl (f)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cl (r)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p</t>
+    <t xml:space="preserve">max U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extended outlet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geometry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x_outlet [m]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baseline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extended 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extended 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extended vertical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Altura [m]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extended inlet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x_inlet [m]</t>
   </si>
   <si>
     <t xml:space="preserve">f [Hz]</t>
   </si>
   <si>
     <t xml:space="preserve">dt [s]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="9">
+  <numFmts count="13">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00E+00"/>
     <numFmt numFmtId="166" formatCode="0.000E+00"/>
@@ -292,8 +309,12 @@
     <numFmt numFmtId="170" formatCode="0.0000"/>
     <numFmt numFmtId="171" formatCode="0"/>
     <numFmt numFmtId="172" formatCode="General"/>
+    <numFmt numFmtId="173" formatCode="#,##0.00"/>
+    <numFmt numFmtId="174" formatCode="0.000000E+00"/>
+    <numFmt numFmtId="175" formatCode="#,##0.000000"/>
+    <numFmt numFmtId="176" formatCode="0.00000E+00"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -444,12 +465,6 @@
     <font>
       <sz val="9"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -699,7 +714,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="85">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -772,162 +787,166 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="172" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -984,19 +1003,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="173" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1004,16 +1027,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="174" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="175" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1112,7 +1139,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1353,11 +1380,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="57868963"/>
-        <c:axId val="25570920"/>
+        <c:axId val="30086701"/>
+        <c:axId val="83854205"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="57868963"/>
+        <c:axId val="30086701"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.8"/>
@@ -1435,13 +1462,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25570920"/>
+        <c:crossAx val="83854205"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="25570920"/>
+        <c:axId val="83854205"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1517,7 +1544,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57868963"/>
+        <c:crossAx val="30086701"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.25"/>
@@ -1572,7 +1599,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1816,11 +1843,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="64899568"/>
-        <c:axId val="14201913"/>
+        <c:axId val="73389604"/>
+        <c:axId val="18008700"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="64899568"/>
+        <c:axId val="73389604"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1876,7 +1903,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14201913"/>
+        <c:crossAx val="18008700"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1884,7 +1911,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="14201913"/>
+        <c:axId val="18008700"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1949,7 +1976,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64899568"/>
+        <c:crossAx val="73389604"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1997,7 +2024,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2595,11 +2622,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="80608576"/>
-        <c:axId val="49577315"/>
+        <c:axId val="21246721"/>
+        <c:axId val="78060663"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="80608576"/>
+        <c:axId val="21246721"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.8"/>
@@ -2677,13 +2704,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49577315"/>
+        <c:crossAx val="78060663"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="49577315"/>
+        <c:axId val="78060663"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2759,7 +2786,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80608576"/>
+        <c:crossAx val="21246721"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2812,456 +2839,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>'MIS-Wedge'!$B$2:$B$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.04030959074389</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.03806880863113</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.03774558302765</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.03765554075726</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="1"/>
-        <c:axId val="74005826"/>
-        <c:axId val="36056858"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="74005826"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="36056858"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="36056858"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="6480">
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="74005826"/>
-        <c:crossesAt val="0"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>'MIS-Wedge'!$D$2:$D$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.3109552614872</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.293720957096</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2911846767037</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.2904633585645</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="1"/>
-        <c:axId val="21448086"/>
-        <c:axId val="93894100"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="21448086"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="93894100"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="93894100"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="6480">
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="21448086"/>
-        <c:crossesAt val="0"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -3273,9 +2850,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>483120</xdr:colOff>
+      <xdr:colOff>482760</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>147600</xdr:rowOff>
+      <xdr:rowOff>147240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3284,7 +2861,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3426840" y="5956560"/>
-        <a:ext cx="9155880" cy="6459120"/>
+        <a:ext cx="9155520" cy="6458760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3303,9 +2880,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>184320</xdr:colOff>
+      <xdr:colOff>183960</xdr:colOff>
       <xdr:row>104</xdr:row>
-      <xdr:rowOff>33480</xdr:rowOff>
+      <xdr:rowOff>33120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3314,7 +2891,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3494520" y="13782600"/>
-        <a:ext cx="7968600" cy="4477680"/>
+        <a:ext cx="7968240" cy="4477320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3333,9 +2910,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>1040400</xdr:colOff>
+      <xdr:colOff>1040040</xdr:colOff>
       <xdr:row>113</xdr:row>
-      <xdr:rowOff>111960</xdr:rowOff>
+      <xdr:rowOff>111600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3344,76 +2921,11 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="17106480" y="13145400"/>
-        <a:ext cx="9268920" cy="6770880"/>
+        <a:ext cx="9268560" cy="6770520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>30600</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>119880</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>812520</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="851400" y="1386360"/>
-        <a:ext cx="6529320" cy="3229200"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>162720</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>79200</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>43920</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="7552080" y="1338840"/>
-        <a:ext cx="6527880" cy="3229200"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3429,7 +2941,7 @@
   </sheetPr>
   <dimension ref="A1:AA73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C7" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="R15" activeCellId="0" sqref="R15"/>
     </sheetView>
   </sheetViews>
@@ -4079,7 +3591,7 @@
       </c>
       <c r="R16" s="43" t="n">
         <f aca="false">E16*0.002/$F$15</f>
-        <v>0.00196384560245874</v>
+        <v>0.00196384560245873</v>
       </c>
       <c r="S16" s="38" t="n">
         <f aca="false">2*D16*$B$1*SIN(RADIANS(10))/$F$15</f>
@@ -4238,7 +3750,7 @@
       </c>
       <c r="R18" s="43" t="n">
         <f aca="false">E18*0.002/$F$15</f>
-        <v>0.00274938384344224</v>
+        <v>0.00274938384344223</v>
       </c>
       <c r="S18" s="38" t="n">
         <f aca="false">2*D18*$B$1*SIN(RADIANS(10))/$F$15</f>
@@ -4388,7 +3900,7 @@
       </c>
       <c r="R20" s="43" t="n">
         <f aca="false">E20*0.002/$F$15</f>
-        <v>0.00353492208442573</v>
+        <v>0.00353492208442572</v>
       </c>
       <c r="S20" s="38" t="n">
         <f aca="false">2*D20*$B$1*SIN(RADIANS(10))/$F$15</f>
@@ -4508,7 +4020,7 @@
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
-      <c r="W22" s="18" t="n">
+      <c r="W22" s="57" t="n">
         <v>13.24</v>
       </c>
       <c r="X22" s="3"/>
@@ -4780,14 +4292,14 @@
       </c>
       <c r="Q28" s="35"/>
       <c r="R28" s="35"/>
-      <c r="T28" s="57" t="s">
+      <c r="T28" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="U28" s="58" t="s">
+      <c r="U28" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="V28" s="58"/>
-      <c r="W28" s="58"/>
+      <c r="V28" s="59"/>
+      <c r="W28" s="59"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D29" s="34" t="n">
@@ -4835,25 +4347,25 @@
       </c>
       <c r="Q29" s="35"/>
       <c r="R29" s="35"/>
-      <c r="U29" s="59" t="s">
+      <c r="U29" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="V29" s="59" t="s">
+      <c r="V29" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="W29" s="59" t="s">
+      <c r="W29" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="X29" s="60" t="s">
+      <c r="X29" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="Y29" s="59" t="s">
+      <c r="Y29" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="Z29" s="59" t="s">
+      <c r="Z29" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="AA29" s="59" t="s">
+      <c r="AA29" s="60" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4903,32 +4415,32 @@
       </c>
       <c r="Q30" s="35"/>
       <c r="R30" s="35"/>
-      <c r="T30" s="61" t="n">
+      <c r="T30" s="62" t="n">
         <f aca="false">E17</f>
         <v>0.97799511002445</v>
       </c>
-      <c r="U30" s="61"/>
-      <c r="V30" s="61" t="n">
+      <c r="U30" s="62"/>
+      <c r="V30" s="62" t="n">
         <f aca="false">DataAmplitudes!D71</f>
         <v>1.95834478184374</v>
       </c>
-      <c r="W30" s="61" t="n">
+      <c r="W30" s="62" t="n">
         <f aca="false">DataAmplitudes!Q54</f>
         <v>1.8259044600139</v>
       </c>
-      <c r="X30" s="61" t="n">
+      <c r="X30" s="62" t="n">
         <f aca="false">DataAmplitudes!D86</f>
         <v>1.79643763408429</v>
       </c>
-      <c r="Y30" s="61" t="n">
+      <c r="Y30" s="62" t="n">
         <f aca="false">DataAmplitudes!D96</f>
         <v>1.66256139642377</v>
       </c>
-      <c r="Z30" s="61" t="n">
+      <c r="Z30" s="62" t="n">
         <f aca="false">DataAmplitudes!D107</f>
         <v>1.61290009466266</v>
       </c>
-      <c r="AA30" s="61" t="n">
+      <c r="AA30" s="62" t="n">
         <f aca="false">DataAmplitudes!D116</f>
         <v>1.5894824460623</v>
       </c>
@@ -4978,71 +4490,71 @@
       </c>
       <c r="Q31" s="55"/>
       <c r="R31" s="55"/>
-      <c r="T31" s="61" t="n">
+      <c r="T31" s="62" t="n">
         <f aca="false">E18</f>
         <v>1.14099429502853</v>
       </c>
-      <c r="U31" s="61"/>
-      <c r="W31" s="61" t="n">
+      <c r="U31" s="62"/>
+      <c r="W31" s="62" t="n">
         <f aca="false">DataAmplitudes!Q64</f>
         <v>1.91099011083192</v>
       </c>
-      <c r="X31" s="61" t="n">
+      <c r="X31" s="62" t="n">
         <f aca="false">DataAmplitudes!N87</f>
         <v>1.8822717942183</v>
       </c>
-      <c r="Y31" s="61" t="n">
+      <c r="Y31" s="62" t="n">
         <f aca="false">DataAmplitudes!I96</f>
         <v>1.6722461904307</v>
       </c>
-      <c r="Z31" s="61" t="n">
+      <c r="Z31" s="62" t="n">
         <f aca="false">DataAmplitudes!I107</f>
         <v>1.72030354365754</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="T32" s="61" t="n">
+      <c r="T32" s="62" t="n">
         <f aca="false">E19</f>
         <v>1.3039934800326</v>
       </c>
-      <c r="U32" s="61" t="n">
+      <c r="U32" s="62" t="n">
         <f aca="false">DataAmplitudes!D44</f>
         <v>1.49008346403845</v>
       </c>
-      <c r="V32" s="61" t="n">
+      <c r="V32" s="62" t="n">
         <f aca="false">DataAmplitudes!D62</f>
         <v>1.77042311642844</v>
       </c>
       <c r="W32" s="0" t="n">
         <v>1.75</v>
       </c>
-      <c r="X32" s="61" t="n">
+      <c r="X32" s="62" t="n">
         <v>1.75</v>
       </c>
-      <c r="Y32" s="61" t="n">
+      <c r="Y32" s="62" t="n">
         <f aca="false">DataAmplitudes!N96</f>
         <v>1.52323173374673</v>
       </c>
-      <c r="Z32" s="61" t="n">
+      <c r="Z32" s="62" t="n">
         <f aca="false">DataAmplitudes!N107</f>
         <v>1.66086579368754</v>
       </c>
-      <c r="AA32" s="61" t="n">
+      <c r="AA32" s="62" t="n">
         <f aca="false">DataAmplitudes!N116</f>
         <v>1.69242539056187</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U43" s="58" t="s">
+      <c r="U43" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="V43" s="58"/>
+      <c r="V43" s="59"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U44" s="57" t="s">
+      <c r="U44" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="V44" s="57" t="s">
+      <c r="V44" s="58" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5154,7 +4666,7 @@
   </sheetPr>
   <dimension ref="A1:R117"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B117" activeCellId="0" sqref="B117"/>
     </sheetView>
   </sheetViews>
@@ -5164,77 +4676,77 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="62"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="63"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58" t="s">
+      <c r="B2" s="59"/>
+      <c r="C2" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58" t="s">
+      <c r="D2" s="59"/>
+      <c r="E2" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58" t="s">
+      <c r="F2" s="59"/>
+      <c r="G2" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58" t="s">
+      <c r="H2" s="59"/>
+      <c r="I2" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58" t="s">
+      <c r="J2" s="59"/>
+      <c r="K2" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="58"/>
+      <c r="L2" s="59"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="59" t="s">
+      <c r="E3" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="59" t="s">
+      <c r="G3" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="H3" s="59" t="s">
+      <c r="H3" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="59" t="s">
+      <c r="I3" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="J3" s="59" t="s">
+      <c r="J3" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="59" t="s">
+      <c r="K3" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="L3" s="59" t="s">
+      <c r="L3" s="60" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5274,7 +4786,7 @@
       <c r="K4" s="0" t="n">
         <v>1.209</v>
       </c>
-      <c r="L4" s="64" t="n">
+      <c r="L4" s="65" t="n">
         <f aca="false">1000*(0.03-0.0251846)</f>
         <v>4.8154</v>
       </c>
@@ -5316,7 +4828,7 @@
       <c r="K5" s="0" t="n">
         <v>1.234</v>
       </c>
-      <c r="L5" s="64" t="n">
+      <c r="L5" s="65" t="n">
         <v>4.821</v>
       </c>
     </row>
@@ -5356,7 +4868,7 @@
       <c r="K6" s="0" t="n">
         <v>1.259</v>
       </c>
-      <c r="L6" s="64" t="n">
+      <c r="L6" s="65" t="n">
         <f aca="false">1000*(0.03-0.025197)</f>
         <v>4.803</v>
       </c>
@@ -5398,7 +4910,7 @@
       <c r="K7" s="0" t="n">
         <v>1.334</v>
       </c>
-      <c r="L7" s="64" t="n">
+      <c r="L7" s="65" t="n">
         <v>4.8051</v>
       </c>
     </row>
@@ -5425,7 +4937,7 @@
       <c r="K8" s="0" t="n">
         <v>1.359</v>
       </c>
-      <c r="L8" s="64" t="n">
+      <c r="L8" s="65" t="n">
         <f aca="false">1000*(0.03-0.0251891)</f>
         <v>4.8109</v>
       </c>
@@ -5447,7 +4959,7 @@
       <c r="K9" s="0" t="n">
         <v>1.434</v>
       </c>
-      <c r="L9" s="64" t="n">
+      <c r="L9" s="65" t="n">
         <v>4.8099</v>
       </c>
     </row>
@@ -5469,87 +4981,87 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="62" t="s">
+      <c r="A14" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="57"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="62"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="63"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="58"/>
-      <c r="C15" s="58" t="s">
+      <c r="B15" s="59"/>
+      <c r="C15" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58" t="s">
+      <c r="D15" s="59"/>
+      <c r="E15" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58" t="s">
+      <c r="F15" s="59"/>
+      <c r="G15" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58" t="s">
+      <c r="H15" s="59"/>
+      <c r="I15" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58" t="s">
+      <c r="J15" s="59"/>
+      <c r="K15" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58" t="s">
+      <c r="L15" s="59"/>
+      <c r="M15" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="N15" s="58"/>
+      <c r="N15" s="59"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="59" t="s">
+      <c r="C16" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="59" t="s">
+      <c r="D16" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="59" t="s">
+      <c r="E16" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="59" t="s">
+      <c r="F16" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="59" t="s">
+      <c r="G16" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="H16" s="59" t="s">
+      <c r="H16" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="59" t="s">
+      <c r="I16" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="J16" s="59" t="s">
+      <c r="J16" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="K16" s="59" t="s">
+      <c r="K16" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="L16" s="59" t="s">
+      <c r="L16" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="M16" s="59" t="s">
+      <c r="M16" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="N16" s="59" t="s">
+      <c r="N16" s="60" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5578,7 +5090,7 @@
       <c r="H17" s="0" t="n">
         <v>8.2258</v>
       </c>
-      <c r="L17" s="64"/>
+      <c r="L17" s="65"/>
       <c r="M17" s="0" t="n">
         <v>1.034</v>
       </c>
@@ -5612,7 +5124,7 @@
         <f aca="false">1000*(0.03-0.0219693)</f>
         <v>8.0307</v>
       </c>
-      <c r="L18" s="64"/>
+      <c r="L18" s="65"/>
       <c r="M18" s="0" t="n">
         <v>1.062</v>
       </c>
@@ -5643,7 +5155,7 @@
       <c r="H19" s="0" t="n">
         <v>7.9623</v>
       </c>
-      <c r="L19" s="64"/>
+      <c r="L19" s="65"/>
       <c r="M19" s="0" t="n">
         <v>1.09</v>
       </c>
@@ -5662,7 +5174,7 @@
       <c r="C20" s="0" t="n">
         <v>1.187</v>
       </c>
-      <c r="D20" s="65" t="n">
+      <c r="D20" s="66" t="n">
         <f aca="false">1000*(0.03-0.0188516)</f>
         <v>11.1484</v>
       </c>
@@ -5680,7 +5192,7 @@
         <f aca="false">1000*(0.03-0.0220684)</f>
         <v>7.9316</v>
       </c>
-      <c r="L20" s="64"/>
+      <c r="L20" s="65"/>
       <c r="M20" s="0" t="n">
         <v>1.117</v>
       </c>
@@ -5714,7 +5226,7 @@
       <c r="H21" s="0" t="n">
         <v>7.9697</v>
       </c>
-      <c r="L21" s="64"/>
+      <c r="L21" s="65"/>
       <c r="M21" s="0" t="n">
         <v>1.145</v>
       </c>
@@ -5751,7 +5263,7 @@
         <f aca="false">1000*(0.03-0.0220122)</f>
         <v>7.9878</v>
       </c>
-      <c r="L22" s="64"/>
+      <c r="L22" s="65"/>
       <c r="M22" s="0" t="n">
         <v>1.173</v>
       </c>
@@ -5866,7 +5378,7 @@
       <c r="C26" s="0" t="n">
         <v>1.487</v>
       </c>
-      <c r="D26" s="65" t="n">
+      <c r="D26" s="66" t="n">
         <f aca="false">1000*(0.03-0.0188437)</f>
         <v>11.1563</v>
       </c>
@@ -6018,56 +5530,56 @@
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="58" t="s">
+      <c r="A37" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="B37" s="58"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
-      <c r="N37" s="58" t="s">
+      <c r="B37" s="59"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
+      <c r="N37" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="O37" s="58"/>
-      <c r="P37" s="58"/>
-      <c r="Q37" s="58"/>
+      <c r="O37" s="59"/>
+      <c r="P37" s="59"/>
+      <c r="Q37" s="59"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="58" t="s">
+      <c r="A38" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="58"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="58"/>
-      <c r="N38" s="58" t="s">
+      <c r="B38" s="59"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="59"/>
+      <c r="N38" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="O38" s="58"/>
-      <c r="P38" s="58"/>
-      <c r="Q38" s="58"/>
+      <c r="O38" s="59"/>
+      <c r="P38" s="59"/>
+      <c r="Q38" s="59"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="57" t="s">
+      <c r="A39" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="57" t="s">
+      <c r="B39" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="57" t="s">
+      <c r="C39" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="D39" s="57" t="s">
+      <c r="D39" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="N39" s="57" t="s">
+      <c r="N39" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="O39" s="57" t="s">
+      <c r="O39" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="P39" s="57" t="s">
+      <c r="P39" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="Q39" s="57" t="s">
+      <c r="Q39" s="58" t="s">
         <v>61</v>
       </c>
     </row>
@@ -6078,11 +5590,11 @@
       <c r="B40" s="0" t="n">
         <v>10.3671</v>
       </c>
-      <c r="C40" s="61" t="n">
+      <c r="C40" s="62" t="n">
         <f aca="false">B40/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.7057642707371</v>
       </c>
-      <c r="D40" s="61" t="n">
+      <c r="D40" s="62" t="n">
         <f aca="false">B40/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.58364712853762</v>
       </c>
@@ -6092,14 +5604,14 @@
       <c r="N40" s="0" t="n">
         <v>1.031</v>
       </c>
-      <c r="O40" s="61" t="n">
+      <c r="O40" s="62" t="n">
         <v>11.92</v>
       </c>
-      <c r="P40" s="61" t="n">
+      <c r="P40" s="62" t="n">
         <f aca="false">O40/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.9612726902592</v>
       </c>
-      <c r="Q40" s="61" t="n">
+      <c r="Q40" s="62" t="n">
         <f aca="false">O40/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.82086347890619</v>
       </c>
@@ -6112,26 +5624,26 @@
         <f aca="false">1000*(0.03-0.0199501)</f>
         <v>10.0499</v>
       </c>
-      <c r="C41" s="61" t="n">
+      <c r="C41" s="62" t="n">
         <f aca="false">B41/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.65357335652986</v>
       </c>
-      <c r="D41" s="61" t="n">
+      <c r="D41" s="62" t="n">
         <f aca="false">B41/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.53519260710229</v>
       </c>
       <c r="N41" s="0" t="n">
         <v>1.063</v>
       </c>
-      <c r="O41" s="61" t="n">
+      <c r="O41" s="62" t="n">
         <f aca="false">1000*(0.03-0.0182312)</f>
         <v>11.7688</v>
       </c>
-      <c r="P41" s="61" t="n">
+      <c r="P41" s="62" t="n">
         <f aca="false">O41/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.93639480177202</v>
       </c>
-      <c r="Q41" s="61" t="n">
+      <c r="Q41" s="62" t="n">
         <f aca="false">O41/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.79776662001268</v>
       </c>
@@ -6144,26 +5656,26 @@
       <c r="B42" s="0" t="n">
         <v>9.8834</v>
       </c>
-      <c r="C42" s="61" t="n">
+      <c r="C42" s="62" t="n">
         <f aca="false">B42/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.62617806266005</v>
       </c>
-      <c r="D42" s="61" t="n">
+      <c r="D42" s="62" t="n">
         <f aca="false">B42/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.50975856605885</v>
       </c>
-      <c r="G42" s="64"/>
+      <c r="G42" s="65"/>
       <c r="N42" s="0" t="n">
         <v>1.095</v>
       </c>
-      <c r="O42" s="61" t="n">
+      <c r="O42" s="62" t="n">
         <v>11.6725</v>
       </c>
-      <c r="P42" s="61" t="n">
+      <c r="P42" s="62" t="n">
         <f aca="false">O42/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.9205499561284</v>
       </c>
-      <c r="Q42" s="61" t="n">
+      <c r="Q42" s="62" t="n">
         <f aca="false">O42/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.78305612059837</v>
       </c>
@@ -6172,31 +5684,31 @@
       <c r="A43" s="0" t="n">
         <v>1.131</v>
       </c>
-      <c r="B43" s="65" t="n">
+      <c r="B43" s="66" t="n">
         <f aca="false">1000*(0.03-0.0202027)</f>
         <v>9.7973</v>
       </c>
-      <c r="C43" s="61" t="n">
+      <c r="C43" s="62" t="n">
         <f aca="false">B43/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.61201148727152</v>
       </c>
-      <c r="D43" s="61" t="n">
+      <c r="D43" s="62" t="n">
         <f aca="false">B43/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.49660618807782</v>
       </c>
-      <c r="G43" s="64"/>
+      <c r="G43" s="65"/>
       <c r="N43" s="0" t="n">
         <v>1.126</v>
       </c>
-      <c r="O43" s="66" t="n">
+      <c r="O43" s="67" t="n">
         <f aca="false">1000*(0.03-0.018351)</f>
         <v>11.649</v>
       </c>
-      <c r="P43" s="61" t="n">
+      <c r="P43" s="62" t="n">
         <f aca="false">O43/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.91668335308972</v>
       </c>
-      <c r="Q43" s="61" t="n">
+      <c r="Q43" s="62" t="n">
         <f aca="false">O43/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.77946633102166</v>
       </c>
@@ -6209,25 +5721,25 @@
       <c r="B44" s="0" t="n">
         <v>9.7546</v>
       </c>
-      <c r="C44" s="61" t="n">
+      <c r="C44" s="62" t="n">
         <f aca="false">B44/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.60498578728208</v>
       </c>
-      <c r="D44" s="61" t="n">
+      <c r="D44" s="62" t="n">
         <f aca="false">B44/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.49008346403845</v>
       </c>
       <c r="N44" s="0" t="n">
         <v>1.157</v>
       </c>
-      <c r="O44" s="61" t="n">
+      <c r="O44" s="62" t="n">
         <v>11.6353</v>
       </c>
-      <c r="P44" s="61" t="n">
+      <c r="P44" s="62" t="n">
         <f aca="false">O44/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.91442920578632</v>
       </c>
-      <c r="Q44" s="61" t="n">
+      <c r="Q44" s="62" t="n">
         <f aca="false">O44/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.77737356007695</v>
       </c>
@@ -6236,57 +5748,57 @@
       <c r="N45" s="0" t="n">
         <v>1.188</v>
       </c>
-      <c r="O45" s="66" t="n">
+      <c r="O45" s="67" t="n">
         <f aca="false">1000*(0.03-0.0183805)</f>
         <v>11.6195</v>
       </c>
-      <c r="P45" s="61" t="n">
+      <c r="P45" s="62" t="n">
         <f aca="false">O45/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.91182953225393</v>
       </c>
-      <c r="Q45" s="61" t="n">
+      <c r="Q45" s="62" t="n">
         <f aca="false">O45/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.77495999942538</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="58" t="s">
+      <c r="A46" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="B46" s="58"/>
-      <c r="C46" s="58"/>
-      <c r="D46" s="58"/>
-      <c r="O46" s="61"/>
-      <c r="P46" s="61"/>
-      <c r="Q46" s="61"/>
+      <c r="B46" s="59"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="59"/>
+      <c r="O46" s="62"/>
+      <c r="P46" s="62"/>
+      <c r="Q46" s="62"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="58" t="s">
+      <c r="A47" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B47" s="58"/>
-      <c r="C47" s="58"/>
-      <c r="D47" s="58"/>
-      <c r="N47" s="67" t="s">
+      <c r="B47" s="59"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="59"/>
+      <c r="N47" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="O47" s="67"/>
-      <c r="P47" s="67"/>
-      <c r="Q47" s="68" t="n">
+      <c r="O47" s="68"/>
+      <c r="P47" s="68"/>
+      <c r="Q47" s="69" t="n">
         <v>1.72</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="57" t="s">
+      <c r="A48" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="B48" s="57" t="s">
+      <c r="B48" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="C48" s="57" t="s">
+      <c r="C48" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="D48" s="57" t="s">
+      <c r="D48" s="58" t="s">
         <v>61</v>
       </c>
     </row>
@@ -6297,23 +5809,23 @@
       <c r="B49" s="0" t="n">
         <v>12.3826</v>
       </c>
-      <c r="C49" s="61" t="n">
+      <c r="C49" s="62" t="n">
         <f aca="false">B49/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>2.03738718241641</v>
       </c>
-      <c r="D49" s="61" t="n">
+      <c r="D49" s="62" t="n">
         <f aca="false">B49/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.89152886861609</v>
       </c>
       <c r="E49" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="N49" s="58" t="s">
+      <c r="N49" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="O49" s="58"/>
-      <c r="P49" s="58"/>
-      <c r="Q49" s="58"/>
+      <c r="O49" s="59"/>
+      <c r="P49" s="59"/>
+      <c r="Q49" s="59"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
@@ -6323,89 +5835,89 @@
         <f aca="false">(0.03-0.0178154)*1000</f>
         <v>12.1846</v>
       </c>
-      <c r="C50" s="61" t="n">
+      <c r="C50" s="62" t="n">
         <f aca="false">B50/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>2.00480899511177</v>
       </c>
-      <c r="D50" s="61" t="n">
+      <c r="D50" s="62" t="n">
         <f aca="false">B50/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.86128298196983</v>
       </c>
-      <c r="N50" s="58" t="s">
+      <c r="N50" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="O50" s="58"/>
-      <c r="P50" s="58"/>
-      <c r="Q50" s="58"/>
+      <c r="O50" s="59"/>
+      <c r="P50" s="59"/>
+      <c r="Q50" s="59"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C51" s="61" t="n">
+      <c r="C51" s="62" t="n">
         <f aca="false">B51/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="D51" s="61" t="n">
+      <c r="D51" s="62" t="n">
         <f aca="false">B51/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
-      <c r="N51" s="57" t="s">
+      <c r="N51" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="O51" s="57" t="s">
+      <c r="O51" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="P51" s="57" t="s">
+      <c r="P51" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="Q51" s="57" t="s">
+      <c r="Q51" s="58" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="65"/>
-      <c r="C52" s="61" t="n">
+      <c r="B52" s="66"/>
+      <c r="C52" s="62" t="n">
         <f aca="false">B52/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="D52" s="61" t="n">
+      <c r="D52" s="62" t="n">
         <f aca="false">B52/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
       <c r="N52" s="0" t="n">
         <v>1.031</v>
       </c>
-      <c r="O52" s="61" t="n">
+      <c r="O52" s="62" t="n">
         <v>11.8117</v>
       </c>
-      <c r="P52" s="61" t="n">
+      <c r="P52" s="62" t="n">
         <f aca="false">O52/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.94345340902136</v>
       </c>
-      <c r="Q52" s="61" t="n">
+      <c r="Q52" s="62" t="n">
         <f aca="false">O52/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.80431989545271</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C53" s="61" t="n">
+      <c r="C53" s="62" t="n">
         <f aca="false">B53/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="D53" s="61" t="n">
+      <c r="D53" s="62" t="n">
         <f aca="false">B53/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
       <c r="N53" s="0" t="n">
         <v>1.073</v>
       </c>
-      <c r="O53" s="61" t="n">
+      <c r="O53" s="62" t="n">
         <f aca="false">1000*(0.03-0.0180445)</f>
         <v>11.9555</v>
       </c>
-      <c r="P53" s="61" t="n">
+      <c r="P53" s="62" t="n">
         <f aca="false">O53/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.96711372889211</v>
       </c>
-      <c r="Q53" s="61" t="n">
+      <c r="Q53" s="62" t="n">
         <f aca="false">O53/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.82628635252206</v>
       </c>
@@ -6414,71 +5926,71 @@
       <c r="N54" s="0" t="n">
         <v>1.114</v>
       </c>
-      <c r="O54" s="61" t="n">
+      <c r="O54" s="62" t="n">
         <v>11.953</v>
       </c>
-      <c r="P54" s="61" t="n">
+      <c r="P54" s="62" t="n">
         <f aca="false">O54/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.96670238814331</v>
       </c>
-      <c r="Q54" s="61" t="n">
+      <c r="Q54" s="62" t="n">
         <f aca="false">O54/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.8259044600139</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="58" t="s">
+      <c r="A55" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="B55" s="58"/>
-      <c r="C55" s="58"/>
-      <c r="D55" s="58"/>
-      <c r="O55" s="66"/>
-      <c r="P55" s="61" t="n">
+      <c r="B55" s="59"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="59"/>
+      <c r="O55" s="67"/>
+      <c r="P55" s="62" t="n">
         <f aca="false">O55/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="Q55" s="61" t="n">
+      <c r="Q55" s="62" t="n">
         <f aca="false">O55/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="58" t="s">
+      <c r="A56" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B56" s="58"/>
-      <c r="C56" s="58"/>
-      <c r="D56" s="58"/>
-      <c r="O56" s="61"/>
-      <c r="P56" s="61" t="n">
+      <c r="B56" s="59"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="59"/>
+      <c r="O56" s="62"/>
+      <c r="P56" s="62" t="n">
         <f aca="false">O56/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="Q56" s="61" t="n">
+      <c r="Q56" s="62" t="n">
         <f aca="false">O56/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="57" t="s">
+      <c r="A57" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="57" t="s">
+      <c r="B57" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="C57" s="57" t="s">
+      <c r="C57" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="D57" s="57" t="s">
+      <c r="D57" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="O57" s="66"/>
-      <c r="P57" s="61" t="n">
+      <c r="O57" s="67"/>
+      <c r="P57" s="62" t="n">
         <f aca="false">O57/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="Q57" s="61" t="n">
+      <c r="Q57" s="62" t="n">
         <f aca="false">O57/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
@@ -6487,14 +5999,14 @@
       <c r="A58" s="0" t="n">
         <v>1.033</v>
       </c>
-      <c r="B58" s="61" t="n">
+      <c r="B58" s="62" t="n">
         <v>12.0366</v>
       </c>
-      <c r="C58" s="61" t="n">
+      <c r="C58" s="62" t="n">
         <f aca="false">B58/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.98045762278305</v>
       </c>
-      <c r="D58" s="61" t="n">
+      <c r="D58" s="62" t="n">
         <f aca="false">B58/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.83867494548677</v>
       </c>
@@ -6506,85 +6018,85 @@
       <c r="A59" s="0" t="n">
         <v>1.065</v>
       </c>
-      <c r="B59" s="61" t="n">
+      <c r="B59" s="62" t="n">
         <f aca="false">(0.03-0.0182043)*1000</f>
         <v>11.7957</v>
       </c>
-      <c r="C59" s="61" t="n">
+      <c r="C59" s="62" t="n">
         <f aca="false">B59/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.94082082822907</v>
       </c>
-      <c r="D59" s="61" t="n">
+      <c r="D59" s="62" t="n">
         <f aca="false">B59/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.80187578340048</v>
       </c>
-      <c r="G59" s="61" t="n">
+      <c r="G59" s="62" t="n">
         <f aca="false">D41/D40*D58</f>
         <v>1.78241739103968</v>
       </c>
-      <c r="N59" s="58" t="s">
+      <c r="N59" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="O59" s="58"/>
-      <c r="P59" s="58"/>
-      <c r="Q59" s="58"/>
+      <c r="O59" s="59"/>
+      <c r="P59" s="59"/>
+      <c r="Q59" s="59"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
         <v>1.096</v>
       </c>
-      <c r="B60" s="61" t="n">
+      <c r="B60" s="62" t="n">
         <v>11.6751</v>
       </c>
-      <c r="C60" s="61" t="n">
+      <c r="C60" s="62" t="n">
         <f aca="false">B60/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.92097775050715</v>
       </c>
-      <c r="D60" s="61" t="n">
+      <c r="D60" s="62" t="n">
         <f aca="false">B60/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.78345328880685</v>
       </c>
-      <c r="G60" s="61" t="n">
+      <c r="G60" s="62" t="n">
         <f aca="false">D42/D40*D58</f>
         <v>1.75288749565683</v>
       </c>
-      <c r="N60" s="58" t="s">
+      <c r="N60" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="O60" s="58"/>
-      <c r="P60" s="58"/>
-      <c r="Q60" s="58"/>
+      <c r="O60" s="59"/>
+      <c r="P60" s="59"/>
+      <c r="Q60" s="59"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="n">
         <v>1.128</v>
       </c>
-      <c r="B61" s="66" t="n">
+      <c r="B61" s="67" t="n">
         <f aca="false">(0.03-0.0183851)*1000</f>
         <v>11.6149</v>
       </c>
-      <c r="C61" s="61" t="n">
+      <c r="C61" s="62" t="n">
         <f aca="false">B61/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.91107266527614</v>
       </c>
-      <c r="D61" s="61" t="n">
+      <c r="D61" s="62" t="n">
         <f aca="false">B61/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.77425731721036</v>
       </c>
-      <c r="G61" s="61" t="n">
+      <c r="G61" s="62" t="n">
         <f aca="false">D43/$D$40*D58</f>
         <v>1.73761708128768</v>
       </c>
-      <c r="N61" s="57" t="s">
+      <c r="N61" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="O61" s="57" t="s">
+      <c r="O61" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="P61" s="57" t="s">
+      <c r="P61" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="Q61" s="57" t="s">
+      <c r="Q61" s="58" t="s">
         <v>61</v>
       </c>
     </row>
@@ -6592,143 +6104,143 @@
       <c r="A62" s="0" t="n">
         <v>1.159</v>
       </c>
-      <c r="B62" s="61" t="n">
+      <c r="B62" s="62" t="n">
         <v>11.5898</v>
       </c>
-      <c r="C62" s="61" t="n">
+      <c r="C62" s="62" t="n">
         <f aca="false">B62/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.90694280415823</v>
       </c>
-      <c r="D62" s="61" t="n">
+      <c r="D62" s="62" t="n">
         <f aca="false">B62/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.77042311642844</v>
       </c>
-      <c r="G62" s="61" t="n">
+      <c r="G62" s="62" t="n">
         <f aca="false">D44/D40*D58</f>
         <v>1.73004394895826</v>
       </c>
       <c r="N62" s="0" t="n">
         <v>1.031</v>
       </c>
-      <c r="O62" s="61" t="n">
+      <c r="O62" s="62" t="n">
         <v>11.8117</v>
       </c>
-      <c r="P62" s="61" t="n">
+      <c r="P62" s="62" t="n">
         <f aca="false">O62/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.94345340902136</v>
       </c>
-      <c r="Q62" s="61" t="n">
+      <c r="Q62" s="62" t="n">
         <f aca="false">O62/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.80431989545271</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="61"/>
-      <c r="C63" s="61" t="n">
+      <c r="B63" s="62"/>
+      <c r="C63" s="62" t="n">
         <f aca="false">B63/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="D63" s="61" t="n">
+      <c r="D63" s="62" t="n">
         <f aca="false">B63/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
       <c r="N63" s="0" t="n">
         <v>1.073</v>
       </c>
-      <c r="O63" s="61" t="n">
+      <c r="O63" s="62" t="n">
         <f aca="false">1000*(0.03-0.0174737)</f>
         <v>12.5263</v>
       </c>
-      <c r="P63" s="61" t="n">
+      <c r="P63" s="62" t="n">
         <f aca="false">O63/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>2.0610310486572</v>
       </c>
-      <c r="Q63" s="61" t="n">
+      <c r="Q63" s="62" t="n">
         <f aca="false">O63/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.91348004998512</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="61"/>
-      <c r="C64" s="61" t="n">
+      <c r="B64" s="62"/>
+      <c r="C64" s="62" t="n">
         <f aca="false">B64/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="D64" s="61" t="n">
+      <c r="D64" s="62" t="n">
         <f aca="false">B64/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
       <c r="N64" s="0" t="n">
         <v>1.103</v>
       </c>
-      <c r="O64" s="61" t="n">
+      <c r="O64" s="62" t="n">
         <v>12.51</v>
       </c>
-      <c r="P64" s="61" t="n">
+      <c r="P64" s="62" t="n">
         <f aca="false">O64/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>2.05834910697505</v>
       </c>
-      <c r="Q64" s="61" t="n">
+      <c r="Q64" s="62" t="n">
         <f aca="false">O64/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.91099011083192</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O65" s="66"/>
-      <c r="P65" s="61" t="n">
+      <c r="O65" s="67"/>
+      <c r="P65" s="62" t="n">
         <f aca="false">O65/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="Q65" s="61" t="n">
+      <c r="Q65" s="62" t="n">
         <f aca="false">O65/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="58" t="s">
+      <c r="A66" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="B66" s="58"/>
-      <c r="C66" s="58"/>
-      <c r="D66" s="58"/>
-      <c r="O66" s="61"/>
-      <c r="P66" s="61" t="n">
+      <c r="B66" s="59"/>
+      <c r="C66" s="59"/>
+      <c r="D66" s="59"/>
+      <c r="O66" s="62"/>
+      <c r="P66" s="62" t="n">
         <f aca="false">O66/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="Q66" s="61" t="n">
+      <c r="Q66" s="62" t="n">
         <f aca="false">O66/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="58" t="s">
+      <c r="A67" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="B67" s="58"/>
-      <c r="C67" s="58"/>
-      <c r="D67" s="58"/>
-      <c r="O67" s="66"/>
-      <c r="P67" s="61" t="n">
+      <c r="B67" s="59"/>
+      <c r="C67" s="59"/>
+      <c r="D67" s="59"/>
+      <c r="O67" s="67"/>
+      <c r="P67" s="62" t="n">
         <f aca="false">O67/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="Q67" s="61" t="n">
+      <c r="Q67" s="62" t="n">
         <f aca="false">O67/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="57" t="s">
+      <c r="A68" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="B68" s="57" t="s">
+      <c r="B68" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="C68" s="57" t="s">
+      <c r="C68" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="D68" s="57" t="s">
+      <c r="D68" s="58" t="s">
         <v>61</v>
       </c>
     </row>
@@ -6736,14 +6248,14 @@
       <c r="A69" s="0" t="n">
         <v>1.032</v>
       </c>
-      <c r="B69" s="61" t="n">
+      <c r="B69" s="62" t="n">
         <v>12.6366</v>
       </c>
-      <c r="C69" s="61" t="n">
+      <c r="C69" s="62" t="n">
         <f aca="false">B69/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>2.07917940249408</v>
       </c>
-      <c r="D69" s="61" t="n">
+      <c r="D69" s="62" t="n">
         <f aca="false">B69/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.93032914744513</v>
       </c>
@@ -6752,15 +6264,15 @@
       <c r="A70" s="0" t="n">
         <v>1.074</v>
       </c>
-      <c r="B70" s="61" t="n">
+      <c r="B70" s="62" t="n">
         <f aca="false">(0.03-0.0171832)*1000</f>
         <v>12.8168</v>
       </c>
-      <c r="C70" s="61" t="n">
+      <c r="C70" s="62" t="n">
         <f aca="false">B70/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>2.10882884366729</v>
       </c>
-      <c r="D70" s="61" t="n">
+      <c r="D70" s="62" t="n">
         <f aca="false">B70/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.9578559594333</v>
       </c>
@@ -6772,157 +6284,157 @@
       <c r="B71" s="0" t="n">
         <v>12.82</v>
       </c>
-      <c r="C71" s="61" t="n">
+      <c r="C71" s="62" t="n">
         <f aca="false">B71/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>2.10935535982575</v>
       </c>
-      <c r="D71" s="61" t="n">
+      <c r="D71" s="62" t="n">
         <f aca="false">B71/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.95834478184374</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="66"/>
-      <c r="C72" s="61" t="n">
+      <c r="B72" s="67"/>
+      <c r="C72" s="62" t="n">
         <f aca="false">B72/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="D72" s="61" t="n">
+      <c r="D72" s="62" t="n">
         <f aca="false">B72/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="61"/>
-      <c r="C73" s="61" t="n">
+      <c r="B73" s="62"/>
+      <c r="C73" s="62" t="n">
         <f aca="false">B73/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="D73" s="61" t="n">
+      <c r="D73" s="62" t="n">
         <f aca="false">B73/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="61"/>
-      <c r="C74" s="61" t="n">
+      <c r="B74" s="62"/>
+      <c r="C74" s="62" t="n">
         <f aca="false">B74/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="D74" s="61" t="n">
+      <c r="D74" s="62" t="n">
         <f aca="false">B74/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="61"/>
-      <c r="C75" s="61" t="n">
+      <c r="B75" s="62"/>
+      <c r="C75" s="62" t="n">
         <f aca="false">B75/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="D75" s="61" t="n">
+      <c r="D75" s="62" t="n">
         <f aca="false">B75/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="69"/>
-      <c r="B78" s="69"/>
-      <c r="C78" s="69"/>
-      <c r="D78" s="69"/>
-      <c r="E78" s="69"/>
-      <c r="F78" s="69"/>
-      <c r="G78" s="69"/>
-      <c r="H78" s="69"/>
-      <c r="I78" s="69"/>
-      <c r="J78" s="69"/>
-      <c r="K78" s="69"/>
-      <c r="L78" s="69"/>
-      <c r="M78" s="69"/>
-      <c r="N78" s="69"/>
-      <c r="O78" s="69"/>
-      <c r="P78" s="69"/>
-      <c r="Q78" s="69"/>
-      <c r="R78" s="69"/>
+      <c r="A78" s="70"/>
+      <c r="B78" s="70"/>
+      <c r="C78" s="70"/>
+      <c r="D78" s="70"/>
+      <c r="E78" s="70"/>
+      <c r="F78" s="70"/>
+      <c r="G78" s="70"/>
+      <c r="H78" s="70"/>
+      <c r="I78" s="70"/>
+      <c r="J78" s="70"/>
+      <c r="K78" s="70"/>
+      <c r="L78" s="70"/>
+      <c r="M78" s="70"/>
+      <c r="N78" s="70"/>
+      <c r="O78" s="70"/>
+      <c r="P78" s="70"/>
+      <c r="Q78" s="70"/>
+      <c r="R78" s="70"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="63" t="s">
+      <c r="A81" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="B81" s="70" t="n">
+      <c r="B81" s="71" t="n">
         <v>7500000000</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="63" t="s">
+      <c r="A82" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="B82" s="63" t="n">
+      <c r="B82" s="64" t="n">
         <v>1325</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="67" t="s">
+      <c r="A83" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="B83" s="67"/>
-      <c r="C83" s="67"/>
-      <c r="D83" s="67"/>
+      <c r="B83" s="68"/>
+      <c r="C83" s="68"/>
+      <c r="D83" s="68"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="58" t="s">
+      <c r="A84" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="B84" s="58"/>
-      <c r="C84" s="58"/>
-      <c r="D84" s="58"/>
-      <c r="F84" s="58" t="s">
+      <c r="B84" s="59"/>
+      <c r="C84" s="59"/>
+      <c r="D84" s="59"/>
+      <c r="F84" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="G84" s="58"/>
-      <c r="H84" s="58"/>
-      <c r="I84" s="58"/>
-      <c r="K84" s="58" t="s">
+      <c r="G84" s="59"/>
+      <c r="H84" s="59"/>
+      <c r="I84" s="59"/>
+      <c r="K84" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="L84" s="58"/>
-      <c r="M84" s="58"/>
+      <c r="L84" s="59"/>
+      <c r="M84" s="59"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="57" t="s">
+      <c r="A85" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="B85" s="57" t="s">
+      <c r="B85" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="C85" s="57" t="s">
+      <c r="C85" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="D85" s="57" t="s">
+      <c r="D85" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="F85" s="57" t="s">
+      <c r="F85" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="G85" s="57" t="s">
+      <c r="G85" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="H85" s="57" t="s">
+      <c r="H85" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="I85" s="57" t="s">
+      <c r="I85" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="K85" s="57" t="s">
+      <c r="K85" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="L85" s="57" t="s">
+      <c r="L85" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="M85" s="57" t="s">
+      <c r="M85" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="N85" s="57" t="s">
+      <c r="N85" s="58" t="s">
         <v>61</v>
       </c>
     </row>
@@ -6934,11 +6446,11 @@
         <f aca="false">1000*(0.03-0.0182399)</f>
         <v>11.7601</v>
       </c>
-      <c r="C86" s="61" t="n">
+      <c r="C86" s="62" t="n">
         <f aca="false">B86/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.93496333596621</v>
       </c>
-      <c r="D86" s="61" t="n">
+      <c r="D86" s="62" t="n">
         <f aca="false">B86/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.79643763408429</v>
       </c>
@@ -6948,25 +6460,25 @@
       <c r="G86" s="0" t="n">
         <v>11.6128</v>
       </c>
-      <c r="H86" s="61" t="n">
+      <c r="H86" s="62" t="n">
         <f aca="false">G86/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.91072713904715</v>
       </c>
-      <c r="I86" s="61" t="n">
+      <c r="I86" s="62" t="n">
         <f aca="false">G86/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.77393652750351</v>
       </c>
       <c r="K86" s="0" t="n">
         <v>1.031</v>
       </c>
-      <c r="L86" s="61" t="n">
+      <c r="L86" s="62" t="n">
         <v>12.3236</v>
       </c>
-      <c r="M86" s="61" t="n">
+      <c r="M86" s="62" t="n">
         <f aca="false">L86/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>2.02767954074483</v>
       </c>
-      <c r="N86" s="61" t="n">
+      <c r="N86" s="62" t="n">
         <f aca="false">L86/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.88251620542352</v>
       </c>
@@ -6978,11 +6490,11 @@
       <c r="B87" s="0" t="n">
         <v>11.757</v>
       </c>
-      <c r="C87" s="61" t="n">
+      <c r="C87" s="62" t="n">
         <f aca="false">B87/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.93445327343771</v>
       </c>
-      <c r="D87" s="61" t="n">
+      <c r="D87" s="62" t="n">
         <f aca="false">B87/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.79596408737417</v>
       </c>
@@ -6993,121 +6505,121 @@
         <f aca="false">1000*(0.03-0.0185551)</f>
         <v>11.4449</v>
       </c>
-      <c r="H87" s="61" t="n">
+      <c r="H87" s="62" t="n">
         <f aca="false">G87/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.88310149435802</v>
       </c>
-      <c r="I87" s="61" t="n">
+      <c r="I87" s="62" t="n">
         <f aca="false">G87/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.74828862665549</v>
       </c>
       <c r="K87" s="0" t="n">
         <v>1.065</v>
       </c>
-      <c r="L87" s="61" t="n">
+      <c r="L87" s="62" t="n">
         <f aca="false">1000*(0.03-0.017678)</f>
         <v>12.322</v>
       </c>
-      <c r="M87" s="61" t="n">
+      <c r="M87" s="62" t="n">
         <f aca="false">L87/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>2.0274162826656</v>
       </c>
-      <c r="N87" s="61" t="n">
+      <c r="N87" s="62" t="n">
         <f aca="false">L87/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.8822717942183</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="69"/>
-      <c r="B89" s="69"/>
-      <c r="C89" s="69"/>
-      <c r="D89" s="69"/>
-      <c r="E89" s="69"/>
-      <c r="F89" s="69"/>
-      <c r="G89" s="69"/>
-      <c r="H89" s="69"/>
-      <c r="I89" s="69"/>
-      <c r="J89" s="69"/>
-      <c r="K89" s="69"/>
-      <c r="L89" s="69"/>
-      <c r="M89" s="69"/>
-      <c r="N89" s="69"/>
-      <c r="O89" s="69"/>
-      <c r="P89" s="69"/>
-      <c r="Q89" s="69"/>
-      <c r="R89" s="69"/>
+      <c r="A89" s="70"/>
+      <c r="B89" s="70"/>
+      <c r="C89" s="70"/>
+      <c r="D89" s="70"/>
+      <c r="E89" s="70"/>
+      <c r="F89" s="70"/>
+      <c r="G89" s="70"/>
+      <c r="H89" s="70"/>
+      <c r="I89" s="70"/>
+      <c r="J89" s="70"/>
+      <c r="K89" s="70"/>
+      <c r="L89" s="70"/>
+      <c r="M89" s="70"/>
+      <c r="N89" s="70"/>
+      <c r="O89" s="70"/>
+      <c r="P89" s="70"/>
+      <c r="Q89" s="70"/>
+      <c r="R89" s="70"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="63" t="s">
+      <c r="A91" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="B91" s="70" t="n">
+      <c r="B91" s="71" t="n">
         <v>5800000000</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="63" t="s">
+      <c r="A92" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="B92" s="63" t="n">
+      <c r="B92" s="64" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="58" t="s">
+      <c r="A94" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="B94" s="58"/>
-      <c r="C94" s="58"/>
-      <c r="D94" s="58"/>
-      <c r="F94" s="58" t="s">
+      <c r="B94" s="59"/>
+      <c r="C94" s="59"/>
+      <c r="D94" s="59"/>
+      <c r="F94" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="G94" s="58"/>
-      <c r="H94" s="58"/>
-      <c r="I94" s="58"/>
-      <c r="K94" s="58" t="s">
+      <c r="G94" s="59"/>
+      <c r="H94" s="59"/>
+      <c r="I94" s="59"/>
+      <c r="K94" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="L94" s="58"/>
-      <c r="M94" s="58"/>
+      <c r="L94" s="59"/>
+      <c r="M94" s="59"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="57" t="s">
+      <c r="A95" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="B95" s="57" t="s">
+      <c r="B95" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="C95" s="57" t="s">
+      <c r="C95" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="D95" s="57" t="s">
+      <c r="D95" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="F95" s="57" t="s">
+      <c r="F95" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="G95" s="57" t="s">
+      <c r="G95" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="H95" s="57" t="s">
+      <c r="H95" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="I95" s="57" t="s">
+      <c r="I95" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="K95" s="57" t="s">
+      <c r="K95" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="L95" s="57" t="s">
+      <c r="L95" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="M95" s="57" t="s">
+      <c r="M95" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="N95" s="57" t="s">
+      <c r="N95" s="58" t="s">
         <v>61</v>
       </c>
     </row>
@@ -7119,11 +6631,11 @@
         <f aca="false">1000*(0.03-0.0191163)</f>
         <v>10.8837</v>
       </c>
-      <c r="C96" s="61" t="n">
+      <c r="C96" s="62" t="n">
         <f aca="false">B96/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.7907637230683</v>
       </c>
-      <c r="D96" s="61" t="n">
+      <c r="D96" s="62" t="n">
         <f aca="false">B96/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.66256139642377</v>
       </c>
@@ -7134,148 +6646,148 @@
         <f aca="false">1000*(0.03-0.0190529)</f>
         <v>10.9471</v>
       </c>
-      <c r="H96" s="61" t="n">
+      <c r="H96" s="62" t="n">
         <f aca="false">G96/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.80119532445776</v>
       </c>
-      <c r="I96" s="61" t="n">
+      <c r="I96" s="62" t="n">
         <f aca="false">G96/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.6722461904307</v>
       </c>
       <c r="K96" s="0" t="n">
         <v>1.064</v>
       </c>
-      <c r="L96" s="61" t="n">
+      <c r="L96" s="62" t="n">
         <f aca="false">1000*(0.03-0.0200284)</f>
         <v>9.9716</v>
       </c>
-      <c r="M96" s="61" t="n">
+      <c r="M96" s="62" t="n">
         <f aca="false">L96/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.64069016427757</v>
       </c>
-      <c r="N96" s="61" t="n">
+      <c r="N96" s="62" t="n">
         <f aca="false">L96/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.52323173374673</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C97" s="61" t="n">
+      <c r="C97" s="62" t="n">
         <f aca="false">B97/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="D97" s="61" t="n">
+      <c r="D97" s="62" t="n">
         <f aca="false">B97/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
-      <c r="H97" s="61" t="n">
+      <c r="H97" s="62" t="n">
         <f aca="false">G97/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="I97" s="61" t="n">
+      <c r="I97" s="62" t="n">
         <f aca="false">G97/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
-      <c r="L97" s="61"/>
-      <c r="M97" s="61" t="n">
+      <c r="L97" s="62"/>
+      <c r="M97" s="62" t="n">
         <f aca="false">L97/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="N97" s="61" t="n">
+      <c r="N97" s="62" t="n">
         <f aca="false">L97/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="69"/>
-      <c r="B99" s="69"/>
-      <c r="C99" s="69"/>
-      <c r="D99" s="69"/>
-      <c r="E99" s="69"/>
-      <c r="F99" s="69"/>
-      <c r="G99" s="69"/>
-      <c r="H99" s="69"/>
-      <c r="I99" s="69"/>
-      <c r="J99" s="69"/>
-      <c r="K99" s="69"/>
-      <c r="L99" s="69"/>
-      <c r="M99" s="69"/>
-      <c r="N99" s="69"/>
-      <c r="O99" s="69"/>
-      <c r="P99" s="69"/>
-      <c r="Q99" s="69"/>
-      <c r="R99" s="69"/>
+      <c r="A99" s="70"/>
+      <c r="B99" s="70"/>
+      <c r="C99" s="70"/>
+      <c r="D99" s="70"/>
+      <c r="E99" s="70"/>
+      <c r="F99" s="70"/>
+      <c r="G99" s="70"/>
+      <c r="H99" s="70"/>
+      <c r="I99" s="70"/>
+      <c r="J99" s="70"/>
+      <c r="K99" s="70"/>
+      <c r="L99" s="70"/>
+      <c r="M99" s="70"/>
+      <c r="N99" s="70"/>
+      <c r="O99" s="70"/>
+      <c r="P99" s="70"/>
+      <c r="Q99" s="70"/>
+      <c r="R99" s="70"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="63" t="s">
+      <c r="A101" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="B101" s="70" t="n">
+      <c r="B101" s="71" t="n">
         <v>7000000000</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="63" t="s">
+      <c r="A102" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="B102" s="63" t="n">
+      <c r="B102" s="64" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="58" t="s">
+      <c r="A104" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="B104" s="58"/>
-      <c r="C104" s="58"/>
-      <c r="D104" s="58"/>
-      <c r="F104" s="58" t="s">
+      <c r="B104" s="59"/>
+      <c r="C104" s="59"/>
+      <c r="D104" s="59"/>
+      <c r="F104" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="G104" s="58"/>
-      <c r="H104" s="58"/>
-      <c r="I104" s="58"/>
-      <c r="K104" s="58" t="s">
+      <c r="G104" s="59"/>
+      <c r="H104" s="59"/>
+      <c r="I104" s="59"/>
+      <c r="K104" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="L104" s="58"/>
-      <c r="M104" s="58"/>
+      <c r="L104" s="59"/>
+      <c r="M104" s="59"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="57" t="s">
+      <c r="A105" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="B105" s="57" t="s">
+      <c r="B105" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="C105" s="57" t="s">
+      <c r="C105" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="D105" s="57" t="s">
+      <c r="D105" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="F105" s="57" t="s">
+      <c r="F105" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="G105" s="57" t="s">
+      <c r="G105" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="H105" s="57" t="s">
+      <c r="H105" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="I105" s="57" t="s">
+      <c r="I105" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="K105" s="57" t="s">
+      <c r="K105" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="L105" s="57" t="s">
+      <c r="L105" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="M105" s="57" t="s">
+      <c r="M105" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="N105" s="57" t="s">
+      <c r="N105" s="58" t="s">
         <v>61</v>
       </c>
     </row>
@@ -7283,15 +6795,15 @@
       <c r="A106" s="0" t="n">
         <v>1.07</v>
       </c>
-      <c r="B106" s="65" t="n">
+      <c r="B106" s="66" t="n">
         <f aca="false">1000*(0.03-0.0194274)</f>
         <v>10.5726</v>
       </c>
-      <c r="C106" s="61" t="n">
+      <c r="C106" s="62" t="n">
         <f aca="false">B106/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.73957648028813</v>
       </c>
-      <c r="D106" s="61" t="n">
+      <c r="D106" s="62" t="n">
         <f aca="false">B106/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.61503869270836</v>
       </c>
@@ -7301,26 +6813,26 @@
       <c r="G106" s="0" t="n">
         <v>11.23</v>
       </c>
-      <c r="H106" s="61" t="n">
+      <c r="H106" s="62" t="n">
         <f aca="false">G106/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.84774264359151</v>
       </c>
-      <c r="I106" s="61" t="n">
+      <c r="I106" s="62" t="n">
         <f aca="false">G106/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.71546114665407</v>
       </c>
       <c r="K106" s="0" t="n">
         <v>1.061</v>
       </c>
-      <c r="L106" s="61" t="n">
+      <c r="L106" s="62" t="n">
         <f aca="false">1000*(0.03-0.0190729)</f>
         <v>10.9271</v>
       </c>
-      <c r="M106" s="61" t="n">
+      <c r="M106" s="62" t="n">
         <f aca="false">L106/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.79790459846739</v>
       </c>
-      <c r="N106" s="61" t="n">
+      <c r="N106" s="62" t="n">
         <f aca="false">L106/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.66919105036542</v>
       </c>
@@ -7333,204 +6845,204 @@
         <f aca="false">10.5586</f>
         <v>10.5586</v>
       </c>
-      <c r="C107" s="61" t="n">
+      <c r="C107" s="62" t="n">
         <f aca="false">B107/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.73727297209487</v>
       </c>
-      <c r="D107" s="61" t="n">
+      <c r="D107" s="62" t="n">
         <f aca="false">B107/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.61290009466266</v>
       </c>
       <c r="F107" s="0" t="n">
         <v>1.065</v>
       </c>
-      <c r="G107" s="61" t="n">
+      <c r="G107" s="62" t="n">
         <f aca="false">1000*(0.03-0.0187383)</f>
         <v>11.2617</v>
       </c>
-      <c r="H107" s="61" t="n">
+      <c r="H107" s="62" t="n">
         <f aca="false">G107/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.85295844428625</v>
       </c>
-      <c r="I107" s="61" t="n">
+      <c r="I107" s="62" t="n">
         <f aca="false">G107/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.72030354365754</v>
       </c>
       <c r="K107" s="0" t="n">
         <v>1.093</v>
       </c>
-      <c r="L107" s="61" t="n">
+      <c r="L107" s="62" t="n">
         <v>10.8726</v>
       </c>
-      <c r="M107" s="61" t="n">
+      <c r="M107" s="62" t="n">
         <f aca="false">L107/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.78893737014364</v>
       </c>
-      <c r="N107" s="61" t="n">
+      <c r="N107" s="62" t="n">
         <f aca="false">L107/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.66086579368754</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="69"/>
-      <c r="B109" s="69"/>
-      <c r="C109" s="69"/>
-      <c r="D109" s="69"/>
-      <c r="E109" s="69"/>
-      <c r="F109" s="69"/>
-      <c r="G109" s="69"/>
-      <c r="H109" s="69"/>
-      <c r="I109" s="69"/>
-      <c r="J109" s="69"/>
-      <c r="K109" s="69"/>
-      <c r="L109" s="69"/>
-      <c r="M109" s="69"/>
-      <c r="N109" s="69"/>
-      <c r="O109" s="69"/>
-      <c r="P109" s="69"/>
-      <c r="Q109" s="69"/>
-      <c r="R109" s="69"/>
+      <c r="A109" s="70"/>
+      <c r="B109" s="70"/>
+      <c r="C109" s="70"/>
+      <c r="D109" s="70"/>
+      <c r="E109" s="70"/>
+      <c r="F109" s="70"/>
+      <c r="G109" s="70"/>
+      <c r="H109" s="70"/>
+      <c r="I109" s="70"/>
+      <c r="J109" s="70"/>
+      <c r="K109" s="70"/>
+      <c r="L109" s="70"/>
+      <c r="M109" s="70"/>
+      <c r="N109" s="70"/>
+      <c r="O109" s="70"/>
+      <c r="P109" s="70"/>
+      <c r="Q109" s="70"/>
+      <c r="R109" s="70"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="63" t="s">
+      <c r="A111" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="B111" s="70" t="n">
+      <c r="B111" s="71" t="n">
         <v>7400000000</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="63" t="s">
+      <c r="A112" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="B112" s="63" t="n">
+      <c r="B112" s="64" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="58" t="s">
+      <c r="A114" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="B114" s="58"/>
-      <c r="C114" s="58"/>
-      <c r="D114" s="58"/>
-      <c r="F114" s="58" t="s">
+      <c r="B114" s="59"/>
+      <c r="C114" s="59"/>
+      <c r="D114" s="59"/>
+      <c r="F114" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="G114" s="58"/>
-      <c r="H114" s="58"/>
-      <c r="I114" s="58"/>
-      <c r="K114" s="58" t="s">
+      <c r="G114" s="59"/>
+      <c r="H114" s="59"/>
+      <c r="I114" s="59"/>
+      <c r="K114" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="L114" s="58"/>
-      <c r="M114" s="58"/>
+      <c r="L114" s="59"/>
+      <c r="M114" s="59"/>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="57" t="s">
+      <c r="A115" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="B115" s="57" t="s">
+      <c r="B115" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="C115" s="57" t="s">
+      <c r="C115" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="D115" s="57" t="s">
+      <c r="D115" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="F115" s="57" t="s">
+      <c r="F115" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="G115" s="57" t="s">
+      <c r="G115" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="H115" s="57" t="s">
+      <c r="H115" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="I115" s="57" t="s">
+      <c r="I115" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="K115" s="57" t="s">
+      <c r="K115" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="L115" s="57" t="s">
+      <c r="L115" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="M115" s="57" t="s">
+      <c r="M115" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="N115" s="57" t="s">
+      <c r="N115" s="58" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B116" s="65" t="n">
+      <c r="B116" s="66" t="n">
         <v>10.4053</v>
       </c>
-      <c r="C116" s="61" t="n">
+      <c r="C116" s="62" t="n">
         <f aca="false">B116/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.7120495573787</v>
       </c>
-      <c r="D116" s="61" t="n">
+      <c r="D116" s="62" t="n">
         <f aca="false">B116/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.5894824460623</v>
       </c>
-      <c r="H116" s="61" t="n">
+      <c r="H116" s="62" t="n">
         <f aca="false">G116/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="I116" s="61" t="n">
+      <c r="I116" s="62" t="n">
         <f aca="false">G116/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
       <c r="K116" s="0" t="n">
         <v>1.284</v>
       </c>
-      <c r="L116" s="61" t="n">
+      <c r="L116" s="62" t="n">
         <f aca="false">1000*(0.03-0.0189208)</f>
         <v>11.0792</v>
       </c>
-      <c r="M116" s="61" t="n">
+      <c r="M116" s="62" t="n">
         <f aca="false">L116/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.82293056962414</v>
       </c>
-      <c r="N116" s="61" t="n">
+      <c r="N116" s="62" t="n">
         <f aca="false">L116/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.69242539056187</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C117" s="61" t="n">
+      <c r="C117" s="62" t="n">
         <f aca="false">B117/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="D117" s="61" t="n">
+      <c r="D117" s="62" t="n">
         <f aca="false">B117/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
-      <c r="G117" s="61"/>
-      <c r="H117" s="61" t="n">
+      <c r="G117" s="62"/>
+      <c r="H117" s="62" t="n">
         <f aca="false">G117/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="I117" s="61" t="n">
+      <c r="I117" s="62" t="n">
         <f aca="false">G117/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
       <c r="K117" s="0" t="n">
         <v>1.217</v>
       </c>
-      <c r="L117" s="61" t="n">
+      <c r="L117" s="62" t="n">
         <v>11.0762</v>
       </c>
-      <c r="M117" s="61" t="n">
+      <c r="M117" s="62" t="n">
         <f aca="false">L117/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.82243696072559</v>
       </c>
-      <c r="N117" s="61" t="n">
+      <c r="N117" s="62" t="n">
         <f aca="false">L117/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.69196711955208</v>
       </c>
@@ -7594,196 +7106,533 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="1" style="0" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="12.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="22.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="5" style="0" width="10.61"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="71" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="B3" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="C3" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="D3" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="23"/>
+      <c r="I3" s="73"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" s="8" t="n">
+        <v>0.2367957031455</v>
+      </c>
+      <c r="C4" s="74" t="n">
+        <f aca="false">(B4-$B$7)/$B$7*100</f>
+        <v>9.06708316529523</v>
+      </c>
+      <c r="D4" s="75" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E4" s="76" t="n">
+        <f aca="false">(D4-$D$7)/$D$7*100</f>
+        <v>-7.07070707070707</v>
+      </c>
+      <c r="F4" s="75" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G4" s="40" t="n">
+        <f aca="false">(F4-$F$7)/$F$7*100</f>
+        <v>-16.2162162162162</v>
+      </c>
+      <c r="H4" s="75"/>
+      <c r="I4" s="77"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8" t="n">
+        <v>0.2207122883919</v>
+      </c>
+      <c r="C5" s="74" t="n">
+        <f aca="false">(B5-$B$7)/$B$7*100</f>
+        <v>1.65913145328729</v>
+      </c>
+      <c r="D5" s="75" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="E5" s="76" t="n">
+        <f aca="false">(D5-$D$7)/$D$7*100</f>
+        <v>-3.03030303030303</v>
+      </c>
+      <c r="F5" s="75" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G5" s="40" t="n">
+        <f aca="false">(F5-$F$7)/$F$7*100</f>
+        <v>-2.70270270270271</v>
+      </c>
+      <c r="H5" s="75"/>
+      <c r="I5" s="77"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="8" t="n">
+        <v>0.217805722233</v>
+      </c>
+      <c r="C6" s="74" t="n">
+        <f aca="false">(B6-$B$7)/$B$7*100</f>
+        <v>0.320379572374198</v>
+      </c>
+      <c r="D6" s="75" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E6" s="76" t="n">
+        <f aca="false">(D6-$D$7)/$D$7*100</f>
+        <v>-1.01010101010101</v>
+      </c>
+      <c r="F6" s="75" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G6" s="40" t="n">
+        <f aca="false">(F6-$F$7)/$F$7*100</f>
+        <v>-2.70270270270271</v>
+      </c>
+      <c r="H6" s="75"/>
+      <c r="I6" s="77"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="8" t="n">
+        <v>0.2171101456767</v>
+      </c>
+      <c r="C7" s="74"/>
+      <c r="D7" s="75" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E7" s="76"/>
+      <c r="F7" s="75" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G7" s="40"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="77"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="M9" s="78"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="71" t="s">
+      <c r="D10" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="71" t="s">
+      <c r="F10" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C11" s="79" t="n">
+        <v>0.217805722233</v>
+      </c>
+      <c r="D11" s="80" t="n">
+        <f aca="false">(C11-$C$13)/$C$13*100</f>
+        <v>-0.00278887507064122</v>
+      </c>
+      <c r="E11" s="75" t="n">
+        <f aca="false">D6</f>
+        <v>0.98</v>
+      </c>
+      <c r="F11" s="76" t="n">
+        <f aca="false">(E11-$E$13)/$E$13*100</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C12" s="79" t="n">
+        <v>0.2178114943495</v>
+      </c>
+      <c r="D12" s="80" t="n">
+        <f aca="false">(C12-$C$13)/$C$13*100</f>
+        <v>-0.000138827375075705</v>
+      </c>
+      <c r="E12" s="75" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F12" s="76" t="n">
+        <f aca="false">(E12-$E$13)/$E$13*100</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="79" t="n">
+        <v>0.2178117967319</v>
+      </c>
+      <c r="D13" s="80"/>
+      <c r="E13" s="75" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F13" s="76" t="n">
+        <f aca="false">(E13-$E$13)/$E$13*100</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="3" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="72" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="71" t="s">
+      <c r="D16" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="71" t="s">
+      <c r="H16" s="23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="C17" s="81" t="n">
+        <v>0.217805722233</v>
+      </c>
+      <c r="D17" s="74" t="n">
+        <f aca="false">(C17-$C$19)/$C$19*100</f>
+        <v>0.277493970797731</v>
+      </c>
+      <c r="E17" s="75" t="n">
+        <f aca="false">D6</f>
+        <v>0.98</v>
+      </c>
+      <c r="F17" s="76" t="n">
+        <f aca="false">(E17-$E$19)/$E$19*100</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="3" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="C18" s="81" t="n">
+        <v>0.2172452950227</v>
+      </c>
+      <c r="D18" s="74" t="n">
+        <f aca="false">(C18-$C$19)/$C$19*100</f>
+        <v>0.0194739535742587</v>
+      </c>
+      <c r="E18" s="75" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F18" s="76" t="n">
+        <f aca="false">(E18-$E$19)/$E$19*100</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="3" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="3" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="C19" s="81" t="n">
+        <v>0.2172029970119</v>
+      </c>
+      <c r="D19" s="74"/>
+      <c r="E19" s="75" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F19" s="76" t="n">
+        <f aca="false">(E19-$E$19)/$E$19*100</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="3" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="72" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="23" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" s="73" t="n">
-        <v>0.04030959074389</v>
-      </c>
-      <c r="C2" s="74" t="n">
-        <f aca="false">(B2-$B$5)/$B$5*100</f>
-        <v>7.04823230062975</v>
-      </c>
-      <c r="D2" s="73" t="n">
-        <v>0.3109552614872</v>
-      </c>
-      <c r="E2" s="74" t="n">
-        <f aca="false">(D2-$D$5)/$D$5*100</f>
-        <v>7.054901184085</v>
-      </c>
-      <c r="F2" s="73" t="n">
-        <v>0.3109555611867</v>
-      </c>
-      <c r="G2" s="75" t="n">
-        <f aca="false">(F2-$F$5)/$F$5*100</f>
-        <v>7.05446483961023</v>
-      </c>
-      <c r="H2" s="73" t="n">
-        <v>-0.3109549617878</v>
-      </c>
-      <c r="I2" s="75" t="n">
-        <f aca="false">(H2-$H$5)/$H$5*100</f>
-        <v>7.05533753299236</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="73" t="n">
-        <v>0.03806880863113</v>
-      </c>
-      <c r="C3" s="75" t="n">
-        <f aca="false">(B3-$B$5)/$B$5*100</f>
-        <v>1.09749552272814</v>
-      </c>
-      <c r="D3" s="73" t="n">
-        <v>0.293720957096</v>
-      </c>
-      <c r="E3" s="75" t="n">
-        <f aca="false">(D3-$D$5)/$D$5*100</f>
-        <v>1.12151789044903</v>
-      </c>
-      <c r="F3" s="73" t="n">
-        <v>0.2937177425854</v>
-      </c>
-      <c r="G3" s="75" t="n">
-        <f aca="false">(F3-$F$5)/$F$5*100</f>
-        <v>1.11990159101643</v>
-      </c>
-      <c r="H3" s="73" t="n">
-        <v>-0.2937241716065</v>
-      </c>
-      <c r="I3" s="75" t="n">
-        <f aca="false">(H3-$H$5)/$H$5*100</f>
-        <v>1.12313420613868</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="72" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="76" t="n">
-        <v>0.03774558302765</v>
-      </c>
-      <c r="C4" s="77" t="n">
-        <f aca="false">(B4-$B$5)/$B$5*100</f>
-        <v>0.239120906456881</v>
-      </c>
-      <c r="D4" s="73" t="n">
-        <v>0.2911846767037</v>
-      </c>
-      <c r="E4" s="75" t="n">
-        <f aca="false">(D4-$D$5)/$D$5*100</f>
-        <v>0.248333608330097</v>
-      </c>
-      <c r="F4" s="73" t="n">
-        <v>0.2911843657898</v>
-      </c>
-      <c r="G4" s="75" t="n">
-        <f aca="false">(F4-$F$5)/$F$5*100</f>
-        <v>0.247721347463204</v>
-      </c>
-      <c r="H4" s="73" t="n">
-        <v>-0.2911849876176</v>
-      </c>
-      <c r="I4" s="75" t="n">
-        <f aca="false">(H4-$H$5)/$H$5*100</f>
-        <v>0.248945875368266</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="72" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" s="76" t="n">
-        <v>0.03765554075726</v>
-      </c>
-      <c r="C5" s="72" t="n">
-        <f aca="false">(B5-$B$5)/$B$5*100</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="73" t="n">
-        <v>0.2904633585645</v>
-      </c>
-      <c r="E5" s="72" t="n">
-        <f aca="false">(D5-$D$5)/$D$5*100</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="73" t="n">
-        <v>0.2904648224178</v>
-      </c>
-      <c r="G5" s="75" t="n">
-        <f aca="false">(F5-$F$5)/$F$5*100</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="73" t="n">
-        <v>-0.2904618947112</v>
-      </c>
-      <c r="I5" s="75" t="n">
-        <f aca="false">(H5-$H$5)/$H$5*100</f>
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L8" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="M8" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L9" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="M9" s="78" t="n">
-        <f aca="false">LN((F4-F3)/(F3-F2))/LN(M8)</f>
-        <v>-2.76644364303513</v>
-      </c>
+      <c r="D22" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="3" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="C23" s="79" t="n">
+        <v>0.217805722233</v>
+      </c>
+      <c r="D23" s="8" t="e">
+        <f aca="false">(C23-$C$25)/$C$25*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E23" s="75" t="n">
+        <f aca="false">D18</f>
+        <v>0.0194739535742587</v>
+      </c>
+      <c r="F23" s="76" t="n">
+        <f aca="false">(E23-$E$13)/$E$13*100</f>
+        <v>-98.0128618801777</v>
+      </c>
+      <c r="G23" s="3" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="3" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="C24" s="79" t="n">
+        <v>0.2170978774019</v>
+      </c>
+      <c r="D24" s="8" t="e">
+        <f aca="false">(C24-$C$25)/$C$25*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E24" s="75"/>
+      <c r="F24" s="76" t="n">
+        <f aca="false">(E24-$E$13)/$E$13*100</f>
+        <v>-100</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" s="79"/>
+      <c r="D25" s="8" t="e">
+        <f aca="false">(C25-$C$25)/$C$25*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E25" s="75"/>
+      <c r="F25" s="76" t="n">
+        <f aca="false">(E25-$E$13)/$E$13*100</f>
+        <v>-100</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A21:H21"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0" right="0" top="0.39375" bottom="0.39375" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -7791,7 +7640,6 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7809,80 +7657,80 @@
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" s="59" t="s">
-        <v>81</v>
+      <c r="B1" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="79" t="n">
+      <c r="A2" s="82" t="n">
         <v>0.3082</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="C2" s="80" t="n">
+      <c r="C2" s="83" t="n">
         <v>2E-005</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="79"/>
+      <c r="A3" s="82"/>
       <c r="B3" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="C3" s="80" t="n">
+      <c r="C3" s="83" t="n">
         <v>2.5E-005</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="79"/>
+      <c r="A4" s="82"/>
       <c r="B4" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C4" s="80" t="n">
+      <c r="C4" s="83" t="n">
         <v>2.5E-005</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="79"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="C5" s="80" t="n">
+      <c r="C5" s="83" t="n">
         <v>2.5E-005</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="79"/>
+      <c r="A6" s="82"/>
       <c r="B6" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="C6" s="80" t="n">
+      <c r="C6" s="83" t="n">
         <v>2E-005</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="79"/>
+      <c r="A7" s="82"/>
       <c r="B7" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="C7" s="80" t="n">
+      <c r="C7" s="83" t="n">
         <v>2E-005</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="79"/>
+      <c r="A8" s="82"/>
       <c r="B8" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="81" t="n">
+      <c r="A9" s="84" t="n">
         <v>0.54</v>
       </c>
       <c r="B9" s="0" t="n">
@@ -7890,43 +7738,43 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="81"/>
+      <c r="A10" s="84"/>
       <c r="B10" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="C10" s="80" t="n">
+      <c r="C10" s="83" t="n">
         <v>1E-005</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="81"/>
+      <c r="A11" s="84"/>
       <c r="B11" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C11" s="80" t="n">
+      <c r="C11" s="83" t="n">
         <v>1E-005</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="81"/>
+      <c r="A12" s="84"/>
       <c r="B12" s="0" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="81"/>
+      <c r="A13" s="84"/>
       <c r="B13" s="0" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="81"/>
+      <c r="A14" s="84"/>
       <c r="B14" s="0" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="81"/>
+      <c r="A15" s="84"/>
       <c r="B15" s="0" t="n">
         <v>20</v>
       </c>
@@ -7944,1312 +7792,4 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B151"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A131" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E148" activeCellId="0" sqref="E148"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A5+-2.44601*A5^2+0.065033*A5^3</f>
-        <v>1.304874728</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A6+-2.44601*A6^2+0.065033*A6^3</f>
-        <v>1.322060004373</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A7+-2.44601*A7^2+0.065033*A7^3</f>
-        <v>1.338779880824</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A8+-2.44601*A8^2+0.065033*A8^3</f>
-        <v>1.355034747551</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A9+-2.44601*A9^2+0.065033*A9^3</f>
-        <v>1.370824994752</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A10+-2.44601*A10^2+0.065033*A10^3</f>
-        <v>1.386151012625</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>0.659999999999999</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A11+-2.44601*A11^2+0.065033*A11^3</f>
-        <v>1.401013191368</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>0.669999999999999</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A12+-2.44601*A12^2+0.065033*A12^3</f>
-        <v>1.415411921179</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
-        <v>0.679999999999999</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A13+-2.44601*A13^2+0.065033*A13^3</f>
-        <v>1.429347592256</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
-        <v>0.689999999999999</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A14+-2.44601*A14^2+0.065033*A14^3</f>
-        <v>1.442820594797</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <v>0.699999999999999</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A15+-2.44601*A15^2+0.065033*A15^3</f>
-        <v>1.455831319</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
-        <v>0.709999999999999</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A16+-2.44601*A16^2+0.065033*A16^3</f>
-        <v>1.468380155063</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
-        <v>0.719999999999999</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A17+-2.44601*A17^2+0.065033*A17^3</f>
-        <v>1.480467493184</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
-        <v>0.729999999999999</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A18+-2.44601*A18^2+0.065033*A18^3</f>
-        <v>1.492093723561</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
-        <v>0.739999999999999</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A19+-2.44601*A19^2+0.065033*A19^3</f>
-        <v>1.503259236392</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
-        <v>0.749999999999999</v>
-      </c>
-      <c r="B20" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A20+-2.44601*A20^2+0.065033*A20^3</f>
-        <v>1.513964421875</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
-        <v>0.759999999999998</v>
-      </c>
-      <c r="B21" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A21+-2.44601*A21^2+0.065033*A21^3</f>
-        <v>1.524209670208</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
-        <v>0.769999999999998</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A22+-2.44601*A22^2+0.065033*A22^3</f>
-        <v>1.533995371589</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
-        <v>0.779999999999998</v>
-      </c>
-      <c r="B23" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A23+-2.44601*A23^2+0.065033*A23^3</f>
-        <v>1.543321916216</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
-        <v>0.789999999999998</v>
-      </c>
-      <c r="B24" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A24+-2.44601*A24^2+0.065033*A24^3</f>
-        <v>1.552189694287</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
-        <v>0.799999999999998</v>
-      </c>
-      <c r="B25" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A25+-2.44601*A25^2+0.065033*A25^3</f>
-        <v>1.560599096</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
-        <v>0.809999999999998</v>
-      </c>
-      <c r="B26" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A26+-2.44601*A26^2+0.065033*A26^3</f>
-        <v>1.568550511553</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
-        <v>0.819999999999998</v>
-      </c>
-      <c r="B27" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A27+-2.44601*A27^2+0.065033*A27^3</f>
-        <v>1.576044331144</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
-        <v>0.829999999999998</v>
-      </c>
-      <c r="B28" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A28+-2.44601*A28^2+0.065033*A28^3</f>
-        <v>1.583080944971</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
-        <v>0.839999999999998</v>
-      </c>
-      <c r="B29" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A29+-2.44601*A29^2+0.065033*A29^3</f>
-        <v>1.589660743232</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
-        <v>0.849999999999998</v>
-      </c>
-      <c r="B30" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A30+-2.44601*A30^2+0.065033*A30^3</f>
-        <v>1.595784116125</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
-        <v>0.859999999999997</v>
-      </c>
-      <c r="B31" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A31+-2.44601*A31^2+0.065033*A31^3</f>
-        <v>1.601451453848</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
-        <v>0.869999999999997</v>
-      </c>
-      <c r="B32" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A32+-2.44601*A32^2+0.065033*A32^3</f>
-        <v>1.606663146599</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
-        <v>0.879999999999997</v>
-      </c>
-      <c r="B33" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A33+-2.44601*A33^2+0.065033*A33^3</f>
-        <v>1.611419584576</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
-        <v>0.889999999999997</v>
-      </c>
-      <c r="B34" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A34+-2.44601*A34^2+0.065033*A34^3</f>
-        <v>1.615721157977</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
-        <v>0.899999999999997</v>
-      </c>
-      <c r="B35" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A35+-2.44601*A35^2+0.065033*A35^3</f>
-        <v>1.619568257</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
-        <v>0.909999999999997</v>
-      </c>
-      <c r="B36" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A36+-2.44601*A36^2+0.065033*A36^3</f>
-        <v>1.622961271843</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
-        <v>0.919999999999997</v>
-      </c>
-      <c r="B37" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A37+-2.44601*A37^2+0.065033*A37^3</f>
-        <v>1.625900592704</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
-        <v>0.929999999999997</v>
-      </c>
-      <c r="B38" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A38+-2.44601*A38^2+0.065033*A38^3</f>
-        <v>1.628386609781</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
-        <v>0.939999999999997</v>
-      </c>
-      <c r="B39" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A39+-2.44601*A39^2+0.065033*A39^3</f>
-        <v>1.630419713272</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
-        <v>0.949999999999997</v>
-      </c>
-      <c r="B40" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A40+-2.44601*A40^2+0.065033*A40^3</f>
-        <v>1.632000293375</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
-        <v>0.959999999999996</v>
-      </c>
-      <c r="B41" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A41+-2.44601*A41^2+0.065033*A41^3</f>
-        <v>1.633128740288</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
-        <v>0.969999999999996</v>
-      </c>
-      <c r="B42" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A42+-2.44601*A42^2+0.065033*A42^3</f>
-        <v>1.633805444209</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
-        <v>0.979999999999996</v>
-      </c>
-      <c r="B43" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A43+-2.44601*A43^2+0.065033*A43^3</f>
-        <v>1.634030795336</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
-        <v>0.989999999999996</v>
-      </c>
-      <c r="B44" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A44+-2.44601*A44^2+0.065033*A44^3</f>
-        <v>1.633805183867</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
-        <v>0.999999999999996</v>
-      </c>
-      <c r="B45" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A45+-2.44601*A45^2+0.065033*A45^3</f>
-        <v>1.633129</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="B46" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A46+-2.44601*A46^2+0.065033*A46^3</f>
-        <v>1.632002633933</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="B47" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A47+-2.44601*A47^2+0.065033*A47^3</f>
-        <v>1.630426475864</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="B48" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A48+-2.44601*A48^2+0.065033*A48^3</f>
-        <v>1.628400915991</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="B49" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A49+-2.44601*A49^2+0.065033*A49^3</f>
-        <v>1.625926344512</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="B50" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A50+-2.44601*A50^2+0.065033*A50^3</f>
-        <v>1.623003151625</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="B51" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A51+-2.44601*A51^2+0.065033*A51^3</f>
-        <v>1.619631727528</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="B52" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A52+-2.44601*A52^2+0.065033*A52^3</f>
-        <v>1.615812462419</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="B53" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A53+-2.44601*A53^2+0.065033*A53^3</f>
-        <v>1.611545746496</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="B54" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A54+-2.44601*A54^2+0.065033*A54^3</f>
-        <v>1.606831969957</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="B55" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A55+-2.44601*A55^2+0.065033*A55^3</f>
-        <v>1.601671523</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="B56" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A56+-2.44601*A56^2+0.065033*A56^3</f>
-        <v>1.596064795823</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="n">
-        <v>1.11999999999999</v>
-      </c>
-      <c r="B57" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A57+-2.44601*A57^2+0.065033*A57^3</f>
-        <v>1.590012178624</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="n">
-        <v>1.12999999999999</v>
-      </c>
-      <c r="B58" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A58+-2.44601*A58^2+0.065033*A58^3</f>
-        <v>1.583514061601</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="n">
-        <v>1.13999999999999</v>
-      </c>
-      <c r="B59" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A59+-2.44601*A59^2+0.065033*A59^3</f>
-        <v>1.576570834952</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="n">
-        <v>1.14999999999999</v>
-      </c>
-      <c r="B60" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A60+-2.44601*A60^2+0.065033*A60^3</f>
-        <v>1.569182888875</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="n">
-        <v>1.15999999999999</v>
-      </c>
-      <c r="B61" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A61+-2.44601*A61^2+0.065033*A61^3</f>
-        <v>1.561350613568</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="n">
-        <v>1.16999999999999</v>
-      </c>
-      <c r="B62" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A62+-2.44601*A62^2+0.065033*A62^3</f>
-        <v>1.553074399229</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="n">
-        <v>1.17999999999999</v>
-      </c>
-      <c r="B63" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A63+-2.44601*A63^2+0.065033*A63^3</f>
-        <v>1.544354636056</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="n">
-        <v>1.18999999999999</v>
-      </c>
-      <c r="B64" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A64+-2.44601*A64^2+0.065033*A64^3</f>
-        <v>1.535191714247</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="n">
-        <v>1.19999999999999</v>
-      </c>
-      <c r="B65" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A65+-2.44601*A65^2+0.065033*A65^3</f>
-        <v>1.52558602400001</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="n">
-        <v>1.20999999999999</v>
-      </c>
-      <c r="B66" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A66+-2.44601*A66^2+0.065033*A66^3</f>
-        <v>1.51553795551301</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="n">
-        <v>1.21999999999999</v>
-      </c>
-      <c r="B67" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A67+-2.44601*A67^2+0.065033*A67^3</f>
-        <v>1.50504789898401</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="n">
-        <v>1.22999999999999</v>
-      </c>
-      <c r="B68" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A68+-2.44601*A68^2+0.065033*A68^3</f>
-        <v>1.49411624461101</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="n">
-        <v>1.23999999999999</v>
-      </c>
-      <c r="B69" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A69+-2.44601*A69^2+0.065033*A69^3</f>
-        <v>1.48274338259201</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="n">
-        <v>1.24999999999999</v>
-      </c>
-      <c r="B70" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A70+-2.44601*A70^2+0.065033*A70^3</f>
-        <v>1.47092970312501</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="n">
-        <v>1.25999999999999</v>
-      </c>
-      <c r="B71" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A71+-2.44601*A71^2+0.065033*A71^3</f>
-        <v>1.45867559640801</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="n">
-        <v>1.26999999999999</v>
-      </c>
-      <c r="B72" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A72+-2.44601*A72^2+0.065033*A72^3</f>
-        <v>1.44598145263901</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="n">
-        <v>1.27999999999999</v>
-      </c>
-      <c r="B73" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A73+-2.44601*A73^2+0.065033*A73^3</f>
-        <v>1.43284766201601</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="n">
-        <v>1.28999999999999</v>
-      </c>
-      <c r="B74" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A74+-2.44601*A74^2+0.065033*A74^3</f>
-        <v>1.41927461473701</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="n">
-        <v>1.29999999999999</v>
-      </c>
-      <c r="B75" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A75+-2.44601*A75^2+0.065033*A75^3</f>
-        <v>1.40526270100001</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="n">
-        <v>1.30999999999999</v>
-      </c>
-      <c r="B76" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A76+-2.44601*A76^2+0.065033*A76^3</f>
-        <v>1.39081231100301</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="n">
-        <v>1.31999999999999</v>
-      </c>
-      <c r="B77" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A77+-2.44601*A77^2+0.065033*A77^3</f>
-        <v>1.37592383494401</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="n">
-        <v>1.32999999999999</v>
-      </c>
-      <c r="B78" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A78+-2.44601*A78^2+0.065033*A78^3</f>
-        <v>1.36059766302101</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="n">
-        <v>1.33999999999999</v>
-      </c>
-      <c r="B79" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A79+-2.44601*A79^2+0.065033*A79^3</f>
-        <v>1.34483418543201</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="n">
-        <v>1.34999999999999</v>
-      </c>
-      <c r="B80" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A80+-2.44601*A80^2+0.065033*A80^3</f>
-        <v>1.32863379237501</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="n">
-        <v>1.35999999999999</v>
-      </c>
-      <c r="B81" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A81+-2.44601*A81^2+0.065033*A81^3</f>
-        <v>1.31199687404801</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="n">
-        <v>1.36999999999999</v>
-      </c>
-      <c r="B82" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A82+-2.44601*A82^2+0.065033*A82^3</f>
-        <v>1.29492382064901</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="n">
-        <v>1.37999999999999</v>
-      </c>
-      <c r="B83" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A83+-2.44601*A83^2+0.065033*A83^3</f>
-        <v>1.27741502237601</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="n">
-        <v>1.38999999999999</v>
-      </c>
-      <c r="B84" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A84+-2.44601*A84^2+0.065033*A84^3</f>
-        <v>1.25947086942701</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="n">
-        <v>1.39999999999999</v>
-      </c>
-      <c r="B85" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A85+-2.44601*A85^2+0.065033*A85^3</f>
-        <v>1.24109175200001</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="n">
-        <v>1.40999999999999</v>
-      </c>
-      <c r="B86" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A86+-2.44601*A86^2+0.065033*A86^3</f>
-        <v>1.22227806029301</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="n">
-        <v>1.41999999999999</v>
-      </c>
-      <c r="B87" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A87+-2.44601*A87^2+0.065033*A87^3</f>
-        <v>1.20303018450402</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="n">
-        <v>1.42999999999999</v>
-      </c>
-      <c r="B88" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A88+-2.44601*A88^2+0.065033*A88^3</f>
-        <v>1.18334851483102</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="n">
-        <v>1.43999999999999</v>
-      </c>
-      <c r="B89" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A89+-2.44601*A89^2+0.065033*A89^3</f>
-        <v>1.16323344147202</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="n">
-        <v>1.44999999999999</v>
-      </c>
-      <c r="B90" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A90+-2.44601*A90^2+0.065033*A90^3</f>
-        <v>1.14268535462502</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="n">
-        <v>1.45999999999999</v>
-      </c>
-      <c r="B91" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A91+-2.44601*A91^2+0.065033*A91^3</f>
-        <v>1.12170464448802</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="n">
-        <v>1.46999999999999</v>
-      </c>
-      <c r="B92" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A92+-2.44601*A92^2+0.065033*A92^3</f>
-        <v>1.10029170125902</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="n">
-        <v>1.47999999999999</v>
-      </c>
-      <c r="B93" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A93+-2.44601*A93^2+0.065033*A93^3</f>
-        <v>1.07844691513602</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="n">
-        <v>1.48999999999999</v>
-      </c>
-      <c r="B94" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A94+-2.44601*A94^2+0.065033*A94^3</f>
-        <v>1.05617067631702</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="n">
-        <v>1.49999999999999</v>
-      </c>
-      <c r="B95" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A95+-2.44601*A95^2+0.065033*A95^3</f>
-        <v>1.03346337500002</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="n">
-        <v>1.50999999999999</v>
-      </c>
-      <c r="B96" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A96+-2.44601*A96^2+0.065033*A96^3</f>
-        <v>1.01032540138302</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="n">
-        <v>1.51999999999999</v>
-      </c>
-      <c r="B97" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A97+-2.44601*A97^2+0.065033*A97^3</f>
-        <v>0.986757145664021</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="n">
-        <v>1.52999999999999</v>
-      </c>
-      <c r="B98" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A98+-2.44601*A98^2+0.065033*A98^3</f>
-        <v>0.962758998041022</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="n">
-        <v>1.53999999999999</v>
-      </c>
-      <c r="B99" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A99+-2.44601*A99^2+0.065033*A99^3</f>
-        <v>0.938331348712022</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="n">
-        <v>1.54999999999999</v>
-      </c>
-      <c r="B100" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A100+-2.44601*A100^2+0.065033*A100^3</f>
-        <v>0.913474587875023</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="n">
-        <v>1.55999999999999</v>
-      </c>
-      <c r="B101" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A101+-2.44601*A101^2+0.065033*A101^3</f>
-        <v>0.888189105728024</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="n">
-        <v>1.56999999999999</v>
-      </c>
-      <c r="B102" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A102+-2.44601*A102^2+0.065033*A102^3</f>
-        <v>0.862475292469023</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="n">
-        <v>1.57999999999999</v>
-      </c>
-      <c r="B103" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A103+-2.44601*A103^2+0.065033*A103^3</f>
-        <v>0.836333538296025</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="n">
-        <v>1.58999999999999</v>
-      </c>
-      <c r="B104" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A104+-2.44601*A104^2+0.065033*A104^3</f>
-        <v>0.809764233407026</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="n">
-        <v>1.59999999999999</v>
-      </c>
-      <c r="B105" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A105+-2.44601*A105^2+0.065033*A105^3</f>
-        <v>0.782767768000026</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="n">
-        <v>1.60999999999999</v>
-      </c>
-      <c r="B106" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A106+-2.44601*A106^2+0.065033*A106^3</f>
-        <v>0.755344532273027</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="n">
-        <v>1.61999999999999</v>
-      </c>
-      <c r="B107" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A107+-2.44601*A107^2+0.065033*A107^3</f>
-        <v>0.727494916424028</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="n">
-        <v>1.62999999999999</v>
-      </c>
-      <c r="B108" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A108+-2.44601*A108^2+0.065033*A108^3</f>
-        <v>0.699219310651027</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="n">
-        <v>1.63999999999999</v>
-      </c>
-      <c r="B109" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A109+-2.44601*A109^2+0.065033*A109^3</f>
-        <v>0.670518105152029</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="n">
-        <v>1.64999999999999</v>
-      </c>
-      <c r="B110" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A110+-2.44601*A110^2+0.065033*A110^3</f>
-        <v>0.641391690125031</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="n">
-        <v>1.65999999999999</v>
-      </c>
-      <c r="B111" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A111+-2.44601*A111^2+0.065033*A111^3</f>
-        <v>0.61184045576803</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="n">
-        <v>1.66999999999999</v>
-      </c>
-      <c r="B112" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A112+-2.44601*A112^2+0.065033*A112^3</f>
-        <v>0.581864792279033</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="n">
-        <v>1.67999999999999</v>
-      </c>
-      <c r="B113" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A113+-2.44601*A113^2+0.065033*A113^3</f>
-        <v>0.551465089856032</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="n">
-        <v>1.68999999999999</v>
-      </c>
-      <c r="B114" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A114+-2.44601*A114^2+0.065033*A114^3</f>
-        <v>0.520641738697033</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="n">
-        <v>1.69999999999999</v>
-      </c>
-      <c r="B115" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A115+-2.44601*A115^2+0.065033*A115^3</f>
-        <v>0.489395129000033</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="n">
-        <v>1.70999999999999</v>
-      </c>
-      <c r="B116" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A116+-2.44601*A116^2+0.065033*A116^3</f>
-        <v>0.457725650963035</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="n">
-        <v>1.71999999999999</v>
-      </c>
-      <c r="B117" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A117+-2.44601*A117^2+0.065033*A117^3</f>
-        <v>0.425633694784035</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="n">
-        <v>1.72999999999999</v>
-      </c>
-      <c r="B118" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A118+-2.44601*A118^2+0.065033*A118^3</f>
-        <v>0.393119650661036</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="n">
-        <v>1.73999999999999</v>
-      </c>
-      <c r="B119" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A119+-2.44601*A119^2+0.065033*A119^3</f>
-        <v>0.360183908792037</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="n">
-        <v>1.74999999999999</v>
-      </c>
-      <c r="B120" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A120+-2.44601*A120^2+0.065033*A120^3</f>
-        <v>0.326826859375038</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="n">
-        <v>1.75999999999999</v>
-      </c>
-      <c r="B121" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A121+-2.44601*A121^2+0.065033*A121^3</f>
-        <v>0.293048892608039</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="n">
-        <v>1.76999999999999</v>
-      </c>
-      <c r="B122" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A122+-2.44601*A122^2+0.065033*A122^3</f>
-        <v>0.258850398689039</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="n">
-        <v>1.77999999999999</v>
-      </c>
-      <c r="B123" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A123+-2.44601*A123^2+0.065033*A123^3</f>
-        <v>0.224231767816039</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="n">
-        <v>1.78999999999999</v>
-      </c>
-      <c r="B124" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A124+-2.44601*A124^2+0.065033*A124^3</f>
-        <v>0.189193390187041</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="n">
-        <v>1.79999999999999</v>
-      </c>
-      <c r="B125" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A125+-2.44601*A125^2+0.065033*A125^3</f>
-        <v>0.153735656000042</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="n">
-        <v>1.80999999999999</v>
-      </c>
-      <c r="B126" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A126+-2.44601*A126^2+0.065033*A126^3</f>
-        <v>0.117858955453042</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="n">
-        <v>1.81999999999999</v>
-      </c>
-      <c r="B127" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A127+-2.44601*A127^2+0.065033*A127^3</f>
-        <v>0.0815636787440418</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="n">
-        <v>1.82999999999999</v>
-      </c>
-      <c r="B128" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A128+-2.44601*A128^2+0.065033*A128^3</f>
-        <v>0.0448502160710455</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="n">
-        <v>1.83999999999999</v>
-      </c>
-      <c r="B129" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A129+-2.44601*A129^2+0.065033*A129^3</f>
-        <v>0.00771895763204516</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="n">
-        <v>1.84999999999999</v>
-      </c>
-      <c r="B130" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A130+-2.44601*A130^2+0.065033*A130^3</f>
-        <v>-0.0298297063749542</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="n">
-        <v>1.85999999999999</v>
-      </c>
-      <c r="B131" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A131+-2.44601*A131^2+0.065033*A131^3</f>
-        <v>-0.0677953857519523</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="n">
-        <v>1.86999999999999</v>
-      </c>
-      <c r="B132" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A132+-2.44601*A132^2+0.065033*A132^3</f>
-        <v>-0.106177690300952</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="n">
-        <v>1.87999999999999</v>
-      </c>
-      <c r="B133" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A133+-2.44601*A133^2+0.065033*A133^3</f>
-        <v>-0.144976229823952</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="n">
-        <v>1.88999999999999</v>
-      </c>
-      <c r="B134" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A134+-2.44601*A134^2+0.065033*A134^3</f>
-        <v>-0.184190614122952</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="n">
-        <v>1.89999999999999</v>
-      </c>
-      <c r="B135" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A135+-2.44601*A135^2+0.065033*A135^3</f>
-        <v>-0.223820452999949</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0" t="n">
-        <v>1.90999999999999</v>
-      </c>
-      <c r="B136" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A136+-2.44601*A136^2+0.065033*A136^3</f>
-        <v>-0.263865356256949</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="n">
-        <v>1.91999999999999</v>
-      </c>
-      <c r="B137" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A137+-2.44601*A137^2+0.065033*A137^3</f>
-        <v>-0.304324933695948</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="n">
-        <v>1.92999999999999</v>
-      </c>
-      <c r="B138" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A138+-2.44601*A138^2+0.065033*A138^3</f>
-        <v>-0.345198795118949</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="n">
-        <v>1.93999999999999</v>
-      </c>
-      <c r="B139" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A139+-2.44601*A139^2+0.065033*A139^3</f>
-        <v>-0.386486550327948</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="n">
-        <v>1.94999999999999</v>
-      </c>
-      <c r="B140" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A140+-2.44601*A140^2+0.065033*A140^3</f>
-        <v>-0.428187809124947</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="n">
-        <v>1.95999999999999</v>
-      </c>
-      <c r="B141" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A141+-2.44601*A141^2+0.065033*A141^3</f>
-        <v>-0.470302181311945</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0" t="n">
-        <v>1.96999999999999</v>
-      </c>
-      <c r="B142" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A142+-2.44601*A142^2+0.065033*A142^3</f>
-        <v>-0.512829276690944</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0" t="n">
-        <v>1.97999999999999</v>
-      </c>
-      <c r="B143" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A143+-2.44601*A143^2+0.065033*A143^3</f>
-        <v>-0.555768705063943</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0" t="n">
-        <v>1.98999999999999</v>
-      </c>
-      <c r="B144" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A144+-2.44601*A144^2+0.065033*A144^3</f>
-        <v>-0.599120076232943</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0" t="n">
-        <v>1.99999999999999</v>
-      </c>
-      <c r="B145" s="0" t="n">
-        <f aca="false">-0.592681+4.606787*A145+-2.44601*A145^2+0.065033*A145^3</f>
-        <v>-0.64288299999994</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/Resultados/Resultados.xlsx
+++ b/Resultados/Resultados.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="92">
   <si>
     <t xml:space="preserve">L [m]</t>
   </si>
@@ -259,6 +259,9 @@
     <t xml:space="preserve">max p</t>
   </si>
   <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extended outlet</t>
   </si>
   <si>
@@ -287,6 +290,9 @@
   </si>
   <si>
     <t xml:space="preserve">x_inlet [m]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extended all</t>
   </si>
   <si>
     <t xml:space="preserve">f [Hz]</t>
@@ -299,7 +305,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="13">
+  <numFmts count="14">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00E+00"/>
     <numFmt numFmtId="166" formatCode="0.000E+00"/>
@@ -313,6 +319,7 @@
     <numFmt numFmtId="174" formatCode="0.000000E+00"/>
     <numFmt numFmtId="175" formatCode="#,##0.000000"/>
     <numFmt numFmtId="176" formatCode="0.00000E+00"/>
+    <numFmt numFmtId="177" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -714,7 +721,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="91">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1027,6 +1034,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="173" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1039,8 +1050,28 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="175" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1139,7 +1170,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart61.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1380,11 +1411,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="30086701"/>
-        <c:axId val="83854205"/>
+        <c:axId val="59717520"/>
+        <c:axId val="63365900"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="30086701"/>
+        <c:axId val="59717520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.8"/>
@@ -1462,13 +1493,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83854205"/>
+        <c:crossAx val="63365900"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="83854205"/>
+        <c:axId val="63365900"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1544,7 +1575,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="30086701"/>
+        <c:crossAx val="59717520"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.25"/>
@@ -1599,7 +1630,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart62.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1843,11 +1874,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="73389604"/>
-        <c:axId val="18008700"/>
+        <c:axId val="31505426"/>
+        <c:axId val="92899493"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="73389604"/>
+        <c:axId val="31505426"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1903,7 +1934,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="18008700"/>
+        <c:crossAx val="92899493"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1911,7 +1942,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="18008700"/>
+        <c:axId val="92899493"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1976,7 +2007,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73389604"/>
+        <c:crossAx val="31505426"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2024,7 +2055,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart63.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2622,11 +2653,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="21246721"/>
-        <c:axId val="78060663"/>
+        <c:axId val="4360889"/>
+        <c:axId val="12252087"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="21246721"/>
+        <c:axId val="4360889"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.8"/>
@@ -2704,13 +2735,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78060663"/>
+        <c:crossAx val="12252087"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78060663"/>
+        <c:axId val="12252087"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2786,7 +2817,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="21246721"/>
+        <c:crossAx val="4360889"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2941,7 +2972,7 @@
   </sheetPr>
   <dimension ref="A1:AA73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="R15" activeCellId="0" sqref="R15"/>
     </sheetView>
   </sheetViews>
@@ -4666,7 +4697,7 @@
   </sheetPr>
   <dimension ref="A1:R117"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B117" activeCellId="0" sqref="B117"/>
     </sheetView>
   </sheetViews>
@@ -7106,10 +7137,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7257,7 +7288,9 @@
       <c r="B7" s="8" t="n">
         <v>0.2171101456767</v>
       </c>
-      <c r="C7" s="74"/>
+      <c r="C7" s="78" t="s">
+        <v>78</v>
+      </c>
       <c r="D7" s="75" t="n">
         <v>0.99</v>
       </c>
@@ -7281,7 +7314,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="72" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B9" s="72"/>
       <c r="C9" s="72"/>
@@ -7290,14 +7323,14 @@
       <c r="F9" s="72"/>
       <c r="G9" s="72"/>
       <c r="H9" s="72"/>
-      <c r="M9" s="78"/>
+      <c r="M9" s="79"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>74</v>
@@ -7320,15 +7353,15 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B11" s="3" t="n">
         <v>0.25</v>
       </c>
-      <c r="C11" s="79" t="n">
+      <c r="C11" s="80" t="n">
         <v>0.217805722233</v>
       </c>
-      <c r="D11" s="80" t="n">
+      <c r="D11" s="81" t="n">
         <f aca="false">(C11-$C$13)/$C$13*100</f>
         <v>-0.00278887507064122</v>
       </c>
@@ -7336,63 +7369,72 @@
         <f aca="false">D6</f>
         <v>0.98</v>
       </c>
-      <c r="F11" s="76" t="n">
+      <c r="F11" s="39" t="n">
         <f aca="false">(E11-$E$13)/$E$13*100</f>
         <v>0</v>
       </c>
       <c r="G11" s="3" t="n">
         <v>0.36</v>
       </c>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3" t="n">
+        <f aca="false">(G11-$G$13)/$G$13</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B12" s="3" t="n">
         <v>0.6</v>
       </c>
-      <c r="C12" s="79" t="n">
+      <c r="C12" s="80" t="n">
         <v>0.2178114943495</v>
       </c>
-      <c r="D12" s="80" t="n">
+      <c r="D12" s="81" t="n">
         <f aca="false">(C12-$C$13)/$C$13*100</f>
         <v>-0.000138827375075705</v>
       </c>
       <c r="E12" s="75" t="n">
         <v>0.98</v>
       </c>
-      <c r="F12" s="76" t="n">
+      <c r="F12" s="39" t="n">
         <f aca="false">(E12-$E$13)/$E$13*100</f>
         <v>0</v>
       </c>
       <c r="G12" s="3" t="n">
         <v>0.36</v>
       </c>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3" t="n">
+        <f aca="false">(G12-$G$13)/$G$13</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B13" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="79" t="n">
+      <c r="C13" s="80" t="n">
         <v>0.2178117967319</v>
       </c>
-      <c r="D13" s="80"/>
+      <c r="D13" s="82" t="s">
+        <v>78</v>
+      </c>
       <c r="E13" s="75" t="n">
         <v>0.98</v>
       </c>
-      <c r="F13" s="76" t="n">
-        <f aca="false">(E13-$E$13)/$E$13*100</f>
-        <v>0</v>
+      <c r="F13" s="83" t="s">
+        <v>78</v>
       </c>
       <c r="G13" s="3" t="n">
         <v>0.36</v>
       </c>
-      <c r="H13" s="3"/>
+      <c r="H13" s="84" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3"/>
@@ -7406,7 +7448,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="72" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B15" s="72"/>
       <c r="C15" s="72"/>
@@ -7418,10 +7460,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C16" s="23" t="s">
         <v>74</v>
@@ -7444,12 +7486,12 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B17" s="3" t="n">
         <v>0.18</v>
       </c>
-      <c r="C17" s="81" t="n">
+      <c r="C17" s="85" t="n">
         <v>0.217805722233</v>
       </c>
       <c r="D17" s="74" t="n">
@@ -7460,23 +7502,26 @@
         <f aca="false">D6</f>
         <v>0.98</v>
       </c>
-      <c r="F17" s="76" t="n">
+      <c r="F17" s="39" t="n">
         <f aca="false">(E17-$E$19)/$E$19*100</f>
         <v>0</v>
       </c>
       <c r="G17" s="3" t="n">
         <v>0.36</v>
       </c>
-      <c r="H17" s="3"/>
+      <c r="H17" s="3" t="n">
+        <f aca="false">(G17-$G$19)/$G$19</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B18" s="3" t="n">
         <v>0.36</v>
       </c>
-      <c r="C18" s="81" t="n">
+      <c r="C18" s="85" t="n">
         <v>0.2172452950227</v>
       </c>
       <c r="D18" s="74" t="n">
@@ -7486,42 +7531,48 @@
       <c r="E18" s="75" t="n">
         <v>0.98</v>
       </c>
-      <c r="F18" s="76" t="n">
+      <c r="F18" s="39" t="n">
         <f aca="false">(E18-$E$19)/$E$19*100</f>
         <v>0</v>
       </c>
       <c r="G18" s="3" t="n">
         <v>0.36</v>
       </c>
-      <c r="H18" s="3"/>
+      <c r="H18" s="3" t="n">
+        <f aca="false">(G18-$G$19)/$G$19</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B19" s="3" t="n">
         <v>0.72</v>
       </c>
-      <c r="C19" s="81" t="n">
+      <c r="C19" s="85" t="n">
         <v>0.2172029970119</v>
       </c>
-      <c r="D19" s="74"/>
+      <c r="D19" s="78" t="s">
+        <v>78</v>
+      </c>
       <c r="E19" s="75" t="n">
         <v>0.98</v>
       </c>
-      <c r="F19" s="76" t="n">
-        <f aca="false">(E19-$E$19)/$E$19*100</f>
-        <v>0</v>
+      <c r="F19" s="83" t="s">
+        <v>78</v>
       </c>
       <c r="G19" s="3" t="n">
         <v>0.36</v>
       </c>
-      <c r="H19" s="3"/>
+      <c r="H19" s="84" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="72" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B21" s="72"/>
       <c r="C21" s="72"/>
@@ -7533,10 +7584,10 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C22" s="23" t="s">
         <v>74</v>
@@ -7559,26 +7610,22 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B23" s="3" t="n">
         <v>-0.05</v>
       </c>
-      <c r="C23" s="79" t="n">
+      <c r="C23" s="80" t="n">
         <v>0.217805722233</v>
       </c>
-      <c r="D23" s="8" t="e">
+      <c r="D23" s="86" t="n">
         <f aca="false">(C23-$C$25)/$C$25*100</f>
-        <v>#DIV/0!</v>
+        <v>0.331021615696439</v>
       </c>
       <c r="E23" s="75" t="n">
-        <f aca="false">D18</f>
-        <v>0.0194739535742587</v>
-      </c>
-      <c r="F23" s="76" t="n">
-        <f aca="false">(E23-$E$13)/$E$13*100</f>
-        <v>-98.0128618801777</v>
-      </c>
+        <v>0.98</v>
+      </c>
+      <c r="F23" s="76"/>
       <c r="G23" s="3" t="n">
         <v>0.36</v>
       </c>
@@ -7586,52 +7633,153 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B24" s="3" t="n">
         <v>-0.25</v>
       </c>
-      <c r="C24" s="79" t="n">
+      <c r="C24" s="80" t="n">
         <v>0.2170978774019</v>
       </c>
-      <c r="D24" s="8" t="e">
+      <c r="D24" s="86" t="n">
         <f aca="false">(C24-$C$25)/$C$25*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E24" s="75"/>
-      <c r="F24" s="76" t="n">
-        <f aca="false">(E24-$E$13)/$E$13*100</f>
-        <v>-100</v>
-      </c>
+        <v>0.00495674319652931</v>
+      </c>
+      <c r="E24" s="75" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F24" s="76"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B25" s="3" t="n">
         <v>-1</v>
       </c>
-      <c r="C25" s="79"/>
-      <c r="D25" s="8" t="e">
-        <f aca="false">(C25-$C$25)/$C$25*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E25" s="75"/>
-      <c r="F25" s="76" t="n">
-        <f aca="false">(E25-$E$13)/$E$13*100</f>
-        <v>-100</v>
-      </c>
+      <c r="C25" s="80" t="n">
+        <v>0.217087116951</v>
+      </c>
+      <c r="D25" s="86"/>
+      <c r="E25" s="75" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F25" s="76"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="72" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="72"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="G28" s="23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="80" t="n">
+        <v>0.217805722233</v>
+      </c>
+      <c r="C29" s="86" t="n">
+        <f aca="false">(B29-$B$31)/$B$31*100</f>
+        <v>1.19671935537097</v>
+      </c>
+      <c r="D29" s="75" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E29" s="76" t="n">
+        <f aca="false">(D29-$D$30)/$D$30</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="3" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="80" t="n">
+        <v>0.2157534232895</v>
+      </c>
+      <c r="C30" s="86" t="n">
+        <f aca="false">(B30-$B$31)/$B$31*100</f>
+        <v>0.243181872106307</v>
+      </c>
+      <c r="D30" s="75" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E30" s="87" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" s="3" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" s="80" t="n">
+        <v>0.2152300228905</v>
+      </c>
+      <c r="C31" s="84" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="3" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E31" s="84" t="s">
+        <v>78</v>
+      </c>
+      <c r="F31" s="3" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G31" s="84" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A9:H9"/>
     <mergeCell ref="A15:H15"/>
     <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A27:H27"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0" right="0" top="0.39375" bottom="0.39375" header="0" footer="0"/>
@@ -7650,7 +7798,7 @@
   </sheetPr>
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -7661,76 +7809,76 @@
         <v>18</v>
       </c>
       <c r="B1" s="60" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C1" s="60" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="82" t="n">
+      <c r="A2" s="88" t="n">
         <v>0.3082</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="C2" s="83" t="n">
+      <c r="C2" s="89" t="n">
         <v>2E-005</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="82"/>
+      <c r="A3" s="88"/>
       <c r="B3" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="C3" s="83" t="n">
+      <c r="C3" s="89" t="n">
         <v>2.5E-005</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="82"/>
+      <c r="A4" s="88"/>
       <c r="B4" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C4" s="83" t="n">
+      <c r="C4" s="89" t="n">
         <v>2.5E-005</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="82"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="C5" s="83" t="n">
+      <c r="C5" s="89" t="n">
         <v>2.5E-005</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="82"/>
+      <c r="A6" s="88"/>
       <c r="B6" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="C6" s="83" t="n">
+      <c r="C6" s="89" t="n">
         <v>2E-005</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="82"/>
+      <c r="A7" s="88"/>
       <c r="B7" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="C7" s="83" t="n">
+      <c r="C7" s="89" t="n">
         <v>2E-005</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="82"/>
+      <c r="A8" s="88"/>
       <c r="B8" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="84" t="n">
+      <c r="A9" s="90" t="n">
         <v>0.54</v>
       </c>
       <c r="B9" s="0" t="n">
@@ -7738,43 +7886,43 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="84"/>
+      <c r="A10" s="90"/>
       <c r="B10" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="C10" s="83" t="n">
+      <c r="C10" s="89" t="n">
         <v>1E-005</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="84"/>
+      <c r="A11" s="90"/>
       <c r="B11" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C11" s="83" t="n">
+      <c r="C11" s="89" t="n">
         <v>1E-005</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="84"/>
+      <c r="A12" s="90"/>
       <c r="B12" s="0" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="84"/>
+      <c r="A13" s="90"/>
       <c r="B13" s="0" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="84"/>
+      <c r="A14" s="90"/>
       <c r="B14" s="0" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="84"/>
+      <c r="A15" s="90"/>
       <c r="B15" s="0" t="n">
         <v>20</v>
       </c>

--- a/Resultados/Resultados.xlsx
+++ b/Resultados/Resultados.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="97">
   <si>
     <t xml:space="preserve">L [m]</t>
   </si>
@@ -293,6 +293,21 @@
   </si>
   <si>
     <t xml:space="preserve">Extended all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grading (mesh density) near foil and cylinder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More grading 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More grading 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U=1,83 m/s</t>
   </si>
   <si>
     <t xml:space="preserve">f [Hz]</t>
@@ -305,7 +320,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="14">
+  <numFmts count="15">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00E+00"/>
     <numFmt numFmtId="166" formatCode="0.000E+00"/>
@@ -320,8 +335,9 @@
     <numFmt numFmtId="175" formatCode="#,##0.000000"/>
     <numFmt numFmtId="176" formatCode="0.00000E+00"/>
     <numFmt numFmtId="177" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="178" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -474,6 +490,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Ubuntu"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -513,7 +537,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="22">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -647,6 +671,27 @@
       <bottom style="hair"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -721,7 +766,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="111">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1010,14 +1055,34 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="173" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1030,6 +1095,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="168" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1038,6 +1107,10 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1058,20 +1131,72 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="173" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1170,7 +1295,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1411,11 +1536,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="59717520"/>
-        <c:axId val="63365900"/>
+        <c:axId val="75404530"/>
+        <c:axId val="39734210"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="59717520"/>
+        <c:axId val="75404530"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.8"/>
@@ -1493,13 +1618,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63365900"/>
+        <c:crossAx val="39734210"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="63365900"/>
+        <c:axId val="39734210"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1575,7 +1700,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59717520"/>
+        <c:crossAx val="75404530"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.25"/>
@@ -1630,7 +1755,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1874,11 +1999,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="31505426"/>
-        <c:axId val="92899493"/>
+        <c:axId val="38964138"/>
+        <c:axId val="50449827"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="31505426"/>
+        <c:axId val="38964138"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1934,7 +2059,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92899493"/>
+        <c:crossAx val="50449827"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1942,7 +2067,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92899493"/>
+        <c:axId val="50449827"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2007,7 +2132,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31505426"/>
+        <c:crossAx val="38964138"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2055,7 +2180,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2653,11 +2778,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="4360889"/>
-        <c:axId val="12252087"/>
+        <c:axId val="27838276"/>
+        <c:axId val="35844187"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="4360889"/>
+        <c:axId val="27838276"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.8"/>
@@ -2735,13 +2860,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="12252087"/>
+        <c:crossAx val="35844187"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="12252087"/>
+        <c:axId val="35844187"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2817,7 +2942,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4360889"/>
+        <c:crossAx val="27838276"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2881,9 +3006,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>482760</xdr:colOff>
+      <xdr:colOff>482040</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>147240</xdr:rowOff>
+      <xdr:rowOff>146520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2892,7 +3017,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3426840" y="5956560"/>
-        <a:ext cx="9155520" cy="6458760"/>
+        <a:ext cx="9154800" cy="6458040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2911,9 +3036,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>183960</xdr:colOff>
+      <xdr:colOff>183240</xdr:colOff>
       <xdr:row>104</xdr:row>
-      <xdr:rowOff>33120</xdr:rowOff>
+      <xdr:rowOff>32400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2922,7 +3047,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3494520" y="13782600"/>
-        <a:ext cx="7968240" cy="4477320"/>
+        <a:ext cx="7967520" cy="4476600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2941,9 +3066,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>1040040</xdr:colOff>
+      <xdr:colOff>1039320</xdr:colOff>
       <xdr:row>113</xdr:row>
-      <xdr:rowOff>111600</xdr:rowOff>
+      <xdr:rowOff>110880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2952,7 +3077,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="17106480" y="13145400"/>
-        <a:ext cx="9268560" cy="6770520"/>
+        <a:ext cx="9267840" cy="6769800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7137,43 +7262,46 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J46" activeCellId="0" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="12.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="22.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="5" style="0" width="10.61"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="3"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="74"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="75" t="s">
         <v>73</v>
       </c>
       <c r="B3" s="23" t="s">
@@ -7194,139 +7322,139 @@
       <c r="G3" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="73"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="77"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="78" t="n">
         <v>0</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>0.2367957031455</v>
       </c>
-      <c r="C4" s="74" t="n">
+      <c r="C4" s="79" t="n">
         <f aca="false">(B4-$B$7)/$B$7*100</f>
         <v>9.06708316529523</v>
       </c>
-      <c r="D4" s="75" t="n">
+      <c r="D4" s="80" t="n">
         <v>0.92</v>
       </c>
-      <c r="E4" s="76" t="n">
+      <c r="E4" s="81" t="n">
         <f aca="false">(D4-$D$7)/$D$7*100</f>
         <v>-7.07070707070707</v>
       </c>
-      <c r="F4" s="75" t="n">
+      <c r="F4" s="80" t="n">
         <v>0.31</v>
       </c>
       <c r="G4" s="40" t="n">
         <f aca="false">(F4-$F$7)/$F$7*100</f>
         <v>-16.2162162162162</v>
       </c>
-      <c r="H4" s="75"/>
-      <c r="I4" s="77"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="83"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="78" t="n">
         <v>1</v>
       </c>
       <c r="B5" s="8" t="n">
         <v>0.2207122883919</v>
       </c>
-      <c r="C5" s="74" t="n">
+      <c r="C5" s="79" t="n">
         <f aca="false">(B5-$B$7)/$B$7*100</f>
         <v>1.65913145328729</v>
       </c>
-      <c r="D5" s="75" t="n">
+      <c r="D5" s="80" t="n">
         <v>0.96</v>
       </c>
-      <c r="E5" s="76" t="n">
+      <c r="E5" s="81" t="n">
         <f aca="false">(D5-$D$7)/$D$7*100</f>
         <v>-3.03030303030303</v>
       </c>
-      <c r="F5" s="75" t="n">
+      <c r="F5" s="80" t="n">
         <v>0.36</v>
       </c>
       <c r="G5" s="40" t="n">
         <f aca="false">(F5-$F$7)/$F$7*100</f>
         <v>-2.70270270270271</v>
       </c>
-      <c r="H5" s="75"/>
-      <c r="I5" s="77"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="83"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="78" t="n">
         <v>2</v>
       </c>
       <c r="B6" s="8" t="n">
         <v>0.217805722233</v>
       </c>
-      <c r="C6" s="74" t="n">
+      <c r="C6" s="79" t="n">
         <f aca="false">(B6-$B$7)/$B$7*100</f>
         <v>0.320379572374198</v>
       </c>
-      <c r="D6" s="75" t="n">
+      <c r="D6" s="80" t="n">
         <v>0.98</v>
       </c>
-      <c r="E6" s="76" t="n">
+      <c r="E6" s="81" t="n">
         <f aca="false">(D6-$D$7)/$D$7*100</f>
         <v>-1.01010101010101</v>
       </c>
-      <c r="F6" s="75" t="n">
+      <c r="F6" s="80" t="n">
         <v>0.36</v>
       </c>
       <c r="G6" s="40" t="n">
         <f aca="false">(F6-$F$7)/$F$7*100</f>
         <v>-2.70270270270271</v>
       </c>
-      <c r="H6" s="75"/>
-      <c r="I6" s="77"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="83"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="78" t="n">
         <v>3</v>
       </c>
       <c r="B7" s="8" t="n">
         <v>0.2171101456767</v>
       </c>
-      <c r="C7" s="78" t="s">
+      <c r="C7" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="75" t="n">
+      <c r="D7" s="80" t="n">
         <v>0.99</v>
       </c>
-      <c r="E7" s="76"/>
-      <c r="F7" s="75" t="n">
+      <c r="E7" s="81"/>
+      <c r="F7" s="80" t="n">
         <v>0.37</v>
       </c>
       <c r="G7" s="40"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="77"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="83"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3"/>
+      <c r="A8" s="78"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="H8" s="74"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="85" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="M9" s="79"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="M9" s="86"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="75" t="s">
         <v>80</v>
       </c>
       <c r="B10" s="23" t="s">
@@ -7347,25 +7475,25 @@
       <c r="G10" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="76" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="78" t="s">
         <v>82</v>
       </c>
       <c r="B11" s="3" t="n">
         <v>0.25</v>
       </c>
-      <c r="C11" s="80" t="n">
+      <c r="C11" s="87" t="n">
         <v>0.217805722233</v>
       </c>
-      <c r="D11" s="81" t="n">
+      <c r="D11" s="88" t="n">
         <f aca="false">(C11-$C$13)/$C$13*100</f>
         <v>-0.00278887507064122</v>
       </c>
-      <c r="E11" s="75" t="n">
+      <c r="E11" s="80" t="n">
         <f aca="false">D6</f>
         <v>0.98</v>
       </c>
@@ -7376,26 +7504,26 @@
       <c r="G11" s="3" t="n">
         <v>0.36</v>
       </c>
-      <c r="H11" s="3" t="n">
+      <c r="H11" s="74" t="n">
         <f aca="false">(G11-$G$13)/$G$13</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="78" t="s">
         <v>83</v>
       </c>
       <c r="B12" s="3" t="n">
         <v>0.6</v>
       </c>
-      <c r="C12" s="80" t="n">
+      <c r="C12" s="87" t="n">
         <v>0.2178114943495</v>
       </c>
-      <c r="D12" s="81" t="n">
+      <c r="D12" s="88" t="n">
         <f aca="false">(C12-$C$13)/$C$13*100</f>
         <v>-0.000138827375075705</v>
       </c>
-      <c r="E12" s="75" t="n">
+      <c r="E12" s="80" t="n">
         <v>0.98</v>
       </c>
       <c r="F12" s="39" t="n">
@@ -7405,61 +7533,61 @@
       <c r="G12" s="3" t="n">
         <v>0.36</v>
       </c>
-      <c r="H12" s="3" t="n">
+      <c r="H12" s="74" t="n">
         <f aca="false">(G12-$G$13)/$G$13</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="78" t="s">
         <v>84</v>
       </c>
       <c r="B13" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="80" t="n">
+      <c r="C13" s="87" t="n">
         <v>0.2178117967319</v>
       </c>
-      <c r="D13" s="82" t="s">
+      <c r="D13" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="E13" s="75" t="n">
+      <c r="E13" s="80" t="n">
         <v>0.98</v>
       </c>
-      <c r="F13" s="83" t="s">
+      <c r="F13" s="90" t="s">
         <v>78</v>
       </c>
       <c r="G13" s="3" t="n">
         <v>0.36</v>
       </c>
-      <c r="H13" s="84" t="s">
+      <c r="H13" s="91" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3"/>
+      <c r="A14" s="78"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="76"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="81"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="H14" s="74"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="72" t="s">
+      <c r="A15" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="B15" s="72"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="75" t="s">
         <v>80</v>
       </c>
       <c r="B16" s="23" t="s">
@@ -7480,25 +7608,25 @@
       <c r="G16" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="H16" s="23" t="s">
+      <c r="H16" s="76" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="78" t="s">
         <v>82</v>
       </c>
       <c r="B17" s="3" t="n">
         <v>0.18</v>
       </c>
-      <c r="C17" s="85" t="n">
+      <c r="C17" s="92" t="n">
         <v>0.217805722233</v>
       </c>
-      <c r="D17" s="74" t="n">
+      <c r="D17" s="79" t="n">
         <f aca="false">(C17-$C$19)/$C$19*100</f>
         <v>0.277493970797731</v>
       </c>
-      <c r="E17" s="75" t="n">
+      <c r="E17" s="80" t="n">
         <f aca="false">D6</f>
         <v>0.98</v>
       </c>
@@ -7509,26 +7637,26 @@
       <c r="G17" s="3" t="n">
         <v>0.36</v>
       </c>
-      <c r="H17" s="3" t="n">
+      <c r="H17" s="74" t="n">
         <f aca="false">(G17-$G$19)/$G$19</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="78" t="s">
         <v>83</v>
       </c>
       <c r="B18" s="3" t="n">
         <v>0.36</v>
       </c>
-      <c r="C18" s="85" t="n">
+      <c r="C18" s="92" t="n">
         <v>0.2172452950227</v>
       </c>
-      <c r="D18" s="74" t="n">
+      <c r="D18" s="79" t="n">
         <f aca="false">(C18-$C$19)/$C$19*100</f>
         <v>0.0194739535742587</v>
       </c>
-      <c r="E18" s="75" t="n">
+      <c r="E18" s="80" t="n">
         <v>0.98</v>
       </c>
       <c r="F18" s="39" t="n">
@@ -7538,52 +7666,55 @@
       <c r="G18" s="3" t="n">
         <v>0.36</v>
       </c>
-      <c r="H18" s="3" t="n">
+      <c r="H18" s="74" t="n">
         <f aca="false">(G18-$G$19)/$G$19</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="78" t="s">
         <v>84</v>
       </c>
       <c r="B19" s="3" t="n">
         <v>0.72</v>
       </c>
-      <c r="C19" s="85" t="n">
+      <c r="C19" s="92" t="n">
         <v>0.2172029970119</v>
       </c>
-      <c r="D19" s="78" t="s">
+      <c r="D19" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="E19" s="75" t="n">
+      <c r="E19" s="80" t="n">
         <v>0.98</v>
       </c>
-      <c r="F19" s="83" t="s">
+      <c r="F19" s="90" t="s">
         <v>78</v>
       </c>
       <c r="G19" s="3" t="n">
         <v>0.36</v>
       </c>
-      <c r="H19" s="84" t="s">
+      <c r="H19" s="91" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="93"/>
+      <c r="H20" s="94"/>
+    </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="72" t="s">
+      <c r="A21" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="85"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="75" t="s">
         <v>80</v>
       </c>
       <c r="B22" s="23" t="s">
@@ -7604,86 +7735,90 @@
       <c r="G22" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="H22" s="23" t="s">
+      <c r="H22" s="76" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="78" t="s">
         <v>82</v>
       </c>
       <c r="B23" s="3" t="n">
         <v>-0.05</v>
       </c>
-      <c r="C23" s="80" t="n">
+      <c r="C23" s="87" t="n">
         <v>0.217805722233</v>
       </c>
-      <c r="D23" s="86" t="n">
+      <c r="D23" s="95" t="n">
         <f aca="false">(C23-$C$25)/$C$25*100</f>
         <v>0.331021615696439</v>
       </c>
-      <c r="E23" s="75" t="n">
+      <c r="E23" s="80" t="n">
         <v>0.98</v>
       </c>
-      <c r="F23" s="76"/>
+      <c r="F23" s="81"/>
       <c r="G23" s="3" t="n">
         <v>0.36</v>
       </c>
-      <c r="H23" s="3"/>
+      <c r="H23" s="74"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="78" t="s">
         <v>83</v>
       </c>
       <c r="B24" s="3" t="n">
         <v>-0.25</v>
       </c>
-      <c r="C24" s="80" t="n">
+      <c r="C24" s="87" t="n">
         <v>0.2170978774019</v>
       </c>
-      <c r="D24" s="86" t="n">
+      <c r="D24" s="95" t="n">
         <f aca="false">(C24-$C$25)/$C$25*100</f>
         <v>0.00495674319652931</v>
       </c>
-      <c r="E24" s="75" t="n">
+      <c r="E24" s="80" t="n">
         <v>0.98</v>
       </c>
-      <c r="F24" s="76"/>
+      <c r="F24" s="81"/>
       <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="H24" s="74"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="78" t="s">
         <v>84</v>
       </c>
       <c r="B25" s="3" t="n">
         <v>-1</v>
       </c>
-      <c r="C25" s="80" t="n">
+      <c r="C25" s="87" t="n">
         <v>0.217087116951</v>
       </c>
-      <c r="D25" s="86"/>
-      <c r="E25" s="75" t="n">
+      <c r="D25" s="95"/>
+      <c r="E25" s="80" t="n">
         <v>0.98</v>
       </c>
-      <c r="F25" s="76"/>
+      <c r="F25" s="81"/>
       <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
+      <c r="H25" s="74"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="93"/>
+      <c r="H26" s="94"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="72" t="s">
+      <c r="A27" s="85" t="s">
         <v>89</v>
       </c>
-      <c r="B27" s="72"/>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
+      <c r="B27" s="85"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="85"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="75" t="s">
         <v>80</v>
       </c>
       <c r="B28" s="23" t="s">
@@ -7704,22 +7839,23 @@
       <c r="G28" s="23" t="s">
         <v>75</v>
       </c>
+      <c r="H28" s="94"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="80" t="n">
+      <c r="B29" s="87" t="n">
         <v>0.217805722233</v>
       </c>
-      <c r="C29" s="86" t="n">
+      <c r="C29" s="95" t="n">
         <f aca="false">(B29-$B$31)/$B$31*100</f>
         <v>1.19671935537097</v>
       </c>
-      <c r="D29" s="75" t="n">
+      <c r="D29" s="80" t="n">
         <v>0.98</v>
       </c>
-      <c r="E29" s="76" t="n">
+      <c r="E29" s="81" t="n">
         <f aca="false">(D29-$D$30)/$D$30</f>
         <v>0</v>
       </c>
@@ -7727,59 +7863,769 @@
         <v>0.36</v>
       </c>
       <c r="G29" s="3"/>
+      <c r="H29" s="94"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="78" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="80" t="n">
+      <c r="B30" s="87" t="n">
         <v>0.2157534232895</v>
       </c>
-      <c r="C30" s="86" t="n">
+      <c r="C30" s="95" t="n">
         <f aca="false">(B30-$B$31)/$B$31*100</f>
         <v>0.243181872106307</v>
       </c>
-      <c r="D30" s="75" t="n">
+      <c r="D30" s="80" t="n">
         <v>0.98</v>
       </c>
-      <c r="E30" s="87" t="s">
+      <c r="E30" s="96" t="s">
         <v>78</v>
       </c>
       <c r="F30" s="3" t="n">
         <v>0.36</v>
       </c>
       <c r="G30" s="3"/>
+      <c r="H30" s="94"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="B31" s="80" t="n">
+      <c r="B31" s="87" t="n">
         <v>0.2152300228905</v>
       </c>
-      <c r="C31" s="84" t="s">
+      <c r="C31" s="97" t="s">
         <v>78</v>
       </c>
       <c r="D31" s="3" t="n">
         <v>0.98</v>
       </c>
-      <c r="E31" s="84" t="s">
+      <c r="E31" s="97" t="s">
         <v>78</v>
       </c>
       <c r="F31" s="3" t="n">
         <v>0.36</v>
       </c>
-      <c r="G31" s="84" t="s">
+      <c r="G31" s="97" t="s">
         <v>78</v>
       </c>
+      <c r="H31" s="94"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="93"/>
+      <c r="H32" s="94"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="98" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" s="98"/>
+      <c r="C33" s="98"/>
+      <c r="D33" s="98"/>
+      <c r="E33" s="98"/>
+      <c r="F33" s="98"/>
+      <c r="G33" s="98"/>
+      <c r="H33" s="94"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="H34" s="94"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="93" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" s="99" t="n">
+        <f aca="false">C23</f>
+        <v>0.217805722233</v>
+      </c>
+      <c r="C35" s="100" t="n">
+        <f aca="false">(B35-$B$37)/$B$37*100</f>
+        <v>0.0654995535925682</v>
+      </c>
+      <c r="H35" s="94"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="93" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" s="99" t="n">
+        <v>0.2180523405262</v>
+      </c>
+      <c r="C36" s="100" t="n">
+        <f aca="false">(B36-$B$37)/$B$37*100</f>
+        <v>0.178802282534259</v>
+      </c>
+      <c r="H36" s="94"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="101" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" s="102" t="n">
+        <v>0.2176631538389</v>
+      </c>
+      <c r="C37" s="103"/>
+      <c r="D37" s="103"/>
+      <c r="E37" s="103"/>
+      <c r="F37" s="103"/>
+      <c r="G37" s="103"/>
+      <c r="H37" s="104"/>
+    </row>
+    <row r="39" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="105" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" s="105"/>
+      <c r="C39" s="105"/>
+      <c r="D39" s="105"/>
+      <c r="E39" s="105"/>
+      <c r="F39" s="105"/>
+      <c r="G39" s="105"/>
+      <c r="H39" s="105"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" s="73"/>
+      <c r="C40" s="73"/>
+      <c r="D40" s="73"/>
+      <c r="E40" s="73"/>
+      <c r="F40" s="73"/>
+      <c r="G40" s="73"/>
+      <c r="H40" s="73"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="E41" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="F41" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="G41" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="H41" s="76"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="78" t="n">
+        <v>0</v>
+      </c>
+      <c r="B42" s="8" t="n">
+        <v>0.8279395498848</v>
+      </c>
+      <c r="C42" s="79" t="n">
+        <f aca="false">(B42-$B$45)/$B$45*100</f>
+        <v>22.5064864066551</v>
+      </c>
+      <c r="D42" s="80" t="n">
+        <v>2</v>
+      </c>
+      <c r="E42" s="81" t="n">
+        <f aca="false">(D42-$D$45)/$D$45*100</f>
+        <v>-9.0909090909091</v>
+      </c>
+      <c r="F42" s="80" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G42" s="40" t="n">
+        <f aca="false">(F42-$F$45)/$F$45*100</f>
+        <v>-11.764705882353</v>
+      </c>
+      <c r="H42" s="82"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="78" t="n">
+        <v>1</v>
+      </c>
+      <c r="B43" s="8" t="n">
+        <v>0.7053919425262</v>
+      </c>
+      <c r="C43" s="79" t="n">
+        <f aca="false">(B43-$B$45)/$B$45*100</f>
+        <v>4.3736688632326</v>
+      </c>
+      <c r="D43" s="80" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E43" s="81" t="n">
+        <f aca="false">(D43-$D$45)/$D$45*100</f>
+        <v>-4.54545454545455</v>
+      </c>
+      <c r="F43" s="80" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G43" s="40" t="n">
+        <f aca="false">(F43-$F$45)/$F$45*100</f>
+        <v>0</v>
+      </c>
+      <c r="H43" s="82"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="78" t="n">
+        <v>2</v>
+      </c>
+      <c r="B44" s="8" t="n">
+        <v>0.681267343842</v>
+      </c>
+      <c r="C44" s="79" t="n">
+        <f aca="false">(B44-$B$45)/$B$45*100</f>
+        <v>0.804060645841392</v>
+      </c>
+      <c r="D44" s="80" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E44" s="81" t="n">
+        <f aca="false">(D44-$D$45)/$D$45*100</f>
+        <v>-4.54545454545455</v>
+      </c>
+      <c r="F44" s="80" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G44" s="40" t="n">
+        <f aca="false">(F44-$F$45)/$F$45*100</f>
+        <v>0</v>
+      </c>
+      <c r="H44" s="82"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="78" t="n">
+        <v>3</v>
+      </c>
+      <c r="B45" s="8" t="n">
+        <v>0.6758332347697</v>
+      </c>
+      <c r="C45" s="84" t="s">
+        <v>78</v>
+      </c>
+      <c r="D45" s="80" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E45" s="96" t="s">
+        <v>78</v>
+      </c>
+      <c r="F45" s="80" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G45" s="106" t="s">
+        <v>78</v>
+      </c>
+      <c r="H45" s="82"/>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="78"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="74"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="85" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47" s="85"/>
+      <c r="C47" s="85"/>
+      <c r="D47" s="85"/>
+      <c r="E47" s="85"/>
+      <c r="F47" s="85"/>
+      <c r="G47" s="85"/>
+      <c r="H47" s="85"/>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="75" t="s">
+        <v>80</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="E48" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="F48" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="G48" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="H48" s="76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="78" t="s">
+        <v>82</v>
+      </c>
+      <c r="B49" s="3" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C49" s="87"/>
+      <c r="D49" s="88" t="n">
+        <f aca="false">(C49-$C$13)/$C$13*100</f>
+        <v>-100</v>
+      </c>
+      <c r="E49" s="80"/>
+      <c r="F49" s="39" t="n">
+        <f aca="false">(E49-$E$13)/$E$13*100</f>
+        <v>-100</v>
+      </c>
+      <c r="G49" s="3"/>
+      <c r="H49" s="107" t="e">
+        <f aca="false">(G49-$G$51)/$G$51</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="78" t="s">
+        <v>83</v>
+      </c>
+      <c r="B50" s="3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C50" s="87"/>
+      <c r="D50" s="88" t="n">
+        <f aca="false">(C50-$C$13)/$C$13*100</f>
+        <v>-100</v>
+      </c>
+      <c r="E50" s="80"/>
+      <c r="F50" s="39" t="n">
+        <f aca="false">(E50-$E$13)/$E$13*100</f>
+        <v>-100</v>
+      </c>
+      <c r="G50" s="3"/>
+      <c r="H50" s="107" t="e">
+        <f aca="false">(G50-$G$51)/$G$51</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="78" t="s">
+        <v>84</v>
+      </c>
+      <c r="B51" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" s="87"/>
+      <c r="D51" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="E51" s="80"/>
+      <c r="F51" s="90" t="s">
+        <v>78</v>
+      </c>
+      <c r="G51" s="3"/>
+      <c r="H51" s="91" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="78"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="80"/>
+      <c r="F52" s="81"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="74"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="85" t="s">
+        <v>85</v>
+      </c>
+      <c r="B53" s="85"/>
+      <c r="C53" s="85"/>
+      <c r="D53" s="85"/>
+      <c r="E53" s="85"/>
+      <c r="F53" s="85"/>
+      <c r="G53" s="85"/>
+      <c r="H53" s="85"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="75" t="s">
+        <v>80</v>
+      </c>
+      <c r="B54" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D54" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="E54" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="F54" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="G54" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="H54" s="76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="78" t="s">
+        <v>82</v>
+      </c>
+      <c r="B55" s="3" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="C55" s="92"/>
+      <c r="D55" s="79" t="e">
+        <f aca="false">(C55-$C$58)/$C$58*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E55" s="80"/>
+      <c r="F55" s="39" t="e">
+        <f aca="false">(E55-$E$58)/$E$58*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G55" s="3"/>
+      <c r="H55" s="74" t="e">
+        <f aca="false">(G55-$G$58)/$G$58*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="78" t="s">
+        <v>83</v>
+      </c>
+      <c r="B56" s="3" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="C56" s="92"/>
+      <c r="D56" s="79" t="e">
+        <f aca="false">(C56-$C$58)/$C$58*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E56" s="80"/>
+      <c r="F56" s="39" t="e">
+        <f aca="false">(E56-$E$58)/$E$58*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G56" s="3"/>
+      <c r="H56" s="74" t="e">
+        <f aca="false">(G56-$G$58)/$G$58*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="78" t="s">
+        <v>84</v>
+      </c>
+      <c r="B57" s="3" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="C57" s="92"/>
+      <c r="D57" s="84" t="s">
+        <v>78</v>
+      </c>
+      <c r="E57" s="80"/>
+      <c r="F57" s="90" t="s">
+        <v>78</v>
+      </c>
+      <c r="G57" s="3"/>
+      <c r="H57" s="91" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="93"/>
+      <c r="H58" s="94"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="85" t="s">
+        <v>87</v>
+      </c>
+      <c r="B59" s="85"/>
+      <c r="C59" s="85"/>
+      <c r="D59" s="85"/>
+      <c r="E59" s="85"/>
+      <c r="F59" s="85"/>
+      <c r="G59" s="85"/>
+      <c r="H59" s="85"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="75" t="s">
+        <v>80</v>
+      </c>
+      <c r="B60" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C60" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D60" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="E60" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="F60" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="G60" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="H60" s="76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="78" t="s">
+        <v>82</v>
+      </c>
+      <c r="B61" s="3" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="C61" s="87"/>
+      <c r="D61" s="95" t="e">
+        <f aca="false">(C61-$C$63)/$C$63*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E61" s="80"/>
+      <c r="F61" s="81"/>
+      <c r="G61" s="3" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H61" s="74"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="78" t="s">
+        <v>83</v>
+      </c>
+      <c r="B62" s="3" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="C62" s="87"/>
+      <c r="D62" s="95" t="e">
+        <f aca="false">(C62-$C$63)/$C$63*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E62" s="80"/>
+      <c r="F62" s="81"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="74"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="78" t="s">
+        <v>84</v>
+      </c>
+      <c r="B63" s="3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C63" s="87"/>
+      <c r="D63" s="95"/>
+      <c r="E63" s="80"/>
+      <c r="F63" s="81"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="74"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="93"/>
+      <c r="H64" s="94"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="85" t="s">
+        <v>89</v>
+      </c>
+      <c r="B65" s="85"/>
+      <c r="C65" s="85"/>
+      <c r="D65" s="85"/>
+      <c r="E65" s="85"/>
+      <c r="F65" s="85"/>
+      <c r="G65" s="85"/>
+      <c r="H65" s="85"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="75" t="s">
+        <v>80</v>
+      </c>
+      <c r="B66" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C66" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D66" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="E66" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="F66" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="G66" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="H66" s="94"/>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="78" t="s">
+        <v>82</v>
+      </c>
+      <c r="B67" s="87"/>
+      <c r="C67" s="95" t="e">
+        <f aca="false">(B67-$B$69)/$B$69*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D67" s="80"/>
+      <c r="E67" s="81" t="e">
+        <f aca="false">(D67-$D$69)/$D$69</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="94"/>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="78" t="s">
+        <v>83</v>
+      </c>
+      <c r="B68" s="87"/>
+      <c r="C68" s="95" t="e">
+        <f aca="false">(B68-$B$69)/$B$69*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D68" s="80"/>
+      <c r="E68" s="81" t="e">
+        <f aca="false">(D68-$D$69)/$D$69</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="94"/>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="78" t="s">
+        <v>84</v>
+      </c>
+      <c r="B69" s="87"/>
+      <c r="C69" s="97" t="s">
+        <v>78</v>
+      </c>
+      <c r="D69" s="3"/>
+      <c r="E69" s="97" t="s">
+        <v>78</v>
+      </c>
+      <c r="F69" s="3"/>
+      <c r="G69" s="97" t="s">
+        <v>78</v>
+      </c>
+      <c r="H69" s="94"/>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="93"/>
+      <c r="H70" s="94"/>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="98" t="s">
+        <v>90</v>
+      </c>
+      <c r="B71" s="98"/>
+      <c r="C71" s="98"/>
+      <c r="D71" s="98"/>
+      <c r="E71" s="98"/>
+      <c r="F71" s="98"/>
+      <c r="G71" s="98"/>
+      <c r="H71" s="98"/>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="B72" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="C72" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="H72" s="94"/>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="93" t="s">
+        <v>82</v>
+      </c>
+      <c r="B73" s="99"/>
+      <c r="C73" s="100" t="n">
+        <f aca="false">(B73-$B$37)/$B$37*100</f>
+        <v>-100</v>
+      </c>
+      <c r="H73" s="94"/>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="93" t="s">
+        <v>92</v>
+      </c>
+      <c r="B74" s="99"/>
+      <c r="C74" s="100" t="n">
+        <f aca="false">(B74-$B$37)/$B$37*100</f>
+        <v>-100</v>
+      </c>
+      <c r="H74" s="94"/>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="101" t="s">
+        <v>93</v>
+      </c>
+      <c r="B75" s="102"/>
+      <c r="C75" s="103"/>
+      <c r="D75" s="103"/>
+      <c r="E75" s="103"/>
+      <c r="F75" s="103"/>
+      <c r="G75" s="103"/>
+      <c r="H75" s="104"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="14">
+    <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A9:H9"/>
     <mergeCell ref="A15:H15"/>
     <mergeCell ref="A21:H21"/>
     <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="A40:H40"/>
+    <mergeCell ref="A47:H47"/>
+    <mergeCell ref="A53:H53"/>
+    <mergeCell ref="A59:H59"/>
+    <mergeCell ref="A65:H65"/>
+    <mergeCell ref="A71:H71"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0" right="0" top="0.39375" bottom="0.39375" header="0" footer="0"/>
@@ -7809,76 +8655,76 @@
         <v>18</v>
       </c>
       <c r="B1" s="60" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C1" s="60" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="88" t="n">
+      <c r="A2" s="108" t="n">
         <v>0.3082</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="C2" s="89" t="n">
+      <c r="C2" s="109" t="n">
         <v>2E-005</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="88"/>
+      <c r="A3" s="108"/>
       <c r="B3" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="C3" s="89" t="n">
+      <c r="C3" s="109" t="n">
         <v>2.5E-005</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="88"/>
+      <c r="A4" s="108"/>
       <c r="B4" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C4" s="89" t="n">
+      <c r="C4" s="109" t="n">
         <v>2.5E-005</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="88"/>
+      <c r="A5" s="108"/>
       <c r="B5" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="C5" s="89" t="n">
+      <c r="C5" s="109" t="n">
         <v>2.5E-005</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="88"/>
+      <c r="A6" s="108"/>
       <c r="B6" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="C6" s="89" t="n">
+      <c r="C6" s="109" t="n">
         <v>2E-005</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="88"/>
+      <c r="A7" s="108"/>
       <c r="B7" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="C7" s="89" t="n">
+      <c r="C7" s="109" t="n">
         <v>2E-005</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="88"/>
+      <c r="A8" s="108"/>
       <c r="B8" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="90" t="n">
+      <c r="A9" s="110" t="n">
         <v>0.54</v>
       </c>
       <c r="B9" s="0" t="n">
@@ -7886,43 +8732,43 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="90"/>
+      <c r="A10" s="110"/>
       <c r="B10" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="C10" s="89" t="n">
+      <c r="C10" s="109" t="n">
         <v>1E-005</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="90"/>
+      <c r="A11" s="110"/>
       <c r="B11" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C11" s="89" t="n">
+      <c r="C11" s="109" t="n">
         <v>1E-005</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="90"/>
+      <c r="A12" s="110"/>
       <c r="B12" s="0" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="90"/>
+      <c r="A13" s="110"/>
       <c r="B13" s="0" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="90"/>
+      <c r="A14" s="110"/>
       <c r="B14" s="0" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="90"/>
+      <c r="A15" s="110"/>
       <c r="B15" s="0" t="n">
         <v>20</v>
       </c>

--- a/Resultados/Resultados.xlsx
+++ b/Resultados/Resultados.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="UR0.29" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="DataAmplitudes" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="MIS-Wedge" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Corridas" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="110">
   <si>
     <t xml:space="preserve">L [m]</t>
   </si>
@@ -253,6 +254,9 @@
     <t xml:space="preserve">% Dif</t>
   </si>
   <si>
+    <t xml:space="preserve">Cd_mod</t>
+  </si>
+  <si>
     <t xml:space="preserve">max U</t>
   </si>
   <si>
@@ -314,13 +318,49 @@
   </si>
   <si>
     <t xml:space="preserve">dt [s]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V=1,45 m/s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elementos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f1 [Hz]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f2 [Hz]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f3 [Hz]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f4 [Hz]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f5 [Hz]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muy Gruesa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N° de celdas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gruesa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fina</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="15">
+  <numFmts count="16">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00E+00"/>
     <numFmt numFmtId="166" formatCode="0.000E+00"/>
@@ -336,8 +376,9 @@
     <numFmt numFmtId="176" formatCode="0.00000E+00"/>
     <numFmt numFmtId="177" formatCode="#,##0.0000"/>
     <numFmt numFmtId="178" formatCode="0.00000"/>
+    <numFmt numFmtId="179" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -498,8 +539,14 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -528,6 +575,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCC0000"/>
         <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF158466"/>
+        <bgColor rgb="FF008080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF4000"/>
+        <bgColor rgb="FFFF420E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8D1D75"/>
+        <bgColor rgb="FF993366"/>
       </patternFill>
     </fill>
     <fill>
@@ -766,7 +831,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="132">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -867,7 +932,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -955,7 +1020,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -983,6 +1052,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1015,7 +1088,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1047,7 +1128,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1071,48 +1152,88 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="173" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="173" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="173" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="173" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="173" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="174" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="175" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="14" fillId="9" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="174" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1135,6 +1256,10 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="176" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1144,6 +1269,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1191,6 +1320,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="168" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1209,6 +1342,22 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="179" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1247,11 +1396,11 @@
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF158466"/>
       <rgbColor rgb="FFBFBFBF"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF8D1D75"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
@@ -1286,7 +1435,7 @@
       <rgbColor rgb="FF579D1C"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FFFF4000"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -1295,7 +1444,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1536,11 +1685,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="75404530"/>
-        <c:axId val="39734210"/>
+        <c:axId val="47214845"/>
+        <c:axId val="39463497"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="75404530"/>
+        <c:axId val="47214845"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.8"/>
@@ -1618,13 +1767,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39734210"/>
+        <c:crossAx val="39463497"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="39734210"/>
+        <c:axId val="39463497"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1700,7 +1849,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75404530"/>
+        <c:crossAx val="47214845"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.25"/>
@@ -1755,7 +1904,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1999,11 +2148,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="38964138"/>
-        <c:axId val="50449827"/>
+        <c:axId val="90556306"/>
+        <c:axId val="79459061"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="38964138"/>
+        <c:axId val="90556306"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2059,7 +2208,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50449827"/>
+        <c:crossAx val="79459061"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2067,7 +2216,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50449827"/>
+        <c:axId val="79459061"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2132,7 +2281,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38964138"/>
+        <c:crossAx val="90556306"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2180,7 +2329,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2778,11 +2927,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="27838276"/>
-        <c:axId val="35844187"/>
+        <c:axId val="37127672"/>
+        <c:axId val="80604326"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="27838276"/>
+        <c:axId val="37127672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.8"/>
@@ -2860,13 +3009,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35844187"/>
+        <c:crossAx val="80604326"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="35844187"/>
+        <c:axId val="80604326"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2942,7 +3091,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="27838276"/>
+        <c:crossAx val="37127672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3006,9 +3155,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>482040</xdr:colOff>
+      <xdr:colOff>479880</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>146520</xdr:rowOff>
+      <xdr:rowOff>144360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3017,7 +3166,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3426840" y="5956560"/>
-        <a:ext cx="9154800" cy="6458040"/>
+        <a:ext cx="9152640" cy="6455880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3036,9 +3185,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>183240</xdr:colOff>
+      <xdr:colOff>181080</xdr:colOff>
       <xdr:row>104</xdr:row>
-      <xdr:rowOff>32400</xdr:rowOff>
+      <xdr:rowOff>30240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3047,7 +3196,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3494520" y="13782600"/>
-        <a:ext cx="7967520" cy="4476600"/>
+        <a:ext cx="7965360" cy="4474440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3066,9 +3215,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>1039320</xdr:colOff>
+      <xdr:colOff>1037160</xdr:colOff>
       <xdr:row>113</xdr:row>
-      <xdr:rowOff>110880</xdr:rowOff>
+      <xdr:rowOff>108720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3077,7 +3226,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="17106480" y="13145400"/>
-        <a:ext cx="9267840" cy="6769800"/>
+        <a:ext cx="9265680" cy="6767640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3097,8 +3246,8 @@
   </sheetPr>
   <dimension ref="A1:AA73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R15" activeCellId="0" sqref="R15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3782,7 +3931,7 @@
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="34" t="n">
+      <c r="D17" s="47" t="n">
         <v>12</v>
       </c>
       <c r="E17" s="26" t="n">
@@ -3857,7 +4006,7 @@
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="34" t="n">
+      <c r="D18" s="47" t="n">
         <v>14</v>
       </c>
       <c r="E18" s="26" t="n">
@@ -3932,7 +4081,7 @@
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="34" t="n">
+      <c r="D19" s="47" t="n">
         <v>16</v>
       </c>
       <c r="E19" s="26" t="n">
@@ -4007,7 +4156,7 @@
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="34" t="n">
+      <c r="D20" s="47" t="n">
         <v>18</v>
       </c>
       <c r="E20" s="26" t="n">
@@ -4082,54 +4231,54 @@
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="47" t="n">
+      <c r="D21" s="48" t="n">
         <v>20</v>
       </c>
-      <c r="E21" s="48" t="n">
+      <c r="E21" s="49" t="n">
         <f aca="false">D21/12.27</f>
         <v>1.62999185004075</v>
       </c>
       <c r="F21" s="27"/>
       <c r="G21" s="28"/>
-      <c r="H21" s="49" t="n">
+      <c r="H21" s="50" t="n">
         <f aca="false">AVERAGE(DataAmplitudes!L4:L9)</f>
         <v>4.81088333333333</v>
       </c>
-      <c r="I21" s="50" t="n">
+      <c r="I21" s="51" t="n">
         <f aca="false">H21/$B$10</f>
         <v>0.791564941081362</v>
       </c>
-      <c r="J21" s="51" t="n">
+      <c r="J21" s="52" t="n">
         <f aca="false">$F$15*$B$1/$B$12</f>
         <v>1923.84105960265</v>
       </c>
-      <c r="K21" s="51" t="n">
+      <c r="K21" s="52" t="n">
         <f aca="false">$F$15*2*(H21/1000)/$B$12</f>
         <v>528.878565121413</v>
       </c>
-      <c r="L21" s="52" t="n">
+      <c r="L21" s="53" t="n">
         <f aca="false">D21*2*(H21/1000)/$F$15</f>
         <v>0.231849799196787</v>
       </c>
-      <c r="M21" s="53" t="n">
+      <c r="M21" s="54" t="n">
         <f aca="false">2*D21*($B$10/1000)/$F$15</f>
         <v>0.292900540643015</v>
       </c>
-      <c r="N21" s="47" t="n">
+      <c r="N21" s="55" t="n">
         <v>0.061</v>
       </c>
-      <c r="O21" s="54" t="n">
+      <c r="O21" s="56" t="n">
         <v>0.0624</v>
       </c>
-      <c r="P21" s="55" t="n">
+      <c r="P21" s="57" t="n">
         <f aca="false">H21/(1000*SIN(RADIANS(10.78))*0.035)</f>
         <v>0.734896121052445</v>
       </c>
-      <c r="Q21" s="55" t="n">
+      <c r="Q21" s="57" t="n">
         <f aca="false">2*H21/2</f>
         <v>4.81088333333333</v>
       </c>
-      <c r="R21" s="56" t="n">
+      <c r="R21" s="58" t="n">
         <f aca="false">E21*0.002/$F$15</f>
         <v>0.00392769120491747</v>
       </c>
@@ -4176,7 +4325,7 @@
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
-      <c r="W22" s="57" t="n">
+      <c r="W22" s="59" t="n">
         <v>13.24</v>
       </c>
       <c r="X22" s="3"/>
@@ -4356,7 +4505,7 @@
       <c r="R26" s="35"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D27" s="34" t="n">
+      <c r="D27" s="47" t="n">
         <v>12</v>
       </c>
       <c r="E27" s="26" t="n">
@@ -4403,7 +4552,7 @@
       <c r="R27" s="35"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D28" s="34" t="n">
+      <c r="D28" s="47" t="n">
         <v>14</v>
       </c>
       <c r="E28" s="26" t="n">
@@ -4448,17 +4597,17 @@
       </c>
       <c r="Q28" s="35"/>
       <c r="R28" s="35"/>
-      <c r="T28" s="58" t="s">
+      <c r="T28" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="U28" s="59" t="s">
+      <c r="U28" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="V28" s="59"/>
-      <c r="W28" s="59"/>
+      <c r="V28" s="61"/>
+      <c r="W28" s="61"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D29" s="34" t="n">
+      <c r="D29" s="47" t="n">
         <v>16</v>
       </c>
       <c r="E29" s="26" t="n">
@@ -4503,30 +4652,30 @@
       </c>
       <c r="Q29" s="35"/>
       <c r="R29" s="35"/>
-      <c r="U29" s="60" t="s">
+      <c r="U29" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="V29" s="60" t="s">
+      <c r="V29" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="W29" s="60" t="s">
+      <c r="W29" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="X29" s="61" t="s">
+      <c r="X29" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="Y29" s="60" t="s">
+      <c r="Y29" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="Z29" s="60" t="s">
+      <c r="Z29" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="AA29" s="60" t="s">
+      <c r="AA29" s="62" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D30" s="34" t="n">
+      <c r="D30" s="64" t="n">
         <v>18</v>
       </c>
       <c r="E30" s="26" t="n">
@@ -4571,146 +4720,146 @@
       </c>
       <c r="Q30" s="35"/>
       <c r="R30" s="35"/>
-      <c r="T30" s="62" t="n">
+      <c r="T30" s="65" t="n">
         <f aca="false">E17</f>
         <v>0.97799511002445</v>
       </c>
-      <c r="U30" s="62"/>
-      <c r="V30" s="62" t="n">
+      <c r="U30" s="65"/>
+      <c r="V30" s="65" t="n">
         <f aca="false">DataAmplitudes!D71</f>
         <v>1.95834478184374</v>
       </c>
-      <c r="W30" s="62" t="n">
+      <c r="W30" s="65" t="n">
         <f aca="false">DataAmplitudes!Q54</f>
         <v>1.8259044600139</v>
       </c>
-      <c r="X30" s="62" t="n">
+      <c r="X30" s="65" t="n">
         <f aca="false">DataAmplitudes!D86</f>
         <v>1.79643763408429</v>
       </c>
-      <c r="Y30" s="62" t="n">
+      <c r="Y30" s="65" t="n">
         <f aca="false">DataAmplitudes!D96</f>
         <v>1.66256139642377</v>
       </c>
-      <c r="Z30" s="62" t="n">
+      <c r="Z30" s="65" t="n">
         <f aca="false">DataAmplitudes!D107</f>
         <v>1.61290009466266</v>
       </c>
-      <c r="AA30" s="62" t="n">
+      <c r="AA30" s="65" t="n">
         <f aca="false">DataAmplitudes!D116</f>
         <v>1.5894824460623</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D31" s="47" t="n">
+      <c r="D31" s="66" t="n">
         <v>20</v>
       </c>
-      <c r="E31" s="48" t="n">
+      <c r="E31" s="49" t="n">
         <f aca="false">D31/12.27</f>
         <v>1.62999185004075</v>
       </c>
       <c r="F31" s="27"/>
       <c r="G31" s="28"/>
-      <c r="H31" s="49" t="n">
+      <c r="H31" s="50" t="n">
         <v>5.1647</v>
       </c>
-      <c r="I31" s="50" t="n">
+      <c r="I31" s="51" t="n">
         <f aca="false">H31/$B$10</f>
         <v>0.849780626122626</v>
       </c>
-      <c r="J31" s="51" t="n">
+      <c r="J31" s="52" t="n">
         <f aca="false">$F$15*$B$1/$B$12</f>
         <v>1923.84105960265</v>
       </c>
-      <c r="K31" s="51" t="n">
+      <c r="K31" s="52" t="n">
         <f aca="false">$F$15*2*(H31/1000)/$B$12</f>
         <v>567.774966887417</v>
       </c>
-      <c r="L31" s="52" t="n">
+      <c r="L31" s="53" t="n">
         <f aca="false">D31*2*(H31/1000)/$F$15</f>
         <v>0.248901204819277</v>
       </c>
-      <c r="M31" s="53" t="n">
+      <c r="M31" s="54" t="n">
         <f aca="false">2*D31*($B$10/1000)/$F$15</f>
         <v>0.292900540643015</v>
       </c>
-      <c r="N31" s="47" t="n">
+      <c r="N31" s="55" t="n">
         <v>0.061</v>
       </c>
-      <c r="O31" s="54" t="n">
+      <c r="O31" s="56" t="n">
         <v>0.0624</v>
       </c>
-      <c r="P31" s="55" t="n">
+      <c r="P31" s="57" t="n">
         <f aca="false">H31/(1000*SIN(RADIANS(10.78))*0.035)</f>
         <v>0.788944094757282</v>
       </c>
-      <c r="Q31" s="55"/>
-      <c r="R31" s="55"/>
-      <c r="T31" s="62" t="n">
+      <c r="Q31" s="57"/>
+      <c r="R31" s="57"/>
+      <c r="T31" s="65" t="n">
         <f aca="false">E18</f>
         <v>1.14099429502853</v>
       </c>
-      <c r="U31" s="62"/>
-      <c r="W31" s="62" t="n">
+      <c r="U31" s="65"/>
+      <c r="W31" s="65" t="n">
         <f aca="false">DataAmplitudes!Q64</f>
         <v>1.91099011083192</v>
       </c>
-      <c r="X31" s="62" t="n">
+      <c r="X31" s="65" t="n">
         <f aca="false">DataAmplitudes!N87</f>
         <v>1.8822717942183</v>
       </c>
-      <c r="Y31" s="62" t="n">
+      <c r="Y31" s="65" t="n">
         <f aca="false">DataAmplitudes!I96</f>
         <v>1.6722461904307</v>
       </c>
-      <c r="Z31" s="62" t="n">
+      <c r="Z31" s="65" t="n">
         <f aca="false">DataAmplitudes!I107</f>
         <v>1.72030354365754</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="T32" s="62" t="n">
+      <c r="T32" s="65" t="n">
         <f aca="false">E19</f>
         <v>1.3039934800326</v>
       </c>
-      <c r="U32" s="62" t="n">
+      <c r="U32" s="65" t="n">
         <f aca="false">DataAmplitudes!D44</f>
         <v>1.49008346403845</v>
       </c>
-      <c r="V32" s="62" t="n">
+      <c r="V32" s="65" t="n">
         <f aca="false">DataAmplitudes!D62</f>
         <v>1.77042311642844</v>
       </c>
       <c r="W32" s="0" t="n">
         <v>1.75</v>
       </c>
-      <c r="X32" s="62" t="n">
+      <c r="X32" s="65" t="n">
         <v>1.75</v>
       </c>
-      <c r="Y32" s="62" t="n">
+      <c r="Y32" s="65" t="n">
         <f aca="false">DataAmplitudes!N96</f>
         <v>1.52323173374673</v>
       </c>
-      <c r="Z32" s="62" t="n">
+      <c r="Z32" s="65" t="n">
         <f aca="false">DataAmplitudes!N107</f>
         <v>1.66086579368754</v>
       </c>
-      <c r="AA32" s="62" t="n">
+      <c r="AA32" s="65" t="n">
         <f aca="false">DataAmplitudes!N116</f>
         <v>1.69242539056187</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U43" s="59" t="s">
+      <c r="U43" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="V43" s="59"/>
+      <c r="V43" s="61"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U44" s="58" t="s">
+      <c r="U44" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="V44" s="58" t="s">
+      <c r="V44" s="60" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4822,7 +4971,7 @@
   </sheetPr>
   <dimension ref="A1:R117"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B117" activeCellId="0" sqref="B117"/>
     </sheetView>
   </sheetViews>
@@ -4832,77 +4981,77 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="63"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="67"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59" t="s">
+      <c r="B2" s="61"/>
+      <c r="C2" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59" t="s">
+      <c r="D2" s="61"/>
+      <c r="E2" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59" t="s">
+      <c r="F2" s="61"/>
+      <c r="G2" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59" t="s">
+      <c r="H2" s="61"/>
+      <c r="I2" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59" t="s">
+      <c r="J2" s="61"/>
+      <c r="K2" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="59"/>
+      <c r="L2" s="61"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="60" t="s">
+      <c r="G3" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="H3" s="60" t="s">
+      <c r="H3" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="60" t="s">
+      <c r="I3" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="J3" s="60" t="s">
+      <c r="J3" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="60" t="s">
+      <c r="K3" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="L3" s="60" t="s">
+      <c r="L3" s="62" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4942,7 +5091,7 @@
       <c r="K4" s="0" t="n">
         <v>1.209</v>
       </c>
-      <c r="L4" s="65" t="n">
+      <c r="L4" s="69" t="n">
         <f aca="false">1000*(0.03-0.0251846)</f>
         <v>4.8154</v>
       </c>
@@ -4984,7 +5133,7 @@
       <c r="K5" s="0" t="n">
         <v>1.234</v>
       </c>
-      <c r="L5" s="65" t="n">
+      <c r="L5" s="69" t="n">
         <v>4.821</v>
       </c>
     </row>
@@ -5024,7 +5173,7 @@
       <c r="K6" s="0" t="n">
         <v>1.259</v>
       </c>
-      <c r="L6" s="65" t="n">
+      <c r="L6" s="69" t="n">
         <f aca="false">1000*(0.03-0.025197)</f>
         <v>4.803</v>
       </c>
@@ -5066,7 +5215,7 @@
       <c r="K7" s="0" t="n">
         <v>1.334</v>
       </c>
-      <c r="L7" s="65" t="n">
+      <c r="L7" s="69" t="n">
         <v>4.8051</v>
       </c>
     </row>
@@ -5093,7 +5242,7 @@
       <c r="K8" s="0" t="n">
         <v>1.359</v>
       </c>
-      <c r="L8" s="65" t="n">
+      <c r="L8" s="69" t="n">
         <f aca="false">1000*(0.03-0.0251891)</f>
         <v>4.8109</v>
       </c>
@@ -5115,7 +5264,7 @@
       <c r="K9" s="0" t="n">
         <v>1.434</v>
       </c>
-      <c r="L9" s="65" t="n">
+      <c r="L9" s="69" t="n">
         <v>4.8099</v>
       </c>
     </row>
@@ -5137,87 +5286,87 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="63" t="s">
+      <c r="A14" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="58"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="63"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="67"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59" t="s">
+      <c r="B15" s="61"/>
+      <c r="C15" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59" t="s">
+      <c r="D15" s="61"/>
+      <c r="E15" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59" t="s">
+      <c r="F15" s="61"/>
+      <c r="G15" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59" t="s">
+      <c r="H15" s="61"/>
+      <c r="I15" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59" t="s">
+      <c r="J15" s="61"/>
+      <c r="K15" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59" t="s">
+      <c r="L15" s="61"/>
+      <c r="M15" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="N15" s="59"/>
+      <c r="N15" s="61"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="60" t="s">
+      <c r="A16" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="60" t="s">
+      <c r="B16" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="60" t="s">
+      <c r="C16" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="60" t="s">
+      <c r="D16" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="60" t="s">
+      <c r="E16" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="60" t="s">
+      <c r="F16" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="60" t="s">
+      <c r="G16" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="H16" s="60" t="s">
+      <c r="H16" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="60" t="s">
+      <c r="I16" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="J16" s="60" t="s">
+      <c r="J16" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="K16" s="60" t="s">
+      <c r="K16" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="L16" s="60" t="s">
+      <c r="L16" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="M16" s="60" t="s">
+      <c r="M16" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="N16" s="60" t="s">
+      <c r="N16" s="62" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5246,7 +5395,7 @@
       <c r="H17" s="0" t="n">
         <v>8.2258</v>
       </c>
-      <c r="L17" s="65"/>
+      <c r="L17" s="69"/>
       <c r="M17" s="0" t="n">
         <v>1.034</v>
       </c>
@@ -5280,7 +5429,7 @@
         <f aca="false">1000*(0.03-0.0219693)</f>
         <v>8.0307</v>
       </c>
-      <c r="L18" s="65"/>
+      <c r="L18" s="69"/>
       <c r="M18" s="0" t="n">
         <v>1.062</v>
       </c>
@@ -5311,7 +5460,7 @@
       <c r="H19" s="0" t="n">
         <v>7.9623</v>
       </c>
-      <c r="L19" s="65"/>
+      <c r="L19" s="69"/>
       <c r="M19" s="0" t="n">
         <v>1.09</v>
       </c>
@@ -5330,7 +5479,7 @@
       <c r="C20" s="0" t="n">
         <v>1.187</v>
       </c>
-      <c r="D20" s="66" t="n">
+      <c r="D20" s="70" t="n">
         <f aca="false">1000*(0.03-0.0188516)</f>
         <v>11.1484</v>
       </c>
@@ -5348,7 +5497,7 @@
         <f aca="false">1000*(0.03-0.0220684)</f>
         <v>7.9316</v>
       </c>
-      <c r="L20" s="65"/>
+      <c r="L20" s="69"/>
       <c r="M20" s="0" t="n">
         <v>1.117</v>
       </c>
@@ -5382,7 +5531,7 @@
       <c r="H21" s="0" t="n">
         <v>7.9697</v>
       </c>
-      <c r="L21" s="65"/>
+      <c r="L21" s="69"/>
       <c r="M21" s="0" t="n">
         <v>1.145</v>
       </c>
@@ -5419,7 +5568,7 @@
         <f aca="false">1000*(0.03-0.0220122)</f>
         <v>7.9878</v>
       </c>
-      <c r="L22" s="65"/>
+      <c r="L22" s="69"/>
       <c r="M22" s="0" t="n">
         <v>1.173</v>
       </c>
@@ -5534,7 +5683,7 @@
       <c r="C26" s="0" t="n">
         <v>1.487</v>
       </c>
-      <c r="D26" s="66" t="n">
+      <c r="D26" s="70" t="n">
         <f aca="false">1000*(0.03-0.0188437)</f>
         <v>11.1563</v>
       </c>
@@ -5686,56 +5835,56 @@
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="59" t="s">
+      <c r="A37" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="B37" s="59"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
-      <c r="N37" s="59" t="s">
+      <c r="B37" s="61"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="N37" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="O37" s="59"/>
-      <c r="P37" s="59"/>
-      <c r="Q37" s="59"/>
+      <c r="O37" s="61"/>
+      <c r="P37" s="61"/>
+      <c r="Q37" s="61"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="59" t="s">
+      <c r="A38" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="59"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
-      <c r="N38" s="59" t="s">
+      <c r="B38" s="61"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="61"/>
+      <c r="N38" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="O38" s="59"/>
-      <c r="P38" s="59"/>
-      <c r="Q38" s="59"/>
+      <c r="O38" s="61"/>
+      <c r="P38" s="61"/>
+      <c r="Q38" s="61"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="58" t="s">
+      <c r="A39" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="58" t="s">
+      <c r="B39" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="58" t="s">
+      <c r="C39" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="D39" s="58" t="s">
+      <c r="D39" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="N39" s="58" t="s">
+      <c r="N39" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="O39" s="58" t="s">
+      <c r="O39" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="P39" s="58" t="s">
+      <c r="P39" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="Q39" s="58" t="s">
+      <c r="Q39" s="60" t="s">
         <v>61</v>
       </c>
     </row>
@@ -5746,11 +5895,11 @@
       <c r="B40" s="0" t="n">
         <v>10.3671</v>
       </c>
-      <c r="C40" s="62" t="n">
+      <c r="C40" s="65" t="n">
         <f aca="false">B40/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.7057642707371</v>
       </c>
-      <c r="D40" s="62" t="n">
+      <c r="D40" s="65" t="n">
         <f aca="false">B40/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.58364712853762</v>
       </c>
@@ -5760,14 +5909,14 @@
       <c r="N40" s="0" t="n">
         <v>1.031</v>
       </c>
-      <c r="O40" s="62" t="n">
+      <c r="O40" s="65" t="n">
         <v>11.92</v>
       </c>
-      <c r="P40" s="62" t="n">
+      <c r="P40" s="65" t="n">
         <f aca="false">O40/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.9612726902592</v>
       </c>
-      <c r="Q40" s="62" t="n">
+      <c r="Q40" s="65" t="n">
         <f aca="false">O40/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.82086347890619</v>
       </c>
@@ -5780,26 +5929,26 @@
         <f aca="false">1000*(0.03-0.0199501)</f>
         <v>10.0499</v>
       </c>
-      <c r="C41" s="62" t="n">
+      <c r="C41" s="65" t="n">
         <f aca="false">B41/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.65357335652986</v>
       </c>
-      <c r="D41" s="62" t="n">
+      <c r="D41" s="65" t="n">
         <f aca="false">B41/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.53519260710229</v>
       </c>
       <c r="N41" s="0" t="n">
         <v>1.063</v>
       </c>
-      <c r="O41" s="62" t="n">
+      <c r="O41" s="65" t="n">
         <f aca="false">1000*(0.03-0.0182312)</f>
         <v>11.7688</v>
       </c>
-      <c r="P41" s="62" t="n">
+      <c r="P41" s="65" t="n">
         <f aca="false">O41/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.93639480177202</v>
       </c>
-      <c r="Q41" s="62" t="n">
+      <c r="Q41" s="65" t="n">
         <f aca="false">O41/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.79776662001268</v>
       </c>
@@ -5812,26 +5961,26 @@
       <c r="B42" s="0" t="n">
         <v>9.8834</v>
       </c>
-      <c r="C42" s="62" t="n">
+      <c r="C42" s="65" t="n">
         <f aca="false">B42/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.62617806266005</v>
       </c>
-      <c r="D42" s="62" t="n">
+      <c r="D42" s="65" t="n">
         <f aca="false">B42/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.50975856605885</v>
       </c>
-      <c r="G42" s="65"/>
+      <c r="G42" s="69"/>
       <c r="N42" s="0" t="n">
         <v>1.095</v>
       </c>
-      <c r="O42" s="62" t="n">
+      <c r="O42" s="65" t="n">
         <v>11.6725</v>
       </c>
-      <c r="P42" s="62" t="n">
+      <c r="P42" s="65" t="n">
         <f aca="false">O42/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.9205499561284</v>
       </c>
-      <c r="Q42" s="62" t="n">
+      <c r="Q42" s="65" t="n">
         <f aca="false">O42/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.78305612059837</v>
       </c>
@@ -5840,31 +5989,31 @@
       <c r="A43" s="0" t="n">
         <v>1.131</v>
       </c>
-      <c r="B43" s="66" t="n">
+      <c r="B43" s="70" t="n">
         <f aca="false">1000*(0.03-0.0202027)</f>
         <v>9.7973</v>
       </c>
-      <c r="C43" s="62" t="n">
+      <c r="C43" s="65" t="n">
         <f aca="false">B43/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.61201148727152</v>
       </c>
-      <c r="D43" s="62" t="n">
+      <c r="D43" s="65" t="n">
         <f aca="false">B43/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.49660618807782</v>
       </c>
-      <c r="G43" s="65"/>
+      <c r="G43" s="69"/>
       <c r="N43" s="0" t="n">
         <v>1.126</v>
       </c>
-      <c r="O43" s="67" t="n">
+      <c r="O43" s="71" t="n">
         <f aca="false">1000*(0.03-0.018351)</f>
         <v>11.649</v>
       </c>
-      <c r="P43" s="62" t="n">
+      <c r="P43" s="65" t="n">
         <f aca="false">O43/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.91668335308972</v>
       </c>
-      <c r="Q43" s="62" t="n">
+      <c r="Q43" s="65" t="n">
         <f aca="false">O43/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.77946633102166</v>
       </c>
@@ -5877,25 +6026,25 @@
       <c r="B44" s="0" t="n">
         <v>9.7546</v>
       </c>
-      <c r="C44" s="62" t="n">
+      <c r="C44" s="65" t="n">
         <f aca="false">B44/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.60498578728208</v>
       </c>
-      <c r="D44" s="62" t="n">
+      <c r="D44" s="65" t="n">
         <f aca="false">B44/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.49008346403845</v>
       </c>
       <c r="N44" s="0" t="n">
         <v>1.157</v>
       </c>
-      <c r="O44" s="62" t="n">
+      <c r="O44" s="65" t="n">
         <v>11.6353</v>
       </c>
-      <c r="P44" s="62" t="n">
+      <c r="P44" s="65" t="n">
         <f aca="false">O44/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.91442920578632</v>
       </c>
-      <c r="Q44" s="62" t="n">
+      <c r="Q44" s="65" t="n">
         <f aca="false">O44/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.77737356007695</v>
       </c>
@@ -5904,57 +6053,57 @@
       <c r="N45" s="0" t="n">
         <v>1.188</v>
       </c>
-      <c r="O45" s="67" t="n">
+      <c r="O45" s="71" t="n">
         <f aca="false">1000*(0.03-0.0183805)</f>
         <v>11.6195</v>
       </c>
-      <c r="P45" s="62" t="n">
+      <c r="P45" s="65" t="n">
         <f aca="false">O45/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.91182953225393</v>
       </c>
-      <c r="Q45" s="62" t="n">
+      <c r="Q45" s="65" t="n">
         <f aca="false">O45/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.77495999942538</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="59" t="s">
+      <c r="A46" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="B46" s="59"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
-      <c r="O46" s="62"/>
-      <c r="P46" s="62"/>
-      <c r="Q46" s="62"/>
+      <c r="B46" s="61"/>
+      <c r="C46" s="61"/>
+      <c r="D46" s="61"/>
+      <c r="O46" s="65"/>
+      <c r="P46" s="65"/>
+      <c r="Q46" s="65"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="59" t="s">
+      <c r="A47" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="B47" s="59"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="59"/>
-      <c r="N47" s="68" t="s">
+      <c r="B47" s="61"/>
+      <c r="C47" s="61"/>
+      <c r="D47" s="61"/>
+      <c r="N47" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="O47" s="68"/>
-      <c r="P47" s="68"/>
-      <c r="Q47" s="69" t="n">
+      <c r="O47" s="72"/>
+      <c r="P47" s="72"/>
+      <c r="Q47" s="73" t="n">
         <v>1.72</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="58" t="s">
+      <c r="A48" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="B48" s="58" t="s">
+      <c r="B48" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="C48" s="58" t="s">
+      <c r="C48" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="D48" s="58" t="s">
+      <c r="D48" s="60" t="s">
         <v>61</v>
       </c>
     </row>
@@ -5965,23 +6114,23 @@
       <c r="B49" s="0" t="n">
         <v>12.3826</v>
       </c>
-      <c r="C49" s="62" t="n">
+      <c r="C49" s="65" t="n">
         <f aca="false">B49/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>2.03738718241641</v>
       </c>
-      <c r="D49" s="62" t="n">
+      <c r="D49" s="65" t="n">
         <f aca="false">B49/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.89152886861609</v>
       </c>
       <c r="E49" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="N49" s="59" t="s">
+      <c r="N49" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="O49" s="59"/>
-      <c r="P49" s="59"/>
-      <c r="Q49" s="59"/>
+      <c r="O49" s="61"/>
+      <c r="P49" s="61"/>
+      <c r="Q49" s="61"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
@@ -5991,89 +6140,89 @@
         <f aca="false">(0.03-0.0178154)*1000</f>
         <v>12.1846</v>
       </c>
-      <c r="C50" s="62" t="n">
+      <c r="C50" s="65" t="n">
         <f aca="false">B50/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>2.00480899511177</v>
       </c>
-      <c r="D50" s="62" t="n">
+      <c r="D50" s="65" t="n">
         <f aca="false">B50/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.86128298196983</v>
       </c>
-      <c r="N50" s="59" t="s">
+      <c r="N50" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="O50" s="59"/>
-      <c r="P50" s="59"/>
-      <c r="Q50" s="59"/>
+      <c r="O50" s="61"/>
+      <c r="P50" s="61"/>
+      <c r="Q50" s="61"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C51" s="62" t="n">
+      <c r="C51" s="65" t="n">
         <f aca="false">B51/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="D51" s="62" t="n">
+      <c r="D51" s="65" t="n">
         <f aca="false">B51/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
-      <c r="N51" s="58" t="s">
+      <c r="N51" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="O51" s="58" t="s">
+      <c r="O51" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="P51" s="58" t="s">
+      <c r="P51" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="Q51" s="58" t="s">
+      <c r="Q51" s="60" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="66"/>
-      <c r="C52" s="62" t="n">
+      <c r="B52" s="70"/>
+      <c r="C52" s="65" t="n">
         <f aca="false">B52/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="D52" s="62" t="n">
+      <c r="D52" s="65" t="n">
         <f aca="false">B52/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
       <c r="N52" s="0" t="n">
         <v>1.031</v>
       </c>
-      <c r="O52" s="62" t="n">
+      <c r="O52" s="65" t="n">
         <v>11.8117</v>
       </c>
-      <c r="P52" s="62" t="n">
+      <c r="P52" s="65" t="n">
         <f aca="false">O52/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.94345340902136</v>
       </c>
-      <c r="Q52" s="62" t="n">
+      <c r="Q52" s="65" t="n">
         <f aca="false">O52/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.80431989545271</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C53" s="62" t="n">
+      <c r="C53" s="65" t="n">
         <f aca="false">B53/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="D53" s="62" t="n">
+      <c r="D53" s="65" t="n">
         <f aca="false">B53/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
       <c r="N53" s="0" t="n">
         <v>1.073</v>
       </c>
-      <c r="O53" s="62" t="n">
+      <c r="O53" s="65" t="n">
         <f aca="false">1000*(0.03-0.0180445)</f>
         <v>11.9555</v>
       </c>
-      <c r="P53" s="62" t="n">
+      <c r="P53" s="65" t="n">
         <f aca="false">O53/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.96711372889211</v>
       </c>
-      <c r="Q53" s="62" t="n">
+      <c r="Q53" s="65" t="n">
         <f aca="false">O53/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.82628635252206</v>
       </c>
@@ -6082,71 +6231,71 @@
       <c r="N54" s="0" t="n">
         <v>1.114</v>
       </c>
-      <c r="O54" s="62" t="n">
+      <c r="O54" s="65" t="n">
         <v>11.953</v>
       </c>
-      <c r="P54" s="62" t="n">
+      <c r="P54" s="65" t="n">
         <f aca="false">O54/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.96670238814331</v>
       </c>
-      <c r="Q54" s="62" t="n">
+      <c r="Q54" s="65" t="n">
         <f aca="false">O54/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.8259044600139</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="59" t="s">
+      <c r="A55" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="B55" s="59"/>
-      <c r="C55" s="59"/>
-      <c r="D55" s="59"/>
-      <c r="O55" s="67"/>
-      <c r="P55" s="62" t="n">
+      <c r="B55" s="61"/>
+      <c r="C55" s="61"/>
+      <c r="D55" s="61"/>
+      <c r="O55" s="71"/>
+      <c r="P55" s="65" t="n">
         <f aca="false">O55/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="Q55" s="62" t="n">
+      <c r="Q55" s="65" t="n">
         <f aca="false">O55/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="59" t="s">
+      <c r="A56" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="B56" s="59"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="59"/>
-      <c r="O56" s="62"/>
-      <c r="P56" s="62" t="n">
+      <c r="B56" s="61"/>
+      <c r="C56" s="61"/>
+      <c r="D56" s="61"/>
+      <c r="O56" s="65"/>
+      <c r="P56" s="65" t="n">
         <f aca="false">O56/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="Q56" s="62" t="n">
+      <c r="Q56" s="65" t="n">
         <f aca="false">O56/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="58" t="s">
+      <c r="A57" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="58" t="s">
+      <c r="B57" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="C57" s="58" t="s">
+      <c r="C57" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="D57" s="58" t="s">
+      <c r="D57" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="O57" s="67"/>
-      <c r="P57" s="62" t="n">
+      <c r="O57" s="71"/>
+      <c r="P57" s="65" t="n">
         <f aca="false">O57/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="Q57" s="62" t="n">
+      <c r="Q57" s="65" t="n">
         <f aca="false">O57/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
@@ -6155,14 +6304,14 @@
       <c r="A58" s="0" t="n">
         <v>1.033</v>
       </c>
-      <c r="B58" s="62" t="n">
+      <c r="B58" s="65" t="n">
         <v>12.0366</v>
       </c>
-      <c r="C58" s="62" t="n">
+      <c r="C58" s="65" t="n">
         <f aca="false">B58/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.98045762278305</v>
       </c>
-      <c r="D58" s="62" t="n">
+      <c r="D58" s="65" t="n">
         <f aca="false">B58/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.83867494548677</v>
       </c>
@@ -6174,85 +6323,85 @@
       <c r="A59" s="0" t="n">
         <v>1.065</v>
       </c>
-      <c r="B59" s="62" t="n">
+      <c r="B59" s="65" t="n">
         <f aca="false">(0.03-0.0182043)*1000</f>
         <v>11.7957</v>
       </c>
-      <c r="C59" s="62" t="n">
+      <c r="C59" s="65" t="n">
         <f aca="false">B59/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.94082082822907</v>
       </c>
-      <c r="D59" s="62" t="n">
+      <c r="D59" s="65" t="n">
         <f aca="false">B59/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.80187578340048</v>
       </c>
-      <c r="G59" s="62" t="n">
+      <c r="G59" s="65" t="n">
         <f aca="false">D41/D40*D58</f>
         <v>1.78241739103968</v>
       </c>
-      <c r="N59" s="59" t="s">
+      <c r="N59" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="O59" s="59"/>
-      <c r="P59" s="59"/>
-      <c r="Q59" s="59"/>
+      <c r="O59" s="61"/>
+      <c r="P59" s="61"/>
+      <c r="Q59" s="61"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
         <v>1.096</v>
       </c>
-      <c r="B60" s="62" t="n">
+      <c r="B60" s="65" t="n">
         <v>11.6751</v>
       </c>
-      <c r="C60" s="62" t="n">
+      <c r="C60" s="65" t="n">
         <f aca="false">B60/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.92097775050715</v>
       </c>
-      <c r="D60" s="62" t="n">
+      <c r="D60" s="65" t="n">
         <f aca="false">B60/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.78345328880685</v>
       </c>
-      <c r="G60" s="62" t="n">
+      <c r="G60" s="65" t="n">
         <f aca="false">D42/D40*D58</f>
         <v>1.75288749565683</v>
       </c>
-      <c r="N60" s="59" t="s">
+      <c r="N60" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="O60" s="59"/>
-      <c r="P60" s="59"/>
-      <c r="Q60" s="59"/>
+      <c r="O60" s="61"/>
+      <c r="P60" s="61"/>
+      <c r="Q60" s="61"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="n">
         <v>1.128</v>
       </c>
-      <c r="B61" s="67" t="n">
+      <c r="B61" s="71" t="n">
         <f aca="false">(0.03-0.0183851)*1000</f>
         <v>11.6149</v>
       </c>
-      <c r="C61" s="62" t="n">
+      <c r="C61" s="65" t="n">
         <f aca="false">B61/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.91107266527614</v>
       </c>
-      <c r="D61" s="62" t="n">
+      <c r="D61" s="65" t="n">
         <f aca="false">B61/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.77425731721036</v>
       </c>
-      <c r="G61" s="62" t="n">
+      <c r="G61" s="65" t="n">
         <f aca="false">D43/$D$40*D58</f>
         <v>1.73761708128768</v>
       </c>
-      <c r="N61" s="58" t="s">
+      <c r="N61" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="O61" s="58" t="s">
+      <c r="O61" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="P61" s="58" t="s">
+      <c r="P61" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="Q61" s="58" t="s">
+      <c r="Q61" s="60" t="s">
         <v>61</v>
       </c>
     </row>
@@ -6260,143 +6409,143 @@
       <c r="A62" s="0" t="n">
         <v>1.159</v>
       </c>
-      <c r="B62" s="62" t="n">
+      <c r="B62" s="65" t="n">
         <v>11.5898</v>
       </c>
-      <c r="C62" s="62" t="n">
+      <c r="C62" s="65" t="n">
         <f aca="false">B62/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.90694280415823</v>
       </c>
-      <c r="D62" s="62" t="n">
+      <c r="D62" s="65" t="n">
         <f aca="false">B62/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.77042311642844</v>
       </c>
-      <c r="G62" s="62" t="n">
+      <c r="G62" s="65" t="n">
         <f aca="false">D44/D40*D58</f>
         <v>1.73004394895826</v>
       </c>
       <c r="N62" s="0" t="n">
         <v>1.031</v>
       </c>
-      <c r="O62" s="62" t="n">
+      <c r="O62" s="65" t="n">
         <v>11.8117</v>
       </c>
-      <c r="P62" s="62" t="n">
+      <c r="P62" s="65" t="n">
         <f aca="false">O62/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.94345340902136</v>
       </c>
-      <c r="Q62" s="62" t="n">
+      <c r="Q62" s="65" t="n">
         <f aca="false">O62/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.80431989545271</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="62"/>
-      <c r="C63" s="62" t="n">
+      <c r="B63" s="65"/>
+      <c r="C63" s="65" t="n">
         <f aca="false">B63/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="D63" s="62" t="n">
+      <c r="D63" s="65" t="n">
         <f aca="false">B63/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
       <c r="N63" s="0" t="n">
         <v>1.073</v>
       </c>
-      <c r="O63" s="62" t="n">
+      <c r="O63" s="65" t="n">
         <f aca="false">1000*(0.03-0.0174737)</f>
         <v>12.5263</v>
       </c>
-      <c r="P63" s="62" t="n">
+      <c r="P63" s="65" t="n">
         <f aca="false">O63/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>2.0610310486572</v>
       </c>
-      <c r="Q63" s="62" t="n">
+      <c r="Q63" s="65" t="n">
         <f aca="false">O63/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.91348004998512</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="62"/>
-      <c r="C64" s="62" t="n">
+      <c r="B64" s="65"/>
+      <c r="C64" s="65" t="n">
         <f aca="false">B64/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="D64" s="62" t="n">
+      <c r="D64" s="65" t="n">
         <f aca="false">B64/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
       <c r="N64" s="0" t="n">
         <v>1.103</v>
       </c>
-      <c r="O64" s="62" t="n">
+      <c r="O64" s="65" t="n">
         <v>12.51</v>
       </c>
-      <c r="P64" s="62" t="n">
+      <c r="P64" s="65" t="n">
         <f aca="false">O64/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>2.05834910697505</v>
       </c>
-      <c r="Q64" s="62" t="n">
+      <c r="Q64" s="65" t="n">
         <f aca="false">O64/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.91099011083192</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O65" s="67"/>
-      <c r="P65" s="62" t="n">
+      <c r="O65" s="71"/>
+      <c r="P65" s="65" t="n">
         <f aca="false">O65/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="Q65" s="62" t="n">
+      <c r="Q65" s="65" t="n">
         <f aca="false">O65/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="59" t="s">
+      <c r="A66" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="B66" s="59"/>
-      <c r="C66" s="59"/>
-      <c r="D66" s="59"/>
-      <c r="O66" s="62"/>
-      <c r="P66" s="62" t="n">
+      <c r="B66" s="61"/>
+      <c r="C66" s="61"/>
+      <c r="D66" s="61"/>
+      <c r="O66" s="65"/>
+      <c r="P66" s="65" t="n">
         <f aca="false">O66/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="Q66" s="62" t="n">
+      <c r="Q66" s="65" t="n">
         <f aca="false">O66/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="59" t="s">
+      <c r="A67" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="B67" s="59"/>
-      <c r="C67" s="59"/>
-      <c r="D67" s="59"/>
-      <c r="O67" s="67"/>
-      <c r="P67" s="62" t="n">
+      <c r="B67" s="61"/>
+      <c r="C67" s="61"/>
+      <c r="D67" s="61"/>
+      <c r="O67" s="71"/>
+      <c r="P67" s="65" t="n">
         <f aca="false">O67/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="Q67" s="62" t="n">
+      <c r="Q67" s="65" t="n">
         <f aca="false">O67/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="58" t="s">
+      <c r="A68" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="B68" s="58" t="s">
+      <c r="B68" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="C68" s="58" t="s">
+      <c r="C68" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="D68" s="58" t="s">
+      <c r="D68" s="60" t="s">
         <v>61</v>
       </c>
     </row>
@@ -6404,14 +6553,14 @@
       <c r="A69" s="0" t="n">
         <v>1.032</v>
       </c>
-      <c r="B69" s="62" t="n">
+      <c r="B69" s="65" t="n">
         <v>12.6366</v>
       </c>
-      <c r="C69" s="62" t="n">
+      <c r="C69" s="65" t="n">
         <f aca="false">B69/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>2.07917940249408</v>
       </c>
-      <c r="D69" s="62" t="n">
+      <c r="D69" s="65" t="n">
         <f aca="false">B69/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.93032914744513</v>
       </c>
@@ -6420,15 +6569,15 @@
       <c r="A70" s="0" t="n">
         <v>1.074</v>
       </c>
-      <c r="B70" s="62" t="n">
+      <c r="B70" s="65" t="n">
         <f aca="false">(0.03-0.0171832)*1000</f>
         <v>12.8168</v>
       </c>
-      <c r="C70" s="62" t="n">
+      <c r="C70" s="65" t="n">
         <f aca="false">B70/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>2.10882884366729</v>
       </c>
-      <c r="D70" s="62" t="n">
+      <c r="D70" s="65" t="n">
         <f aca="false">B70/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.9578559594333</v>
       </c>
@@ -6440,157 +6589,157 @@
       <c r="B71" s="0" t="n">
         <v>12.82</v>
       </c>
-      <c r="C71" s="62" t="n">
+      <c r="C71" s="65" t="n">
         <f aca="false">B71/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>2.10935535982575</v>
       </c>
-      <c r="D71" s="62" t="n">
+      <c r="D71" s="65" t="n">
         <f aca="false">B71/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.95834478184374</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="67"/>
-      <c r="C72" s="62" t="n">
+      <c r="B72" s="71"/>
+      <c r="C72" s="65" t="n">
         <f aca="false">B72/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="D72" s="62" t="n">
+      <c r="D72" s="65" t="n">
         <f aca="false">B72/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="62"/>
-      <c r="C73" s="62" t="n">
+      <c r="B73" s="65"/>
+      <c r="C73" s="65" t="n">
         <f aca="false">B73/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="D73" s="62" t="n">
+      <c r="D73" s="65" t="n">
         <f aca="false">B73/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="62"/>
-      <c r="C74" s="62" t="n">
+      <c r="B74" s="65"/>
+      <c r="C74" s="65" t="n">
         <f aca="false">B74/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="D74" s="62" t="n">
+      <c r="D74" s="65" t="n">
         <f aca="false">B74/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="62"/>
-      <c r="C75" s="62" t="n">
+      <c r="B75" s="65"/>
+      <c r="C75" s="65" t="n">
         <f aca="false">B75/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="D75" s="62" t="n">
+      <c r="D75" s="65" t="n">
         <f aca="false">B75/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="70"/>
-      <c r="B78" s="70"/>
-      <c r="C78" s="70"/>
-      <c r="D78" s="70"/>
-      <c r="E78" s="70"/>
-      <c r="F78" s="70"/>
-      <c r="G78" s="70"/>
-      <c r="H78" s="70"/>
-      <c r="I78" s="70"/>
-      <c r="J78" s="70"/>
-      <c r="K78" s="70"/>
-      <c r="L78" s="70"/>
-      <c r="M78" s="70"/>
-      <c r="N78" s="70"/>
-      <c r="O78" s="70"/>
-      <c r="P78" s="70"/>
-      <c r="Q78" s="70"/>
-      <c r="R78" s="70"/>
+      <c r="A78" s="74"/>
+      <c r="B78" s="74"/>
+      <c r="C78" s="74"/>
+      <c r="D78" s="74"/>
+      <c r="E78" s="74"/>
+      <c r="F78" s="74"/>
+      <c r="G78" s="74"/>
+      <c r="H78" s="74"/>
+      <c r="I78" s="74"/>
+      <c r="J78" s="74"/>
+      <c r="K78" s="74"/>
+      <c r="L78" s="74"/>
+      <c r="M78" s="74"/>
+      <c r="N78" s="74"/>
+      <c r="O78" s="74"/>
+      <c r="P78" s="74"/>
+      <c r="Q78" s="74"/>
+      <c r="R78" s="74"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="64" t="s">
+      <c r="A81" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="B81" s="71" t="n">
+      <c r="B81" s="75" t="n">
         <v>7500000000</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="64" t="s">
+      <c r="A82" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="B82" s="64" t="n">
+      <c r="B82" s="68" t="n">
         <v>1325</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="68" t="s">
+      <c r="A83" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="B83" s="68"/>
-      <c r="C83" s="68"/>
-      <c r="D83" s="68"/>
+      <c r="B83" s="72"/>
+      <c r="C83" s="72"/>
+      <c r="D83" s="72"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="59" t="s">
+      <c r="A84" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="B84" s="59"/>
-      <c r="C84" s="59"/>
-      <c r="D84" s="59"/>
-      <c r="F84" s="59" t="s">
+      <c r="B84" s="61"/>
+      <c r="C84" s="61"/>
+      <c r="D84" s="61"/>
+      <c r="F84" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="G84" s="59"/>
-      <c r="H84" s="59"/>
-      <c r="I84" s="59"/>
-      <c r="K84" s="59" t="s">
+      <c r="G84" s="61"/>
+      <c r="H84" s="61"/>
+      <c r="I84" s="61"/>
+      <c r="K84" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="L84" s="59"/>
-      <c r="M84" s="59"/>
+      <c r="L84" s="61"/>
+      <c r="M84" s="61"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="58" t="s">
+      <c r="A85" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="B85" s="58" t="s">
+      <c r="B85" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="C85" s="58" t="s">
+      <c r="C85" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="D85" s="58" t="s">
+      <c r="D85" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="F85" s="58" t="s">
+      <c r="F85" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="G85" s="58" t="s">
+      <c r="G85" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="H85" s="58" t="s">
+      <c r="H85" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="I85" s="58" t="s">
+      <c r="I85" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="K85" s="58" t="s">
+      <c r="K85" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="L85" s="58" t="s">
+      <c r="L85" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="M85" s="58" t="s">
+      <c r="M85" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="N85" s="58" t="s">
+      <c r="N85" s="60" t="s">
         <v>61</v>
       </c>
     </row>
@@ -6602,11 +6751,11 @@
         <f aca="false">1000*(0.03-0.0182399)</f>
         <v>11.7601</v>
       </c>
-      <c r="C86" s="62" t="n">
+      <c r="C86" s="65" t="n">
         <f aca="false">B86/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.93496333596621</v>
       </c>
-      <c r="D86" s="62" t="n">
+      <c r="D86" s="65" t="n">
         <f aca="false">B86/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.79643763408429</v>
       </c>
@@ -6616,25 +6765,25 @@
       <c r="G86" s="0" t="n">
         <v>11.6128</v>
       </c>
-      <c r="H86" s="62" t="n">
+      <c r="H86" s="65" t="n">
         <f aca="false">G86/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.91072713904715</v>
       </c>
-      <c r="I86" s="62" t="n">
+      <c r="I86" s="65" t="n">
         <f aca="false">G86/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.77393652750351</v>
       </c>
       <c r="K86" s="0" t="n">
         <v>1.031</v>
       </c>
-      <c r="L86" s="62" t="n">
+      <c r="L86" s="65" t="n">
         <v>12.3236</v>
       </c>
-      <c r="M86" s="62" t="n">
+      <c r="M86" s="65" t="n">
         <f aca="false">L86/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>2.02767954074483</v>
       </c>
-      <c r="N86" s="62" t="n">
+      <c r="N86" s="65" t="n">
         <f aca="false">L86/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.88251620542352</v>
       </c>
@@ -6646,11 +6795,11 @@
       <c r="B87" s="0" t="n">
         <v>11.757</v>
       </c>
-      <c r="C87" s="62" t="n">
+      <c r="C87" s="65" t="n">
         <f aca="false">B87/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.93445327343771</v>
       </c>
-      <c r="D87" s="62" t="n">
+      <c r="D87" s="65" t="n">
         <f aca="false">B87/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.79596408737417</v>
       </c>
@@ -6661,121 +6810,121 @@
         <f aca="false">1000*(0.03-0.0185551)</f>
         <v>11.4449</v>
       </c>
-      <c r="H87" s="62" t="n">
+      <c r="H87" s="65" t="n">
         <f aca="false">G87/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.88310149435802</v>
       </c>
-      <c r="I87" s="62" t="n">
+      <c r="I87" s="65" t="n">
         <f aca="false">G87/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.74828862665549</v>
       </c>
       <c r="K87" s="0" t="n">
         <v>1.065</v>
       </c>
-      <c r="L87" s="62" t="n">
+      <c r="L87" s="65" t="n">
         <f aca="false">1000*(0.03-0.017678)</f>
         <v>12.322</v>
       </c>
-      <c r="M87" s="62" t="n">
+      <c r="M87" s="65" t="n">
         <f aca="false">L87/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>2.0274162826656</v>
       </c>
-      <c r="N87" s="62" t="n">
+      <c r="N87" s="65" t="n">
         <f aca="false">L87/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.8822717942183</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="70"/>
-      <c r="B89" s="70"/>
-      <c r="C89" s="70"/>
-      <c r="D89" s="70"/>
-      <c r="E89" s="70"/>
-      <c r="F89" s="70"/>
-      <c r="G89" s="70"/>
-      <c r="H89" s="70"/>
-      <c r="I89" s="70"/>
-      <c r="J89" s="70"/>
-      <c r="K89" s="70"/>
-      <c r="L89" s="70"/>
-      <c r="M89" s="70"/>
-      <c r="N89" s="70"/>
-      <c r="O89" s="70"/>
-      <c r="P89" s="70"/>
-      <c r="Q89" s="70"/>
-      <c r="R89" s="70"/>
+      <c r="A89" s="74"/>
+      <c r="B89" s="74"/>
+      <c r="C89" s="74"/>
+      <c r="D89" s="74"/>
+      <c r="E89" s="74"/>
+      <c r="F89" s="74"/>
+      <c r="G89" s="74"/>
+      <c r="H89" s="74"/>
+      <c r="I89" s="74"/>
+      <c r="J89" s="74"/>
+      <c r="K89" s="74"/>
+      <c r="L89" s="74"/>
+      <c r="M89" s="74"/>
+      <c r="N89" s="74"/>
+      <c r="O89" s="74"/>
+      <c r="P89" s="74"/>
+      <c r="Q89" s="74"/>
+      <c r="R89" s="74"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="64" t="s">
+      <c r="A91" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="B91" s="71" t="n">
+      <c r="B91" s="75" t="n">
         <v>5800000000</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="64" t="s">
+      <c r="A92" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="B92" s="64" t="n">
+      <c r="B92" s="68" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="59" t="s">
+      <c r="A94" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="B94" s="59"/>
-      <c r="C94" s="59"/>
-      <c r="D94" s="59"/>
-      <c r="F94" s="59" t="s">
+      <c r="B94" s="61"/>
+      <c r="C94" s="61"/>
+      <c r="D94" s="61"/>
+      <c r="F94" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="G94" s="59"/>
-      <c r="H94" s="59"/>
-      <c r="I94" s="59"/>
-      <c r="K94" s="59" t="s">
+      <c r="G94" s="61"/>
+      <c r="H94" s="61"/>
+      <c r="I94" s="61"/>
+      <c r="K94" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="L94" s="59"/>
-      <c r="M94" s="59"/>
+      <c r="L94" s="61"/>
+      <c r="M94" s="61"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="58" t="s">
+      <c r="A95" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="B95" s="58" t="s">
+      <c r="B95" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="C95" s="58" t="s">
+      <c r="C95" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="D95" s="58" t="s">
+      <c r="D95" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="F95" s="58" t="s">
+      <c r="F95" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="G95" s="58" t="s">
+      <c r="G95" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="H95" s="58" t="s">
+      <c r="H95" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="I95" s="58" t="s">
+      <c r="I95" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="K95" s="58" t="s">
+      <c r="K95" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="L95" s="58" t="s">
+      <c r="L95" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="M95" s="58" t="s">
+      <c r="M95" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="N95" s="58" t="s">
+      <c r="N95" s="60" t="s">
         <v>61</v>
       </c>
     </row>
@@ -6787,11 +6936,11 @@
         <f aca="false">1000*(0.03-0.0191163)</f>
         <v>10.8837</v>
       </c>
-      <c r="C96" s="62" t="n">
+      <c r="C96" s="65" t="n">
         <f aca="false">B96/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.7907637230683</v>
       </c>
-      <c r="D96" s="62" t="n">
+      <c r="D96" s="65" t="n">
         <f aca="false">B96/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.66256139642377</v>
       </c>
@@ -6802,148 +6951,148 @@
         <f aca="false">1000*(0.03-0.0190529)</f>
         <v>10.9471</v>
       </c>
-      <c r="H96" s="62" t="n">
+      <c r="H96" s="65" t="n">
         <f aca="false">G96/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.80119532445776</v>
       </c>
-      <c r="I96" s="62" t="n">
+      <c r="I96" s="65" t="n">
         <f aca="false">G96/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.6722461904307</v>
       </c>
       <c r="K96" s="0" t="n">
         <v>1.064</v>
       </c>
-      <c r="L96" s="62" t="n">
+      <c r="L96" s="65" t="n">
         <f aca="false">1000*(0.03-0.0200284)</f>
         <v>9.9716</v>
       </c>
-      <c r="M96" s="62" t="n">
+      <c r="M96" s="65" t="n">
         <f aca="false">L96/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.64069016427757</v>
       </c>
-      <c r="N96" s="62" t="n">
+      <c r="N96" s="65" t="n">
         <f aca="false">L96/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.52323173374673</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C97" s="62" t="n">
+      <c r="C97" s="65" t="n">
         <f aca="false">B97/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="D97" s="62" t="n">
+      <c r="D97" s="65" t="n">
         <f aca="false">B97/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
-      <c r="H97" s="62" t="n">
+      <c r="H97" s="65" t="n">
         <f aca="false">G97/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="I97" s="62" t="n">
+      <c r="I97" s="65" t="n">
         <f aca="false">G97/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
-      <c r="L97" s="62"/>
-      <c r="M97" s="62" t="n">
+      <c r="L97" s="65"/>
+      <c r="M97" s="65" t="n">
         <f aca="false">L97/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="N97" s="62" t="n">
+      <c r="N97" s="65" t="n">
         <f aca="false">L97/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="70"/>
-      <c r="B99" s="70"/>
-      <c r="C99" s="70"/>
-      <c r="D99" s="70"/>
-      <c r="E99" s="70"/>
-      <c r="F99" s="70"/>
-      <c r="G99" s="70"/>
-      <c r="H99" s="70"/>
-      <c r="I99" s="70"/>
-      <c r="J99" s="70"/>
-      <c r="K99" s="70"/>
-      <c r="L99" s="70"/>
-      <c r="M99" s="70"/>
-      <c r="N99" s="70"/>
-      <c r="O99" s="70"/>
-      <c r="P99" s="70"/>
-      <c r="Q99" s="70"/>
-      <c r="R99" s="70"/>
+      <c r="A99" s="74"/>
+      <c r="B99" s="74"/>
+      <c r="C99" s="74"/>
+      <c r="D99" s="74"/>
+      <c r="E99" s="74"/>
+      <c r="F99" s="74"/>
+      <c r="G99" s="74"/>
+      <c r="H99" s="74"/>
+      <c r="I99" s="74"/>
+      <c r="J99" s="74"/>
+      <c r="K99" s="74"/>
+      <c r="L99" s="74"/>
+      <c r="M99" s="74"/>
+      <c r="N99" s="74"/>
+      <c r="O99" s="74"/>
+      <c r="P99" s="74"/>
+      <c r="Q99" s="74"/>
+      <c r="R99" s="74"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="64" t="s">
+      <c r="A101" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="B101" s="71" t="n">
+      <c r="B101" s="75" t="n">
         <v>7000000000</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="64" t="s">
+      <c r="A102" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="B102" s="64" t="n">
+      <c r="B102" s="68" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="59" t="s">
+      <c r="A104" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="B104" s="59"/>
-      <c r="C104" s="59"/>
-      <c r="D104" s="59"/>
-      <c r="F104" s="59" t="s">
+      <c r="B104" s="61"/>
+      <c r="C104" s="61"/>
+      <c r="D104" s="61"/>
+      <c r="F104" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="G104" s="59"/>
-      <c r="H104" s="59"/>
-      <c r="I104" s="59"/>
-      <c r="K104" s="59" t="s">
+      <c r="G104" s="61"/>
+      <c r="H104" s="61"/>
+      <c r="I104" s="61"/>
+      <c r="K104" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="L104" s="59"/>
-      <c r="M104" s="59"/>
+      <c r="L104" s="61"/>
+      <c r="M104" s="61"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="58" t="s">
+      <c r="A105" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="B105" s="58" t="s">
+      <c r="B105" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="C105" s="58" t="s">
+      <c r="C105" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="D105" s="58" t="s">
+      <c r="D105" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="F105" s="58" t="s">
+      <c r="F105" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="G105" s="58" t="s">
+      <c r="G105" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="H105" s="58" t="s">
+      <c r="H105" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="I105" s="58" t="s">
+      <c r="I105" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="K105" s="58" t="s">
+      <c r="K105" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="L105" s="58" t="s">
+      <c r="L105" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="M105" s="58" t="s">
+      <c r="M105" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="N105" s="58" t="s">
+      <c r="N105" s="60" t="s">
         <v>61</v>
       </c>
     </row>
@@ -6951,15 +7100,15 @@
       <c r="A106" s="0" t="n">
         <v>1.07</v>
       </c>
-      <c r="B106" s="66" t="n">
+      <c r="B106" s="70" t="n">
         <f aca="false">1000*(0.03-0.0194274)</f>
         <v>10.5726</v>
       </c>
-      <c r="C106" s="62" t="n">
+      <c r="C106" s="65" t="n">
         <f aca="false">B106/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.73957648028813</v>
       </c>
-      <c r="D106" s="62" t="n">
+      <c r="D106" s="65" t="n">
         <f aca="false">B106/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.61503869270836</v>
       </c>
@@ -6969,26 +7118,26 @@
       <c r="G106" s="0" t="n">
         <v>11.23</v>
       </c>
-      <c r="H106" s="62" t="n">
+      <c r="H106" s="65" t="n">
         <f aca="false">G106/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.84774264359151</v>
       </c>
-      <c r="I106" s="62" t="n">
+      <c r="I106" s="65" t="n">
         <f aca="false">G106/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.71546114665407</v>
       </c>
       <c r="K106" s="0" t="n">
         <v>1.061</v>
       </c>
-      <c r="L106" s="62" t="n">
+      <c r="L106" s="65" t="n">
         <f aca="false">1000*(0.03-0.0190729)</f>
         <v>10.9271</v>
       </c>
-      <c r="M106" s="62" t="n">
+      <c r="M106" s="65" t="n">
         <f aca="false">L106/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.79790459846739</v>
       </c>
-      <c r="N106" s="62" t="n">
+      <c r="N106" s="65" t="n">
         <f aca="false">L106/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.66919105036542</v>
       </c>
@@ -7001,204 +7150,204 @@
         <f aca="false">10.5586</f>
         <v>10.5586</v>
       </c>
-      <c r="C107" s="62" t="n">
+      <c r="C107" s="65" t="n">
         <f aca="false">B107/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.73727297209487</v>
       </c>
-      <c r="D107" s="62" t="n">
+      <c r="D107" s="65" t="n">
         <f aca="false">B107/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.61290009466266</v>
       </c>
       <c r="F107" s="0" t="n">
         <v>1.065</v>
       </c>
-      <c r="G107" s="62" t="n">
+      <c r="G107" s="65" t="n">
         <f aca="false">1000*(0.03-0.0187383)</f>
         <v>11.2617</v>
       </c>
-      <c r="H107" s="62" t="n">
+      <c r="H107" s="65" t="n">
         <f aca="false">G107/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.85295844428625</v>
       </c>
-      <c r="I107" s="62" t="n">
+      <c r="I107" s="65" t="n">
         <f aca="false">G107/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.72030354365754</v>
       </c>
       <c r="K107" s="0" t="n">
         <v>1.093</v>
       </c>
-      <c r="L107" s="62" t="n">
+      <c r="L107" s="65" t="n">
         <v>10.8726</v>
       </c>
-      <c r="M107" s="62" t="n">
+      <c r="M107" s="65" t="n">
         <f aca="false">L107/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.78893737014364</v>
       </c>
-      <c r="N107" s="62" t="n">
+      <c r="N107" s="65" t="n">
         <f aca="false">L107/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.66086579368754</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="70"/>
-      <c r="B109" s="70"/>
-      <c r="C109" s="70"/>
-      <c r="D109" s="70"/>
-      <c r="E109" s="70"/>
-      <c r="F109" s="70"/>
-      <c r="G109" s="70"/>
-      <c r="H109" s="70"/>
-      <c r="I109" s="70"/>
-      <c r="J109" s="70"/>
-      <c r="K109" s="70"/>
-      <c r="L109" s="70"/>
-      <c r="M109" s="70"/>
-      <c r="N109" s="70"/>
-      <c r="O109" s="70"/>
-      <c r="P109" s="70"/>
-      <c r="Q109" s="70"/>
-      <c r="R109" s="70"/>
+      <c r="A109" s="74"/>
+      <c r="B109" s="74"/>
+      <c r="C109" s="74"/>
+      <c r="D109" s="74"/>
+      <c r="E109" s="74"/>
+      <c r="F109" s="74"/>
+      <c r="G109" s="74"/>
+      <c r="H109" s="74"/>
+      <c r="I109" s="74"/>
+      <c r="J109" s="74"/>
+      <c r="K109" s="74"/>
+      <c r="L109" s="74"/>
+      <c r="M109" s="74"/>
+      <c r="N109" s="74"/>
+      <c r="O109" s="74"/>
+      <c r="P109" s="74"/>
+      <c r="Q109" s="74"/>
+      <c r="R109" s="74"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="64" t="s">
+      <c r="A111" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="B111" s="71" t="n">
+      <c r="B111" s="75" t="n">
         <v>7400000000</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="64" t="s">
+      <c r="A112" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="B112" s="64" t="n">
+      <c r="B112" s="68" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="59" t="s">
+      <c r="A114" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="B114" s="59"/>
-      <c r="C114" s="59"/>
-      <c r="D114" s="59"/>
-      <c r="F114" s="59" t="s">
+      <c r="B114" s="61"/>
+      <c r="C114" s="61"/>
+      <c r="D114" s="61"/>
+      <c r="F114" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="G114" s="59"/>
-      <c r="H114" s="59"/>
-      <c r="I114" s="59"/>
-      <c r="K114" s="59" t="s">
+      <c r="G114" s="61"/>
+      <c r="H114" s="61"/>
+      <c r="I114" s="61"/>
+      <c r="K114" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="L114" s="59"/>
-      <c r="M114" s="59"/>
+      <c r="L114" s="61"/>
+      <c r="M114" s="61"/>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="58" t="s">
+      <c r="A115" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="B115" s="58" t="s">
+      <c r="B115" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="C115" s="58" t="s">
+      <c r="C115" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="D115" s="58" t="s">
+      <c r="D115" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="F115" s="58" t="s">
+      <c r="F115" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="G115" s="58" t="s">
+      <c r="G115" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="H115" s="58" t="s">
+      <c r="H115" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="I115" s="58" t="s">
+      <c r="I115" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="K115" s="58" t="s">
+      <c r="K115" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="L115" s="58" t="s">
+      <c r="L115" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="M115" s="58" t="s">
+      <c r="M115" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="N115" s="58" t="s">
+      <c r="N115" s="60" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B116" s="66" t="n">
+      <c r="B116" s="70" t="n">
         <v>10.4053</v>
       </c>
-      <c r="C116" s="62" t="n">
+      <c r="C116" s="65" t="n">
         <f aca="false">B116/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.7120495573787</v>
       </c>
-      <c r="D116" s="62" t="n">
+      <c r="D116" s="65" t="n">
         <f aca="false">B116/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.5894824460623</v>
       </c>
-      <c r="H116" s="62" t="n">
+      <c r="H116" s="65" t="n">
         <f aca="false">G116/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="I116" s="62" t="n">
+      <c r="I116" s="65" t="n">
         <f aca="false">G116/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
       <c r="K116" s="0" t="n">
         <v>1.284</v>
       </c>
-      <c r="L116" s="62" t="n">
+      <c r="L116" s="65" t="n">
         <f aca="false">1000*(0.03-0.0189208)</f>
         <v>11.0792</v>
       </c>
-      <c r="M116" s="62" t="n">
+      <c r="M116" s="65" t="n">
         <f aca="false">L116/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.82293056962414</v>
       </c>
-      <c r="N116" s="62" t="n">
+      <c r="N116" s="65" t="n">
         <f aca="false">L116/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.69242539056187</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C117" s="62" t="n">
+      <c r="C117" s="65" t="n">
         <f aca="false">B117/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="D117" s="62" t="n">
+      <c r="D117" s="65" t="n">
         <f aca="false">B117/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
-      <c r="G117" s="62"/>
-      <c r="H117" s="62" t="n">
+      <c r="G117" s="65"/>
+      <c r="H117" s="65" t="n">
         <f aca="false">G117/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="I117" s="62" t="n">
+      <c r="I117" s="65" t="n">
         <f aca="false">G117/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
       <c r="K117" s="0" t="n">
         <v>1.217</v>
       </c>
-      <c r="L117" s="62" t="n">
+      <c r="L117" s="65" t="n">
         <v>11.0762</v>
       </c>
-      <c r="M117" s="62" t="n">
+      <c r="M117" s="65" t="n">
         <f aca="false">L117/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.82243696072559</v>
       </c>
-      <c r="N117" s="62" t="n">
+      <c r="N117" s="65" t="n">
         <f aca="false">L117/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.69196711955208</v>
       </c>
@@ -7264,44 +7413,45 @@
   </sheetPr>
   <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J46" activeCellId="0" sqref="J46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="22.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="5" style="0" width="10.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="74"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="78"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="79" t="s">
         <v>73</v>
       </c>
       <c r="B3" s="23" t="s">
@@ -7310,10 +7460,10 @@
       <c r="C3" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="0" t="s">
         <v>75</v>
       </c>
       <c r="F3" s="23" t="s">
@@ -7322,143 +7472,171 @@
       <c r="G3" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="H3" s="76"/>
-      <c r="I3" s="77"/>
+      <c r="H3" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="78" t="n">
+      <c r="A4" s="80" t="n">
         <v>0</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>0.2367957031455</v>
       </c>
-      <c r="C4" s="79" t="n">
+      <c r="C4" s="81" t="n">
         <f aca="false">(B4-$B$7)/$B$7*100</f>
+        <v>9.06708316529522</v>
+      </c>
+      <c r="D4" s="82" t="n">
+        <f aca="false">B4*(0.001945)/(0.002)</f>
+        <v>0.230283821308999</v>
+      </c>
+      <c r="E4" s="69" t="n">
+        <f aca="false">(D4-$D$7)/$D$7*100</f>
         <v>9.06708316529523</v>
       </c>
-      <c r="D4" s="80" t="n">
+      <c r="F4" s="83" t="n">
         <v>0.92</v>
       </c>
-      <c r="E4" s="81" t="n">
-        <f aca="false">(D4-$D$7)/$D$7*100</f>
+      <c r="G4" s="84" t="n">
+        <f aca="false">(F4-$F$7)/$F$7*100</f>
         <v>-7.07070707070707</v>
       </c>
-      <c r="F4" s="80" t="n">
+      <c r="H4" s="83" t="n">
         <v>0.31</v>
       </c>
-      <c r="G4" s="40" t="n">
-        <f aca="false">(F4-$F$7)/$F$7*100</f>
+      <c r="I4" s="40" t="n">
+        <f aca="false">(H4-$H$7)/$H$7*100</f>
         <v>-16.2162162162162</v>
       </c>
-      <c r="H4" s="82"/>
-      <c r="I4" s="83"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="78" t="n">
+      <c r="A5" s="80" t="n">
         <v>1</v>
       </c>
       <c r="B5" s="8" t="n">
         <v>0.2207122883919</v>
       </c>
-      <c r="C5" s="79" t="n">
+      <c r="C5" s="81" t="n">
         <f aca="false">(B5-$B$7)/$B$7*100</f>
-        <v>1.65913145328729</v>
-      </c>
-      <c r="D5" s="80" t="n">
+        <v>1.6591314532873</v>
+      </c>
+      <c r="D5" s="82" t="n">
+        <f aca="false">B5*(0.001945)/(0.002)</f>
+        <v>0.214642700461123</v>
+      </c>
+      <c r="E5" s="69" t="n">
+        <f aca="false">(D5-$D$7)/$D$7*100</f>
+        <v>1.65913145328731</v>
+      </c>
+      <c r="F5" s="83" t="n">
         <v>0.96</v>
       </c>
-      <c r="E5" s="81" t="n">
-        <f aca="false">(D5-$D$7)/$D$7*100</f>
+      <c r="G5" s="84" t="n">
+        <f aca="false">(F5-$F$7)/$F$7*100</f>
         <v>-3.03030303030303</v>
       </c>
-      <c r="F5" s="80" t="n">
+      <c r="H5" s="83" t="n">
         <v>0.36</v>
       </c>
-      <c r="G5" s="40" t="n">
-        <f aca="false">(F5-$F$7)/$F$7*100</f>
+      <c r="I5" s="40" t="n">
+        <f aca="false">(H5-$H$7)/$H$7*100</f>
         <v>-2.70270270270271</v>
       </c>
-      <c r="H5" s="82"/>
-      <c r="I5" s="83"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="78" t="n">
+      <c r="A6" s="85" t="n">
         <v>2</v>
       </c>
-      <c r="B6" s="8" t="n">
+      <c r="B6" s="86" t="n">
         <v>0.217805722233</v>
       </c>
-      <c r="C6" s="79" t="n">
+      <c r="C6" s="87" t="n">
         <f aca="false">(B6-$B$7)/$B$7*100</f>
-        <v>0.320379572374198</v>
-      </c>
-      <c r="D6" s="80" t="n">
+        <v>0.320379572374185</v>
+      </c>
+      <c r="D6" s="82" t="n">
+        <f aca="false">B6*(0.001945)/(0.002)</f>
+        <v>0.211816064871592</v>
+      </c>
+      <c r="E6" s="88" t="n">
+        <f aca="false">(D6-$D$7)/$D$7*100</f>
+        <v>0.320379572374188</v>
+      </c>
+      <c r="F6" s="89" t="n">
         <v>0.98</v>
       </c>
-      <c r="E6" s="81" t="n">
-        <f aca="false">(D6-$D$7)/$D$7*100</f>
+      <c r="G6" s="90" t="n">
+        <f aca="false">(F6-$F$7)/$F$7*100</f>
         <v>-1.01010101010101</v>
       </c>
-      <c r="F6" s="80" t="n">
+      <c r="H6" s="89" t="n">
         <v>0.36</v>
       </c>
-      <c r="G6" s="40" t="n">
-        <f aca="false">(F6-$F$7)/$F$7*100</f>
+      <c r="I6" s="91" t="n">
+        <f aca="false">(H6-$H$7)/$H$7*100</f>
         <v>-2.70270270270271</v>
       </c>
-      <c r="H6" s="82"/>
-      <c r="I6" s="83"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="78" t="n">
+      <c r="A7" s="80" t="n">
         <v>3</v>
       </c>
       <c r="B7" s="8" t="n">
         <v>0.2171101456767</v>
       </c>
-      <c r="C7" s="84" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="80" t="n">
+      <c r="C7" s="92" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="82" t="n">
+        <f aca="false">B7*(0.001945)/(0.002)</f>
+        <v>0.211139616670591</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <f aca="false">(D7-$D$7)/$D$7*100</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="83" t="n">
         <v>0.99</v>
       </c>
-      <c r="E7" s="81"/>
-      <c r="F7" s="80" t="n">
+      <c r="G7" s="84"/>
+      <c r="H7" s="83" t="n">
         <v>0.37</v>
       </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="83"/>
+      <c r="I7" s="40"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="78"/>
+      <c r="A8" s="80"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="74"/>
+      <c r="H8" s="78"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="85" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9" s="85"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
-      <c r="M9" s="86"/>
+      <c r="A9" s="93" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="M9" s="94"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="75" t="s">
-        <v>80</v>
+      <c r="A10" s="79" t="s">
+        <v>81</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>74</v>
@@ -7467,63 +7645,63 @@
         <v>75</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F10" s="23" t="s">
         <v>75</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="H10" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" s="95" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="78" t="s">
-        <v>82</v>
-      </c>
-      <c r="B11" s="3" t="n">
+      <c r="A11" s="85" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="96" t="n">
         <v>0.25</v>
       </c>
-      <c r="C11" s="87" t="n">
+      <c r="C11" s="97" t="n">
         <v>0.217805722233</v>
       </c>
-      <c r="D11" s="88" t="n">
+      <c r="D11" s="98" t="n">
         <f aca="false">(C11-$C$13)/$C$13*100</f>
-        <v>-0.00278887507064122</v>
-      </c>
-      <c r="E11" s="80" t="n">
-        <f aca="false">D6</f>
+        <v>-0.00278887507066671</v>
+      </c>
+      <c r="E11" s="89" t="n">
+        <f aca="false">F6</f>
         <v>0.98</v>
       </c>
-      <c r="F11" s="39" t="n">
+      <c r="F11" s="99" t="n">
         <f aca="false">(E11-$E$13)/$E$13*100</f>
         <v>0</v>
       </c>
-      <c r="G11" s="3" t="n">
+      <c r="G11" s="96" t="n">
         <v>0.36</v>
       </c>
-      <c r="H11" s="74" t="n">
+      <c r="H11" s="100" t="n">
         <f aca="false">(G11-$G$13)/$G$13</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="78" t="s">
-        <v>83</v>
+      <c r="A12" s="80" t="s">
+        <v>84</v>
       </c>
       <c r="B12" s="3" t="n">
         <v>0.6</v>
       </c>
-      <c r="C12" s="87" t="n">
+      <c r="C12" s="101" t="n">
         <v>0.2178114943495</v>
       </c>
-      <c r="D12" s="88" t="n">
+      <c r="D12" s="102" t="n">
         <f aca="false">(C12-$C$13)/$C$13*100</f>
         <v>-0.000138827375075705</v>
       </c>
-      <c r="E12" s="80" t="n">
+      <c r="E12" s="83" t="n">
         <v>0.98</v>
       </c>
       <c r="F12" s="39" t="n">
@@ -7533,65 +7711,65 @@
       <c r="G12" s="3" t="n">
         <v>0.36</v>
       </c>
-      <c r="H12" s="74" t="n">
+      <c r="H12" s="78" t="n">
         <f aca="false">(G12-$G$13)/$G$13</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="78" t="s">
-        <v>84</v>
+      <c r="A13" s="80" t="s">
+        <v>85</v>
       </c>
       <c r="B13" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="87" t="n">
+      <c r="C13" s="101" t="n">
         <v>0.2178117967319</v>
       </c>
-      <c r="D13" s="89" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" s="80" t="n">
+      <c r="D13" s="103" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="83" t="n">
         <v>0.98</v>
       </c>
-      <c r="F13" s="90" t="s">
-        <v>78</v>
+      <c r="F13" s="104" t="s">
+        <v>79</v>
       </c>
       <c r="G13" s="3" t="n">
         <v>0.36</v>
       </c>
-      <c r="H13" s="91" t="s">
-        <v>78</v>
+      <c r="H13" s="105" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="78"/>
+      <c r="A14" s="80"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="81"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="84"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="74"/>
+      <c r="H14" s="78"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="85" t="s">
-        <v>85</v>
-      </c>
-      <c r="B15" s="85"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85"/>
+      <c r="A15" s="93" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="93"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="93"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="75" t="s">
-        <v>80</v>
+      <c r="A16" s="79" t="s">
+        <v>81</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C16" s="23" t="s">
         <v>74</v>
@@ -7600,63 +7778,63 @@
         <v>75</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F16" s="23" t="s">
         <v>75</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="H16" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="H16" s="95" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="78" t="s">
-        <v>82</v>
-      </c>
-      <c r="B17" s="3" t="n">
+      <c r="A17" s="85" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="96" t="n">
         <v>0.18</v>
       </c>
-      <c r="C17" s="92" t="n">
+      <c r="C17" s="106" t="n">
         <v>0.217805722233</v>
       </c>
-      <c r="D17" s="79" t="n">
+      <c r="D17" s="87" t="n">
         <f aca="false">(C17-$C$19)/$C$19*100</f>
-        <v>0.277493970797731</v>
-      </c>
-      <c r="E17" s="80" t="n">
-        <f aca="false">D6</f>
+        <v>0.277493970797718</v>
+      </c>
+      <c r="E17" s="89" t="n">
+        <f aca="false">F6</f>
         <v>0.98</v>
       </c>
-      <c r="F17" s="39" t="n">
+      <c r="F17" s="99" t="n">
         <f aca="false">(E17-$E$19)/$E$19*100</f>
         <v>0</v>
       </c>
-      <c r="G17" s="3" t="n">
+      <c r="G17" s="96" t="n">
         <v>0.36</v>
       </c>
-      <c r="H17" s="74" t="n">
+      <c r="H17" s="100" t="n">
         <f aca="false">(G17-$G$19)/$G$19</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="78" t="s">
-        <v>83</v>
+      <c r="A18" s="80" t="s">
+        <v>84</v>
       </c>
       <c r="B18" s="3" t="n">
         <v>0.36</v>
       </c>
-      <c r="C18" s="92" t="n">
+      <c r="C18" s="107" t="n">
         <v>0.2172452950227</v>
       </c>
-      <c r="D18" s="79" t="n">
+      <c r="D18" s="81" t="n">
         <f aca="false">(C18-$C$19)/$C$19*100</f>
         <v>0.0194739535742587</v>
       </c>
-      <c r="E18" s="80" t="n">
+      <c r="E18" s="83" t="n">
         <v>0.98</v>
       </c>
       <c r="F18" s="39" t="n">
@@ -7666,59 +7844,59 @@
       <c r="G18" s="3" t="n">
         <v>0.36</v>
       </c>
-      <c r="H18" s="74" t="n">
+      <c r="H18" s="78" t="n">
         <f aca="false">(G18-$G$19)/$G$19</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="78" t="s">
-        <v>84</v>
+      <c r="A19" s="80" t="s">
+        <v>85</v>
       </c>
       <c r="B19" s="3" t="n">
         <v>0.72</v>
       </c>
-      <c r="C19" s="92" t="n">
+      <c r="C19" s="107" t="n">
         <v>0.2172029970119</v>
       </c>
-      <c r="D19" s="84" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" s="80" t="n">
+      <c r="D19" s="92" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="83" t="n">
         <v>0.98</v>
       </c>
-      <c r="F19" s="90" t="s">
-        <v>78</v>
+      <c r="F19" s="104" t="s">
+        <v>79</v>
       </c>
       <c r="G19" s="3" t="n">
         <v>0.36</v>
       </c>
-      <c r="H19" s="91" t="s">
-        <v>78</v>
+      <c r="H19" s="105" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="93"/>
-      <c r="H20" s="94"/>
+      <c r="A20" s="108"/>
+      <c r="H20" s="109"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="85" t="s">
-        <v>87</v>
-      </c>
-      <c r="B21" s="85"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="85"/>
+      <c r="A21" s="93" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="75" t="s">
-        <v>80</v>
+      <c r="A22" s="79" t="s">
+        <v>81</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C22" s="23" t="s">
         <v>74</v>
@@ -7727,99 +7905,99 @@
         <v>75</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F22" s="23" t="s">
         <v>75</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="H22" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="H22" s="95" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="78" t="s">
-        <v>82</v>
-      </c>
-      <c r="B23" s="3" t="n">
+      <c r="A23" s="85" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="96" t="n">
         <v>-0.05</v>
       </c>
-      <c r="C23" s="87" t="n">
+      <c r="C23" s="97" t="n">
         <v>0.217805722233</v>
       </c>
-      <c r="D23" s="95" t="n">
+      <c r="D23" s="110" t="n">
         <f aca="false">(C23-$C$25)/$C$25*100</f>
-        <v>0.331021615696439</v>
-      </c>
-      <c r="E23" s="80" t="n">
+        <v>0.331021615696426</v>
+      </c>
+      <c r="E23" s="89" t="n">
         <v>0.98</v>
       </c>
-      <c r="F23" s="81"/>
-      <c r="G23" s="3" t="n">
+      <c r="F23" s="90"/>
+      <c r="G23" s="96" t="n">
         <v>0.36</v>
       </c>
-      <c r="H23" s="74"/>
+      <c r="H23" s="78"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="78" t="s">
-        <v>83</v>
+      <c r="A24" s="80" t="s">
+        <v>84</v>
       </c>
       <c r="B24" s="3" t="n">
         <v>-0.25</v>
       </c>
-      <c r="C24" s="87" t="n">
+      <c r="C24" s="101" t="n">
         <v>0.2170978774019</v>
       </c>
-      <c r="D24" s="95" t="n">
+      <c r="D24" s="111" t="n">
         <f aca="false">(C24-$C$25)/$C$25*100</f>
         <v>0.00495674319652931</v>
       </c>
-      <c r="E24" s="80" t="n">
+      <c r="E24" s="83" t="n">
         <v>0.98</v>
       </c>
-      <c r="F24" s="81"/>
+      <c r="F24" s="84"/>
       <c r="G24" s="3"/>
-      <c r="H24" s="74"/>
+      <c r="H24" s="78"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="78" t="s">
-        <v>84</v>
+      <c r="A25" s="80" t="s">
+        <v>85</v>
       </c>
       <c r="B25" s="3" t="n">
         <v>-1</v>
       </c>
-      <c r="C25" s="87" t="n">
+      <c r="C25" s="101" t="n">
         <v>0.217087116951</v>
       </c>
-      <c r="D25" s="95"/>
-      <c r="E25" s="80" t="n">
+      <c r="D25" s="111"/>
+      <c r="E25" s="83" t="n">
         <v>0.98</v>
       </c>
-      <c r="F25" s="81"/>
+      <c r="F25" s="84"/>
       <c r="G25" s="3"/>
-      <c r="H25" s="74"/>
+      <c r="H25" s="78"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="93"/>
-      <c r="H26" s="94"/>
+      <c r="A26" s="108"/>
+      <c r="H26" s="109"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="85" t="s">
-        <v>89</v>
-      </c>
-      <c r="B27" s="85"/>
-      <c r="C27" s="85"/>
-      <c r="D27" s="85"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="85"/>
-      <c r="G27" s="85"/>
-      <c r="H27" s="85"/>
+      <c r="A27" s="93" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="93"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="75" t="s">
-        <v>80</v>
+      <c r="A28" s="79" t="s">
+        <v>81</v>
       </c>
       <c r="B28" s="23" t="s">
         <v>74</v>
@@ -7828,185 +8006,185 @@
         <v>75</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E28" s="23" t="s">
         <v>75</v>
       </c>
       <c r="F28" s="23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G28" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="H28" s="94"/>
+      <c r="H28" s="109"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="78" t="s">
-        <v>82</v>
-      </c>
-      <c r="B29" s="87" t="n">
+      <c r="A29" s="85" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="97" t="n">
         <v>0.217805722233</v>
       </c>
-      <c r="C29" s="95" t="n">
+      <c r="C29" s="110" t="n">
         <f aca="false">(B29-$B$31)/$B$31*100</f>
         <v>1.19671935537097</v>
       </c>
-      <c r="D29" s="80" t="n">
+      <c r="D29" s="89" t="n">
         <v>0.98</v>
       </c>
-      <c r="E29" s="81" t="n">
+      <c r="E29" s="90" t="n">
         <f aca="false">(D29-$D$30)/$D$30</f>
         <v>0</v>
       </c>
-      <c r="F29" s="3" t="n">
+      <c r="F29" s="96" t="n">
         <v>0.36</v>
       </c>
       <c r="G29" s="3"/>
-      <c r="H29" s="94"/>
+      <c r="H29" s="109"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="78" t="s">
-        <v>83</v>
-      </c>
-      <c r="B30" s="87" t="n">
+      <c r="A30" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="101" t="n">
         <v>0.2157534232895</v>
       </c>
-      <c r="C30" s="95" t="n">
+      <c r="C30" s="111" t="n">
         <f aca="false">(B30-$B$31)/$B$31*100</f>
-        <v>0.243181872106307</v>
-      </c>
-      <c r="D30" s="80" t="n">
+        <v>0.243181872106333</v>
+      </c>
+      <c r="D30" s="83" t="n">
         <v>0.98</v>
       </c>
-      <c r="E30" s="96" t="s">
-        <v>78</v>
+      <c r="E30" s="112" t="s">
+        <v>79</v>
       </c>
       <c r="F30" s="3" t="n">
         <v>0.36</v>
       </c>
       <c r="G30" s="3"/>
-      <c r="H30" s="94"/>
+      <c r="H30" s="109"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="78" t="s">
-        <v>84</v>
-      </c>
-      <c r="B31" s="87" t="n">
+      <c r="A31" s="80" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" s="101" t="n">
         <v>0.2152300228905</v>
       </c>
-      <c r="C31" s="97" t="s">
-        <v>78</v>
+      <c r="C31" s="113" t="s">
+        <v>79</v>
       </c>
       <c r="D31" s="3" t="n">
         <v>0.98</v>
       </c>
-      <c r="E31" s="97" t="s">
-        <v>78</v>
+      <c r="E31" s="113" t="s">
+        <v>79</v>
       </c>
       <c r="F31" s="3" t="n">
         <v>0.36</v>
       </c>
-      <c r="G31" s="97" t="s">
-        <v>78</v>
-      </c>
-      <c r="H31" s="94"/>
+      <c r="G31" s="113" t="s">
+        <v>79</v>
+      </c>
+      <c r="H31" s="109"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="93"/>
-      <c r="H32" s="94"/>
+      <c r="A32" s="108"/>
+      <c r="H32" s="109"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="98" t="s">
-        <v>90</v>
-      </c>
-      <c r="B33" s="98"/>
-      <c r="C33" s="98"/>
-      <c r="D33" s="98"/>
-      <c r="E33" s="98"/>
-      <c r="F33" s="98"/>
-      <c r="G33" s="98"/>
-      <c r="H33" s="94"/>
+      <c r="A33" s="114" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" s="114"/>
+      <c r="C33" s="114"/>
+      <c r="D33" s="114"/>
+      <c r="E33" s="114"/>
+      <c r="F33" s="114"/>
+      <c r="G33" s="114"/>
+      <c r="H33" s="109"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="B34" s="58" t="s">
+      <c r="A34" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="58" t="s">
+      <c r="C34" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="H34" s="94"/>
+      <c r="H34" s="109"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="93" t="s">
-        <v>82</v>
-      </c>
-      <c r="B35" s="99" t="n">
+      <c r="A35" s="108" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" s="115" t="n">
         <f aca="false">C23</f>
         <v>0.217805722233</v>
       </c>
-      <c r="C35" s="100" t="n">
+      <c r="C35" s="116" t="n">
         <f aca="false">(B35-$B$37)/$B$37*100</f>
         <v>0.0654995535925682</v>
       </c>
-      <c r="H35" s="94"/>
+      <c r="H35" s="109"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="93" t="s">
-        <v>92</v>
-      </c>
-      <c r="B36" s="99" t="n">
+      <c r="A36" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" s="115" t="n">
         <v>0.2180523405262</v>
       </c>
-      <c r="C36" s="100" t="n">
+      <c r="C36" s="116" t="n">
         <f aca="false">(B36-$B$37)/$B$37*100</f>
         <v>0.178802282534259</v>
       </c>
-      <c r="H36" s="94"/>
+      <c r="H36" s="109"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="101" t="s">
-        <v>93</v>
-      </c>
-      <c r="B37" s="102" t="n">
+      <c r="A37" s="117" t="s">
+        <v>94</v>
+      </c>
+      <c r="B37" s="118" t="n">
         <v>0.2176631538389</v>
       </c>
-      <c r="C37" s="103"/>
-      <c r="D37" s="103"/>
-      <c r="E37" s="103"/>
-      <c r="F37" s="103"/>
-      <c r="G37" s="103"/>
-      <c r="H37" s="104"/>
+      <c r="C37" s="119"/>
+      <c r="D37" s="119"/>
+      <c r="E37" s="119"/>
+      <c r="F37" s="119"/>
+      <c r="G37" s="119"/>
+      <c r="H37" s="120"/>
     </row>
     <row r="39" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="105" t="s">
-        <v>94</v>
-      </c>
-      <c r="B39" s="105"/>
-      <c r="C39" s="105"/>
-      <c r="D39" s="105"/>
-      <c r="E39" s="105"/>
-      <c r="F39" s="105"/>
-      <c r="G39" s="105"/>
-      <c r="H39" s="105"/>
+      <c r="A39" s="121" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" s="121"/>
+      <c r="C39" s="121"/>
+      <c r="D39" s="121"/>
+      <c r="E39" s="121"/>
+      <c r="F39" s="121"/>
+      <c r="G39" s="121"/>
+      <c r="H39" s="121"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="73" t="s">
+      <c r="A40" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="B40" s="73"/>
-      <c r="C40" s="73"/>
-      <c r="D40" s="73"/>
-      <c r="E40" s="73"/>
-      <c r="F40" s="73"/>
-      <c r="G40" s="73"/>
-      <c r="H40" s="73"/>
+      <c r="B40" s="77"/>
+      <c r="C40" s="77"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="77"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="77"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="75" t="s">
+      <c r="A41" s="79" t="s">
         <v>73</v>
       </c>
       <c r="B41" s="23" t="s">
@@ -8016,152 +8194,152 @@
         <v>75</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E41" s="23" t="s">
         <v>75</v>
       </c>
       <c r="F41" s="23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G41" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="H41" s="76"/>
+      <c r="H41" s="95"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="78" t="n">
+      <c r="A42" s="80" t="n">
         <v>0</v>
       </c>
       <c r="B42" s="8" t="n">
         <v>0.8279395498848</v>
       </c>
-      <c r="C42" s="79" t="n">
+      <c r="C42" s="81" t="n">
         <f aca="false">(B42-$B$45)/$B$45*100</f>
         <v>22.5064864066551</v>
       </c>
-      <c r="D42" s="80" t="n">
+      <c r="D42" s="83" t="n">
         <v>2</v>
       </c>
-      <c r="E42" s="81" t="n">
+      <c r="E42" s="84" t="n">
         <f aca="false">(D42-$D$45)/$D$45*100</f>
         <v>-9.0909090909091</v>
       </c>
-      <c r="F42" s="80" t="n">
+      <c r="F42" s="83" t="n">
         <v>1.5</v>
       </c>
       <c r="G42" s="40" t="n">
         <f aca="false">(F42-$F$45)/$F$45*100</f>
         <v>-11.764705882353</v>
       </c>
-      <c r="H42" s="82"/>
+      <c r="H42" s="122"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="78" t="n">
+      <c r="A43" s="80" t="n">
         <v>1</v>
       </c>
       <c r="B43" s="8" t="n">
         <v>0.7053919425262</v>
       </c>
-      <c r="C43" s="79" t="n">
+      <c r="C43" s="81" t="n">
         <f aca="false">(B43-$B$45)/$B$45*100</f>
-        <v>4.3736688632326</v>
-      </c>
-      <c r="D43" s="80" t="n">
+        <v>4.37366886323258</v>
+      </c>
+      <c r="D43" s="83" t="n">
         <v>2.1</v>
       </c>
-      <c r="E43" s="81" t="n">
+      <c r="E43" s="84" t="n">
         <f aca="false">(D43-$D$45)/$D$45*100</f>
         <v>-4.54545454545455</v>
       </c>
-      <c r="F43" s="80" t="n">
+      <c r="F43" s="83" t="n">
         <v>1.7</v>
       </c>
       <c r="G43" s="40" t="n">
         <f aca="false">(F43-$F$45)/$F$45*100</f>
         <v>0</v>
       </c>
-      <c r="H43" s="82"/>
+      <c r="H43" s="122"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="78" t="n">
+      <c r="A44" s="80" t="n">
         <v>2</v>
       </c>
       <c r="B44" s="8" t="n">
         <v>0.681267343842</v>
       </c>
-      <c r="C44" s="79" t="n">
+      <c r="C44" s="81" t="n">
         <f aca="false">(B44-$B$45)/$B$45*100</f>
-        <v>0.804060645841392</v>
-      </c>
-      <c r="D44" s="80" t="n">
+        <v>0.804060645841375</v>
+      </c>
+      <c r="D44" s="83" t="n">
         <v>2.1</v>
       </c>
-      <c r="E44" s="81" t="n">
+      <c r="E44" s="84" t="n">
         <f aca="false">(D44-$D$45)/$D$45*100</f>
         <v>-4.54545454545455</v>
       </c>
-      <c r="F44" s="80" t="n">
+      <c r="F44" s="83" t="n">
         <v>1.7</v>
       </c>
       <c r="G44" s="40" t="n">
         <f aca="false">(F44-$F$45)/$F$45*100</f>
         <v>0</v>
       </c>
-      <c r="H44" s="82"/>
+      <c r="H44" s="122"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="78" t="n">
+      <c r="A45" s="80" t="n">
         <v>3</v>
       </c>
       <c r="B45" s="8" t="n">
         <v>0.6758332347697</v>
       </c>
-      <c r="C45" s="84" t="s">
-        <v>78</v>
-      </c>
-      <c r="D45" s="80" t="n">
+      <c r="C45" s="92" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45" s="83" t="n">
         <v>2.2</v>
       </c>
-      <c r="E45" s="96" t="s">
-        <v>78</v>
-      </c>
-      <c r="F45" s="80" t="n">
+      <c r="E45" s="112" t="s">
+        <v>79</v>
+      </c>
+      <c r="F45" s="83" t="n">
         <v>1.7</v>
       </c>
-      <c r="G45" s="106" t="s">
-        <v>78</v>
-      </c>
-      <c r="H45" s="82"/>
+      <c r="G45" s="123" t="s">
+        <v>79</v>
+      </c>
+      <c r="H45" s="122"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="78"/>
+      <c r="A46" s="80"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
-      <c r="H46" s="74"/>
+      <c r="H46" s="78"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="85" t="s">
-        <v>79</v>
-      </c>
-      <c r="B47" s="85"/>
-      <c r="C47" s="85"/>
-      <c r="D47" s="85"/>
-      <c r="E47" s="85"/>
-      <c r="F47" s="85"/>
-      <c r="G47" s="85"/>
-      <c r="H47" s="85"/>
+      <c r="A47" s="93" t="s">
+        <v>80</v>
+      </c>
+      <c r="B47" s="93"/>
+      <c r="C47" s="93"/>
+      <c r="D47" s="93"/>
+      <c r="E47" s="93"/>
+      <c r="F47" s="93"/>
+      <c r="G47" s="93"/>
+      <c r="H47" s="93"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="75" t="s">
-        <v>80</v>
+      <c r="A48" s="79" t="s">
+        <v>81</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C48" s="23" t="s">
         <v>74</v>
@@ -8170,112 +8348,112 @@
         <v>75</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F48" s="23" t="s">
         <v>75</v>
       </c>
       <c r="G48" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="H48" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="H48" s="95" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="78" t="s">
-        <v>82</v>
+      <c r="A49" s="80" t="s">
+        <v>83</v>
       </c>
       <c r="B49" s="3" t="n">
         <v>0.25</v>
       </c>
-      <c r="C49" s="87"/>
-      <c r="D49" s="88" t="n">
+      <c r="C49" s="101"/>
+      <c r="D49" s="102" t="n">
         <f aca="false">(C49-$C$13)/$C$13*100</f>
         <v>-100</v>
       </c>
-      <c r="E49" s="80"/>
+      <c r="E49" s="83"/>
       <c r="F49" s="39" t="n">
         <f aca="false">(E49-$E$13)/$E$13*100</f>
         <v>-100</v>
       </c>
       <c r="G49" s="3"/>
-      <c r="H49" s="107" t="e">
+      <c r="H49" s="124" t="e">
         <f aca="false">(G49-$G$51)/$G$51</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="78" t="s">
-        <v>83</v>
+      <c r="A50" s="80" t="s">
+        <v>84</v>
       </c>
       <c r="B50" s="3" t="n">
         <v>0.6</v>
       </c>
-      <c r="C50" s="87"/>
-      <c r="D50" s="88" t="n">
+      <c r="C50" s="101"/>
+      <c r="D50" s="102" t="n">
         <f aca="false">(C50-$C$13)/$C$13*100</f>
         <v>-100</v>
       </c>
-      <c r="E50" s="80"/>
+      <c r="E50" s="83"/>
       <c r="F50" s="39" t="n">
         <f aca="false">(E50-$E$13)/$E$13*100</f>
         <v>-100</v>
       </c>
       <c r="G50" s="3"/>
-      <c r="H50" s="107" t="e">
+      <c r="H50" s="124" t="e">
         <f aca="false">(G50-$G$51)/$G$51</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="78" t="s">
-        <v>84</v>
+      <c r="A51" s="80" t="s">
+        <v>85</v>
       </c>
       <c r="B51" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C51" s="87"/>
-      <c r="D51" s="89" t="s">
-        <v>78</v>
-      </c>
-      <c r="E51" s="80"/>
-      <c r="F51" s="90" t="s">
-        <v>78</v>
+      <c r="C51" s="101"/>
+      <c r="D51" s="103" t="s">
+        <v>79</v>
+      </c>
+      <c r="E51" s="83"/>
+      <c r="F51" s="104" t="s">
+        <v>79</v>
       </c>
       <c r="G51" s="3"/>
-      <c r="H51" s="91" t="s">
-        <v>78</v>
+      <c r="H51" s="105" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="78"/>
+      <c r="A52" s="80"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
-      <c r="E52" s="80"/>
-      <c r="F52" s="81"/>
+      <c r="E52" s="83"/>
+      <c r="F52" s="84"/>
       <c r="G52" s="3"/>
-      <c r="H52" s="74"/>
+      <c r="H52" s="78"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="85" t="s">
-        <v>85</v>
-      </c>
-      <c r="B53" s="85"/>
-      <c r="C53" s="85"/>
-      <c r="D53" s="85"/>
-      <c r="E53" s="85"/>
-      <c r="F53" s="85"/>
-      <c r="G53" s="85"/>
-      <c r="H53" s="85"/>
+      <c r="A53" s="93" t="s">
+        <v>86</v>
+      </c>
+      <c r="B53" s="93"/>
+      <c r="C53" s="93"/>
+      <c r="D53" s="93"/>
+      <c r="E53" s="93"/>
+      <c r="F53" s="93"/>
+      <c r="G53" s="93"/>
+      <c r="H53" s="93"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="75" t="s">
-        <v>80</v>
+      <c r="A54" s="79" t="s">
+        <v>81</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C54" s="23" t="s">
         <v>74</v>
@@ -8284,106 +8462,106 @@
         <v>75</v>
       </c>
       <c r="E54" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F54" s="23" t="s">
         <v>75</v>
       </c>
       <c r="G54" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="H54" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="H54" s="95" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="78" t="s">
-        <v>82</v>
+      <c r="A55" s="80" t="s">
+        <v>83</v>
       </c>
       <c r="B55" s="3" t="n">
         <v>0.18</v>
       </c>
-      <c r="C55" s="92"/>
-      <c r="D55" s="79" t="e">
+      <c r="C55" s="107"/>
+      <c r="D55" s="81" t="e">
         <f aca="false">(C55-$C$58)/$C$58*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E55" s="80"/>
+      <c r="E55" s="83"/>
       <c r="F55" s="39" t="e">
         <f aca="false">(E55-$E$58)/$E$58*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G55" s="3"/>
-      <c r="H55" s="74" t="e">
+      <c r="H55" s="78" t="e">
         <f aca="false">(G55-$G$58)/$G$58*100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="78" t="s">
-        <v>83</v>
+      <c r="A56" s="80" t="s">
+        <v>84</v>
       </c>
       <c r="B56" s="3" t="n">
         <v>0.36</v>
       </c>
-      <c r="C56" s="92"/>
-      <c r="D56" s="79" t="e">
+      <c r="C56" s="107"/>
+      <c r="D56" s="81" t="e">
         <f aca="false">(C56-$C$58)/$C$58*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E56" s="80"/>
+      <c r="E56" s="83"/>
       <c r="F56" s="39" t="e">
         <f aca="false">(E56-$E$58)/$E$58*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G56" s="3"/>
-      <c r="H56" s="74" t="e">
+      <c r="H56" s="78" t="e">
         <f aca="false">(G56-$G$58)/$G$58*100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="78" t="s">
-        <v>84</v>
+      <c r="A57" s="80" t="s">
+        <v>85</v>
       </c>
       <c r="B57" s="3" t="n">
         <v>0.72</v>
       </c>
-      <c r="C57" s="92"/>
-      <c r="D57" s="84" t="s">
-        <v>78</v>
-      </c>
-      <c r="E57" s="80"/>
-      <c r="F57" s="90" t="s">
-        <v>78</v>
+      <c r="C57" s="107"/>
+      <c r="D57" s="92" t="s">
+        <v>79</v>
+      </c>
+      <c r="E57" s="83"/>
+      <c r="F57" s="104" t="s">
+        <v>79</v>
       </c>
       <c r="G57" s="3"/>
-      <c r="H57" s="91" t="s">
-        <v>78</v>
+      <c r="H57" s="105" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="93"/>
-      <c r="H58" s="94"/>
+      <c r="A58" s="108"/>
+      <c r="H58" s="109"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="85" t="s">
-        <v>87</v>
-      </c>
-      <c r="B59" s="85"/>
-      <c r="C59" s="85"/>
-      <c r="D59" s="85"/>
-      <c r="E59" s="85"/>
-      <c r="F59" s="85"/>
-      <c r="G59" s="85"/>
-      <c r="H59" s="85"/>
+      <c r="A59" s="93" t="s">
+        <v>88</v>
+      </c>
+      <c r="B59" s="93"/>
+      <c r="C59" s="93"/>
+      <c r="D59" s="93"/>
+      <c r="E59" s="93"/>
+      <c r="F59" s="93"/>
+      <c r="G59" s="93"/>
+      <c r="H59" s="93"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="75" t="s">
-        <v>80</v>
+      <c r="A60" s="79" t="s">
+        <v>81</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C60" s="23" t="s">
         <v>74</v>
@@ -8392,87 +8570,87 @@
         <v>75</v>
       </c>
       <c r="E60" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F60" s="23" t="s">
         <v>75</v>
       </c>
       <c r="G60" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="H60" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="H60" s="95" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="78" t="s">
-        <v>82</v>
+      <c r="A61" s="80" t="s">
+        <v>83</v>
       </c>
       <c r="B61" s="3" t="n">
         <v>-0.05</v>
       </c>
-      <c r="C61" s="87"/>
-      <c r="D61" s="95" t="e">
+      <c r="C61" s="101"/>
+      <c r="D61" s="111" t="e">
         <f aca="false">(C61-$C$63)/$C$63*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E61" s="80"/>
-      <c r="F61" s="81"/>
+      <c r="E61" s="83"/>
+      <c r="F61" s="84"/>
       <c r="G61" s="3" t="n">
         <v>0.36</v>
       </c>
-      <c r="H61" s="74"/>
+      <c r="H61" s="78"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="78" t="s">
-        <v>83</v>
+      <c r="A62" s="80" t="s">
+        <v>84</v>
       </c>
       <c r="B62" s="3" t="n">
         <v>-0.25</v>
       </c>
-      <c r="C62" s="87"/>
-      <c r="D62" s="95" t="e">
+      <c r="C62" s="101"/>
+      <c r="D62" s="111" t="e">
         <f aca="false">(C62-$C$63)/$C$63*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E62" s="80"/>
-      <c r="F62" s="81"/>
+      <c r="E62" s="83"/>
+      <c r="F62" s="84"/>
       <c r="G62" s="3"/>
-      <c r="H62" s="74"/>
+      <c r="H62" s="78"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="78" t="s">
-        <v>84</v>
+      <c r="A63" s="80" t="s">
+        <v>85</v>
       </c>
       <c r="B63" s="3" t="n">
         <v>-1</v>
       </c>
-      <c r="C63" s="87"/>
-      <c r="D63" s="95"/>
-      <c r="E63" s="80"/>
-      <c r="F63" s="81"/>
+      <c r="C63" s="101"/>
+      <c r="D63" s="111"/>
+      <c r="E63" s="83"/>
+      <c r="F63" s="84"/>
       <c r="G63" s="3"/>
-      <c r="H63" s="74"/>
+      <c r="H63" s="78"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="93"/>
-      <c r="H64" s="94"/>
+      <c r="A64" s="108"/>
+      <c r="H64" s="109"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="85" t="s">
-        <v>89</v>
-      </c>
-      <c r="B65" s="85"/>
-      <c r="C65" s="85"/>
-      <c r="D65" s="85"/>
-      <c r="E65" s="85"/>
-      <c r="F65" s="85"/>
-      <c r="G65" s="85"/>
-      <c r="H65" s="85"/>
+      <c r="A65" s="93" t="s">
+        <v>90</v>
+      </c>
+      <c r="B65" s="93"/>
+      <c r="C65" s="93"/>
+      <c r="D65" s="93"/>
+      <c r="E65" s="93"/>
+      <c r="F65" s="93"/>
+      <c r="G65" s="93"/>
+      <c r="H65" s="93"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="75" t="s">
-        <v>80</v>
+      <c r="A66" s="79" t="s">
+        <v>81</v>
       </c>
       <c r="B66" s="23" t="s">
         <v>74</v>
@@ -8481,134 +8659,134 @@
         <v>75</v>
       </c>
       <c r="D66" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E66" s="23" t="s">
         <v>75</v>
       </c>
       <c r="F66" s="23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G66" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="H66" s="94"/>
+      <c r="H66" s="109"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="78" t="s">
-        <v>82</v>
-      </c>
-      <c r="B67" s="87"/>
-      <c r="C67" s="95" t="e">
+      <c r="A67" s="80" t="s">
+        <v>83</v>
+      </c>
+      <c r="B67" s="101"/>
+      <c r="C67" s="111" t="e">
         <f aca="false">(B67-$B$69)/$B$69*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D67" s="80"/>
-      <c r="E67" s="81" t="e">
+      <c r="D67" s="83"/>
+      <c r="E67" s="84" t="e">
         <f aca="false">(D67-$D$69)/$D$69</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
-      <c r="H67" s="94"/>
+      <c r="H67" s="109"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="78" t="s">
-        <v>83</v>
-      </c>
-      <c r="B68" s="87"/>
-      <c r="C68" s="95" t="e">
+      <c r="A68" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="B68" s="101"/>
+      <c r="C68" s="111" t="e">
         <f aca="false">(B68-$B$69)/$B$69*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D68" s="80"/>
-      <c r="E68" s="81" t="e">
+      <c r="D68" s="83"/>
+      <c r="E68" s="84" t="e">
         <f aca="false">(D68-$D$69)/$D$69</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
-      <c r="H68" s="94"/>
+      <c r="H68" s="109"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="78" t="s">
-        <v>84</v>
-      </c>
-      <c r="B69" s="87"/>
-      <c r="C69" s="97" t="s">
-        <v>78</v>
+      <c r="A69" s="80" t="s">
+        <v>85</v>
+      </c>
+      <c r="B69" s="101"/>
+      <c r="C69" s="113" t="s">
+        <v>79</v>
       </c>
       <c r="D69" s="3"/>
-      <c r="E69" s="97" t="s">
-        <v>78</v>
+      <c r="E69" s="113" t="s">
+        <v>79</v>
       </c>
       <c r="F69" s="3"/>
-      <c r="G69" s="97" t="s">
-        <v>78</v>
-      </c>
-      <c r="H69" s="94"/>
+      <c r="G69" s="113" t="s">
+        <v>79</v>
+      </c>
+      <c r="H69" s="109"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="93"/>
-      <c r="H70" s="94"/>
+      <c r="A70" s="108"/>
+      <c r="H70" s="109"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="98" t="s">
-        <v>90</v>
-      </c>
-      <c r="B71" s="98"/>
-      <c r="C71" s="98"/>
-      <c r="D71" s="98"/>
-      <c r="E71" s="98"/>
-      <c r="F71" s="98"/>
-      <c r="G71" s="98"/>
-      <c r="H71" s="98"/>
+      <c r="A71" s="114" t="s">
+        <v>91</v>
+      </c>
+      <c r="B71" s="114"/>
+      <c r="C71" s="114"/>
+      <c r="D71" s="114"/>
+      <c r="E71" s="114"/>
+      <c r="F71" s="114"/>
+      <c r="G71" s="114"/>
+      <c r="H71" s="114"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="B72" s="58" t="s">
+      <c r="A72" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="B72" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="C72" s="58" t="s">
+      <c r="C72" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="H72" s="94"/>
+      <c r="H72" s="109"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="93" t="s">
-        <v>82</v>
-      </c>
-      <c r="B73" s="99"/>
-      <c r="C73" s="100" t="n">
+      <c r="A73" s="108" t="s">
+        <v>83</v>
+      </c>
+      <c r="B73" s="115"/>
+      <c r="C73" s="116" t="n">
         <f aca="false">(B73-$B$37)/$B$37*100</f>
         <v>-100</v>
       </c>
-      <c r="H73" s="94"/>
+      <c r="H73" s="109"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="93" t="s">
-        <v>92</v>
-      </c>
-      <c r="B74" s="99"/>
-      <c r="C74" s="100" t="n">
+      <c r="A74" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="B74" s="115"/>
+      <c r="C74" s="116" t="n">
         <f aca="false">(B74-$B$37)/$B$37*100</f>
         <v>-100</v>
       </c>
-      <c r="H74" s="94"/>
+      <c r="H74" s="109"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="101" t="s">
-        <v>93</v>
-      </c>
-      <c r="B75" s="102"/>
-      <c r="C75" s="103"/>
-      <c r="D75" s="103"/>
-      <c r="E75" s="103"/>
-      <c r="F75" s="103"/>
-      <c r="G75" s="103"/>
-      <c r="H75" s="104"/>
+      <c r="A75" s="117" t="s">
+        <v>94</v>
+      </c>
+      <c r="B75" s="118"/>
+      <c r="C75" s="119"/>
+      <c r="D75" s="119"/>
+      <c r="E75" s="119"/>
+      <c r="F75" s="119"/>
+      <c r="G75" s="119"/>
+      <c r="H75" s="120"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -8644,87 +8822,87 @@
   </sheetPr>
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="C1" s="60" t="s">
+      <c r="B1" s="62" t="s">
         <v>96</v>
       </c>
+      <c r="C1" s="62" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="108" t="n">
+      <c r="A2" s="125" t="n">
         <v>0.3082</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="C2" s="109" t="n">
+      <c r="C2" s="126" t="n">
         <v>2E-005</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="108"/>
+      <c r="A3" s="125"/>
       <c r="B3" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="C3" s="109" t="n">
+      <c r="C3" s="126" t="n">
         <v>2.5E-005</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="108"/>
+      <c r="A4" s="125"/>
       <c r="B4" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C4" s="109" t="n">
+      <c r="C4" s="126" t="n">
         <v>2.5E-005</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="108"/>
+      <c r="A5" s="125"/>
       <c r="B5" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="C5" s="109" t="n">
+      <c r="C5" s="126" t="n">
         <v>2.5E-005</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="108"/>
+      <c r="A6" s="125"/>
       <c r="B6" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="C6" s="109" t="n">
+      <c r="C6" s="126" t="n">
         <v>2E-005</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="108"/>
+      <c r="A7" s="125"/>
       <c r="B7" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="C7" s="109" t="n">
+      <c r="C7" s="126" t="n">
         <v>2E-005</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="108"/>
+      <c r="A8" s="125"/>
       <c r="B8" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="110" t="n">
+      <c r="A9" s="127" t="n">
         <v>0.54</v>
       </c>
       <c r="B9" s="0" t="n">
@@ -8732,43 +8910,43 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="110"/>
+      <c r="A10" s="127"/>
       <c r="B10" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="C10" s="109" t="n">
+      <c r="C10" s="126" t="n">
         <v>1E-005</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="110"/>
+      <c r="A11" s="127"/>
       <c r="B11" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C11" s="109" t="n">
+      <c r="C11" s="126" t="n">
         <v>1E-005</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="110"/>
+      <c r="A12" s="127"/>
       <c r="B12" s="0" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="110"/>
+      <c r="A13" s="127"/>
       <c r="B13" s="0" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="110"/>
+      <c r="A14" s="127"/>
       <c r="B14" s="0" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="110"/>
+      <c r="A15" s="127"/>
       <c r="B15" s="0" t="n">
         <v>20</v>
       </c>
@@ -8786,4 +8964,664 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:P37"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N17" activeCellId="0" sqref="N17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="76" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="K1" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="L1" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="M1" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1" s="128" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1" s="128" t="s">
+        <v>103</v>
+      </c>
+      <c r="P1" s="128" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="J2" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="L2" s="129" t="n">
+        <v>13.27031</v>
+      </c>
+      <c r="M2" s="129" t="n">
+        <v>83.82099</v>
+      </c>
+      <c r="N2" s="129" t="n">
+        <v>237.4635</v>
+      </c>
+      <c r="O2" s="129" t="n">
+        <v>472.2359</v>
+      </c>
+      <c r="P2" s="129" t="n">
+        <v>792.152</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="79" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="J3" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="L3" s="130" t="n">
+        <v>13.25292</v>
+      </c>
+      <c r="M3" s="130" t="n">
+        <v>83.064</v>
+      </c>
+      <c r="N3" s="130" t="n">
+        <v>232.3301</v>
+      </c>
+      <c r="O3" s="130" t="n">
+        <v>453.2814</v>
+      </c>
+      <c r="P3" s="130" t="n">
+        <v>741.228</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>2255</v>
+      </c>
+      <c r="C4" s="8" t="n">
+        <v>0.1826080700682</v>
+      </c>
+      <c r="D4" s="81" t="n">
+        <f aca="false">(C4-$C$7)/$C$7*100</f>
+        <v>17.4761797041205</v>
+      </c>
+      <c r="E4" s="84"/>
+      <c r="F4" s="83"/>
+      <c r="J4" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="80" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>8950</v>
+      </c>
+      <c r="C5" s="8" t="n">
+        <v>0.160647096794</v>
+      </c>
+      <c r="D5" s="131" t="n">
+        <f aca="false">(C5-$C$7)/$C$7*100</f>
+        <v>3.34815545046195</v>
+      </c>
+      <c r="E5" s="84"/>
+      <c r="F5" s="83"/>
+      <c r="J5" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <f aca="false">240*4</f>
+        <v>960</v>
+      </c>
+      <c r="L5" s="130" t="n">
+        <v>13.2653</v>
+      </c>
+      <c r="M5" s="130" t="n">
+        <v>83.10657</v>
+      </c>
+      <c r="N5" s="130" t="n">
+        <v>232.3366</v>
+      </c>
+      <c r="O5" s="130" t="n">
+        <v>452.9736</v>
+      </c>
+      <c r="P5" s="130" t="n">
+        <v>740.0401</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="80" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>35666</v>
+      </c>
+      <c r="C6" s="8" t="n">
+        <v>0.1564461889623</v>
+      </c>
+      <c r="D6" s="131" t="n">
+        <f aca="false">(C6-$C$7)/$C$7*100</f>
+        <v>0.645610030793903</v>
+      </c>
+      <c r="E6" s="84"/>
+      <c r="F6" s="83"/>
+      <c r="J6" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <f aca="false">600*10</f>
+        <v>6000</v>
+      </c>
+      <c r="L6" s="130" t="n">
+        <v>13.2595</v>
+      </c>
+      <c r="M6" s="130" t="n">
+        <v>83.06379</v>
+      </c>
+      <c r="N6" s="130" t="n">
+        <v>232.21</v>
+      </c>
+      <c r="O6" s="130" t="n">
+        <v>452.7066</v>
+      </c>
+      <c r="P6" s="130" t="n">
+        <v>739.5643</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="80" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>142402</v>
+      </c>
+      <c r="C7" s="8" t="n">
+        <v>0.155442635714</v>
+      </c>
+      <c r="D7" s="92" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="84"/>
+      <c r="F7" s="83"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="80"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="78"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="93" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="79" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="95"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="80" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C11" s="101" t="n">
+        <f aca="false">C6</f>
+        <v>0.1564461889623</v>
+      </c>
+      <c r="D11" s="102" t="n">
+        <f aca="false">(C11-$C$13)/$C$13*100</f>
+        <v>0.00136152137344582</v>
+      </c>
+      <c r="E11" s="83"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="78"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C12" s="101" t="n">
+        <v>0.156443925581</v>
+      </c>
+      <c r="D12" s="102" t="n">
+        <f aca="false">(C12-$C$13)/$C$13*100</f>
+        <v>-8.52458066479818E-005</v>
+      </c>
+      <c r="E12" s="83"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="78"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="80" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="101" t="n">
+        <v>0.156444058943</v>
+      </c>
+      <c r="D13" s="103" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="83"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="105"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="80"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="78"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="93" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="93"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="93"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="79" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="95"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="80" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="C17" s="107" t="n">
+        <f aca="false">C6</f>
+        <v>0.1564461889623</v>
+      </c>
+      <c r="D17" s="81" t="n">
+        <f aca="false">(C17-$C$19)/$C$19*100</f>
+        <v>0.225403692122404</v>
+      </c>
+      <c r="E17" s="83"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="78"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="C18" s="107" t="n">
+        <v>0.156111301454</v>
+      </c>
+      <c r="D18" s="81" t="n">
+        <f aca="false">(C18-$C$19)/$C$19*100</f>
+        <v>0.0108619641746134</v>
+      </c>
+      <c r="E18" s="83"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="78"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="80" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="3" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="C19" s="107" t="n">
+        <v>0.156094346542</v>
+      </c>
+      <c r="D19" s="92" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="83"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="105"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="108"/>
+      <c r="H20" s="109"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="93" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="79" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="95"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="80" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="3" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="C23" s="101" t="n">
+        <f aca="false">C6</f>
+        <v>0.1564461889623</v>
+      </c>
+      <c r="D23" s="111" t="n">
+        <f aca="false">(C23-$C$25)/$C$25*100</f>
+        <v>0.322586916361586</v>
+      </c>
+      <c r="E23" s="83"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="78"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="3" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="C24" s="101" t="n">
+        <v>0.155954908725</v>
+      </c>
+      <c r="D24" s="111" t="n">
+        <f aca="false">(C24-$C$25)/$C$25*100</f>
+        <v>0.00754885353797488</v>
+      </c>
+      <c r="E24" s="83"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="78"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="80" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" s="101" t="n">
+        <v>0.155943136806</v>
+      </c>
+      <c r="D25" s="111"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="84"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="78"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="108"/>
+      <c r="H26" s="109"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="93" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="93"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="79" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="109"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="80" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="101" t="n">
+        <f aca="false">C6</f>
+        <v>0.1564461889623</v>
+      </c>
+      <c r="C29" s="111" t="n">
+        <f aca="false">(B29-$B$31)/$B$31*100</f>
+        <v>1.07173678667447</v>
+      </c>
+      <c r="D29" s="83"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="109"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="101"/>
+      <c r="C30" s="111" t="n">
+        <f aca="false">(B30-$B$31)/$B$31*100</f>
+        <v>-100</v>
+      </c>
+      <c r="D30" s="83"/>
+      <c r="E30" s="112"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="109"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="80" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" s="101" t="n">
+        <v>0.154787276776</v>
+      </c>
+      <c r="C31" s="113" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="113"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="113"/>
+      <c r="H31" s="109"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="108"/>
+      <c r="H32" s="109"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="114"/>
+      <c r="B33" s="114"/>
+      <c r="C33" s="114"/>
+      <c r="D33" s="114"/>
+      <c r="E33" s="114"/>
+      <c r="F33" s="114"/>
+      <c r="G33" s="114"/>
+      <c r="H33" s="109"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="60"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="60"/>
+      <c r="H34" s="109"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="108"/>
+      <c r="B35" s="115"/>
+      <c r="C35" s="116"/>
+      <c r="H35" s="109"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="108"/>
+      <c r="B36" s="115"/>
+      <c r="C36" s="116"/>
+      <c r="H36" s="109"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="117"/>
+      <c r="B37" s="118"/>
+      <c r="C37" s="119"/>
+      <c r="D37" s="119"/>
+      <c r="E37" s="119"/>
+      <c r="F37" s="119"/>
+      <c r="G37" s="119"/>
+      <c r="H37" s="120"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A33:G33"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Resultados/Resultados.xlsx
+++ b/Resultados/Resultados.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="UR0.29" sheetId="1" state="visible" r:id="rId2"/>
@@ -360,7 +360,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="16">
+  <numFmts count="17">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00E+00"/>
     <numFmt numFmtId="166" formatCode="0.000E+00"/>
@@ -376,7 +376,8 @@
     <numFmt numFmtId="176" formatCode="0.00000E+00"/>
     <numFmt numFmtId="177" formatCode="#,##0.0000"/>
     <numFmt numFmtId="178" formatCode="0.00000"/>
-    <numFmt numFmtId="179" formatCode="#,##0.000"/>
+    <numFmt numFmtId="179" formatCode="#,##0.0"/>
+    <numFmt numFmtId="180" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -546,7 +547,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -581,12 +582,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF158466"/>
         <bgColor rgb="FF008080"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF4000"/>
-        <bgColor rgb="FFFF420E"/>
       </patternFill>
     </fill>
     <fill>
@@ -831,7 +826,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="133">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1088,15 +1083,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="7" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1128,7 +1119,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1172,15 +1163,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="173" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="173" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1188,15 +1179,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1216,23 +1207,23 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="174" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="175" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="172" fontId="14" fillId="9" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="174" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="175" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="14" fillId="8" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1256,7 +1247,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="176" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="176" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1272,7 +1263,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="177" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1352,11 +1343,19 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="179" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="180" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1435,7 +1434,7 @@
       <rgbColor rgb="FF579D1C"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FFFF4000"/>
+      <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -1444,7 +1443,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1685,11 +1684,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="47214845"/>
-        <c:axId val="39463497"/>
+        <c:axId val="19918206"/>
+        <c:axId val="35527374"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="47214845"/>
+        <c:axId val="19918206"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.8"/>
@@ -1767,13 +1766,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39463497"/>
+        <c:crossAx val="35527374"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="39463497"/>
+        <c:axId val="35527374"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1849,7 +1848,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47214845"/>
+        <c:crossAx val="19918206"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.25"/>
@@ -1904,7 +1903,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2148,11 +2147,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="90556306"/>
-        <c:axId val="79459061"/>
+        <c:axId val="63602018"/>
+        <c:axId val="43336868"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="90556306"/>
+        <c:axId val="63602018"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2208,7 +2207,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79459061"/>
+        <c:crossAx val="43336868"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2216,7 +2215,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79459061"/>
+        <c:axId val="43336868"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2281,7 +2280,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90556306"/>
+        <c:crossAx val="63602018"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2329,7 +2328,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2927,11 +2926,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="37127672"/>
-        <c:axId val="80604326"/>
+        <c:axId val="84058268"/>
+        <c:axId val="40674510"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="37127672"/>
+        <c:axId val="84058268"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.8"/>
@@ -3009,13 +3008,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80604326"/>
+        <c:crossAx val="40674510"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80604326"/>
+        <c:axId val="40674510"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3091,7 +3090,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37127672"/>
+        <c:crossAx val="84058268"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3246,8 +3245,8 @@
   </sheetPr>
   <dimension ref="A1:AA73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4675,7 +4674,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D30" s="64" t="n">
+      <c r="D30" s="47" t="n">
         <v>18</v>
       </c>
       <c r="E30" s="26" t="n">
@@ -4720,38 +4719,38 @@
       </c>
       <c r="Q30" s="35"/>
       <c r="R30" s="35"/>
-      <c r="T30" s="65" t="n">
+      <c r="T30" s="64" t="n">
         <f aca="false">E17</f>
         <v>0.97799511002445</v>
       </c>
-      <c r="U30" s="65"/>
-      <c r="V30" s="65" t="n">
+      <c r="U30" s="64"/>
+      <c r="V30" s="64" t="n">
         <f aca="false">DataAmplitudes!D71</f>
         <v>1.95834478184374</v>
       </c>
-      <c r="W30" s="65" t="n">
+      <c r="W30" s="64" t="n">
         <f aca="false">DataAmplitudes!Q54</f>
         <v>1.8259044600139</v>
       </c>
-      <c r="X30" s="65" t="n">
+      <c r="X30" s="64" t="n">
         <f aca="false">DataAmplitudes!D86</f>
         <v>1.79643763408429</v>
       </c>
-      <c r="Y30" s="65" t="n">
+      <c r="Y30" s="64" t="n">
         <f aca="false">DataAmplitudes!D96</f>
         <v>1.66256139642377</v>
       </c>
-      <c r="Z30" s="65" t="n">
+      <c r="Z30" s="64" t="n">
         <f aca="false">DataAmplitudes!D107</f>
         <v>1.61290009466266</v>
       </c>
-      <c r="AA30" s="65" t="n">
+      <c r="AA30" s="64" t="n">
         <f aca="false">DataAmplitudes!D116</f>
         <v>1.5894824460623</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D31" s="66" t="n">
+      <c r="D31" s="65" t="n">
         <v>20</v>
       </c>
       <c r="E31" s="49" t="n">
@@ -4795,56 +4794,56 @@
       </c>
       <c r="Q31" s="57"/>
       <c r="R31" s="57"/>
-      <c r="T31" s="65" t="n">
+      <c r="T31" s="64" t="n">
         <f aca="false">E18</f>
         <v>1.14099429502853</v>
       </c>
-      <c r="U31" s="65"/>
-      <c r="W31" s="65" t="n">
+      <c r="U31" s="64"/>
+      <c r="W31" s="64" t="n">
         <f aca="false">DataAmplitudes!Q64</f>
         <v>1.91099011083192</v>
       </c>
-      <c r="X31" s="65" t="n">
+      <c r="X31" s="64" t="n">
         <f aca="false">DataAmplitudes!N87</f>
         <v>1.8822717942183</v>
       </c>
-      <c r="Y31" s="65" t="n">
+      <c r="Y31" s="64" t="n">
         <f aca="false">DataAmplitudes!I96</f>
         <v>1.6722461904307</v>
       </c>
-      <c r="Z31" s="65" t="n">
+      <c r="Z31" s="64" t="n">
         <f aca="false">DataAmplitudes!I107</f>
         <v>1.72030354365754</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="T32" s="65" t="n">
+      <c r="T32" s="64" t="n">
         <f aca="false">E19</f>
         <v>1.3039934800326</v>
       </c>
-      <c r="U32" s="65" t="n">
+      <c r="U32" s="64" t="n">
         <f aca="false">DataAmplitudes!D44</f>
         <v>1.49008346403845</v>
       </c>
-      <c r="V32" s="65" t="n">
+      <c r="V32" s="64" t="n">
         <f aca="false">DataAmplitudes!D62</f>
         <v>1.77042311642844</v>
       </c>
       <c r="W32" s="0" t="n">
         <v>1.75</v>
       </c>
-      <c r="X32" s="65" t="n">
+      <c r="X32" s="64" t="n">
         <v>1.75</v>
       </c>
-      <c r="Y32" s="65" t="n">
+      <c r="Y32" s="64" t="n">
         <f aca="false">DataAmplitudes!N96</f>
         <v>1.52323173374673</v>
       </c>
-      <c r="Z32" s="65" t="n">
+      <c r="Z32" s="64" t="n">
         <f aca="false">DataAmplitudes!N107</f>
         <v>1.66086579368754</v>
       </c>
-      <c r="AA32" s="65" t="n">
+      <c r="AA32" s="64" t="n">
         <f aca="false">DataAmplitudes!N116</f>
         <v>1.69242539056187</v>
       </c>
@@ -4981,15 +4980,15 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="66" t="s">
         <v>48</v>
       </c>
       <c r="B1" s="60"/>
-      <c r="C1" s="67"/>
+      <c r="C1" s="66"/>
       <c r="D1" s="60"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="67"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="66"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="61" t="s">
@@ -5091,7 +5090,7 @@
       <c r="K4" s="0" t="n">
         <v>1.209</v>
       </c>
-      <c r="L4" s="69" t="n">
+      <c r="L4" s="68" t="n">
         <f aca="false">1000*(0.03-0.0251846)</f>
         <v>4.8154</v>
       </c>
@@ -5133,7 +5132,7 @@
       <c r="K5" s="0" t="n">
         <v>1.234</v>
       </c>
-      <c r="L5" s="69" t="n">
+      <c r="L5" s="68" t="n">
         <v>4.821</v>
       </c>
     </row>
@@ -5173,7 +5172,7 @@
       <c r="K6" s="0" t="n">
         <v>1.259</v>
       </c>
-      <c r="L6" s="69" t="n">
+      <c r="L6" s="68" t="n">
         <f aca="false">1000*(0.03-0.025197)</f>
         <v>4.803</v>
       </c>
@@ -5215,7 +5214,7 @@
       <c r="K7" s="0" t="n">
         <v>1.334</v>
       </c>
-      <c r="L7" s="69" t="n">
+      <c r="L7" s="68" t="n">
         <v>4.8051</v>
       </c>
     </row>
@@ -5242,7 +5241,7 @@
       <c r="K8" s="0" t="n">
         <v>1.359</v>
       </c>
-      <c r="L8" s="69" t="n">
+      <c r="L8" s="68" t="n">
         <f aca="false">1000*(0.03-0.0251891)</f>
         <v>4.8109</v>
       </c>
@@ -5264,7 +5263,7 @@
       <c r="K9" s="0" t="n">
         <v>1.434</v>
       </c>
-      <c r="L9" s="69" t="n">
+      <c r="L9" s="68" t="n">
         <v>4.8099</v>
       </c>
     </row>
@@ -5286,15 +5285,15 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="67" t="s">
+      <c r="A14" s="66" t="s">
         <v>48</v>
       </c>
       <c r="B14" s="60"/>
-      <c r="C14" s="67"/>
+      <c r="C14" s="66"/>
       <c r="D14" s="60"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="67"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="66"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="61" t="s">
@@ -5395,7 +5394,7 @@
       <c r="H17" s="0" t="n">
         <v>8.2258</v>
       </c>
-      <c r="L17" s="69"/>
+      <c r="L17" s="68"/>
       <c r="M17" s="0" t="n">
         <v>1.034</v>
       </c>
@@ -5429,7 +5428,7 @@
         <f aca="false">1000*(0.03-0.0219693)</f>
         <v>8.0307</v>
       </c>
-      <c r="L18" s="69"/>
+      <c r="L18" s="68"/>
       <c r="M18" s="0" t="n">
         <v>1.062</v>
       </c>
@@ -5460,7 +5459,7 @@
       <c r="H19" s="0" t="n">
         <v>7.9623</v>
       </c>
-      <c r="L19" s="69"/>
+      <c r="L19" s="68"/>
       <c r="M19" s="0" t="n">
         <v>1.09</v>
       </c>
@@ -5479,7 +5478,7 @@
       <c r="C20" s="0" t="n">
         <v>1.187</v>
       </c>
-      <c r="D20" s="70" t="n">
+      <c r="D20" s="69" t="n">
         <f aca="false">1000*(0.03-0.0188516)</f>
         <v>11.1484</v>
       </c>
@@ -5497,7 +5496,7 @@
         <f aca="false">1000*(0.03-0.0220684)</f>
         <v>7.9316</v>
       </c>
-      <c r="L20" s="69"/>
+      <c r="L20" s="68"/>
       <c r="M20" s="0" t="n">
         <v>1.117</v>
       </c>
@@ -5531,7 +5530,7 @@
       <c r="H21" s="0" t="n">
         <v>7.9697</v>
       </c>
-      <c r="L21" s="69"/>
+      <c r="L21" s="68"/>
       <c r="M21" s="0" t="n">
         <v>1.145</v>
       </c>
@@ -5568,7 +5567,7 @@
         <f aca="false">1000*(0.03-0.0220122)</f>
         <v>7.9878</v>
       </c>
-      <c r="L22" s="69"/>
+      <c r="L22" s="68"/>
       <c r="M22" s="0" t="n">
         <v>1.173</v>
       </c>
@@ -5683,7 +5682,7 @@
       <c r="C26" s="0" t="n">
         <v>1.487</v>
       </c>
-      <c r="D26" s="70" t="n">
+      <c r="D26" s="69" t="n">
         <f aca="false">1000*(0.03-0.0188437)</f>
         <v>11.1563</v>
       </c>
@@ -5895,11 +5894,11 @@
       <c r="B40" s="0" t="n">
         <v>10.3671</v>
       </c>
-      <c r="C40" s="65" t="n">
+      <c r="C40" s="64" t="n">
         <f aca="false">B40/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.7057642707371</v>
       </c>
-      <c r="D40" s="65" t="n">
+      <c r="D40" s="64" t="n">
         <f aca="false">B40/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.58364712853762</v>
       </c>
@@ -5909,14 +5908,14 @@
       <c r="N40" s="0" t="n">
         <v>1.031</v>
       </c>
-      <c r="O40" s="65" t="n">
+      <c r="O40" s="64" t="n">
         <v>11.92</v>
       </c>
-      <c r="P40" s="65" t="n">
+      <c r="P40" s="64" t="n">
         <f aca="false">O40/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.9612726902592</v>
       </c>
-      <c r="Q40" s="65" t="n">
+      <c r="Q40" s="64" t="n">
         <f aca="false">O40/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.82086347890619</v>
       </c>
@@ -5929,26 +5928,26 @@
         <f aca="false">1000*(0.03-0.0199501)</f>
         <v>10.0499</v>
       </c>
-      <c r="C41" s="65" t="n">
+      <c r="C41" s="64" t="n">
         <f aca="false">B41/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.65357335652986</v>
       </c>
-      <c r="D41" s="65" t="n">
+      <c r="D41" s="64" t="n">
         <f aca="false">B41/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.53519260710229</v>
       </c>
       <c r="N41" s="0" t="n">
         <v>1.063</v>
       </c>
-      <c r="O41" s="65" t="n">
+      <c r="O41" s="64" t="n">
         <f aca="false">1000*(0.03-0.0182312)</f>
         <v>11.7688</v>
       </c>
-      <c r="P41" s="65" t="n">
+      <c r="P41" s="64" t="n">
         <f aca="false">O41/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.93639480177202</v>
       </c>
-      <c r="Q41" s="65" t="n">
+      <c r="Q41" s="64" t="n">
         <f aca="false">O41/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.79776662001268</v>
       </c>
@@ -5961,26 +5960,26 @@
       <c r="B42" s="0" t="n">
         <v>9.8834</v>
       </c>
-      <c r="C42" s="65" t="n">
+      <c r="C42" s="64" t="n">
         <f aca="false">B42/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.62617806266005</v>
       </c>
-      <c r="D42" s="65" t="n">
+      <c r="D42" s="64" t="n">
         <f aca="false">B42/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.50975856605885</v>
       </c>
-      <c r="G42" s="69"/>
+      <c r="G42" s="68"/>
       <c r="N42" s="0" t="n">
         <v>1.095</v>
       </c>
-      <c r="O42" s="65" t="n">
+      <c r="O42" s="64" t="n">
         <v>11.6725</v>
       </c>
-      <c r="P42" s="65" t="n">
+      <c r="P42" s="64" t="n">
         <f aca="false">O42/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.9205499561284</v>
       </c>
-      <c r="Q42" s="65" t="n">
+      <c r="Q42" s="64" t="n">
         <f aca="false">O42/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.78305612059837</v>
       </c>
@@ -5989,31 +5988,31 @@
       <c r="A43" s="0" t="n">
         <v>1.131</v>
       </c>
-      <c r="B43" s="70" t="n">
+      <c r="B43" s="69" t="n">
         <f aca="false">1000*(0.03-0.0202027)</f>
         <v>9.7973</v>
       </c>
-      <c r="C43" s="65" t="n">
+      <c r="C43" s="64" t="n">
         <f aca="false">B43/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.61201148727152</v>
       </c>
-      <c r="D43" s="65" t="n">
+      <c r="D43" s="64" t="n">
         <f aca="false">B43/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.49660618807782</v>
       </c>
-      <c r="G43" s="69"/>
+      <c r="G43" s="68"/>
       <c r="N43" s="0" t="n">
         <v>1.126</v>
       </c>
-      <c r="O43" s="71" t="n">
+      <c r="O43" s="70" t="n">
         <f aca="false">1000*(0.03-0.018351)</f>
         <v>11.649</v>
       </c>
-      <c r="P43" s="65" t="n">
+      <c r="P43" s="64" t="n">
         <f aca="false">O43/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.91668335308972</v>
       </c>
-      <c r="Q43" s="65" t="n">
+      <c r="Q43" s="64" t="n">
         <f aca="false">O43/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.77946633102166</v>
       </c>
@@ -6026,25 +6025,25 @@
       <c r="B44" s="0" t="n">
         <v>9.7546</v>
       </c>
-      <c r="C44" s="65" t="n">
+      <c r="C44" s="64" t="n">
         <f aca="false">B44/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.60498578728208</v>
       </c>
-      <c r="D44" s="65" t="n">
+      <c r="D44" s="64" t="n">
         <f aca="false">B44/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.49008346403845</v>
       </c>
       <c r="N44" s="0" t="n">
         <v>1.157</v>
       </c>
-      <c r="O44" s="65" t="n">
+      <c r="O44" s="64" t="n">
         <v>11.6353</v>
       </c>
-      <c r="P44" s="65" t="n">
+      <c r="P44" s="64" t="n">
         <f aca="false">O44/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.91442920578632</v>
       </c>
-      <c r="Q44" s="65" t="n">
+      <c r="Q44" s="64" t="n">
         <f aca="false">O44/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.77737356007695</v>
       </c>
@@ -6053,15 +6052,15 @@
       <c r="N45" s="0" t="n">
         <v>1.188</v>
       </c>
-      <c r="O45" s="71" t="n">
+      <c r="O45" s="70" t="n">
         <f aca="false">1000*(0.03-0.0183805)</f>
         <v>11.6195</v>
       </c>
-      <c r="P45" s="65" t="n">
+      <c r="P45" s="64" t="n">
         <f aca="false">O45/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.91182953225393</v>
       </c>
-      <c r="Q45" s="65" t="n">
+      <c r="Q45" s="64" t="n">
         <f aca="false">O45/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.77495999942538</v>
       </c>
@@ -6073,9 +6072,9 @@
       <c r="B46" s="61"/>
       <c r="C46" s="61"/>
       <c r="D46" s="61"/>
-      <c r="O46" s="65"/>
-      <c r="P46" s="65"/>
-      <c r="Q46" s="65"/>
+      <c r="O46" s="64"/>
+      <c r="P46" s="64"/>
+      <c r="Q46" s="64"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="61" t="s">
@@ -6084,12 +6083,12 @@
       <c r="B47" s="61"/>
       <c r="C47" s="61"/>
       <c r="D47" s="61"/>
-      <c r="N47" s="72" t="s">
+      <c r="N47" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="O47" s="72"/>
-      <c r="P47" s="72"/>
-      <c r="Q47" s="73" t="n">
+      <c r="O47" s="71"/>
+      <c r="P47" s="71"/>
+      <c r="Q47" s="72" t="n">
         <v>1.72</v>
       </c>
     </row>
@@ -6114,11 +6113,11 @@
       <c r="B49" s="0" t="n">
         <v>12.3826</v>
       </c>
-      <c r="C49" s="65" t="n">
+      <c r="C49" s="64" t="n">
         <f aca="false">B49/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>2.03738718241641</v>
       </c>
-      <c r="D49" s="65" t="n">
+      <c r="D49" s="64" t="n">
         <f aca="false">B49/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.89152886861609</v>
       </c>
@@ -6140,11 +6139,11 @@
         <f aca="false">(0.03-0.0178154)*1000</f>
         <v>12.1846</v>
       </c>
-      <c r="C50" s="65" t="n">
+      <c r="C50" s="64" t="n">
         <f aca="false">B50/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>2.00480899511177</v>
       </c>
-      <c r="D50" s="65" t="n">
+      <c r="D50" s="64" t="n">
         <f aca="false">B50/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.86128298196983</v>
       </c>
@@ -6156,11 +6155,11 @@
       <c r="Q50" s="61"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C51" s="65" t="n">
+      <c r="C51" s="64" t="n">
         <f aca="false">B51/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="D51" s="65" t="n">
+      <c r="D51" s="64" t="n">
         <f aca="false">B51/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
@@ -6178,51 +6177,51 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="70"/>
-      <c r="C52" s="65" t="n">
+      <c r="B52" s="69"/>
+      <c r="C52" s="64" t="n">
         <f aca="false">B52/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="D52" s="65" t="n">
+      <c r="D52" s="64" t="n">
         <f aca="false">B52/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
       <c r="N52" s="0" t="n">
         <v>1.031</v>
       </c>
-      <c r="O52" s="65" t="n">
+      <c r="O52" s="64" t="n">
         <v>11.8117</v>
       </c>
-      <c r="P52" s="65" t="n">
+      <c r="P52" s="64" t="n">
         <f aca="false">O52/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.94345340902136</v>
       </c>
-      <c r="Q52" s="65" t="n">
+      <c r="Q52" s="64" t="n">
         <f aca="false">O52/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.80431989545271</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C53" s="65" t="n">
+      <c r="C53" s="64" t="n">
         <f aca="false">B53/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="D53" s="65" t="n">
+      <c r="D53" s="64" t="n">
         <f aca="false">B53/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
       <c r="N53" s="0" t="n">
         <v>1.073</v>
       </c>
-      <c r="O53" s="65" t="n">
+      <c r="O53" s="64" t="n">
         <f aca="false">1000*(0.03-0.0180445)</f>
         <v>11.9555</v>
       </c>
-      <c r="P53" s="65" t="n">
+      <c r="P53" s="64" t="n">
         <f aca="false">O53/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.96711372889211</v>
       </c>
-      <c r="Q53" s="65" t="n">
+      <c r="Q53" s="64" t="n">
         <f aca="false">O53/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.82628635252206</v>
       </c>
@@ -6231,14 +6230,14 @@
       <c r="N54" s="0" t="n">
         <v>1.114</v>
       </c>
-      <c r="O54" s="65" t="n">
+      <c r="O54" s="64" t="n">
         <v>11.953</v>
       </c>
-      <c r="P54" s="65" t="n">
+      <c r="P54" s="64" t="n">
         <f aca="false">O54/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.96670238814331</v>
       </c>
-      <c r="Q54" s="65" t="n">
+      <c r="Q54" s="64" t="n">
         <f aca="false">O54/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.8259044600139</v>
       </c>
@@ -6250,12 +6249,12 @@
       <c r="B55" s="61"/>
       <c r="C55" s="61"/>
       <c r="D55" s="61"/>
-      <c r="O55" s="71"/>
-      <c r="P55" s="65" t="n">
+      <c r="O55" s="70"/>
+      <c r="P55" s="64" t="n">
         <f aca="false">O55/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="Q55" s="65" t="n">
+      <c r="Q55" s="64" t="n">
         <f aca="false">O55/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
@@ -6267,12 +6266,12 @@
       <c r="B56" s="61"/>
       <c r="C56" s="61"/>
       <c r="D56" s="61"/>
-      <c r="O56" s="65"/>
-      <c r="P56" s="65" t="n">
+      <c r="O56" s="64"/>
+      <c r="P56" s="64" t="n">
         <f aca="false">O56/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="Q56" s="65" t="n">
+      <c r="Q56" s="64" t="n">
         <f aca="false">O56/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
@@ -6290,12 +6289,12 @@
       <c r="D57" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="O57" s="71"/>
-      <c r="P57" s="65" t="n">
+      <c r="O57" s="70"/>
+      <c r="P57" s="64" t="n">
         <f aca="false">O57/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="Q57" s="65" t="n">
+      <c r="Q57" s="64" t="n">
         <f aca="false">O57/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
@@ -6304,14 +6303,14 @@
       <c r="A58" s="0" t="n">
         <v>1.033</v>
       </c>
-      <c r="B58" s="65" t="n">
+      <c r="B58" s="64" t="n">
         <v>12.0366</v>
       </c>
-      <c r="C58" s="65" t="n">
+      <c r="C58" s="64" t="n">
         <f aca="false">B58/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.98045762278305</v>
       </c>
-      <c r="D58" s="65" t="n">
+      <c r="D58" s="64" t="n">
         <f aca="false">B58/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.83867494548677</v>
       </c>
@@ -6323,19 +6322,19 @@
       <c r="A59" s="0" t="n">
         <v>1.065</v>
       </c>
-      <c r="B59" s="65" t="n">
+      <c r="B59" s="64" t="n">
         <f aca="false">(0.03-0.0182043)*1000</f>
         <v>11.7957</v>
       </c>
-      <c r="C59" s="65" t="n">
+      <c r="C59" s="64" t="n">
         <f aca="false">B59/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.94082082822907</v>
       </c>
-      <c r="D59" s="65" t="n">
+      <c r="D59" s="64" t="n">
         <f aca="false">B59/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.80187578340048</v>
       </c>
-      <c r="G59" s="65" t="n">
+      <c r="G59" s="64" t="n">
         <f aca="false">D41/D40*D58</f>
         <v>1.78241739103968</v>
       </c>
@@ -6350,18 +6349,18 @@
       <c r="A60" s="0" t="n">
         <v>1.096</v>
       </c>
-      <c r="B60" s="65" t="n">
+      <c r="B60" s="64" t="n">
         <v>11.6751</v>
       </c>
-      <c r="C60" s="65" t="n">
+      <c r="C60" s="64" t="n">
         <f aca="false">B60/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.92097775050715</v>
       </c>
-      <c r="D60" s="65" t="n">
+      <c r="D60" s="64" t="n">
         <f aca="false">B60/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.78345328880685</v>
       </c>
-      <c r="G60" s="65" t="n">
+      <c r="G60" s="64" t="n">
         <f aca="false">D42/D40*D58</f>
         <v>1.75288749565683</v>
       </c>
@@ -6376,19 +6375,19 @@
       <c r="A61" s="0" t="n">
         <v>1.128</v>
       </c>
-      <c r="B61" s="71" t="n">
+      <c r="B61" s="70" t="n">
         <f aca="false">(0.03-0.0183851)*1000</f>
         <v>11.6149</v>
       </c>
-      <c r="C61" s="65" t="n">
+      <c r="C61" s="64" t="n">
         <f aca="false">B61/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.91107266527614</v>
       </c>
-      <c r="D61" s="65" t="n">
+      <c r="D61" s="64" t="n">
         <f aca="false">B61/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.77425731721036</v>
       </c>
-      <c r="G61" s="65" t="n">
+      <c r="G61" s="64" t="n">
         <f aca="false">D43/$D$40*D58</f>
         <v>1.73761708128768</v>
       </c>
@@ -6409,94 +6408,94 @@
       <c r="A62" s="0" t="n">
         <v>1.159</v>
       </c>
-      <c r="B62" s="65" t="n">
+      <c r="B62" s="64" t="n">
         <v>11.5898</v>
       </c>
-      <c r="C62" s="65" t="n">
+      <c r="C62" s="64" t="n">
         <f aca="false">B62/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.90694280415823</v>
       </c>
-      <c r="D62" s="65" t="n">
+      <c r="D62" s="64" t="n">
         <f aca="false">B62/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.77042311642844</v>
       </c>
-      <c r="G62" s="65" t="n">
+      <c r="G62" s="64" t="n">
         <f aca="false">D44/D40*D58</f>
         <v>1.73004394895826</v>
       </c>
       <c r="N62" s="0" t="n">
         <v>1.031</v>
       </c>
-      <c r="O62" s="65" t="n">
+      <c r="O62" s="64" t="n">
         <v>11.8117</v>
       </c>
-      <c r="P62" s="65" t="n">
+      <c r="P62" s="64" t="n">
         <f aca="false">O62/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.94345340902136</v>
       </c>
-      <c r="Q62" s="65" t="n">
+      <c r="Q62" s="64" t="n">
         <f aca="false">O62/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.80431989545271</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="65"/>
-      <c r="C63" s="65" t="n">
+      <c r="B63" s="64"/>
+      <c r="C63" s="64" t="n">
         <f aca="false">B63/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="D63" s="65" t="n">
+      <c r="D63" s="64" t="n">
         <f aca="false">B63/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
       <c r="N63" s="0" t="n">
         <v>1.073</v>
       </c>
-      <c r="O63" s="65" t="n">
+      <c r="O63" s="64" t="n">
         <f aca="false">1000*(0.03-0.0174737)</f>
         <v>12.5263</v>
       </c>
-      <c r="P63" s="65" t="n">
+      <c r="P63" s="64" t="n">
         <f aca="false">O63/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>2.0610310486572</v>
       </c>
-      <c r="Q63" s="65" t="n">
+      <c r="Q63" s="64" t="n">
         <f aca="false">O63/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.91348004998512</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="65"/>
-      <c r="C64" s="65" t="n">
+      <c r="B64" s="64"/>
+      <c r="C64" s="64" t="n">
         <f aca="false">B64/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="D64" s="65" t="n">
+      <c r="D64" s="64" t="n">
         <f aca="false">B64/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
       <c r="N64" s="0" t="n">
         <v>1.103</v>
       </c>
-      <c r="O64" s="65" t="n">
+      <c r="O64" s="64" t="n">
         <v>12.51</v>
       </c>
-      <c r="P64" s="65" t="n">
+      <c r="P64" s="64" t="n">
         <f aca="false">O64/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>2.05834910697505</v>
       </c>
-      <c r="Q64" s="65" t="n">
+      <c r="Q64" s="64" t="n">
         <f aca="false">O64/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.91099011083192</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O65" s="71"/>
-      <c r="P65" s="65" t="n">
+      <c r="O65" s="70"/>
+      <c r="P65" s="64" t="n">
         <f aca="false">O65/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="Q65" s="65" t="n">
+      <c r="Q65" s="64" t="n">
         <f aca="false">O65/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
@@ -6508,12 +6507,12 @@
       <c r="B66" s="61"/>
       <c r="C66" s="61"/>
       <c r="D66" s="61"/>
-      <c r="O66" s="65"/>
-      <c r="P66" s="65" t="n">
+      <c r="O66" s="64"/>
+      <c r="P66" s="64" t="n">
         <f aca="false">O66/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="Q66" s="65" t="n">
+      <c r="Q66" s="64" t="n">
         <f aca="false">O66/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
@@ -6525,12 +6524,12 @@
       <c r="B67" s="61"/>
       <c r="C67" s="61"/>
       <c r="D67" s="61"/>
-      <c r="O67" s="71"/>
-      <c r="P67" s="65" t="n">
+      <c r="O67" s="70"/>
+      <c r="P67" s="64" t="n">
         <f aca="false">O67/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="Q67" s="65" t="n">
+      <c r="Q67" s="64" t="n">
         <f aca="false">O67/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
@@ -6553,14 +6552,14 @@
       <c r="A69" s="0" t="n">
         <v>1.032</v>
       </c>
-      <c r="B69" s="65" t="n">
+      <c r="B69" s="64" t="n">
         <v>12.6366</v>
       </c>
-      <c r="C69" s="65" t="n">
+      <c r="C69" s="64" t="n">
         <f aca="false">B69/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>2.07917940249408</v>
       </c>
-      <c r="D69" s="65" t="n">
+      <c r="D69" s="64" t="n">
         <f aca="false">B69/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.93032914744513</v>
       </c>
@@ -6569,15 +6568,15 @@
       <c r="A70" s="0" t="n">
         <v>1.074</v>
       </c>
-      <c r="B70" s="65" t="n">
+      <c r="B70" s="64" t="n">
         <f aca="false">(0.03-0.0171832)*1000</f>
         <v>12.8168</v>
       </c>
-      <c r="C70" s="65" t="n">
+      <c r="C70" s="64" t="n">
         <f aca="false">B70/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>2.10882884366729</v>
       </c>
-      <c r="D70" s="65" t="n">
+      <c r="D70" s="64" t="n">
         <f aca="false">B70/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.9578559594333</v>
       </c>
@@ -6589,102 +6588,102 @@
       <c r="B71" s="0" t="n">
         <v>12.82</v>
       </c>
-      <c r="C71" s="65" t="n">
+      <c r="C71" s="64" t="n">
         <f aca="false">B71/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>2.10935535982575</v>
       </c>
-      <c r="D71" s="65" t="n">
+      <c r="D71" s="64" t="n">
         <f aca="false">B71/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.95834478184374</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="71"/>
-      <c r="C72" s="65" t="n">
+      <c r="B72" s="70"/>
+      <c r="C72" s="64" t="n">
         <f aca="false">B72/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="D72" s="65" t="n">
+      <c r="D72" s="64" t="n">
         <f aca="false">B72/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="65"/>
-      <c r="C73" s="65" t="n">
+      <c r="B73" s="64"/>
+      <c r="C73" s="64" t="n">
         <f aca="false">B73/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="D73" s="65" t="n">
+      <c r="D73" s="64" t="n">
         <f aca="false">B73/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="65"/>
-      <c r="C74" s="65" t="n">
+      <c r="B74" s="64"/>
+      <c r="C74" s="64" t="n">
         <f aca="false">B74/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="D74" s="65" t="n">
+      <c r="D74" s="64" t="n">
         <f aca="false">B74/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="65"/>
-      <c r="C75" s="65" t="n">
+      <c r="B75" s="64"/>
+      <c r="C75" s="64" t="n">
         <f aca="false">B75/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="D75" s="65" t="n">
+      <c r="D75" s="64" t="n">
         <f aca="false">B75/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="74"/>
-      <c r="B78" s="74"/>
-      <c r="C78" s="74"/>
-      <c r="D78" s="74"/>
-      <c r="E78" s="74"/>
-      <c r="F78" s="74"/>
-      <c r="G78" s="74"/>
-      <c r="H78" s="74"/>
-      <c r="I78" s="74"/>
-      <c r="J78" s="74"/>
-      <c r="K78" s="74"/>
-      <c r="L78" s="74"/>
-      <c r="M78" s="74"/>
-      <c r="N78" s="74"/>
-      <c r="O78" s="74"/>
-      <c r="P78" s="74"/>
-      <c r="Q78" s="74"/>
-      <c r="R78" s="74"/>
+      <c r="A78" s="73"/>
+      <c r="B78" s="73"/>
+      <c r="C78" s="73"/>
+      <c r="D78" s="73"/>
+      <c r="E78" s="73"/>
+      <c r="F78" s="73"/>
+      <c r="G78" s="73"/>
+      <c r="H78" s="73"/>
+      <c r="I78" s="73"/>
+      <c r="J78" s="73"/>
+      <c r="K78" s="73"/>
+      <c r="L78" s="73"/>
+      <c r="M78" s="73"/>
+      <c r="N78" s="73"/>
+      <c r="O78" s="73"/>
+      <c r="P78" s="73"/>
+      <c r="Q78" s="73"/>
+      <c r="R78" s="73"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="68" t="s">
+      <c r="A81" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B81" s="75" t="n">
+      <c r="B81" s="74" t="n">
         <v>7500000000</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="68" t="s">
+      <c r="A82" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="B82" s="68" t="n">
+      <c r="B82" s="67" t="n">
         <v>1325</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="72" t="s">
+      <c r="A83" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="B83" s="72"/>
-      <c r="C83" s="72"/>
-      <c r="D83" s="72"/>
+      <c r="B83" s="71"/>
+      <c r="C83" s="71"/>
+      <c r="D83" s="71"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="61" t="s">
@@ -6751,11 +6750,11 @@
         <f aca="false">1000*(0.03-0.0182399)</f>
         <v>11.7601</v>
       </c>
-      <c r="C86" s="65" t="n">
+      <c r="C86" s="64" t="n">
         <f aca="false">B86/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.93496333596621</v>
       </c>
-      <c r="D86" s="65" t="n">
+      <c r="D86" s="64" t="n">
         <f aca="false">B86/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.79643763408429</v>
       </c>
@@ -6765,25 +6764,25 @@
       <c r="G86" s="0" t="n">
         <v>11.6128</v>
       </c>
-      <c r="H86" s="65" t="n">
+      <c r="H86" s="64" t="n">
         <f aca="false">G86/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.91072713904715</v>
       </c>
-      <c r="I86" s="65" t="n">
+      <c r="I86" s="64" t="n">
         <f aca="false">G86/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.77393652750351</v>
       </c>
       <c r="K86" s="0" t="n">
         <v>1.031</v>
       </c>
-      <c r="L86" s="65" t="n">
+      <c r="L86" s="64" t="n">
         <v>12.3236</v>
       </c>
-      <c r="M86" s="65" t="n">
+      <c r="M86" s="64" t="n">
         <f aca="false">L86/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>2.02767954074483</v>
       </c>
-      <c r="N86" s="65" t="n">
+      <c r="N86" s="64" t="n">
         <f aca="false">L86/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.88251620542352</v>
       </c>
@@ -6795,11 +6794,11 @@
       <c r="B87" s="0" t="n">
         <v>11.757</v>
       </c>
-      <c r="C87" s="65" t="n">
+      <c r="C87" s="64" t="n">
         <f aca="false">B87/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.93445327343771</v>
       </c>
-      <c r="D87" s="65" t="n">
+      <c r="D87" s="64" t="n">
         <f aca="false">B87/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.79596408737417</v>
       </c>
@@ -6810,64 +6809,64 @@
         <f aca="false">1000*(0.03-0.0185551)</f>
         <v>11.4449</v>
       </c>
-      <c r="H87" s="65" t="n">
+      <c r="H87" s="64" t="n">
         <f aca="false">G87/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.88310149435802</v>
       </c>
-      <c r="I87" s="65" t="n">
+      <c r="I87" s="64" t="n">
         <f aca="false">G87/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.74828862665549</v>
       </c>
       <c r="K87" s="0" t="n">
         <v>1.065</v>
       </c>
-      <c r="L87" s="65" t="n">
+      <c r="L87" s="64" t="n">
         <f aca="false">1000*(0.03-0.017678)</f>
         <v>12.322</v>
       </c>
-      <c r="M87" s="65" t="n">
+      <c r="M87" s="64" t="n">
         <f aca="false">L87/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>2.0274162826656</v>
       </c>
-      <c r="N87" s="65" t="n">
+      <c r="N87" s="64" t="n">
         <f aca="false">L87/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.8822717942183</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="74"/>
-      <c r="B89" s="74"/>
-      <c r="C89" s="74"/>
-      <c r="D89" s="74"/>
-      <c r="E89" s="74"/>
-      <c r="F89" s="74"/>
-      <c r="G89" s="74"/>
-      <c r="H89" s="74"/>
-      <c r="I89" s="74"/>
-      <c r="J89" s="74"/>
-      <c r="K89" s="74"/>
-      <c r="L89" s="74"/>
-      <c r="M89" s="74"/>
-      <c r="N89" s="74"/>
-      <c r="O89" s="74"/>
-      <c r="P89" s="74"/>
-      <c r="Q89" s="74"/>
-      <c r="R89" s="74"/>
+      <c r="A89" s="73"/>
+      <c r="B89" s="73"/>
+      <c r="C89" s="73"/>
+      <c r="D89" s="73"/>
+      <c r="E89" s="73"/>
+      <c r="F89" s="73"/>
+      <c r="G89" s="73"/>
+      <c r="H89" s="73"/>
+      <c r="I89" s="73"/>
+      <c r="J89" s="73"/>
+      <c r="K89" s="73"/>
+      <c r="L89" s="73"/>
+      <c r="M89" s="73"/>
+      <c r="N89" s="73"/>
+      <c r="O89" s="73"/>
+      <c r="P89" s="73"/>
+      <c r="Q89" s="73"/>
+      <c r="R89" s="73"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="68" t="s">
+      <c r="A91" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B91" s="75" t="n">
+      <c r="B91" s="74" t="n">
         <v>5800000000</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="68" t="s">
+      <c r="A92" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="B92" s="68" t="n">
+      <c r="B92" s="67" t="n">
         <v>1000</v>
       </c>
     </row>
@@ -6936,11 +6935,11 @@
         <f aca="false">1000*(0.03-0.0191163)</f>
         <v>10.8837</v>
       </c>
-      <c r="C96" s="65" t="n">
+      <c r="C96" s="64" t="n">
         <f aca="false">B96/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.7907637230683</v>
       </c>
-      <c r="D96" s="65" t="n">
+      <c r="D96" s="64" t="n">
         <f aca="false">B96/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.66256139642377</v>
       </c>
@@ -6951,90 +6950,90 @@
         <f aca="false">1000*(0.03-0.0190529)</f>
         <v>10.9471</v>
       </c>
-      <c r="H96" s="65" t="n">
+      <c r="H96" s="64" t="n">
         <f aca="false">G96/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.80119532445776</v>
       </c>
-      <c r="I96" s="65" t="n">
+      <c r="I96" s="64" t="n">
         <f aca="false">G96/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.6722461904307</v>
       </c>
       <c r="K96" s="0" t="n">
         <v>1.064</v>
       </c>
-      <c r="L96" s="65" t="n">
+      <c r="L96" s="64" t="n">
         <f aca="false">1000*(0.03-0.0200284)</f>
         <v>9.9716</v>
       </c>
-      <c r="M96" s="65" t="n">
+      <c r="M96" s="64" t="n">
         <f aca="false">L96/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.64069016427757</v>
       </c>
-      <c r="N96" s="65" t="n">
+      <c r="N96" s="64" t="n">
         <f aca="false">L96/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.52323173374673</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C97" s="65" t="n">
+      <c r="C97" s="64" t="n">
         <f aca="false">B97/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="D97" s="65" t="n">
+      <c r="D97" s="64" t="n">
         <f aca="false">B97/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
-      <c r="H97" s="65" t="n">
+      <c r="H97" s="64" t="n">
         <f aca="false">G97/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="I97" s="65" t="n">
+      <c r="I97" s="64" t="n">
         <f aca="false">G97/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
-      <c r="L97" s="65"/>
-      <c r="M97" s="65" t="n">
+      <c r="L97" s="64"/>
+      <c r="M97" s="64" t="n">
         <f aca="false">L97/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="N97" s="65" t="n">
+      <c r="N97" s="64" t="n">
         <f aca="false">L97/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="74"/>
-      <c r="B99" s="74"/>
-      <c r="C99" s="74"/>
-      <c r="D99" s="74"/>
-      <c r="E99" s="74"/>
-      <c r="F99" s="74"/>
-      <c r="G99" s="74"/>
-      <c r="H99" s="74"/>
-      <c r="I99" s="74"/>
-      <c r="J99" s="74"/>
-      <c r="K99" s="74"/>
-      <c r="L99" s="74"/>
-      <c r="M99" s="74"/>
-      <c r="N99" s="74"/>
-      <c r="O99" s="74"/>
-      <c r="P99" s="74"/>
-      <c r="Q99" s="74"/>
-      <c r="R99" s="74"/>
+      <c r="A99" s="73"/>
+      <c r="B99" s="73"/>
+      <c r="C99" s="73"/>
+      <c r="D99" s="73"/>
+      <c r="E99" s="73"/>
+      <c r="F99" s="73"/>
+      <c r="G99" s="73"/>
+      <c r="H99" s="73"/>
+      <c r="I99" s="73"/>
+      <c r="J99" s="73"/>
+      <c r="K99" s="73"/>
+      <c r="L99" s="73"/>
+      <c r="M99" s="73"/>
+      <c r="N99" s="73"/>
+      <c r="O99" s="73"/>
+      <c r="P99" s="73"/>
+      <c r="Q99" s="73"/>
+      <c r="R99" s="73"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="68" t="s">
+      <c r="A101" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B101" s="75" t="n">
+      <c r="B101" s="74" t="n">
         <v>7000000000</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="68" t="s">
+      <c r="A102" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="B102" s="68" t="n">
+      <c r="B102" s="67" t="n">
         <v>1000</v>
       </c>
     </row>
@@ -7100,15 +7099,15 @@
       <c r="A106" s="0" t="n">
         <v>1.07</v>
       </c>
-      <c r="B106" s="70" t="n">
+      <c r="B106" s="69" t="n">
         <f aca="false">1000*(0.03-0.0194274)</f>
         <v>10.5726</v>
       </c>
-      <c r="C106" s="65" t="n">
+      <c r="C106" s="64" t="n">
         <f aca="false">B106/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.73957648028813</v>
       </c>
-      <c r="D106" s="65" t="n">
+      <c r="D106" s="64" t="n">
         <f aca="false">B106/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.61503869270836</v>
       </c>
@@ -7118,26 +7117,26 @@
       <c r="G106" s="0" t="n">
         <v>11.23</v>
       </c>
-      <c r="H106" s="65" t="n">
+      <c r="H106" s="64" t="n">
         <f aca="false">G106/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.84774264359151</v>
       </c>
-      <c r="I106" s="65" t="n">
+      <c r="I106" s="64" t="n">
         <f aca="false">G106/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.71546114665407</v>
       </c>
       <c r="K106" s="0" t="n">
         <v>1.061</v>
       </c>
-      <c r="L106" s="65" t="n">
+      <c r="L106" s="64" t="n">
         <f aca="false">1000*(0.03-0.0190729)</f>
         <v>10.9271</v>
       </c>
-      <c r="M106" s="65" t="n">
+      <c r="M106" s="64" t="n">
         <f aca="false">L106/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.79790459846739</v>
       </c>
-      <c r="N106" s="65" t="n">
+      <c r="N106" s="64" t="n">
         <f aca="false">L106/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.66919105036542</v>
       </c>
@@ -7150,78 +7149,78 @@
         <f aca="false">10.5586</f>
         <v>10.5586</v>
       </c>
-      <c r="C107" s="65" t="n">
+      <c r="C107" s="64" t="n">
         <f aca="false">B107/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.73727297209487</v>
       </c>
-      <c r="D107" s="65" t="n">
+      <c r="D107" s="64" t="n">
         <f aca="false">B107/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.61290009466266</v>
       </c>
       <c r="F107" s="0" t="n">
         <v>1.065</v>
       </c>
-      <c r="G107" s="65" t="n">
+      <c r="G107" s="64" t="n">
         <f aca="false">1000*(0.03-0.0187383)</f>
         <v>11.2617</v>
       </c>
-      <c r="H107" s="65" t="n">
+      <c r="H107" s="64" t="n">
         <f aca="false">G107/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.85295844428625</v>
       </c>
-      <c r="I107" s="65" t="n">
+      <c r="I107" s="64" t="n">
         <f aca="false">G107/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.72030354365754</v>
       </c>
       <c r="K107" s="0" t="n">
         <v>1.093</v>
       </c>
-      <c r="L107" s="65" t="n">
+      <c r="L107" s="64" t="n">
         <v>10.8726</v>
       </c>
-      <c r="M107" s="65" t="n">
+      <c r="M107" s="64" t="n">
         <f aca="false">L107/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.78893737014364</v>
       </c>
-      <c r="N107" s="65" t="n">
+      <c r="N107" s="64" t="n">
         <f aca="false">L107/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.66086579368754</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="74"/>
-      <c r="B109" s="74"/>
-      <c r="C109" s="74"/>
-      <c r="D109" s="74"/>
-      <c r="E109" s="74"/>
-      <c r="F109" s="74"/>
-      <c r="G109" s="74"/>
-      <c r="H109" s="74"/>
-      <c r="I109" s="74"/>
-      <c r="J109" s="74"/>
-      <c r="K109" s="74"/>
-      <c r="L109" s="74"/>
-      <c r="M109" s="74"/>
-      <c r="N109" s="74"/>
-      <c r="O109" s="74"/>
-      <c r="P109" s="74"/>
-      <c r="Q109" s="74"/>
-      <c r="R109" s="74"/>
+      <c r="A109" s="73"/>
+      <c r="B109" s="73"/>
+      <c r="C109" s="73"/>
+      <c r="D109" s="73"/>
+      <c r="E109" s="73"/>
+      <c r="F109" s="73"/>
+      <c r="G109" s="73"/>
+      <c r="H109" s="73"/>
+      <c r="I109" s="73"/>
+      <c r="J109" s="73"/>
+      <c r="K109" s="73"/>
+      <c r="L109" s="73"/>
+      <c r="M109" s="73"/>
+      <c r="N109" s="73"/>
+      <c r="O109" s="73"/>
+      <c r="P109" s="73"/>
+      <c r="Q109" s="73"/>
+      <c r="R109" s="73"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="68" t="s">
+      <c r="A111" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B111" s="75" t="n">
+      <c r="B111" s="74" t="n">
         <v>7400000000</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="68" t="s">
+      <c r="A112" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="B112" s="68" t="n">
+      <c r="B112" s="67" t="n">
         <v>1000</v>
       </c>
     </row>
@@ -7284,70 +7283,70 @@
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B116" s="70" t="n">
+      <c r="B116" s="69" t="n">
         <v>10.4053</v>
       </c>
-      <c r="C116" s="65" t="n">
+      <c r="C116" s="64" t="n">
         <f aca="false">B116/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.7120495573787</v>
       </c>
-      <c r="D116" s="65" t="n">
+      <c r="D116" s="64" t="n">
         <f aca="false">B116/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.5894824460623</v>
       </c>
-      <c r="H116" s="65" t="n">
+      <c r="H116" s="64" t="n">
         <f aca="false">G116/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="I116" s="65" t="n">
+      <c r="I116" s="64" t="n">
         <f aca="false">G116/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
       <c r="K116" s="0" t="n">
         <v>1.284</v>
       </c>
-      <c r="L116" s="65" t="n">
+      <c r="L116" s="64" t="n">
         <f aca="false">1000*(0.03-0.0189208)</f>
         <v>11.0792</v>
       </c>
-      <c r="M116" s="65" t="n">
+      <c r="M116" s="64" t="n">
         <f aca="false">L116/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.82293056962414</v>
       </c>
-      <c r="N116" s="65" t="n">
+      <c r="N116" s="64" t="n">
         <f aca="false">L116/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.69242539056187</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C117" s="65" t="n">
+      <c r="C117" s="64" t="n">
         <f aca="false">B117/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="D117" s="65" t="n">
+      <c r="D117" s="64" t="n">
         <f aca="false">B117/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
-      <c r="G117" s="65"/>
-      <c r="H117" s="65" t="n">
+      <c r="G117" s="64"/>
+      <c r="H117" s="64" t="n">
         <f aca="false">G117/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>0</v>
       </c>
-      <c r="I117" s="65" t="n">
+      <c r="I117" s="64" t="n">
         <f aca="false">G117/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>0</v>
       </c>
       <c r="K117" s="0" t="n">
         <v>1.217</v>
       </c>
-      <c r="L117" s="65" t="n">
+      <c r="L117" s="64" t="n">
         <v>11.0762</v>
       </c>
-      <c r="M117" s="65" t="n">
+      <c r="M117" s="64" t="n">
         <f aca="false">L117/(1000*0.035*SIN(RADIANS(10)))</f>
         <v>1.82243696072559</v>
       </c>
-      <c r="N117" s="65" t="n">
+      <c r="N117" s="64" t="n">
         <f aca="false">L117/(1000*0.035*SIN(RADIANS(10.78)))</f>
         <v>1.69196711955208</v>
       </c>
@@ -7427,31 +7426,31 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="78"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="77"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="78" t="s">
         <v>73</v>
       </c>
       <c r="B3" s="23" t="s">
@@ -7480,32 +7479,32 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="80" t="n">
+      <c r="A4" s="79" t="n">
         <v>0</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>0.2367957031455</v>
       </c>
-      <c r="C4" s="81" t="n">
+      <c r="C4" s="80" t="n">
         <f aca="false">(B4-$B$7)/$B$7*100</f>
         <v>9.06708316529522</v>
       </c>
-      <c r="D4" s="82" t="n">
+      <c r="D4" s="81" t="n">
         <f aca="false">B4*(0.001945)/(0.002)</f>
         <v>0.230283821308999</v>
       </c>
-      <c r="E4" s="69" t="n">
+      <c r="E4" s="68" t="n">
         <f aca="false">(D4-$D$7)/$D$7*100</f>
         <v>9.06708316529523</v>
       </c>
-      <c r="F4" s="83" t="n">
+      <c r="F4" s="82" t="n">
         <v>0.92</v>
       </c>
-      <c r="G4" s="84" t="n">
+      <c r="G4" s="83" t="n">
         <f aca="false">(F4-$F$7)/$F$7*100</f>
         <v>-7.07070707070707</v>
       </c>
-      <c r="H4" s="83" t="n">
+      <c r="H4" s="82" t="n">
         <v>0.31</v>
       </c>
       <c r="I4" s="40" t="n">
@@ -7514,32 +7513,32 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="80" t="n">
+      <c r="A5" s="79" t="n">
         <v>1</v>
       </c>
       <c r="B5" s="8" t="n">
         <v>0.2207122883919</v>
       </c>
-      <c r="C5" s="81" t="n">
+      <c r="C5" s="80" t="n">
         <f aca="false">(B5-$B$7)/$B$7*100</f>
         <v>1.6591314532873</v>
       </c>
-      <c r="D5" s="82" t="n">
+      <c r="D5" s="81" t="n">
         <f aca="false">B5*(0.001945)/(0.002)</f>
         <v>0.214642700461123</v>
       </c>
-      <c r="E5" s="69" t="n">
+      <c r="E5" s="68" t="n">
         <f aca="false">(D5-$D$7)/$D$7*100</f>
         <v>1.65913145328731</v>
       </c>
-      <c r="F5" s="83" t="n">
+      <c r="F5" s="82" t="n">
         <v>0.96</v>
       </c>
-      <c r="G5" s="84" t="n">
+      <c r="G5" s="83" t="n">
         <f aca="false">(F5-$F$7)/$F$7*100</f>
         <v>-3.03030303030303</v>
       </c>
-      <c r="H5" s="83" t="n">
+      <c r="H5" s="82" t="n">
         <v>0.36</v>
       </c>
       <c r="I5" s="40" t="n">
@@ -7548,50 +7547,50 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="85" t="n">
+      <c r="A6" s="84" t="n">
         <v>2</v>
       </c>
-      <c r="B6" s="86" t="n">
+      <c r="B6" s="85" t="n">
         <v>0.217805722233</v>
       </c>
-      <c r="C6" s="87" t="n">
+      <c r="C6" s="86" t="n">
         <f aca="false">(B6-$B$7)/$B$7*100</f>
         <v>0.320379572374185</v>
       </c>
-      <c r="D6" s="82" t="n">
+      <c r="D6" s="81" t="n">
         <f aca="false">B6*(0.001945)/(0.002)</f>
         <v>0.211816064871592</v>
       </c>
-      <c r="E6" s="88" t="n">
+      <c r="E6" s="87" t="n">
         <f aca="false">(D6-$D$7)/$D$7*100</f>
         <v>0.320379572374188</v>
       </c>
-      <c r="F6" s="89" t="n">
+      <c r="F6" s="88" t="n">
         <v>0.98</v>
       </c>
-      <c r="G6" s="90" t="n">
+      <c r="G6" s="89" t="n">
         <f aca="false">(F6-$F$7)/$F$7*100</f>
         <v>-1.01010101010101</v>
       </c>
-      <c r="H6" s="89" t="n">
+      <c r="H6" s="88" t="n">
         <v>0.36</v>
       </c>
-      <c r="I6" s="91" t="n">
+      <c r="I6" s="90" t="n">
         <f aca="false">(H6-$H$7)/$H$7*100</f>
         <v>-2.70270270270271</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="80" t="n">
+      <c r="A7" s="79" t="n">
         <v>3</v>
       </c>
       <c r="B7" s="8" t="n">
         <v>0.2171101456767</v>
       </c>
-      <c r="C7" s="92" t="s">
+      <c r="C7" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="82" t="n">
+      <c r="D7" s="81" t="n">
         <f aca="false">B7*(0.001945)/(0.002)</f>
         <v>0.211139616670591</v>
       </c>
@@ -7599,40 +7598,40 @@
         <f aca="false">(D7-$D$7)/$D$7*100</f>
         <v>0</v>
       </c>
-      <c r="F7" s="83" t="n">
+      <c r="F7" s="82" t="n">
         <v>0.99</v>
       </c>
-      <c r="G7" s="84"/>
-      <c r="H7" s="83" t="n">
+      <c r="G7" s="83"/>
+      <c r="H7" s="82" t="n">
         <v>0.37</v>
       </c>
       <c r="I7" s="40"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="80"/>
+      <c r="A8" s="79"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="78"/>
+      <c r="H8" s="77"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="93" t="s">
+      <c r="A9" s="92" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
-      <c r="M9" s="94"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="92"/>
+      <c r="M9" s="93"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="78" t="s">
         <v>81</v>
       </c>
       <c r="B10" s="23" t="s">
@@ -7653,55 +7652,55 @@
       <c r="G10" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="H10" s="95" t="s">
+      <c r="H10" s="94" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="85" t="s">
+      <c r="A11" s="84" t="s">
         <v>83</v>
       </c>
-      <c r="B11" s="96" t="n">
+      <c r="B11" s="95" t="n">
         <v>0.25</v>
       </c>
-      <c r="C11" s="97" t="n">
+      <c r="C11" s="96" t="n">
         <v>0.217805722233</v>
       </c>
-      <c r="D11" s="98" t="n">
+      <c r="D11" s="97" t="n">
         <f aca="false">(C11-$C$13)/$C$13*100</f>
         <v>-0.00278887507066671</v>
       </c>
-      <c r="E11" s="89" t="n">
+      <c r="E11" s="88" t="n">
         <f aca="false">F6</f>
         <v>0.98</v>
       </c>
-      <c r="F11" s="99" t="n">
+      <c r="F11" s="98" t="n">
         <f aca="false">(E11-$E$13)/$E$13*100</f>
         <v>0</v>
       </c>
-      <c r="G11" s="96" t="n">
+      <c r="G11" s="95" t="n">
         <v>0.36</v>
       </c>
-      <c r="H11" s="100" t="n">
+      <c r="H11" s="99" t="n">
         <f aca="false">(G11-$G$13)/$G$13</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="80" t="s">
+      <c r="A12" s="79" t="s">
         <v>84</v>
       </c>
       <c r="B12" s="3" t="n">
         <v>0.6</v>
       </c>
-      <c r="C12" s="101" t="n">
+      <c r="C12" s="100" t="n">
         <v>0.2178114943495</v>
       </c>
-      <c r="D12" s="102" t="n">
+      <c r="D12" s="101" t="n">
         <f aca="false">(C12-$C$13)/$C$13*100</f>
         <v>-0.000138827375075705</v>
       </c>
-      <c r="E12" s="83" t="n">
+      <c r="E12" s="82" t="n">
         <v>0.98</v>
       </c>
       <c r="F12" s="39" t="n">
@@ -7711,61 +7710,61 @@
       <c r="G12" s="3" t="n">
         <v>0.36</v>
       </c>
-      <c r="H12" s="78" t="n">
+      <c r="H12" s="77" t="n">
         <f aca="false">(G12-$G$13)/$G$13</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="80" t="s">
+      <c r="A13" s="79" t="s">
         <v>85</v>
       </c>
       <c r="B13" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="101" t="n">
+      <c r="C13" s="100" t="n">
         <v>0.2178117967319</v>
       </c>
-      <c r="D13" s="103" t="s">
+      <c r="D13" s="102" t="s">
         <v>79</v>
       </c>
-      <c r="E13" s="83" t="n">
+      <c r="E13" s="82" t="n">
         <v>0.98</v>
       </c>
-      <c r="F13" s="104" t="s">
+      <c r="F13" s="103" t="s">
         <v>79</v>
       </c>
       <c r="G13" s="3" t="n">
         <v>0.36</v>
       </c>
-      <c r="H13" s="105" t="s">
+      <c r="H13" s="104" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="80"/>
+      <c r="A14" s="79"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="84"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="83"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="78"/>
+      <c r="H14" s="77"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="93" t="s">
+      <c r="A15" s="92" t="s">
         <v>86</v>
       </c>
-      <c r="B15" s="93"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="93"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="79" t="s">
+      <c r="A16" s="78" t="s">
         <v>81</v>
       </c>
       <c r="B16" s="23" t="s">
@@ -7786,55 +7785,55 @@
       <c r="G16" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="H16" s="95" t="s">
+      <c r="H16" s="94" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="85" t="s">
+      <c r="A17" s="84" t="s">
         <v>83</v>
       </c>
-      <c r="B17" s="96" t="n">
+      <c r="B17" s="95" t="n">
         <v>0.18</v>
       </c>
-      <c r="C17" s="106" t="n">
+      <c r="C17" s="105" t="n">
         <v>0.217805722233</v>
       </c>
-      <c r="D17" s="87" t="n">
+      <c r="D17" s="86" t="n">
         <f aca="false">(C17-$C$19)/$C$19*100</f>
         <v>0.277493970797718</v>
       </c>
-      <c r="E17" s="89" t="n">
+      <c r="E17" s="88" t="n">
         <f aca="false">F6</f>
         <v>0.98</v>
       </c>
-      <c r="F17" s="99" t="n">
+      <c r="F17" s="98" t="n">
         <f aca="false">(E17-$E$19)/$E$19*100</f>
         <v>0</v>
       </c>
-      <c r="G17" s="96" t="n">
+      <c r="G17" s="95" t="n">
         <v>0.36</v>
       </c>
-      <c r="H17" s="100" t="n">
+      <c r="H17" s="99" t="n">
         <f aca="false">(G17-$G$19)/$G$19</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="80" t="s">
+      <c r="A18" s="79" t="s">
         <v>84</v>
       </c>
       <c r="B18" s="3" t="n">
         <v>0.36</v>
       </c>
-      <c r="C18" s="107" t="n">
+      <c r="C18" s="106" t="n">
         <v>0.2172452950227</v>
       </c>
-      <c r="D18" s="81" t="n">
+      <c r="D18" s="80" t="n">
         <f aca="false">(C18-$C$19)/$C$19*100</f>
         <v>0.0194739535742587</v>
       </c>
-      <c r="E18" s="83" t="n">
+      <c r="E18" s="82" t="n">
         <v>0.98</v>
       </c>
       <c r="F18" s="39" t="n">
@@ -7844,55 +7843,55 @@
       <c r="G18" s="3" t="n">
         <v>0.36</v>
       </c>
-      <c r="H18" s="78" t="n">
+      <c r="H18" s="77" t="n">
         <f aca="false">(G18-$G$19)/$G$19</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="80" t="s">
+      <c r="A19" s="79" t="s">
         <v>85</v>
       </c>
       <c r="B19" s="3" t="n">
         <v>0.72</v>
       </c>
-      <c r="C19" s="107" t="n">
+      <c r="C19" s="106" t="n">
         <v>0.2172029970119</v>
       </c>
-      <c r="D19" s="92" t="s">
+      <c r="D19" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="83" t="n">
+      <c r="E19" s="82" t="n">
         <v>0.98</v>
       </c>
-      <c r="F19" s="104" t="s">
+      <c r="F19" s="103" t="s">
         <v>79</v>
       </c>
       <c r="G19" s="3" t="n">
         <v>0.36</v>
       </c>
-      <c r="H19" s="105" t="s">
+      <c r="H19" s="104" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="108"/>
-      <c r="H20" s="109"/>
+      <c r="A20" s="107"/>
+      <c r="H20" s="108"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="93" t="s">
+      <c r="A21" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="79" t="s">
+      <c r="A22" s="78" t="s">
         <v>81</v>
       </c>
       <c r="B22" s="23" t="s">
@@ -7913,90 +7912,90 @@
       <c r="G22" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="H22" s="95" t="s">
+      <c r="H22" s="94" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="85" t="s">
+      <c r="A23" s="84" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="96" t="n">
+      <c r="B23" s="95" t="n">
         <v>-0.05</v>
       </c>
-      <c r="C23" s="97" t="n">
+      <c r="C23" s="96" t="n">
         <v>0.217805722233</v>
       </c>
-      <c r="D23" s="110" t="n">
+      <c r="D23" s="109" t="n">
         <f aca="false">(C23-$C$25)/$C$25*100</f>
         <v>0.331021615696426</v>
       </c>
-      <c r="E23" s="89" t="n">
+      <c r="E23" s="88" t="n">
         <v>0.98</v>
       </c>
-      <c r="F23" s="90"/>
-      <c r="G23" s="96" t="n">
+      <c r="F23" s="89"/>
+      <c r="G23" s="95" t="n">
         <v>0.36</v>
       </c>
-      <c r="H23" s="78"/>
+      <c r="H23" s="77"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="80" t="s">
+      <c r="A24" s="79" t="s">
         <v>84</v>
       </c>
       <c r="B24" s="3" t="n">
         <v>-0.25</v>
       </c>
-      <c r="C24" s="101" t="n">
+      <c r="C24" s="100" t="n">
         <v>0.2170978774019</v>
       </c>
-      <c r="D24" s="111" t="n">
+      <c r="D24" s="110" t="n">
         <f aca="false">(C24-$C$25)/$C$25*100</f>
         <v>0.00495674319652931</v>
       </c>
-      <c r="E24" s="83" t="n">
+      <c r="E24" s="82" t="n">
         <v>0.98</v>
       </c>
-      <c r="F24" s="84"/>
+      <c r="F24" s="83"/>
       <c r="G24" s="3"/>
-      <c r="H24" s="78"/>
+      <c r="H24" s="77"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="80" t="s">
+      <c r="A25" s="79" t="s">
         <v>85</v>
       </c>
       <c r="B25" s="3" t="n">
         <v>-1</v>
       </c>
-      <c r="C25" s="101" t="n">
+      <c r="C25" s="100" t="n">
         <v>0.217087116951</v>
       </c>
-      <c r="D25" s="111"/>
-      <c r="E25" s="83" t="n">
+      <c r="D25" s="110"/>
+      <c r="E25" s="82" t="n">
         <v>0.98</v>
       </c>
-      <c r="F25" s="84"/>
+      <c r="F25" s="83"/>
       <c r="G25" s="3"/>
-      <c r="H25" s="78"/>
+      <c r="H25" s="77"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="108"/>
-      <c r="H26" s="109"/>
+      <c r="A26" s="107"/>
+      <c r="H26" s="108"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="93" t="s">
+      <c r="A27" s="92" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="93"/>
-      <c r="C27" s="93"/>
-      <c r="D27" s="93"/>
-      <c r="E27" s="93"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="93"/>
-      <c r="H27" s="93"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="92"/>
+      <c r="H27" s="92"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="79" t="s">
+      <c r="A28" s="78" t="s">
         <v>81</v>
       </c>
       <c r="B28" s="23" t="s">
@@ -8017,94 +8016,94 @@
       <c r="G28" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="H28" s="109"/>
+      <c r="H28" s="108"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="85" t="s">
+      <c r="A29" s="84" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="97" t="n">
+      <c r="B29" s="96" t="n">
         <v>0.217805722233</v>
       </c>
-      <c r="C29" s="110" t="n">
+      <c r="C29" s="109" t="n">
         <f aca="false">(B29-$B$31)/$B$31*100</f>
         <v>1.19671935537097</v>
       </c>
-      <c r="D29" s="89" t="n">
+      <c r="D29" s="88" t="n">
         <v>0.98</v>
       </c>
-      <c r="E29" s="90" t="n">
+      <c r="E29" s="89" t="n">
         <f aca="false">(D29-$D$30)/$D$30</f>
         <v>0</v>
       </c>
-      <c r="F29" s="96" t="n">
+      <c r="F29" s="95" t="n">
         <v>0.36</v>
       </c>
       <c r="G29" s="3"/>
-      <c r="H29" s="109"/>
+      <c r="H29" s="108"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="80" t="s">
+      <c r="A30" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="B30" s="101" t="n">
+      <c r="B30" s="100" t="n">
         <v>0.2157534232895</v>
       </c>
-      <c r="C30" s="111" t="n">
+      <c r="C30" s="110" t="n">
         <f aca="false">(B30-$B$31)/$B$31*100</f>
         <v>0.243181872106333</v>
       </c>
-      <c r="D30" s="83" t="n">
+      <c r="D30" s="82" t="n">
         <v>0.98</v>
       </c>
-      <c r="E30" s="112" t="s">
+      <c r="E30" s="111" t="s">
         <v>79</v>
       </c>
       <c r="F30" s="3" t="n">
         <v>0.36</v>
       </c>
       <c r="G30" s="3"/>
-      <c r="H30" s="109"/>
+      <c r="H30" s="108"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="80" t="s">
+      <c r="A31" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="B31" s="101" t="n">
+      <c r="B31" s="100" t="n">
         <v>0.2152300228905</v>
       </c>
-      <c r="C31" s="113" t="s">
+      <c r="C31" s="112" t="s">
         <v>79</v>
       </c>
       <c r="D31" s="3" t="n">
         <v>0.98</v>
       </c>
-      <c r="E31" s="113" t="s">
+      <c r="E31" s="112" t="s">
         <v>79</v>
       </c>
       <c r="F31" s="3" t="n">
         <v>0.36</v>
       </c>
-      <c r="G31" s="113" t="s">
+      <c r="G31" s="112" t="s">
         <v>79</v>
       </c>
-      <c r="H31" s="109"/>
+      <c r="H31" s="108"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="108"/>
-      <c r="H32" s="109"/>
+      <c r="A32" s="107"/>
+      <c r="H32" s="108"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="114" t="s">
+      <c r="A33" s="113" t="s">
         <v>91</v>
       </c>
-      <c r="B33" s="114"/>
-      <c r="C33" s="114"/>
-      <c r="D33" s="114"/>
-      <c r="E33" s="114"/>
-      <c r="F33" s="114"/>
-      <c r="G33" s="114"/>
-      <c r="H33" s="109"/>
+      <c r="B33" s="113"/>
+      <c r="C33" s="113"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="113"/>
+      <c r="G33" s="113"/>
+      <c r="H33" s="108"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="60" t="s">
@@ -8116,75 +8115,75 @@
       <c r="C34" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="H34" s="109"/>
+      <c r="H34" s="108"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="108" t="s">
+      <c r="A35" s="107" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="115" t="n">
+      <c r="B35" s="114" t="n">
         <f aca="false">C23</f>
         <v>0.217805722233</v>
       </c>
-      <c r="C35" s="116" t="n">
+      <c r="C35" s="115" t="n">
         <f aca="false">(B35-$B$37)/$B$37*100</f>
         <v>0.0654995535925682</v>
       </c>
-      <c r="H35" s="109"/>
+      <c r="H35" s="108"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="108" t="s">
+      <c r="A36" s="107" t="s">
         <v>93</v>
       </c>
-      <c r="B36" s="115" t="n">
+      <c r="B36" s="114" t="n">
         <v>0.2180523405262</v>
       </c>
-      <c r="C36" s="116" t="n">
+      <c r="C36" s="115" t="n">
         <f aca="false">(B36-$B$37)/$B$37*100</f>
         <v>0.178802282534259</v>
       </c>
-      <c r="H36" s="109"/>
+      <c r="H36" s="108"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="117" t="s">
+      <c r="A37" s="116" t="s">
         <v>94</v>
       </c>
-      <c r="B37" s="118" t="n">
+      <c r="B37" s="117" t="n">
         <v>0.2176631538389</v>
       </c>
-      <c r="C37" s="119"/>
-      <c r="D37" s="119"/>
-      <c r="E37" s="119"/>
-      <c r="F37" s="119"/>
-      <c r="G37" s="119"/>
-      <c r="H37" s="120"/>
+      <c r="C37" s="118"/>
+      <c r="D37" s="118"/>
+      <c r="E37" s="118"/>
+      <c r="F37" s="118"/>
+      <c r="G37" s="118"/>
+      <c r="H37" s="119"/>
     </row>
     <row r="39" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="121" t="s">
+      <c r="A39" s="120" t="s">
         <v>95</v>
       </c>
-      <c r="B39" s="121"/>
-      <c r="C39" s="121"/>
-      <c r="D39" s="121"/>
-      <c r="E39" s="121"/>
-      <c r="F39" s="121"/>
-      <c r="G39" s="121"/>
-      <c r="H39" s="121"/>
+      <c r="B39" s="120"/>
+      <c r="C39" s="120"/>
+      <c r="D39" s="120"/>
+      <c r="E39" s="120"/>
+      <c r="F39" s="120"/>
+      <c r="G39" s="120"/>
+      <c r="H39" s="120"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="77" t="s">
+      <c r="A40" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="B40" s="77"/>
-      <c r="C40" s="77"/>
-      <c r="D40" s="77"/>
-      <c r="E40" s="77"/>
-      <c r="F40" s="77"/>
-      <c r="G40" s="77"/>
-      <c r="H40" s="77"/>
+      <c r="B40" s="76"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="76"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="76"/>
+      <c r="H40" s="76"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="79" t="s">
+      <c r="A41" s="78" t="s">
         <v>73</v>
       </c>
       <c r="B41" s="23" t="s">
@@ -8205,137 +8204,137 @@
       <c r="G41" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="H41" s="95"/>
+      <c r="H41" s="94"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="80" t="n">
+      <c r="A42" s="79" t="n">
         <v>0</v>
       </c>
       <c r="B42" s="8" t="n">
         <v>0.8279395498848</v>
       </c>
-      <c r="C42" s="81" t="n">
+      <c r="C42" s="80" t="n">
         <f aca="false">(B42-$B$45)/$B$45*100</f>
         <v>22.5064864066551</v>
       </c>
-      <c r="D42" s="83" t="n">
+      <c r="D42" s="82" t="n">
         <v>2</v>
       </c>
-      <c r="E42" s="84" t="n">
+      <c r="E42" s="83" t="n">
         <f aca="false">(D42-$D$45)/$D$45*100</f>
         <v>-9.0909090909091</v>
       </c>
-      <c r="F42" s="83" t="n">
+      <c r="F42" s="82" t="n">
         <v>1.5</v>
       </c>
       <c r="G42" s="40" t="n">
         <f aca="false">(F42-$F$45)/$F$45*100</f>
         <v>-11.764705882353</v>
       </c>
-      <c r="H42" s="122"/>
+      <c r="H42" s="121"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="80" t="n">
+      <c r="A43" s="79" t="n">
         <v>1</v>
       </c>
       <c r="B43" s="8" t="n">
         <v>0.7053919425262</v>
       </c>
-      <c r="C43" s="81" t="n">
+      <c r="C43" s="80" t="n">
         <f aca="false">(B43-$B$45)/$B$45*100</f>
         <v>4.37366886323258</v>
       </c>
-      <c r="D43" s="83" t="n">
+      <c r="D43" s="82" t="n">
         <v>2.1</v>
       </c>
-      <c r="E43" s="84" t="n">
+      <c r="E43" s="83" t="n">
         <f aca="false">(D43-$D$45)/$D$45*100</f>
         <v>-4.54545454545455</v>
       </c>
-      <c r="F43" s="83" t="n">
+      <c r="F43" s="82" t="n">
         <v>1.7</v>
       </c>
       <c r="G43" s="40" t="n">
         <f aca="false">(F43-$F$45)/$F$45*100</f>
         <v>0</v>
       </c>
-      <c r="H43" s="122"/>
+      <c r="H43" s="121"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="80" t="n">
+      <c r="A44" s="79" t="n">
         <v>2</v>
       </c>
       <c r="B44" s="8" t="n">
         <v>0.681267343842</v>
       </c>
-      <c r="C44" s="81" t="n">
+      <c r="C44" s="80" t="n">
         <f aca="false">(B44-$B$45)/$B$45*100</f>
         <v>0.804060645841375</v>
       </c>
-      <c r="D44" s="83" t="n">
+      <c r="D44" s="82" t="n">
         <v>2.1</v>
       </c>
-      <c r="E44" s="84" t="n">
+      <c r="E44" s="83" t="n">
         <f aca="false">(D44-$D$45)/$D$45*100</f>
         <v>-4.54545454545455</v>
       </c>
-      <c r="F44" s="83" t="n">
+      <c r="F44" s="82" t="n">
         <v>1.7</v>
       </c>
       <c r="G44" s="40" t="n">
         <f aca="false">(F44-$F$45)/$F$45*100</f>
         <v>0</v>
       </c>
-      <c r="H44" s="122"/>
+      <c r="H44" s="121"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="80" t="n">
+      <c r="A45" s="79" t="n">
         <v>3</v>
       </c>
       <c r="B45" s="8" t="n">
         <v>0.6758332347697</v>
       </c>
-      <c r="C45" s="92" t="s">
+      <c r="C45" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="D45" s="83" t="n">
+      <c r="D45" s="82" t="n">
         <v>2.2</v>
       </c>
-      <c r="E45" s="112" t="s">
+      <c r="E45" s="111" t="s">
         <v>79</v>
       </c>
-      <c r="F45" s="83" t="n">
+      <c r="F45" s="82" t="n">
         <v>1.7</v>
       </c>
-      <c r="G45" s="123" t="s">
+      <c r="G45" s="122" t="s">
         <v>79</v>
       </c>
-      <c r="H45" s="122"/>
+      <c r="H45" s="121"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="80"/>
+      <c r="A46" s="79"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
-      <c r="H46" s="78"/>
+      <c r="H46" s="77"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="93" t="s">
+      <c r="A47" s="92" t="s">
         <v>80</v>
       </c>
-      <c r="B47" s="93"/>
-      <c r="C47" s="93"/>
-      <c r="D47" s="93"/>
-      <c r="E47" s="93"/>
-      <c r="F47" s="93"/>
-      <c r="G47" s="93"/>
-      <c r="H47" s="93"/>
+      <c r="B47" s="92"/>
+      <c r="C47" s="92"/>
+      <c r="D47" s="92"/>
+      <c r="E47" s="92"/>
+      <c r="F47" s="92"/>
+      <c r="G47" s="92"/>
+      <c r="H47" s="92"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="79" t="s">
+      <c r="A48" s="78" t="s">
         <v>81</v>
       </c>
       <c r="B48" s="23" t="s">
@@ -8356,100 +8355,100 @@
       <c r="G48" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="H48" s="95" t="s">
+      <c r="H48" s="94" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="80" t="s">
+      <c r="A49" s="79" t="s">
         <v>83</v>
       </c>
       <c r="B49" s="3" t="n">
         <v>0.25</v>
       </c>
-      <c r="C49" s="101"/>
-      <c r="D49" s="102" t="n">
+      <c r="C49" s="100"/>
+      <c r="D49" s="101" t="n">
         <f aca="false">(C49-$C$13)/$C$13*100</f>
         <v>-100</v>
       </c>
-      <c r="E49" s="83"/>
+      <c r="E49" s="82"/>
       <c r="F49" s="39" t="n">
         <f aca="false">(E49-$E$13)/$E$13*100</f>
         <v>-100</v>
       </c>
       <c r="G49" s="3"/>
-      <c r="H49" s="124" t="e">
+      <c r="H49" s="123" t="e">
         <f aca="false">(G49-$G$51)/$G$51</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="80" t="s">
+      <c r="A50" s="79" t="s">
         <v>84</v>
       </c>
       <c r="B50" s="3" t="n">
         <v>0.6</v>
       </c>
-      <c r="C50" s="101"/>
-      <c r="D50" s="102" t="n">
+      <c r="C50" s="100"/>
+      <c r="D50" s="101" t="n">
         <f aca="false">(C50-$C$13)/$C$13*100</f>
         <v>-100</v>
       </c>
-      <c r="E50" s="83"/>
+      <c r="E50" s="82"/>
       <c r="F50" s="39" t="n">
         <f aca="false">(E50-$E$13)/$E$13*100</f>
         <v>-100</v>
       </c>
       <c r="G50" s="3"/>
-      <c r="H50" s="124" t="e">
+      <c r="H50" s="123" t="e">
         <f aca="false">(G50-$G$51)/$G$51</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="80" t="s">
+      <c r="A51" s="79" t="s">
         <v>85</v>
       </c>
       <c r="B51" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C51" s="101"/>
-      <c r="D51" s="103" t="s">
+      <c r="C51" s="100"/>
+      <c r="D51" s="102" t="s">
         <v>79</v>
       </c>
-      <c r="E51" s="83"/>
-      <c r="F51" s="104" t="s">
+      <c r="E51" s="82"/>
+      <c r="F51" s="103" t="s">
         <v>79</v>
       </c>
       <c r="G51" s="3"/>
-      <c r="H51" s="105" t="s">
+      <c r="H51" s="104" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="80"/>
+      <c r="A52" s="79"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
-      <c r="E52" s="83"/>
-      <c r="F52" s="84"/>
+      <c r="E52" s="82"/>
+      <c r="F52" s="83"/>
       <c r="G52" s="3"/>
-      <c r="H52" s="78"/>
+      <c r="H52" s="77"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="93" t="s">
+      <c r="A53" s="92" t="s">
         <v>86</v>
       </c>
-      <c r="B53" s="93"/>
-      <c r="C53" s="93"/>
-      <c r="D53" s="93"/>
-      <c r="E53" s="93"/>
-      <c r="F53" s="93"/>
-      <c r="G53" s="93"/>
-      <c r="H53" s="93"/>
+      <c r="B53" s="92"/>
+      <c r="C53" s="92"/>
+      <c r="D53" s="92"/>
+      <c r="E53" s="92"/>
+      <c r="F53" s="92"/>
+      <c r="G53" s="92"/>
+      <c r="H53" s="92"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="79" t="s">
+      <c r="A54" s="78" t="s">
         <v>81</v>
       </c>
       <c r="B54" s="23" t="s">
@@ -8470,94 +8469,94 @@
       <c r="G54" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="H54" s="95" t="s">
+      <c r="H54" s="94" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="80" t="s">
+      <c r="A55" s="79" t="s">
         <v>83</v>
       </c>
       <c r="B55" s="3" t="n">
         <v>0.18</v>
       </c>
-      <c r="C55" s="107"/>
-      <c r="D55" s="81" t="e">
+      <c r="C55" s="106"/>
+      <c r="D55" s="80" t="e">
         <f aca="false">(C55-$C$58)/$C$58*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E55" s="83"/>
+      <c r="E55" s="82"/>
       <c r="F55" s="39" t="e">
         <f aca="false">(E55-$E$58)/$E$58*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G55" s="3"/>
-      <c r="H55" s="78" t="e">
+      <c r="H55" s="77" t="e">
         <f aca="false">(G55-$G$58)/$G$58*100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="80" t="s">
+      <c r="A56" s="79" t="s">
         <v>84</v>
       </c>
       <c r="B56" s="3" t="n">
         <v>0.36</v>
       </c>
-      <c r="C56" s="107"/>
-      <c r="D56" s="81" t="e">
+      <c r="C56" s="106"/>
+      <c r="D56" s="80" t="e">
         <f aca="false">(C56-$C$58)/$C$58*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E56" s="83"/>
+      <c r="E56" s="82"/>
       <c r="F56" s="39" t="e">
         <f aca="false">(E56-$E$58)/$E$58*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G56" s="3"/>
-      <c r="H56" s="78" t="e">
+      <c r="H56" s="77" t="e">
         <f aca="false">(G56-$G$58)/$G$58*100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="80" t="s">
+      <c r="A57" s="79" t="s">
         <v>85</v>
       </c>
       <c r="B57" s="3" t="n">
         <v>0.72</v>
       </c>
-      <c r="C57" s="107"/>
-      <c r="D57" s="92" t="s">
+      <c r="C57" s="106"/>
+      <c r="D57" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="E57" s="83"/>
-      <c r="F57" s="104" t="s">
+      <c r="E57" s="82"/>
+      <c r="F57" s="103" t="s">
         <v>79</v>
       </c>
       <c r="G57" s="3"/>
-      <c r="H57" s="105" t="s">
+      <c r="H57" s="104" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="108"/>
-      <c r="H58" s="109"/>
+      <c r="A58" s="107"/>
+      <c r="H58" s="108"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="93" t="s">
+      <c r="A59" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="B59" s="93"/>
-      <c r="C59" s="93"/>
-      <c r="D59" s="93"/>
-      <c r="E59" s="93"/>
-      <c r="F59" s="93"/>
-      <c r="G59" s="93"/>
-      <c r="H59" s="93"/>
+      <c r="B59" s="92"/>
+      <c r="C59" s="92"/>
+      <c r="D59" s="92"/>
+      <c r="E59" s="92"/>
+      <c r="F59" s="92"/>
+      <c r="G59" s="92"/>
+      <c r="H59" s="92"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="79" t="s">
+      <c r="A60" s="78" t="s">
         <v>81</v>
       </c>
       <c r="B60" s="23" t="s">
@@ -8578,78 +8577,78 @@
       <c r="G60" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="H60" s="95" t="s">
+      <c r="H60" s="94" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="80" t="s">
+      <c r="A61" s="79" t="s">
         <v>83</v>
       </c>
       <c r="B61" s="3" t="n">
         <v>-0.05</v>
       </c>
-      <c r="C61" s="101"/>
-      <c r="D61" s="111" t="e">
+      <c r="C61" s="100"/>
+      <c r="D61" s="110" t="e">
         <f aca="false">(C61-$C$63)/$C$63*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E61" s="83"/>
-      <c r="F61" s="84"/>
+      <c r="E61" s="82"/>
+      <c r="F61" s="83"/>
       <c r="G61" s="3" t="n">
         <v>0.36</v>
       </c>
-      <c r="H61" s="78"/>
+      <c r="H61" s="77"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="80" t="s">
+      <c r="A62" s="79" t="s">
         <v>84</v>
       </c>
       <c r="B62" s="3" t="n">
         <v>-0.25</v>
       </c>
-      <c r="C62" s="101"/>
-      <c r="D62" s="111" t="e">
+      <c r="C62" s="100"/>
+      <c r="D62" s="110" t="e">
         <f aca="false">(C62-$C$63)/$C$63*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E62" s="83"/>
-      <c r="F62" s="84"/>
+      <c r="E62" s="82"/>
+      <c r="F62" s="83"/>
       <c r="G62" s="3"/>
-      <c r="H62" s="78"/>
+      <c r="H62" s="77"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="80" t="s">
+      <c r="A63" s="79" t="s">
         <v>85</v>
       </c>
       <c r="B63" s="3" t="n">
         <v>-1</v>
       </c>
-      <c r="C63" s="101"/>
-      <c r="D63" s="111"/>
-      <c r="E63" s="83"/>
-      <c r="F63" s="84"/>
+      <c r="C63" s="100"/>
+      <c r="D63" s="110"/>
+      <c r="E63" s="82"/>
+      <c r="F63" s="83"/>
       <c r="G63" s="3"/>
-      <c r="H63" s="78"/>
+      <c r="H63" s="77"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="108"/>
-      <c r="H64" s="109"/>
+      <c r="A64" s="107"/>
+      <c r="H64" s="108"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="93" t="s">
+      <c r="A65" s="92" t="s">
         <v>90</v>
       </c>
-      <c r="B65" s="93"/>
-      <c r="C65" s="93"/>
-      <c r="D65" s="93"/>
-      <c r="E65" s="93"/>
-      <c r="F65" s="93"/>
-      <c r="G65" s="93"/>
-      <c r="H65" s="93"/>
+      <c r="B65" s="92"/>
+      <c r="C65" s="92"/>
+      <c r="D65" s="92"/>
+      <c r="E65" s="92"/>
+      <c r="F65" s="92"/>
+      <c r="G65" s="92"/>
+      <c r="H65" s="92"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="79" t="s">
+      <c r="A66" s="78" t="s">
         <v>81</v>
       </c>
       <c r="B66" s="23" t="s">
@@ -8670,77 +8669,77 @@
       <c r="G66" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="H66" s="109"/>
+      <c r="H66" s="108"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="80" t="s">
+      <c r="A67" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="B67" s="101"/>
-      <c r="C67" s="111" t="e">
+      <c r="B67" s="100"/>
+      <c r="C67" s="110" t="e">
         <f aca="false">(B67-$B$69)/$B$69*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D67" s="83"/>
-      <c r="E67" s="84" t="e">
+      <c r="D67" s="82"/>
+      <c r="E67" s="83" t="e">
         <f aca="false">(D67-$D$69)/$D$69</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
-      <c r="H67" s="109"/>
+      <c r="H67" s="108"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="80" t="s">
+      <c r="A68" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="B68" s="101"/>
-      <c r="C68" s="111" t="e">
+      <c r="B68" s="100"/>
+      <c r="C68" s="110" t="e">
         <f aca="false">(B68-$B$69)/$B$69*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D68" s="83"/>
-      <c r="E68" s="84" t="e">
+      <c r="D68" s="82"/>
+      <c r="E68" s="83" t="e">
         <f aca="false">(D68-$D$69)/$D$69</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
-      <c r="H68" s="109"/>
+      <c r="H68" s="108"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="80" t="s">
+      <c r="A69" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="B69" s="101"/>
-      <c r="C69" s="113" t="s">
+      <c r="B69" s="100"/>
+      <c r="C69" s="112" t="s">
         <v>79</v>
       </c>
       <c r="D69" s="3"/>
-      <c r="E69" s="113" t="s">
+      <c r="E69" s="112" t="s">
         <v>79</v>
       </c>
       <c r="F69" s="3"/>
-      <c r="G69" s="113" t="s">
+      <c r="G69" s="112" t="s">
         <v>79</v>
       </c>
-      <c r="H69" s="109"/>
+      <c r="H69" s="108"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="108"/>
-      <c r="H70" s="109"/>
+      <c r="A70" s="107"/>
+      <c r="H70" s="108"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="114" t="s">
+      <c r="A71" s="113" t="s">
         <v>91</v>
       </c>
-      <c r="B71" s="114"/>
-      <c r="C71" s="114"/>
-      <c r="D71" s="114"/>
-      <c r="E71" s="114"/>
-      <c r="F71" s="114"/>
-      <c r="G71" s="114"/>
-      <c r="H71" s="114"/>
+      <c r="B71" s="113"/>
+      <c r="C71" s="113"/>
+      <c r="D71" s="113"/>
+      <c r="E71" s="113"/>
+      <c r="F71" s="113"/>
+      <c r="G71" s="113"/>
+      <c r="H71" s="113"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="60" t="s">
@@ -8752,41 +8751,41 @@
       <c r="C72" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="H72" s="109"/>
+      <c r="H72" s="108"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="108" t="s">
+      <c r="A73" s="107" t="s">
         <v>83</v>
       </c>
-      <c r="B73" s="115"/>
-      <c r="C73" s="116" t="n">
+      <c r="B73" s="114"/>
+      <c r="C73" s="115" t="n">
         <f aca="false">(B73-$B$37)/$B$37*100</f>
         <v>-100</v>
       </c>
-      <c r="H73" s="109"/>
+      <c r="H73" s="108"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="108" t="s">
+      <c r="A74" s="107" t="s">
         <v>93</v>
       </c>
-      <c r="B74" s="115"/>
-      <c r="C74" s="116" t="n">
+      <c r="B74" s="114"/>
+      <c r="C74" s="115" t="n">
         <f aca="false">(B74-$B$37)/$B$37*100</f>
         <v>-100</v>
       </c>
-      <c r="H74" s="109"/>
+      <c r="H74" s="108"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="117" t="s">
+      <c r="A75" s="116" t="s">
         <v>94</v>
       </c>
-      <c r="B75" s="118"/>
-      <c r="C75" s="119"/>
-      <c r="D75" s="119"/>
-      <c r="E75" s="119"/>
-      <c r="F75" s="119"/>
-      <c r="G75" s="119"/>
-      <c r="H75" s="120"/>
+      <c r="B75" s="117"/>
+      <c r="C75" s="118"/>
+      <c r="D75" s="118"/>
+      <c r="E75" s="118"/>
+      <c r="F75" s="118"/>
+      <c r="G75" s="118"/>
+      <c r="H75" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -8840,69 +8839,69 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="125" t="n">
+      <c r="A2" s="124" t="n">
         <v>0.3082</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="C2" s="126" t="n">
+      <c r="C2" s="125" t="n">
         <v>2E-005</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="125"/>
+      <c r="A3" s="124"/>
       <c r="B3" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="C3" s="126" t="n">
+      <c r="C3" s="125" t="n">
         <v>2.5E-005</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="125"/>
+      <c r="A4" s="124"/>
       <c r="B4" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C4" s="126" t="n">
+      <c r="C4" s="125" t="n">
         <v>2.5E-005</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="125"/>
+      <c r="A5" s="124"/>
       <c r="B5" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="C5" s="126" t="n">
+      <c r="C5" s="125" t="n">
         <v>2.5E-005</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="125"/>
+      <c r="A6" s="124"/>
       <c r="B6" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="C6" s="126" t="n">
+      <c r="C6" s="125" t="n">
         <v>2E-005</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="125"/>
+      <c r="A7" s="124"/>
       <c r="B7" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="C7" s="126" t="n">
+      <c r="C7" s="125" t="n">
         <v>2E-005</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="125"/>
+      <c r="A8" s="124"/>
       <c r="B8" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="127" t="n">
+      <c r="A9" s="126" t="n">
         <v>0.54</v>
       </c>
       <c r="B9" s="0" t="n">
@@ -8910,43 +8909,43 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="127"/>
+      <c r="A10" s="126"/>
       <c r="B10" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="C10" s="126" t="n">
+      <c r="C10" s="125" t="n">
         <v>1E-005</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="127"/>
+      <c r="A11" s="126"/>
       <c r="B11" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C11" s="126" t="n">
+      <c r="C11" s="125" t="n">
         <v>1E-005</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="127"/>
+      <c r="A12" s="126"/>
       <c r="B12" s="0" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="127"/>
+      <c r="A13" s="126"/>
       <c r="B13" s="0" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="127"/>
+      <c r="A14" s="126"/>
       <c r="B14" s="0" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="127"/>
+      <c r="A15" s="126"/>
       <c r="B15" s="0" t="n">
         <v>20</v>
       </c>
@@ -8973,8 +8972,8 @@
   </sheetPr>
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N17" activeCellId="0" sqref="N17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N5" activeCellId="0" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8984,16 +8983,16 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
       <c r="K1" s="63" t="s">
         <v>99</v>
       </c>
@@ -9003,37 +9002,37 @@
       <c r="M1" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="N1" s="128" t="s">
+      <c r="N1" s="127" t="s">
         <v>102</v>
       </c>
-      <c r="O1" s="128" t="s">
+      <c r="O1" s="127" t="s">
         <v>103</v>
       </c>
-      <c r="P1" s="128" t="s">
+      <c r="P1" s="127" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
       <c r="J2" s="0" t="s">
         <v>105</v>
       </c>
       <c r="K2" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="L2" s="129" t="n">
+      <c r="L2" s="128" t="n">
         <v>13.27031</v>
       </c>
-      <c r="M2" s="129" t="n">
+      <c r="M2" s="128" t="n">
         <v>83.82099</v>
       </c>
       <c r="N2" s="129" t="n">
@@ -9047,7 +9046,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="78" t="s">
         <v>73</v>
       </c>
       <c r="B3" s="60" t="s">
@@ -9073,18 +9072,18 @@
       <c r="M3" s="130" t="n">
         <v>83.064</v>
       </c>
-      <c r="N3" s="130" t="n">
+      <c r="N3" s="131" t="n">
         <v>232.3301</v>
       </c>
-      <c r="O3" s="130" t="n">
+      <c r="O3" s="131" t="n">
         <v>453.2814</v>
       </c>
-      <c r="P3" s="130" t="n">
+      <c r="P3" s="131" t="n">
         <v>741.228</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="80" t="n">
+      <c r="A4" s="79" t="n">
         <v>0</v>
       </c>
       <c r="B4" s="0" t="n">
@@ -9093,21 +9092,36 @@
       <c r="C4" s="8" t="n">
         <v>0.1826080700682</v>
       </c>
-      <c r="D4" s="81" t="n">
+      <c r="D4" s="80" t="n">
         <f aca="false">(C4-$C$7)/$C$7*100</f>
         <v>17.4761797041205</v>
       </c>
-      <c r="E4" s="84"/>
-      <c r="F4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="82"/>
       <c r="J4" s="0" t="s">
         <v>108</v>
       </c>
       <c r="K4" s="0" t="n">
         <v>240</v>
       </c>
+      <c r="L4" s="130" t="n">
+        <v>13.27238</v>
+      </c>
+      <c r="M4" s="130" t="n">
+        <v>83.159</v>
+      </c>
+      <c r="N4" s="131" t="n">
+        <v>232.5088</v>
+      </c>
+      <c r="O4" s="131" t="n">
+        <v>453.3827</v>
+      </c>
+      <c r="P4" s="131" t="n">
+        <v>740.8614</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="80" t="n">
+      <c r="A5" s="79" t="n">
         <v>1</v>
       </c>
       <c r="B5" s="0" t="n">
@@ -9116,12 +9130,12 @@
       <c r="C5" s="8" t="n">
         <v>0.160647096794</v>
       </c>
-      <c r="D5" s="131" t="n">
+      <c r="D5" s="132" t="n">
         <f aca="false">(C5-$C$7)/$C$7*100</f>
         <v>3.34815545046195</v>
       </c>
-      <c r="E5" s="84"/>
-      <c r="F5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="82"/>
       <c r="J5" s="0" t="s">
         <v>109</v>
       </c>
@@ -9135,18 +9149,18 @@
       <c r="M5" s="130" t="n">
         <v>83.10657</v>
       </c>
-      <c r="N5" s="130" t="n">
+      <c r="N5" s="131" t="n">
         <v>232.3366</v>
       </c>
-      <c r="O5" s="130" t="n">
+      <c r="O5" s="131" t="n">
         <v>452.9736</v>
       </c>
-      <c r="P5" s="130" t="n">
+      <c r="P5" s="131" t="n">
         <v>740.0401</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="80" t="n">
+      <c r="A6" s="79" t="n">
         <v>2</v>
       </c>
       <c r="B6" s="0" t="n">
@@ -9155,12 +9169,12 @@
       <c r="C6" s="8" t="n">
         <v>0.1564461889623</v>
       </c>
-      <c r="D6" s="131" t="n">
+      <c r="D6" s="132" t="n">
         <f aca="false">(C6-$C$7)/$C$7*100</f>
         <v>0.645610030793903</v>
       </c>
-      <c r="E6" s="84"/>
-      <c r="F6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="82"/>
       <c r="J6" s="0" t="s">
         <v>109</v>
       </c>
@@ -9174,18 +9188,18 @@
       <c r="M6" s="130" t="n">
         <v>83.06379</v>
       </c>
-      <c r="N6" s="130" t="n">
+      <c r="N6" s="131" t="n">
         <v>232.21</v>
       </c>
-      <c r="O6" s="130" t="n">
+      <c r="O6" s="131" t="n">
         <v>452.7066</v>
       </c>
-      <c r="P6" s="130" t="n">
+      <c r="P6" s="131" t="n">
         <v>739.5643</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="80" t="n">
+      <c r="A7" s="79" t="n">
         <v>3</v>
       </c>
       <c r="B7" s="0" t="n">
@@ -9194,36 +9208,36 @@
       <c r="C7" s="8" t="n">
         <v>0.155442635714</v>
       </c>
-      <c r="D7" s="92" t="s">
+      <c r="D7" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="84"/>
-      <c r="F7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="82"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="80"/>
+      <c r="A8" s="79"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="78"/>
+      <c r="H8" s="77"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="93" t="s">
+      <c r="A9" s="92" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="92"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="78" t="s">
         <v>81</v>
       </c>
       <c r="B10" s="23" t="s">
@@ -9238,89 +9252,89 @@
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
-      <c r="H10" s="95"/>
+      <c r="H10" s="94"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="79" t="s">
         <v>83</v>
       </c>
       <c r="B11" s="3" t="n">
         <v>0.25</v>
       </c>
-      <c r="C11" s="101" t="n">
+      <c r="C11" s="100" t="n">
         <f aca="false">C6</f>
         <v>0.1564461889623</v>
       </c>
-      <c r="D11" s="102" t="n">
+      <c r="D11" s="101" t="n">
         <f aca="false">(C11-$C$13)/$C$13*100</f>
         <v>0.00136152137344582</v>
       </c>
-      <c r="E11" s="83"/>
+      <c r="E11" s="82"/>
       <c r="F11" s="39"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="78"/>
+      <c r="H11" s="77"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="80" t="s">
+      <c r="A12" s="79" t="s">
         <v>84</v>
       </c>
       <c r="B12" s="3" t="n">
         <v>0.6</v>
       </c>
-      <c r="C12" s="101" t="n">
+      <c r="C12" s="100" t="n">
         <v>0.156443925581</v>
       </c>
-      <c r="D12" s="102" t="n">
+      <c r="D12" s="101" t="n">
         <f aca="false">(C12-$C$13)/$C$13*100</f>
         <v>-8.52458066479818E-005</v>
       </c>
-      <c r="E12" s="83"/>
+      <c r="E12" s="82"/>
       <c r="F12" s="39"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="78"/>
+      <c r="H12" s="77"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="80" t="s">
+      <c r="A13" s="79" t="s">
         <v>85</v>
       </c>
       <c r="B13" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="101" t="n">
+      <c r="C13" s="100" t="n">
         <v>0.156444058943</v>
       </c>
-      <c r="D13" s="103" t="s">
+      <c r="D13" s="102" t="s">
         <v>79</v>
       </c>
-      <c r="E13" s="83"/>
-      <c r="F13" s="104"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="103"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="105"/>
+      <c r="H13" s="104"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="80"/>
+      <c r="A14" s="79"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="84"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="83"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="78"/>
+      <c r="H14" s="77"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="93" t="s">
+      <c r="A15" s="92" t="s">
         <v>86</v>
       </c>
-      <c r="B15" s="93"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="93"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="79" t="s">
+      <c r="A16" s="78" t="s">
         <v>81</v>
       </c>
       <c r="B16" s="23" t="s">
@@ -9335,83 +9349,83 @@
       <c r="E16" s="23"/>
       <c r="F16" s="23"/>
       <c r="G16" s="23"/>
-      <c r="H16" s="95"/>
+      <c r="H16" s="94"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="80" t="s">
+      <c r="A17" s="79" t="s">
         <v>83</v>
       </c>
       <c r="B17" s="3" t="n">
         <v>0.18</v>
       </c>
-      <c r="C17" s="107" t="n">
+      <c r="C17" s="106" t="n">
         <f aca="false">C6</f>
         <v>0.1564461889623</v>
       </c>
-      <c r="D17" s="81" t="n">
+      <c r="D17" s="80" t="n">
         <f aca="false">(C17-$C$19)/$C$19*100</f>
         <v>0.225403692122404</v>
       </c>
-      <c r="E17" s="83"/>
+      <c r="E17" s="82"/>
       <c r="F17" s="39"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="78"/>
+      <c r="H17" s="77"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="80" t="s">
+      <c r="A18" s="79" t="s">
         <v>84</v>
       </c>
       <c r="B18" s="3" t="n">
         <v>0.36</v>
       </c>
-      <c r="C18" s="107" t="n">
+      <c r="C18" s="106" t="n">
         <v>0.156111301454</v>
       </c>
-      <c r="D18" s="81" t="n">
+      <c r="D18" s="80" t="n">
         <f aca="false">(C18-$C$19)/$C$19*100</f>
         <v>0.0108619641746134</v>
       </c>
-      <c r="E18" s="83"/>
+      <c r="E18" s="82"/>
       <c r="F18" s="39"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="78"/>
+      <c r="H18" s="77"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="80" t="s">
+      <c r="A19" s="79" t="s">
         <v>85</v>
       </c>
       <c r="B19" s="3" t="n">
         <v>0.72</v>
       </c>
-      <c r="C19" s="107" t="n">
+      <c r="C19" s="106" t="n">
         <v>0.156094346542</v>
       </c>
-      <c r="D19" s="92" t="s">
+      <c r="D19" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="83"/>
-      <c r="F19" s="104"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="103"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="105"/>
+      <c r="H19" s="104"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="108"/>
-      <c r="H20" s="109"/>
+      <c r="A20" s="107"/>
+      <c r="H20" s="108"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="93" t="s">
+      <c r="A21" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="79" t="s">
+      <c r="A22" s="78" t="s">
         <v>81</v>
       </c>
       <c r="B22" s="23" t="s">
@@ -9426,81 +9440,81 @@
       <c r="E22" s="23"/>
       <c r="F22" s="23"/>
       <c r="G22" s="23"/>
-      <c r="H22" s="95"/>
+      <c r="H22" s="94"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="80" t="s">
+      <c r="A23" s="79" t="s">
         <v>83</v>
       </c>
       <c r="B23" s="3" t="n">
         <v>-0.05</v>
       </c>
-      <c r="C23" s="101" t="n">
+      <c r="C23" s="100" t="n">
         <f aca="false">C6</f>
         <v>0.1564461889623</v>
       </c>
-      <c r="D23" s="111" t="n">
+      <c r="D23" s="110" t="n">
         <f aca="false">(C23-$C$25)/$C$25*100</f>
         <v>0.322586916361586</v>
       </c>
-      <c r="E23" s="83"/>
-      <c r="F23" s="84"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="83"/>
       <c r="G23" s="3"/>
-      <c r="H23" s="78"/>
+      <c r="H23" s="77"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="80" t="s">
+      <c r="A24" s="79" t="s">
         <v>84</v>
       </c>
       <c r="B24" s="3" t="n">
         <v>-0.25</v>
       </c>
-      <c r="C24" s="101" t="n">
+      <c r="C24" s="100" t="n">
         <v>0.155954908725</v>
       </c>
-      <c r="D24" s="111" t="n">
+      <c r="D24" s="110" t="n">
         <f aca="false">(C24-$C$25)/$C$25*100</f>
         <v>0.00754885353797488</v>
       </c>
-      <c r="E24" s="83"/>
-      <c r="F24" s="84"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="83"/>
       <c r="G24" s="3"/>
-      <c r="H24" s="78"/>
+      <c r="H24" s="77"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="80" t="s">
+      <c r="A25" s="79" t="s">
         <v>85</v>
       </c>
       <c r="B25" s="3" t="n">
         <v>-1</v>
       </c>
-      <c r="C25" s="101" t="n">
+      <c r="C25" s="100" t="n">
         <v>0.155943136806</v>
       </c>
-      <c r="D25" s="111"/>
-      <c r="E25" s="83"/>
-      <c r="F25" s="84"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="83"/>
       <c r="G25" s="3"/>
-      <c r="H25" s="78"/>
+      <c r="H25" s="77"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="108"/>
-      <c r="H26" s="109"/>
+      <c r="A26" s="107"/>
+      <c r="H26" s="108"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="93" t="s">
+      <c r="A27" s="92" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="93"/>
-      <c r="C27" s="93"/>
-      <c r="D27" s="93"/>
-      <c r="E27" s="93"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="93"/>
-      <c r="H27" s="93"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="92"/>
+      <c r="H27" s="92"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="79" t="s">
+      <c r="A28" s="78" t="s">
         <v>81</v>
       </c>
       <c r="B28" s="23" t="s">
@@ -9513,98 +9527,98 @@
       <c r="E28" s="23"/>
       <c r="F28" s="23"/>
       <c r="G28" s="23"/>
-      <c r="H28" s="109"/>
+      <c r="H28" s="108"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="80" t="s">
+      <c r="A29" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="101" t="n">
+      <c r="B29" s="100" t="n">
         <f aca="false">C6</f>
         <v>0.1564461889623</v>
       </c>
-      <c r="C29" s="111" t="n">
+      <c r="C29" s="110" t="n">
         <f aca="false">(B29-$B$31)/$B$31*100</f>
         <v>1.07173678667447</v>
       </c>
-      <c r="D29" s="83"/>
-      <c r="E29" s="84"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="83"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
-      <c r="H29" s="109"/>
+      <c r="H29" s="108"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="80" t="s">
+      <c r="A30" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="B30" s="101"/>
-      <c r="C30" s="111" t="n">
+      <c r="B30" s="100"/>
+      <c r="C30" s="110" t="n">
         <f aca="false">(B30-$B$31)/$B$31*100</f>
         <v>-100</v>
       </c>
-      <c r="D30" s="83"/>
-      <c r="E30" s="112"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="111"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
-      <c r="H30" s="109"/>
+      <c r="H30" s="108"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="80" t="s">
+      <c r="A31" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="B31" s="101" t="n">
+      <c r="B31" s="100" t="n">
         <v>0.154787276776</v>
       </c>
-      <c r="C31" s="113" t="s">
+      <c r="C31" s="112" t="s">
         <v>79</v>
       </c>
       <c r="D31" s="3"/>
-      <c r="E31" s="113"/>
+      <c r="E31" s="112"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="113"/>
-      <c r="H31" s="109"/>
+      <c r="G31" s="112"/>
+      <c r="H31" s="108"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="108"/>
-      <c r="H32" s="109"/>
+      <c r="A32" s="107"/>
+      <c r="H32" s="108"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="114"/>
-      <c r="B33" s="114"/>
-      <c r="C33" s="114"/>
-      <c r="D33" s="114"/>
-      <c r="E33" s="114"/>
-      <c r="F33" s="114"/>
-      <c r="G33" s="114"/>
-      <c r="H33" s="109"/>
+      <c r="A33" s="113"/>
+      <c r="B33" s="113"/>
+      <c r="C33" s="113"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="113"/>
+      <c r="G33" s="113"/>
+      <c r="H33" s="108"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="60"/>
       <c r="B34" s="60"/>
       <c r="C34" s="60"/>
-      <c r="H34" s="109"/>
+      <c r="H34" s="108"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="108"/>
-      <c r="B35" s="115"/>
-      <c r="C35" s="116"/>
-      <c r="H35" s="109"/>
+      <c r="A35" s="107"/>
+      <c r="B35" s="114"/>
+      <c r="C35" s="115"/>
+      <c r="H35" s="108"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="108"/>
-      <c r="B36" s="115"/>
-      <c r="C36" s="116"/>
-      <c r="H36" s="109"/>
+      <c r="A36" s="107"/>
+      <c r="B36" s="114"/>
+      <c r="C36" s="115"/>
+      <c r="H36" s="108"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="117"/>
-      <c r="B37" s="118"/>
-      <c r="C37" s="119"/>
-      <c r="D37" s="119"/>
-      <c r="E37" s="119"/>
-      <c r="F37" s="119"/>
-      <c r="G37" s="119"/>
-      <c r="H37" s="120"/>
+      <c r="A37" s="116"/>
+      <c r="B37" s="117"/>
+      <c r="C37" s="118"/>
+      <c r="D37" s="118"/>
+      <c r="E37" s="118"/>
+      <c r="F37" s="118"/>
+      <c r="G37" s="118"/>
+      <c r="H37" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="7">
